--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC405"/>
+  <dimension ref="A1:AC402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6001965</v>
+        <v>6001964</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,58 +4906,58 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N50">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.3999999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4966,13 +4966,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6001964</v>
+        <v>6001965</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,58 +4995,58 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
       </c>
       <c r="K51">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N51">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>1.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5055,13 +5055,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6001409</v>
+        <v>6001970</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,58 +5529,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>49</v>
       </c>
       <c r="K57">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N57">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5589,16 +5589,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6001970</v>
+        <v>6001409</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,58 +5618,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>49</v>
       </c>
       <c r="K58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>0.363</v>
+        <v>0.8</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6002025</v>
+        <v>6002026</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45024.92013888889</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M122">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N122">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O122">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P122">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.95</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
         <v>1.8</v>
       </c>
-      <c r="S122">
+      <c r="V122">
         <v>2.05</v>
       </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.825</v>
-      </c>
-      <c r="V122">
-        <v>2.025</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>0.95</v>
+      </c>
+      <c r="AB122">
+        <v>0.4</v>
+      </c>
+      <c r="AC122">
         <v>-0.5</v>
-      </c>
-      <c r="AA122">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
-      <c r="AC122">
-        <v>1.025</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6002026</v>
+        <v>6002025</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45024.92013888889</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N123">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O123">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q123">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y123">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB123">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6001419</v>
+        <v>6002050</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,10 +13717,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -13732,43 +13732,43 @@
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="L149">
+        <v>4.333</v>
+      </c>
+      <c r="M149">
+        <v>5</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>4</v>
+      </c>
+      <c r="P149">
         <v>4.75</v>
       </c>
-      <c r="M149">
-        <v>7.5</v>
-      </c>
-      <c r="N149">
-        <v>1.333</v>
-      </c>
-      <c r="O149">
-        <v>5.25</v>
-      </c>
-      <c r="P149">
-        <v>9</v>
-      </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S149">
+        <v>1.975</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
         <v>1.85</v>
       </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>2.025</v>
-      </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6002050</v>
+        <v>6001419</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,10 +13806,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13821,43 +13821,43 @@
         <v>49</v>
       </c>
       <c r="K150">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="L150">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P150">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,13 +13866,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45107.91666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>1</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L173">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N173">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O173">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y173">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,76 +15942,76 @@
         <v>45107.91666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M174">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N174">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P174">
+        <v>7</v>
+      </c>
+      <c r="Q174">
+        <v>-1.25</v>
+      </c>
+      <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.875</v>
+      </c>
+      <c r="T174">
+        <v>3</v>
+      </c>
+      <c r="U174">
         <v>2.05</v>
       </c>
-      <c r="Q174">
-        <v>0.5</v>
-      </c>
-      <c r="R174">
-        <v>1.825</v>
-      </c>
-      <c r="S174">
-        <v>2.025</v>
-      </c>
-      <c r="T174">
-        <v>2.75</v>
-      </c>
-      <c r="U174">
-        <v>1.9</v>
-      </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC174">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,73 +22083,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I243">
         <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L243">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M243">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N243">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O243">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P243">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q243">
+        <v>-1</v>
+      </c>
+      <c r="R243">
+        <v>1.95</v>
+      </c>
+      <c r="S243">
+        <v>1.9</v>
+      </c>
+      <c r="T243">
+        <v>3</v>
+      </c>
+      <c r="U243">
+        <v>1.925</v>
+      </c>
+      <c r="V243">
+        <v>1.925</v>
+      </c>
+      <c r="W243">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
         <v>0</v>
       </c>
-      <c r="R243">
-        <v>1.85</v>
-      </c>
-      <c r="S243">
-        <v>2</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>2.1</v>
-      </c>
-      <c r="V243">
-        <v>1.775</v>
-      </c>
-      <c r="W243">
-        <v>-1</v>
-      </c>
-      <c r="X243">
-        <v>-1</v>
-      </c>
-      <c r="Y243">
-        <v>1.8</v>
-      </c>
-      <c r="Z243">
-        <v>-1</v>
-      </c>
       <c r="AA243">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB243">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC243">
         <v>-1</v>
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,73 +22172,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K244">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M244">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N244">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O244">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P244">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R244">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S244">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V244">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W244">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB244">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,61 +22350,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246">
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K246">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L246">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M246">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N246">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O246">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P246">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U246">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X246">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22413,13 +22413,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,61 +22439,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247">
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K247">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M247">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N247">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O247">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S247">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T247">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V247">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22502,13 +22502,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45204</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H265">
         <v>2</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K265">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M265">
+        <v>4.333</v>
+      </c>
+      <c r="N265">
+        <v>1.533</v>
+      </c>
+      <c r="O265">
         <v>4.2</v>
       </c>
-      <c r="N265">
-        <v>1.65</v>
-      </c>
-      <c r="O265">
-        <v>4</v>
-      </c>
       <c r="P265">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q265">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S265">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
+        <v>2</v>
+      </c>
+      <c r="V265">
         <v>1.85</v>
       </c>
-      <c r="V265">
-        <v>2</v>
-      </c>
       <c r="W265">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,76 +24130,76 @@
         <v>45204</v>
       </c>
       <c r="F266" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G266" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H266">
         <v>2</v>
       </c>
       <c r="I266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K266">
+        <v>1.75</v>
+      </c>
+      <c r="L266">
+        <v>3.6</v>
+      </c>
+      <c r="M266">
+        <v>4.2</v>
+      </c>
+      <c r="N266">
+        <v>1.65</v>
+      </c>
+      <c r="O266">
+        <v>4</v>
+      </c>
+      <c r="P266">
+        <v>4.75</v>
+      </c>
+      <c r="Q266">
+        <v>-0.75</v>
+      </c>
+      <c r="R266">
         <v>1.8</v>
       </c>
-      <c r="L266">
-        <v>3.3</v>
-      </c>
-      <c r="M266">
-        <v>4.333</v>
-      </c>
-      <c r="N266">
-        <v>1.533</v>
-      </c>
-      <c r="O266">
-        <v>4.2</v>
-      </c>
-      <c r="P266">
-        <v>6</v>
-      </c>
-      <c r="Q266">
-        <v>-1</v>
-      </c>
-      <c r="R266">
-        <v>1.925</v>
-      </c>
       <c r="S266">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T266">
         <v>3</v>
       </c>
       <c r="U266">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V266">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W266">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X266">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA266">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24385,7 +24385,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24397,76 +24397,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F269" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G269" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I269">
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K269">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L269">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M269">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N269">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O269">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P269">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q269">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S269">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T269">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U269">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V269">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X269">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA269">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC269">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,76 +24486,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G270" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H270">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I270">
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K270">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L270">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M270">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N270">
+        <v>2.9</v>
+      </c>
+      <c r="O270">
+        <v>3.5</v>
+      </c>
+      <c r="P270">
         <v>2.4</v>
       </c>
-      <c r="O270">
-        <v>3.2</v>
-      </c>
-      <c r="P270">
-        <v>3.1</v>
-      </c>
       <c r="Q270">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R270">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S270">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T270">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U270">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V270">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W270">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y270">
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB270">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G301" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H301">
+        <v>2</v>
+      </c>
+      <c r="I301">
         <v>0</v>
       </c>
-      <c r="I301">
-        <v>2</v>
-      </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K301">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L301">
         <v>3.3</v>
       </c>
       <c r="M301">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N301">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O301">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P301">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R301">
+        <v>1.8</v>
+      </c>
+      <c r="S301">
         <v>2.05</v>
       </c>
-      <c r="S301">
-        <v>1.8</v>
-      </c>
       <c r="T301">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U301">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA301">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G302" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K302">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L302">
         <v>3.3</v>
       </c>
       <c r="M302">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O302">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P302">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q302">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
+        <v>2.05</v>
+      </c>
+      <c r="S302">
         <v>1.8</v>
       </c>
-      <c r="S302">
-        <v>2.05</v>
-      </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V302">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W302">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z302">
+        <v>-1</v>
+      </c>
+      <c r="AA302">
         <v>0.8</v>
       </c>
-      <c r="AA302">
-        <v>-1</v>
-      </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC302">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6754103</v>
+        <v>6754129</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45232</v>
       </c>
       <c r="F303" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G303" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H303">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303">
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K303">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L303">
         <v>3.3</v>
       </c>
       <c r="M303">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N303">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O303">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P303">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q303">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R303">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S303">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T303">
         <v>3</v>
       </c>
       <c r="U303">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V303">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W303">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z303">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB303">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6754129</v>
+        <v>6754103</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27512,76 +27512,76 @@
         <v>45232</v>
       </c>
       <c r="F304" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G304" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I304">
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K304">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L304">
         <v>3.3</v>
       </c>
       <c r="M304">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N304">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O304">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P304">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q304">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R304">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S304">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T304">
         <v>3</v>
       </c>
       <c r="U304">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA304">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC304">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -33463,7 +33463,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33475,76 +33475,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F371" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G371" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J371" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K371">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L371">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M371">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N371">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O371">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P371">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q371">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R371">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S371">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T371">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U371">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V371">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W371">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X371">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA371">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC371">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33552,7 +33552,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33564,76 +33564,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F372" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G372" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K372">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L372">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M372">
+        <v>4.5</v>
+      </c>
+      <c r="N372">
+        <v>1.533</v>
+      </c>
+      <c r="O372">
+        <v>4.2</v>
+      </c>
+      <c r="P372">
+        <v>6</v>
+      </c>
+      <c r="Q372">
+        <v>-1</v>
+      </c>
+      <c r="R372">
+        <v>1.95</v>
+      </c>
+      <c r="S372">
+        <v>1.9</v>
+      </c>
+      <c r="T372">
         <v>2.75</v>
       </c>
-      <c r="N372">
-        <v>3.3</v>
-      </c>
-      <c r="O372">
-        <v>3.6</v>
-      </c>
-      <c r="P372">
-        <v>2.15</v>
-      </c>
-      <c r="Q372">
-        <v>0.25</v>
-      </c>
-      <c r="R372">
-        <v>1.925</v>
-      </c>
-      <c r="S372">
-        <v>1.925</v>
-      </c>
-      <c r="T372">
-        <v>2.5</v>
-      </c>
       <c r="U372">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V372">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X372">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA372">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB372">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -35777,7 +35777,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7612844</v>
+        <v>7612847</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35786,49 +35786,49 @@
         <v>28</v>
       </c>
       <c r="E397" s="2">
-        <v>45338.91666666666</v>
+        <v>45339.83333333334</v>
       </c>
       <c r="F397" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G397" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K397">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L397">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M397">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N397">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O397">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P397">
-        <v>2.625</v>
+        <v>3.8</v>
       </c>
       <c r="Q397">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R397">
+        <v>2</v>
+      </c>
+      <c r="S397">
+        <v>1.85</v>
+      </c>
+      <c r="T397">
+        <v>2.75</v>
+      </c>
+      <c r="U397">
         <v>1.975</v>
       </c>
-      <c r="S397">
+      <c r="V397">
         <v>1.875</v>
-      </c>
-      <c r="T397">
-        <v>2.25</v>
-      </c>
-      <c r="U397">
-        <v>1.925</v>
-      </c>
-      <c r="V397">
-        <v>1.925</v>
       </c>
       <c r="W397">
         <v>0</v>
@@ -35851,7 +35851,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7612845</v>
+        <v>7612848</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35860,49 +35860,49 @@
         <v>28</v>
       </c>
       <c r="E398" s="2">
-        <v>45339</v>
+        <v>45339.91666666666</v>
       </c>
       <c r="F398" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G398" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K398">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L398">
         <v>3.5</v>
       </c>
       <c r="M398">
+        <v>2.4</v>
+      </c>
+      <c r="N398">
+        <v>3.2</v>
+      </c>
+      <c r="O398">
+        <v>3.6</v>
+      </c>
+      <c r="P398">
+        <v>2.15</v>
+      </c>
+      <c r="Q398">
+        <v>0.25</v>
+      </c>
+      <c r="R398">
+        <v>1.975</v>
+      </c>
+      <c r="S398">
+        <v>1.875</v>
+      </c>
+      <c r="T398">
+        <v>2.75</v>
+      </c>
+      <c r="U398">
         <v>1.95</v>
       </c>
-      <c r="N398">
-        <v>3.6</v>
-      </c>
-      <c r="O398">
-        <v>3.5</v>
-      </c>
-      <c r="P398">
-        <v>2.05</v>
-      </c>
-      <c r="Q398">
-        <v>0.5</v>
-      </c>
-      <c r="R398">
-        <v>1.8</v>
-      </c>
-      <c r="S398">
-        <v>2.05</v>
-      </c>
-      <c r="T398">
-        <v>2.5</v>
-      </c>
-      <c r="U398">
-        <v>1.975</v>
-      </c>
       <c r="V398">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W398">
         <v>0</v>
@@ -35925,7 +35925,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>7612847</v>
+        <v>7612849</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35934,49 +35934,49 @@
         <v>28</v>
       </c>
       <c r="E399" s="2">
-        <v>45339.83333333334</v>
+        <v>45340</v>
       </c>
       <c r="F399" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G399" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K399">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="L399">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M399">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N399">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O399">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P399">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q399">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R399">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S399">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T399">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U399">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V399">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W399">
         <v>0</v>
@@ -35999,7 +35999,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>7612846</v>
+        <v>7612850</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36008,49 +36008,49 @@
         <v>28</v>
       </c>
       <c r="E400" s="2">
-        <v>45339.8375</v>
+        <v>45340.79166666666</v>
       </c>
       <c r="F400" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G400" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K400">
-        <v>2.3</v>
+        <v>2.375</v>
       </c>
       <c r="L400">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M400">
         <v>3</v>
       </c>
       <c r="N400">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="O400">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P400">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="Q400">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R400">
+        <v>1.9</v>
+      </c>
+      <c r="S400">
+        <v>1.95</v>
+      </c>
+      <c r="T400">
+        <v>2.5</v>
+      </c>
+      <c r="U400">
+        <v>2.025</v>
+      </c>
+      <c r="V400">
         <v>1.825</v>
-      </c>
-      <c r="S400">
-        <v>2.025</v>
-      </c>
-      <c r="T400">
-        <v>2.75</v>
-      </c>
-      <c r="U400">
-        <v>2</v>
-      </c>
-      <c r="V400">
-        <v>1.85</v>
       </c>
       <c r="W400">
         <v>0</v>
@@ -36073,7 +36073,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>7612848</v>
+        <v>7612851</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -36082,34 +36082,34 @@
         <v>28</v>
       </c>
       <c r="E401" s="2">
-        <v>45339.91666666666</v>
+        <v>45340.875</v>
       </c>
       <c r="F401" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G401" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K401">
-        <v>2.75</v>
+        <v>1.833</v>
       </c>
       <c r="L401">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="M401">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N401">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="O401">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P401">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="Q401">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R401">
         <v>1.925</v>
@@ -36121,10 +36121,10 @@
         <v>2.75</v>
       </c>
       <c r="U401">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V401">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W401">
         <v>0</v>
@@ -36147,7 +36147,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>7612849</v>
+        <v>7612852</v>
       </c>
       <c r="C402" t="s">
         <v>28</v>
@@ -36156,49 +36156,49 @@
         <v>28</v>
       </c>
       <c r="E402" s="2">
-        <v>45340</v>
+        <v>45340.95833333334</v>
       </c>
       <c r="F402" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G402" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K402">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L402">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M402">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N402">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="O402">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P402">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="Q402">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R402">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S402">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T402">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U402">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V402">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W402">
         <v>0</v>
@@ -36213,228 +36213,6 @@
         <v>0</v>
       </c>
       <c r="AA402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:27">
-      <c r="A403" s="1">
-        <v>401</v>
-      </c>
-      <c r="B403">
-        <v>7612850</v>
-      </c>
-      <c r="C403" t="s">
-        <v>28</v>
-      </c>
-      <c r="D403" t="s">
-        <v>28</v>
-      </c>
-      <c r="E403" s="2">
-        <v>45340.79166666666</v>
-      </c>
-      <c r="F403" t="s">
-        <v>36</v>
-      </c>
-      <c r="G403" t="s">
-        <v>43</v>
-      </c>
-      <c r="K403">
-        <v>2.375</v>
-      </c>
-      <c r="L403">
-        <v>3.25</v>
-      </c>
-      <c r="M403">
-        <v>3</v>
-      </c>
-      <c r="N403">
-        <v>2.55</v>
-      </c>
-      <c r="O403">
-        <v>3.3</v>
-      </c>
-      <c r="P403">
-        <v>2.8</v>
-      </c>
-      <c r="Q403">
-        <v>0</v>
-      </c>
-      <c r="R403">
-        <v>1.85</v>
-      </c>
-      <c r="S403">
-        <v>2</v>
-      </c>
-      <c r="T403">
-        <v>2.5</v>
-      </c>
-      <c r="U403">
-        <v>2</v>
-      </c>
-      <c r="V403">
-        <v>1.85</v>
-      </c>
-      <c r="W403">
-        <v>0</v>
-      </c>
-      <c r="X403">
-        <v>0</v>
-      </c>
-      <c r="Y403">
-        <v>0</v>
-      </c>
-      <c r="Z403">
-        <v>0</v>
-      </c>
-      <c r="AA403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:27">
-      <c r="A404" s="1">
-        <v>402</v>
-      </c>
-      <c r="B404">
-        <v>7612851</v>
-      </c>
-      <c r="C404" t="s">
-        <v>28</v>
-      </c>
-      <c r="D404" t="s">
-        <v>28</v>
-      </c>
-      <c r="E404" s="2">
-        <v>45340.875</v>
-      </c>
-      <c r="F404" t="s">
-        <v>32</v>
-      </c>
-      <c r="G404" t="s">
-        <v>33</v>
-      </c>
-      <c r="K404">
-        <v>1.833</v>
-      </c>
-      <c r="L404">
-        <v>3.7</v>
-      </c>
-      <c r="M404">
-        <v>4</v>
-      </c>
-      <c r="N404">
-        <v>1.909</v>
-      </c>
-      <c r="O404">
-        <v>3.8</v>
-      </c>
-      <c r="P404">
-        <v>3.8</v>
-      </c>
-      <c r="Q404">
-        <v>-0.5</v>
-      </c>
-      <c r="R404">
-        <v>1.9</v>
-      </c>
-      <c r="S404">
-        <v>1.95</v>
-      </c>
-      <c r="T404">
-        <v>2.75</v>
-      </c>
-      <c r="U404">
-        <v>1.825</v>
-      </c>
-      <c r="V404">
-        <v>2.025</v>
-      </c>
-      <c r="W404">
-        <v>0</v>
-      </c>
-      <c r="X404">
-        <v>0</v>
-      </c>
-      <c r="Y404">
-        <v>0</v>
-      </c>
-      <c r="Z404">
-        <v>0</v>
-      </c>
-      <c r="AA404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:27">
-      <c r="A405" s="1">
-        <v>403</v>
-      </c>
-      <c r="B405">
-        <v>7612852</v>
-      </c>
-      <c r="C405" t="s">
-        <v>28</v>
-      </c>
-      <c r="D405" t="s">
-        <v>28</v>
-      </c>
-      <c r="E405" s="2">
-        <v>45340.95833333334</v>
-      </c>
-      <c r="F405" t="s">
-        <v>31</v>
-      </c>
-      <c r="G405" t="s">
-        <v>40</v>
-      </c>
-      <c r="K405">
-        <v>1.666</v>
-      </c>
-      <c r="L405">
-        <v>3.8</v>
-      </c>
-      <c r="M405">
-        <v>5</v>
-      </c>
-      <c r="N405">
-        <v>1.727</v>
-      </c>
-      <c r="O405">
-        <v>3.8</v>
-      </c>
-      <c r="P405">
-        <v>4.333</v>
-      </c>
-      <c r="Q405">
-        <v>-0.75</v>
-      </c>
-      <c r="R405">
-        <v>1.975</v>
-      </c>
-      <c r="S405">
-        <v>1.875</v>
-      </c>
-      <c r="T405">
-        <v>3</v>
-      </c>
-      <c r="U405">
-        <v>2.05</v>
-      </c>
-      <c r="V405">
-        <v>1.8</v>
-      </c>
-      <c r="W405">
-        <v>0</v>
-      </c>
-      <c r="X405">
-        <v>0</v>
-      </c>
-      <c r="Y405">
-        <v>0</v>
-      </c>
-      <c r="Z405">
-        <v>0</v>
-      </c>
-      <c r="AA405">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC402"/>
+  <dimension ref="A1:AC400"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6001964</v>
+        <v>6001965</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,58 +4906,58 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N50">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>1.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4966,13 +4966,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6001965</v>
+        <v>6001964</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,58 +4995,58 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
       </c>
       <c r="K51">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N51">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.3999999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5055,13 +5055,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6001970</v>
+        <v>6001409</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,58 +5529,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>49</v>
       </c>
       <c r="K57">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>0.363</v>
+        <v>0.8</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5589,16 +5589,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6001409</v>
+        <v>6001970</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,58 +5618,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>49</v>
       </c>
       <c r="K58">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N58">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6002026</v>
+        <v>6002025</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45024.92013888889</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N122">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O122">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P122">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q122">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y122">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB122">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6002025</v>
+        <v>6002026</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45024.92013888889</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M123">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N123">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P123">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
+        <v>1.95</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
         <v>1.8</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>2.05</v>
       </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.825</v>
-      </c>
-      <c r="V123">
-        <v>2.025</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
+        <v>0.95</v>
+      </c>
+      <c r="AB123">
+        <v>0.4</v>
+      </c>
+      <c r="AC123">
         <v>-0.5</v>
-      </c>
-      <c r="AA123">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
-      </c>
-      <c r="AC123">
-        <v>1.025</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6002050</v>
+        <v>6001419</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,10 +13717,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -13732,43 +13732,43 @@
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="L149">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N149">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P149">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W149">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6001419</v>
+        <v>6002050</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,10 +13806,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13821,43 +13821,43 @@
         <v>49</v>
       </c>
       <c r="K150">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="L150">
+        <v>4.333</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>4</v>
+      </c>
+      <c r="P150">
         <v>4.75</v>
       </c>
-      <c r="M150">
-        <v>7.5</v>
-      </c>
-      <c r="N150">
-        <v>1.333</v>
-      </c>
-      <c r="O150">
-        <v>5.25</v>
-      </c>
-      <c r="P150">
-        <v>9</v>
-      </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
+        <v>1.975</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
         <v>1.85</v>
       </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>2.025</v>
-      </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,13 +13866,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45107.91666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H173">
         <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M173">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N173">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O173">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P173">
+        <v>7</v>
+      </c>
+      <c r="Q173">
+        <v>-1.25</v>
+      </c>
+      <c r="R173">
+        <v>1.975</v>
+      </c>
+      <c r="S173">
+        <v>1.875</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
         <v>2.05</v>
       </c>
-      <c r="Q173">
-        <v>0.5</v>
-      </c>
-      <c r="R173">
-        <v>1.825</v>
-      </c>
-      <c r="S173">
-        <v>2.025</v>
-      </c>
-      <c r="T173">
-        <v>2.75</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,76 +15942,76 @@
         <v>45107.91666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K174">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L174">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N174">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O174">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y174">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA174">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7094230</v>
+        <v>7053868</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,49 +18701,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P205">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R205">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
         <v>2</v>
@@ -18755,22 +18755,22 @@
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7053868</v>
+        <v>7094230</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,49 +18790,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K206">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L206">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N206">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q206">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
         <v>2</v>
@@ -18844,22 +18844,22 @@
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y206">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,61 +22350,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246">
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K246">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N246">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O246">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P246">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q246">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V246">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22413,13 +22413,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,61 +22439,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247">
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K247">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M247">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N247">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P247">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R247">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U247">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X247">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22502,13 +22502,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45204</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H265">
         <v>2</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K265">
+        <v>1.75</v>
+      </c>
+      <c r="L265">
+        <v>3.6</v>
+      </c>
+      <c r="M265">
+        <v>4.2</v>
+      </c>
+      <c r="N265">
+        <v>1.65</v>
+      </c>
+      <c r="O265">
+        <v>4</v>
+      </c>
+      <c r="P265">
+        <v>4.75</v>
+      </c>
+      <c r="Q265">
+        <v>-0.75</v>
+      </c>
+      <c r="R265">
         <v>1.8</v>
       </c>
-      <c r="L265">
-        <v>3.3</v>
-      </c>
-      <c r="M265">
-        <v>4.333</v>
-      </c>
-      <c r="N265">
-        <v>1.533</v>
-      </c>
-      <c r="O265">
-        <v>4.2</v>
-      </c>
-      <c r="P265">
-        <v>6</v>
-      </c>
-      <c r="Q265">
-        <v>-1</v>
-      </c>
-      <c r="R265">
-        <v>1.925</v>
-      </c>
       <c r="S265">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V265">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X265">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA265">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,76 +24130,76 @@
         <v>45204</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G266" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H266">
         <v>2</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J266" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K266">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L266">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M266">
+        <v>4.333</v>
+      </c>
+      <c r="N266">
+        <v>1.533</v>
+      </c>
+      <c r="O266">
         <v>4.2</v>
       </c>
-      <c r="N266">
-        <v>1.65</v>
-      </c>
-      <c r="O266">
-        <v>4</v>
-      </c>
       <c r="P266">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q266">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R266">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S266">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T266">
         <v>3</v>
       </c>
       <c r="U266">
+        <v>2</v>
+      </c>
+      <c r="V266">
         <v>1.85</v>
       </c>
-      <c r="V266">
-        <v>2</v>
-      </c>
       <c r="W266">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC266">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6754099</v>
+        <v>6754098</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,76 +27067,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F299" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G299" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K299">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L299">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M299">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N299">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O299">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P299">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q299">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R299">
+        <v>1.975</v>
+      </c>
+      <c r="S299">
+        <v>1.875</v>
+      </c>
+      <c r="T299">
+        <v>2.75</v>
+      </c>
+      <c r="U299">
         <v>1.825</v>
       </c>
-      <c r="S299">
+      <c r="V299">
         <v>2.025</v>
       </c>
-      <c r="T299">
-        <v>3</v>
-      </c>
-      <c r="U299">
-        <v>1.875</v>
-      </c>
-      <c r="V299">
-        <v>1.975</v>
-      </c>
       <c r="W299">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB299">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC299">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27144,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6754098</v>
+        <v>6754099</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27156,76 +27156,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F300" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G300" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K300">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L300">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M300">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N300">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O300">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P300">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q300">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R300">
+        <v>1.825</v>
+      </c>
+      <c r="S300">
+        <v>2.025</v>
+      </c>
+      <c r="T300">
+        <v>3</v>
+      </c>
+      <c r="U300">
+        <v>1.875</v>
+      </c>
+      <c r="V300">
         <v>1.975</v>
       </c>
-      <c r="S300">
-        <v>1.875</v>
-      </c>
-      <c r="T300">
-        <v>2.75</v>
-      </c>
-      <c r="U300">
-        <v>1.825</v>
-      </c>
-      <c r="V300">
-        <v>2.025</v>
-      </c>
       <c r="W300">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X300">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA300">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC300">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G301" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K301">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L301">
         <v>3.3</v>
       </c>
       <c r="M301">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N301">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O301">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P301">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q301">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
+        <v>2.05</v>
+      </c>
+      <c r="S301">
         <v>1.8</v>
       </c>
-      <c r="S301">
-        <v>2.05</v>
-      </c>
       <c r="T301">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U301">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V301">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W301">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z301">
+        <v>-1</v>
+      </c>
+      <c r="AA301">
         <v>0.8</v>
       </c>
-      <c r="AA301">
-        <v>-1</v>
-      </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC301">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G302" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H302">
+        <v>2</v>
+      </c>
+      <c r="I302">
         <v>0</v>
       </c>
-      <c r="I302">
-        <v>2</v>
-      </c>
       <c r="J302" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K302">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L302">
         <v>3.3</v>
       </c>
       <c r="M302">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N302">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O302">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P302">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R302">
+        <v>1.8</v>
+      </c>
+      <c r="S302">
         <v>2.05</v>
       </c>
-      <c r="S302">
-        <v>1.8</v>
-      </c>
       <c r="T302">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V302">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA302">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6754129</v>
+        <v>6754103</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45232</v>
       </c>
       <c r="F303" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G303" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I303">
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K303">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L303">
         <v>3.3</v>
       </c>
       <c r="M303">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N303">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O303">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P303">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q303">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R303">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S303">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T303">
         <v>3</v>
       </c>
       <c r="U303">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V303">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA303">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC303">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6754103</v>
+        <v>6754129</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27512,76 +27512,76 @@
         <v>45232</v>
       </c>
       <c r="F304" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G304" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304">
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K304">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L304">
         <v>3.3</v>
       </c>
       <c r="M304">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N304">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O304">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P304">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q304">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R304">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S304">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T304">
         <v>3</v>
       </c>
       <c r="U304">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z304">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB304">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -31238,7 +31238,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31250,76 +31250,76 @@
         <v>45305</v>
       </c>
       <c r="F346" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G346" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H346">
+        <v>2</v>
+      </c>
+      <c r="I346">
         <v>0</v>
       </c>
-      <c r="I346">
-        <v>2</v>
-      </c>
       <c r="J346" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K346">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L346">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M346">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N346">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O346">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P346">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q346">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R346">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S346">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T346">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U346">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V346">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA346">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB346">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31327,7 +31327,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31339,76 +31339,76 @@
         <v>45305</v>
       </c>
       <c r="F347" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G347" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J347" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K347">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L347">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M347">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N347">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O347">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P347">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q347">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S347">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T347">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W347">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z347">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC347">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -32840,7 +32840,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7612811</v>
+        <v>7612810</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32852,58 +32852,58 @@
         <v>45318.83333333334</v>
       </c>
       <c r="F364" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G364" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J364" t="s">
         <v>49</v>
       </c>
       <c r="K364">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L364">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M364">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N364">
+        <v>1.5</v>
+      </c>
+      <c r="O364">
+        <v>4.2</v>
+      </c>
+      <c r="P364">
+        <v>5.5</v>
+      </c>
+      <c r="Q364">
+        <v>-1</v>
+      </c>
+      <c r="R364">
+        <v>1.85</v>
+      </c>
+      <c r="S364">
+        <v>2</v>
+      </c>
+      <c r="T364">
+        <v>2.75</v>
+      </c>
+      <c r="U364">
         <v>1.8</v>
       </c>
-      <c r="O364">
-        <v>4</v>
-      </c>
-      <c r="P364">
-        <v>4.2</v>
-      </c>
-      <c r="Q364">
-        <v>-0.75</v>
-      </c>
-      <c r="R364">
-        <v>2</v>
-      </c>
-      <c r="S364">
-        <v>1.85</v>
-      </c>
-      <c r="T364">
-        <v>3</v>
-      </c>
-      <c r="U364">
-        <v>1.975</v>
-      </c>
       <c r="V364">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W364">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32912,16 +32912,16 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA364">
+        <v>-0</v>
+      </c>
+      <c r="AB364">
+        <v>0.4</v>
+      </c>
+      <c r="AC364">
         <v>-0.5</v>
-      </c>
-      <c r="AB364">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC364">
-        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32929,7 +32929,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7612810</v>
+        <v>7612811</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32941,76 +32941,76 @@
         <v>45318.83333333334</v>
       </c>
       <c r="F365" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G365" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J365" t="s">
         <v>49</v>
       </c>
       <c r="K365">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L365">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M365">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N365">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O365">
+        <v>4</v>
+      </c>
+      <c r="P365">
         <v>4.2</v>
       </c>
-      <c r="P365">
-        <v>5.5</v>
-      </c>
       <c r="Q365">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R365">
+        <v>2</v>
+      </c>
+      <c r="S365">
         <v>1.85</v>
       </c>
-      <c r="S365">
-        <v>2</v>
-      </c>
       <c r="T365">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U365">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V365">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W365">
+        <v>0.8</v>
+      </c>
+      <c r="X365">
+        <v>-1</v>
+      </c>
+      <c r="Y365">
+        <v>-1</v>
+      </c>
+      <c r="Z365">
         <v>0.5</v>
       </c>
-      <c r="X365">
-        <v>-1</v>
-      </c>
-      <c r="Y365">
-        <v>-1</v>
-      </c>
-      <c r="Z365">
-        <v>0</v>
-      </c>
       <c r="AA365">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB365">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC365">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -35421,7 +35421,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,73 +35433,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F393" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G393" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I393">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J393" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K393">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L393">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M393">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N393">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O393">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P393">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q393">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R393">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S393">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T393">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U393">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V393">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W393">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X393">
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA393">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB393">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC393">
         <v>-1</v>
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F394" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G394" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H394">
+        <v>0</v>
+      </c>
+      <c r="I394">
         <v>3</v>
       </c>
-      <c r="I394">
-        <v>2</v>
-      </c>
       <c r="J394" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K394">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L394">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M394">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N394">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O394">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P394">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q394">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R394">
+        <v>2.05</v>
+      </c>
+      <c r="S394">
+        <v>1.8</v>
+      </c>
+      <c r="T394">
+        <v>2.5</v>
+      </c>
+      <c r="U394">
+        <v>1.9</v>
+      </c>
+      <c r="V394">
         <v>1.95</v>
       </c>
-      <c r="S394">
-        <v>1.9</v>
-      </c>
-      <c r="T394">
-        <v>2.75</v>
-      </c>
-      <c r="U394">
-        <v>1.825</v>
-      </c>
-      <c r="V394">
-        <v>2.025</v>
-      </c>
       <c r="W394">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z394">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB394">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -35777,7 +35777,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7612847</v>
+        <v>7612849</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35786,49 +35786,49 @@
         <v>28</v>
       </c>
       <c r="E397" s="2">
-        <v>45339.83333333334</v>
+        <v>45340</v>
       </c>
       <c r="F397" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G397" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K397">
+        <v>2.25</v>
+      </c>
+      <c r="L397">
+        <v>3.25</v>
+      </c>
+      <c r="M397">
+        <v>3.2</v>
+      </c>
+      <c r="N397">
+        <v>2.15</v>
+      </c>
+      <c r="O397">
+        <v>3.4</v>
+      </c>
+      <c r="P397">
+        <v>3.4</v>
+      </c>
+      <c r="Q397">
+        <v>-0.25</v>
+      </c>
+      <c r="R397">
+        <v>1.9</v>
+      </c>
+      <c r="S397">
         <v>1.95</v>
       </c>
-      <c r="L397">
-        <v>3.5</v>
-      </c>
-      <c r="M397">
-        <v>3.75</v>
-      </c>
-      <c r="N397">
-        <v>1.95</v>
-      </c>
-      <c r="O397">
-        <v>3.6</v>
-      </c>
-      <c r="P397">
-        <v>3.8</v>
-      </c>
-      <c r="Q397">
-        <v>-0.5</v>
-      </c>
-      <c r="R397">
-        <v>2</v>
-      </c>
-      <c r="S397">
-        <v>1.85</v>
-      </c>
       <c r="T397">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U397">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V397">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W397">
         <v>0</v>
@@ -35851,7 +35851,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7612848</v>
+        <v>7612850</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35860,49 +35860,49 @@
         <v>28</v>
       </c>
       <c r="E398" s="2">
-        <v>45339.91666666666</v>
+        <v>45340.79166666666</v>
       </c>
       <c r="F398" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G398" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K398">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L398">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M398">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N398">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="O398">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P398">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="Q398">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R398">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S398">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T398">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U398">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V398">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W398">
         <v>0</v>
@@ -35925,7 +35925,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>7612849</v>
+        <v>7612851</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35934,34 +35934,34 @@
         <v>28</v>
       </c>
       <c r="E399" s="2">
-        <v>45340</v>
+        <v>45340.87847222222</v>
       </c>
       <c r="F399" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G399" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K399">
-        <v>2.25</v>
+        <v>1.833</v>
       </c>
       <c r="L399">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="M399">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N399">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O399">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P399">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q399">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R399">
         <v>1.925</v>
@@ -35970,13 +35970,13 @@
         <v>1.925</v>
       </c>
       <c r="T399">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U399">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V399">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W399">
         <v>0</v>
@@ -35999,7 +35999,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>7612850</v>
+        <v>7612852</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36008,49 +36008,49 @@
         <v>28</v>
       </c>
       <c r="E400" s="2">
-        <v>45340.79166666666</v>
+        <v>45340.96527777778</v>
       </c>
       <c r="F400" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G400" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K400">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L400">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M400">
+        <v>5</v>
+      </c>
+      <c r="N400">
+        <v>1.727</v>
+      </c>
+      <c r="O400">
+        <v>3.8</v>
+      </c>
+      <c r="P400">
+        <v>4.333</v>
+      </c>
+      <c r="Q400">
+        <v>-0.75</v>
+      </c>
+      <c r="R400">
+        <v>1.975</v>
+      </c>
+      <c r="S400">
+        <v>1.875</v>
+      </c>
+      <c r="T400">
         <v>3</v>
       </c>
-      <c r="N400">
-        <v>2.625</v>
-      </c>
-      <c r="O400">
-        <v>3.3</v>
-      </c>
-      <c r="P400">
-        <v>2.7</v>
-      </c>
-      <c r="Q400">
-        <v>0</v>
-      </c>
-      <c r="R400">
-        <v>1.9</v>
-      </c>
-      <c r="S400">
-        <v>1.95</v>
-      </c>
-      <c r="T400">
-        <v>2.5</v>
-      </c>
       <c r="U400">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V400">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W400">
         <v>0</v>
@@ -36065,154 +36065,6 @@
         <v>0</v>
       </c>
       <c r="AA400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:27">
-      <c r="A401" s="1">
-        <v>399</v>
-      </c>
-      <c r="B401">
-        <v>7612851</v>
-      </c>
-      <c r="C401" t="s">
-        <v>28</v>
-      </c>
-      <c r="D401" t="s">
-        <v>28</v>
-      </c>
-      <c r="E401" s="2">
-        <v>45340.875</v>
-      </c>
-      <c r="F401" t="s">
-        <v>32</v>
-      </c>
-      <c r="G401" t="s">
-        <v>33</v>
-      </c>
-      <c r="K401">
-        <v>1.833</v>
-      </c>
-      <c r="L401">
-        <v>3.7</v>
-      </c>
-      <c r="M401">
-        <v>4</v>
-      </c>
-      <c r="N401">
-        <v>1.909</v>
-      </c>
-      <c r="O401">
-        <v>3.8</v>
-      </c>
-      <c r="P401">
-        <v>3.8</v>
-      </c>
-      <c r="Q401">
-        <v>-0.5</v>
-      </c>
-      <c r="R401">
-        <v>1.925</v>
-      </c>
-      <c r="S401">
-        <v>1.925</v>
-      </c>
-      <c r="T401">
-        <v>2.75</v>
-      </c>
-      <c r="U401">
-        <v>1.85</v>
-      </c>
-      <c r="V401">
-        <v>2</v>
-      </c>
-      <c r="W401">
-        <v>0</v>
-      </c>
-      <c r="X401">
-        <v>0</v>
-      </c>
-      <c r="Y401">
-        <v>0</v>
-      </c>
-      <c r="Z401">
-        <v>0</v>
-      </c>
-      <c r="AA401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:27">
-      <c r="A402" s="1">
-        <v>400</v>
-      </c>
-      <c r="B402">
-        <v>7612852</v>
-      </c>
-      <c r="C402" t="s">
-        <v>28</v>
-      </c>
-      <c r="D402" t="s">
-        <v>28</v>
-      </c>
-      <c r="E402" s="2">
-        <v>45340.95833333334</v>
-      </c>
-      <c r="F402" t="s">
-        <v>31</v>
-      </c>
-      <c r="G402" t="s">
-        <v>40</v>
-      </c>
-      <c r="K402">
-        <v>1.666</v>
-      </c>
-      <c r="L402">
-        <v>3.8</v>
-      </c>
-      <c r="M402">
-        <v>5</v>
-      </c>
-      <c r="N402">
-        <v>1.727</v>
-      </c>
-      <c r="O402">
-        <v>3.8</v>
-      </c>
-      <c r="P402">
-        <v>4.333</v>
-      </c>
-      <c r="Q402">
-        <v>-0.75</v>
-      </c>
-      <c r="R402">
-        <v>1.975</v>
-      </c>
-      <c r="S402">
-        <v>1.875</v>
-      </c>
-      <c r="T402">
-        <v>3</v>
-      </c>
-      <c r="U402">
-        <v>2.025</v>
-      </c>
-      <c r="V402">
-        <v>1.825</v>
-      </c>
-      <c r="W402">
-        <v>0</v>
-      </c>
-      <c r="X402">
-        <v>0</v>
-      </c>
-      <c r="Y402">
-        <v>0</v>
-      </c>
-      <c r="Z402">
-        <v>0</v>
-      </c>
-      <c r="AA402">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC400"/>
+  <dimension ref="A1:AC408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6001406</v>
+        <v>6001946</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,73 +3215,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="O31">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="P31">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6001946</v>
+        <v>6001406</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,73 +3304,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>2.5</v>
+      </c>
+      <c r="L32">
+        <v>3.3</v>
+      </c>
+      <c r="M32">
+        <v>2.75</v>
+      </c>
+      <c r="N32">
+        <v>2.875</v>
+      </c>
+      <c r="O32">
+        <v>2.875</v>
+      </c>
+      <c r="P32">
+        <v>2.75</v>
+      </c>
+      <c r="Q32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32">
-        <v>1.3</v>
-      </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-      <c r="M32">
-        <v>10</v>
-      </c>
-      <c r="N32">
-        <v>1.222</v>
-      </c>
-      <c r="O32">
-        <v>6</v>
-      </c>
-      <c r="P32">
-        <v>12</v>
-      </c>
-      <c r="Q32">
-        <v>-1.75</v>
-      </c>
       <c r="R32">
+        <v>2.025</v>
+      </c>
+      <c r="S32">
+        <v>1.825</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
-      <c r="T32">
-        <v>3.25</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6001965</v>
+        <v>6001964</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,58 +4906,58 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N50">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.3999999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4966,13 +4966,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6001964</v>
+        <v>6001965</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,58 +4995,58 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
       </c>
       <c r="K51">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N51">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>1.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5055,13 +5055,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6001409</v>
+        <v>6001970</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,58 +5529,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>49</v>
       </c>
       <c r="K57">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N57">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5589,16 +5589,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6001970</v>
+        <v>6001409</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,58 +5618,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>49</v>
       </c>
       <c r="K58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>0.363</v>
+        <v>0.8</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,10 +18879,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18894,43 +18894,43 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L207">
+        <v>3.3</v>
+      </c>
+      <c r="M207">
+        <v>2.9</v>
+      </c>
+      <c r="N207">
+        <v>1.85</v>
+      </c>
+      <c r="O207">
+        <v>3.75</v>
+      </c>
+      <c r="P207">
+        <v>4</v>
+      </c>
+      <c r="Q207">
+        <v>-0.5</v>
+      </c>
+      <c r="R207">
+        <v>1.875</v>
+      </c>
+      <c r="S207">
+        <v>1.975</v>
+      </c>
+      <c r="T207">
         <v>3</v>
       </c>
-      <c r="M207">
-        <v>1.5</v>
-      </c>
-      <c r="N207">
-        <v>1.615</v>
-      </c>
-      <c r="O207">
-        <v>4.2</v>
-      </c>
-      <c r="P207">
-        <v>5</v>
-      </c>
-      <c r="Q207">
-        <v>-0.75</v>
-      </c>
-      <c r="R207">
-        <v>1.8</v>
-      </c>
-      <c r="S207">
-        <v>2.05</v>
-      </c>
-      <c r="T207">
-        <v>2.75</v>
-      </c>
       <c r="U207">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V207">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W207">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,10 +18968,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -18983,61 +18983,61 @@
         <v>49</v>
       </c>
       <c r="K208">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L208">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N208">
+        <v>1.615</v>
+      </c>
+      <c r="O208">
+        <v>4.2</v>
+      </c>
+      <c r="P208">
+        <v>5</v>
+      </c>
+      <c r="Q208">
+        <v>-0.75</v>
+      </c>
+      <c r="R208">
+        <v>1.8</v>
+      </c>
+      <c r="S208">
+        <v>2.05</v>
+      </c>
+      <c r="T208">
+        <v>2.75</v>
+      </c>
+      <c r="U208">
+        <v>2</v>
+      </c>
+      <c r="V208">
         <v>1.85</v>
       </c>
-      <c r="O208">
-        <v>3.75</v>
-      </c>
-      <c r="P208">
-        <v>4</v>
-      </c>
-      <c r="Q208">
+      <c r="W208">
+        <v>0.615</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.4</v>
+      </c>
+      <c r="AA208">
         <v>-0.5</v>
       </c>
-      <c r="R208">
-        <v>1.875</v>
-      </c>
-      <c r="S208">
-        <v>1.975</v>
-      </c>
-      <c r="T208">
-        <v>3</v>
-      </c>
-      <c r="U208">
-        <v>1.825</v>
-      </c>
-      <c r="V208">
-        <v>2.025</v>
-      </c>
-      <c r="W208">
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
-      <c r="Z208">
-        <v>0.875</v>
-      </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
-      <c r="AB208">
-        <v>-1</v>
-      </c>
-      <c r="AC208">
-        <v>1.025</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45204</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H265">
         <v>2</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K265">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M265">
+        <v>4.333</v>
+      </c>
+      <c r="N265">
+        <v>1.533</v>
+      </c>
+      <c r="O265">
         <v>4.2</v>
       </c>
-      <c r="N265">
-        <v>1.65</v>
-      </c>
-      <c r="O265">
-        <v>4</v>
-      </c>
       <c r="P265">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q265">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S265">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
+        <v>2</v>
+      </c>
+      <c r="V265">
         <v>1.85</v>
       </c>
-      <c r="V265">
-        <v>2</v>
-      </c>
       <c r="W265">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,76 +24130,76 @@
         <v>45204</v>
       </c>
       <c r="F266" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G266" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H266">
         <v>2</v>
       </c>
       <c r="I266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K266">
+        <v>1.75</v>
+      </c>
+      <c r="L266">
+        <v>3.6</v>
+      </c>
+      <c r="M266">
+        <v>4.2</v>
+      </c>
+      <c r="N266">
+        <v>1.65</v>
+      </c>
+      <c r="O266">
+        <v>4</v>
+      </c>
+      <c r="P266">
+        <v>4.75</v>
+      </c>
+      <c r="Q266">
+        <v>-0.75</v>
+      </c>
+      <c r="R266">
         <v>1.8</v>
       </c>
-      <c r="L266">
-        <v>3.3</v>
-      </c>
-      <c r="M266">
-        <v>4.333</v>
-      </c>
-      <c r="N266">
-        <v>1.533</v>
-      </c>
-      <c r="O266">
-        <v>4.2</v>
-      </c>
-      <c r="P266">
-        <v>6</v>
-      </c>
-      <c r="Q266">
-        <v>-1</v>
-      </c>
-      <c r="R266">
-        <v>1.925</v>
-      </c>
       <c r="S266">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T266">
         <v>3</v>
       </c>
       <c r="U266">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V266">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W266">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X266">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA266">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6754098</v>
+        <v>6754099</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,76 +27067,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F299" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G299" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K299">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L299">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M299">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N299">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O299">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P299">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q299">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R299">
+        <v>1.825</v>
+      </c>
+      <c r="S299">
+        <v>2.025</v>
+      </c>
+      <c r="T299">
+        <v>3</v>
+      </c>
+      <c r="U299">
+        <v>1.875</v>
+      </c>
+      <c r="V299">
         <v>1.975</v>
       </c>
-      <c r="S299">
-        <v>1.875</v>
-      </c>
-      <c r="T299">
-        <v>2.75</v>
-      </c>
-      <c r="U299">
-        <v>1.825</v>
-      </c>
-      <c r="V299">
-        <v>2.025</v>
-      </c>
       <c r="W299">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X299">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA299">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC299">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27144,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6754099</v>
+        <v>6754098</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27156,76 +27156,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F300" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G300" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K300">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L300">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M300">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N300">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O300">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P300">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q300">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R300">
+        <v>1.975</v>
+      </c>
+      <c r="S300">
+        <v>1.875</v>
+      </c>
+      <c r="T300">
+        <v>2.75</v>
+      </c>
+      <c r="U300">
         <v>1.825</v>
       </c>
-      <c r="S300">
+      <c r="V300">
         <v>2.025</v>
       </c>
-      <c r="T300">
-        <v>3</v>
-      </c>
-      <c r="U300">
-        <v>1.875</v>
-      </c>
-      <c r="V300">
-        <v>1.975</v>
-      </c>
       <c r="W300">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB300">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC300">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G301" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H301">
+        <v>2</v>
+      </c>
+      <c r="I301">
         <v>0</v>
       </c>
-      <c r="I301">
-        <v>2</v>
-      </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K301">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L301">
         <v>3.3</v>
       </c>
       <c r="M301">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N301">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O301">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P301">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R301">
+        <v>1.8</v>
+      </c>
+      <c r="S301">
         <v>2.05</v>
       </c>
-      <c r="S301">
-        <v>1.8</v>
-      </c>
       <c r="T301">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U301">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA301">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G302" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K302">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L302">
         <v>3.3</v>
       </c>
       <c r="M302">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O302">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P302">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q302">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
+        <v>2.05</v>
+      </c>
+      <c r="S302">
         <v>1.8</v>
       </c>
-      <c r="S302">
-        <v>2.05</v>
-      </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V302">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W302">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z302">
+        <v>-1</v>
+      </c>
+      <c r="AA302">
         <v>0.8</v>
       </c>
-      <c r="AA302">
-        <v>-1</v>
-      </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC302">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6754103</v>
+        <v>6754129</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45232</v>
       </c>
       <c r="F303" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G303" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H303">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I303">
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K303">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L303">
         <v>3.3</v>
       </c>
       <c r="M303">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N303">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O303">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P303">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q303">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R303">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S303">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T303">
         <v>3</v>
       </c>
       <c r="U303">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V303">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W303">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z303">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA303">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB303">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC303">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6754129</v>
+        <v>6754103</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27512,76 +27512,76 @@
         <v>45232</v>
       </c>
       <c r="F304" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G304" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I304">
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K304">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L304">
         <v>3.3</v>
       </c>
       <c r="M304">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N304">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O304">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P304">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q304">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R304">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S304">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T304">
         <v>3</v>
       </c>
       <c r="U304">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V304">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W304">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z304">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA304">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB304">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC304">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -32840,7 +32840,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7612810</v>
+        <v>7612811</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32852,76 +32852,76 @@
         <v>45318.83333333334</v>
       </c>
       <c r="F364" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G364" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J364" t="s">
         <v>49</v>
       </c>
       <c r="K364">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L364">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M364">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N364">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O364">
+        <v>4</v>
+      </c>
+      <c r="P364">
         <v>4.2</v>
       </c>
-      <c r="P364">
-        <v>5.5</v>
-      </c>
       <c r="Q364">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R364">
+        <v>2</v>
+      </c>
+      <c r="S364">
         <v>1.85</v>
       </c>
-      <c r="S364">
-        <v>2</v>
-      </c>
       <c r="T364">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U364">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V364">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W364">
+        <v>0.8</v>
+      </c>
+      <c r="X364">
+        <v>-1</v>
+      </c>
+      <c r="Y364">
+        <v>-1</v>
+      </c>
+      <c r="Z364">
         <v>0.5</v>
       </c>
-      <c r="X364">
-        <v>-1</v>
-      </c>
-      <c r="Y364">
-        <v>-1</v>
-      </c>
-      <c r="Z364">
-        <v>0</v>
-      </c>
       <c r="AA364">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB364">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC364">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32929,7 +32929,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7612811</v>
+        <v>7612810</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32941,58 +32941,58 @@
         <v>45318.83333333334</v>
       </c>
       <c r="F365" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G365" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H365">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J365" t="s">
         <v>49</v>
       </c>
       <c r="K365">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L365">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M365">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N365">
+        <v>1.5</v>
+      </c>
+      <c r="O365">
+        <v>4.2</v>
+      </c>
+      <c r="P365">
+        <v>5.5</v>
+      </c>
+      <c r="Q365">
+        <v>-1</v>
+      </c>
+      <c r="R365">
+        <v>1.85</v>
+      </c>
+      <c r="S365">
+        <v>2</v>
+      </c>
+      <c r="T365">
+        <v>2.75</v>
+      </c>
+      <c r="U365">
         <v>1.8</v>
       </c>
-      <c r="O365">
-        <v>4</v>
-      </c>
-      <c r="P365">
-        <v>4.2</v>
-      </c>
-      <c r="Q365">
-        <v>-0.75</v>
-      </c>
-      <c r="R365">
-        <v>2</v>
-      </c>
-      <c r="S365">
-        <v>1.85</v>
-      </c>
-      <c r="T365">
-        <v>3</v>
-      </c>
-      <c r="U365">
-        <v>1.975</v>
-      </c>
       <c r="V365">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W365">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X365">
         <v>-1</v>
@@ -33001,16 +33001,16 @@
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA365">
+        <v>-0</v>
+      </c>
+      <c r="AB365">
+        <v>0.4</v>
+      </c>
+      <c r="AC365">
         <v>-0.5</v>
-      </c>
-      <c r="AB365">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC365">
-        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -35421,7 +35421,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,73 +35433,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F393" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G393" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H393">
+        <v>0</v>
+      </c>
+      <c r="I393">
         <v>3</v>
       </c>
-      <c r="I393">
-        <v>2</v>
-      </c>
       <c r="J393" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K393">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L393">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M393">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N393">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O393">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P393">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q393">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R393">
+        <v>2.05</v>
+      </c>
+      <c r="S393">
+        <v>1.8</v>
+      </c>
+      <c r="T393">
+        <v>2.5</v>
+      </c>
+      <c r="U393">
+        <v>1.9</v>
+      </c>
+      <c r="V393">
         <v>1.95</v>
       </c>
-      <c r="S393">
-        <v>1.9</v>
-      </c>
-      <c r="T393">
-        <v>2.75</v>
-      </c>
-      <c r="U393">
-        <v>1.825</v>
-      </c>
-      <c r="V393">
-        <v>2.025</v>
-      </c>
       <c r="W393">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X393">
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z393">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA393">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB393">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC393">
         <v>-1</v>
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F394" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G394" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I394">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J394" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K394">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L394">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M394">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N394">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O394">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P394">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q394">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R394">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S394">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T394">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U394">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V394">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA394">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB394">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -35777,7 +35777,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>7612849</v>
+        <v>7612844</v>
       </c>
       <c r="C397" t="s">
         <v>28</v>
@@ -35786,64 +35786,79 @@
         <v>28</v>
       </c>
       <c r="E397" s="2">
-        <v>45340</v>
+        <v>45338.91666666666</v>
       </c>
       <c r="F397" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G397" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="H397">
+        <v>1</v>
+      </c>
+      <c r="I397">
+        <v>1</v>
+      </c>
+      <c r="J397" t="s">
+        <v>48</v>
       </c>
       <c r="K397">
+        <v>2.3</v>
+      </c>
+      <c r="L397">
+        <v>3.4</v>
+      </c>
+      <c r="M397">
+        <v>3</v>
+      </c>
+      <c r="N397">
+        <v>2.7</v>
+      </c>
+      <c r="O397">
+        <v>3.25</v>
+      </c>
+      <c r="P397">
+        <v>2.7</v>
+      </c>
+      <c r="Q397">
+        <v>0</v>
+      </c>
+      <c r="R397">
+        <v>2</v>
+      </c>
+      <c r="S397">
+        <v>1.85</v>
+      </c>
+      <c r="T397">
         <v>2.25</v>
       </c>
-      <c r="L397">
-        <v>3.25</v>
-      </c>
-      <c r="M397">
-        <v>3.2</v>
-      </c>
-      <c r="N397">
-        <v>2.15</v>
-      </c>
-      <c r="O397">
-        <v>3.4</v>
-      </c>
-      <c r="P397">
-        <v>3.4</v>
-      </c>
-      <c r="Q397">
-        <v>-0.25</v>
-      </c>
-      <c r="R397">
-        <v>1.9</v>
-      </c>
-      <c r="S397">
-        <v>1.95</v>
-      </c>
-      <c r="T397">
-        <v>2.5</v>
-      </c>
       <c r="U397">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V397">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W397">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X397">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y397">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z397">
         <v>0</v>
       </c>
       <c r="AA397">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB397">
+        <v>-0.5</v>
+      </c>
+      <c r="AC397">
+        <v>0.4125</v>
       </c>
     </row>
     <row r="398" spans="1:29">
@@ -35851,7 +35866,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>7612850</v>
+        <v>7612845</v>
       </c>
       <c r="C398" t="s">
         <v>28</v>
@@ -35860,64 +35875,79 @@
         <v>28</v>
       </c>
       <c r="E398" s="2">
-        <v>45340.79166666666</v>
+        <v>45339</v>
       </c>
       <c r="F398" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G398" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="H398">
+        <v>2</v>
+      </c>
+      <c r="I398">
+        <v>2</v>
+      </c>
+      <c r="J398" t="s">
+        <v>48</v>
       </c>
       <c r="K398">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L398">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M398">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="N398">
-        <v>2.625</v>
+        <v>3.75</v>
       </c>
       <c r="O398">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P398">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="Q398">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R398">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S398">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T398">
         <v>2.5</v>
       </c>
       <c r="U398">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V398">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W398">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X398">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y398">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z398">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA398">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB398">
+        <v>0.875</v>
+      </c>
+      <c r="AC398">
+        <v>-1</v>
       </c>
     </row>
     <row r="399" spans="1:29">
@@ -35925,7 +35955,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>7612851</v>
+        <v>7612847</v>
       </c>
       <c r="C399" t="s">
         <v>28</v>
@@ -35934,64 +35964,79 @@
         <v>28</v>
       </c>
       <c r="E399" s="2">
-        <v>45340.87847222222</v>
+        <v>45339.83333333334</v>
       </c>
       <c r="F399" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G399" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="H399">
+        <v>3</v>
+      </c>
+      <c r="I399">
+        <v>3</v>
+      </c>
+      <c r="J399" t="s">
+        <v>48</v>
       </c>
       <c r="K399">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="L399">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M399">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N399">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O399">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P399">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="Q399">
         <v>-0.5</v>
       </c>
       <c r="R399">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S399">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T399">
         <v>2.75</v>
       </c>
       <c r="U399">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V399">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W399">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X399">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y399">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z399">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA399">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB399">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC399">
+        <v>-1</v>
       </c>
     </row>
     <row r="400" spans="1:29">
@@ -35999,7 +36044,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>7612852</v>
+        <v>7612848</v>
       </c>
       <c r="C400" t="s">
         <v>28</v>
@@ -36008,63 +36053,700 @@
         <v>28</v>
       </c>
       <c r="E400" s="2">
-        <v>45340.96527777778</v>
+        <v>45339.91666666666</v>
       </c>
       <c r="F400" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G400" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="H400">
+        <v>2</v>
+      </c>
+      <c r="I400">
+        <v>1</v>
+      </c>
+      <c r="J400" t="s">
+        <v>49</v>
       </c>
       <c r="K400">
-        <v>1.666</v>
+        <v>2.75</v>
       </c>
       <c r="L400">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M400">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N400">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="O400">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P400">
-        <v>4.333</v>
+        <v>1.85</v>
       </c>
       <c r="Q400">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R400">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S400">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T400">
         <v>3</v>
       </c>
       <c r="U400">
+        <v>2.025</v>
+      </c>
+      <c r="V400">
+        <v>1.825</v>
+      </c>
+      <c r="W400">
+        <v>2.75</v>
+      </c>
+      <c r="X400">
+        <v>-1</v>
+      </c>
+      <c r="Y400">
+        <v>-1</v>
+      </c>
+      <c r="Z400">
+        <v>0.95</v>
+      </c>
+      <c r="AA400">
+        <v>-1</v>
+      </c>
+      <c r="AB400">
+        <v>0</v>
+      </c>
+      <c r="AC400">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:29">
+      <c r="A401" s="1">
+        <v>399</v>
+      </c>
+      <c r="B401">
+        <v>7612849</v>
+      </c>
+      <c r="C401" t="s">
+        <v>28</v>
+      </c>
+      <c r="D401" t="s">
+        <v>28</v>
+      </c>
+      <c r="E401" s="2">
+        <v>45340.00347222222</v>
+      </c>
+      <c r="F401" t="s">
+        <v>39</v>
+      </c>
+      <c r="G401" t="s">
+        <v>42</v>
+      </c>
+      <c r="H401">
+        <v>1</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401" t="s">
+        <v>49</v>
+      </c>
+      <c r="K401">
+        <v>2.25</v>
+      </c>
+      <c r="L401">
+        <v>3.25</v>
+      </c>
+      <c r="M401">
+        <v>3.2</v>
+      </c>
+      <c r="N401">
+        <v>2.375</v>
+      </c>
+      <c r="O401">
+        <v>3.3</v>
+      </c>
+      <c r="P401">
+        <v>3</v>
+      </c>
+      <c r="Q401">
+        <v>-0.25</v>
+      </c>
+      <c r="R401">
+        <v>2.025</v>
+      </c>
+      <c r="S401">
+        <v>1.825</v>
+      </c>
+      <c r="T401">
+        <v>2.25</v>
+      </c>
+      <c r="U401">
+        <v>1.9</v>
+      </c>
+      <c r="V401">
+        <v>1.95</v>
+      </c>
+      <c r="W401">
+        <v>1.375</v>
+      </c>
+      <c r="X401">
+        <v>-1</v>
+      </c>
+      <c r="Y401">
+        <v>-1</v>
+      </c>
+      <c r="Z401">
+        <v>1.025</v>
+      </c>
+      <c r="AA401">
+        <v>-1</v>
+      </c>
+      <c r="AB401">
+        <v>-1</v>
+      </c>
+      <c r="AC401">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="402" spans="1:29">
+      <c r="A402" s="1">
+        <v>400</v>
+      </c>
+      <c r="B402">
+        <v>7612850</v>
+      </c>
+      <c r="C402" t="s">
+        <v>28</v>
+      </c>
+      <c r="D402" t="s">
+        <v>28</v>
+      </c>
+      <c r="E402" s="2">
+        <v>45340.79166666666</v>
+      </c>
+      <c r="F402" t="s">
+        <v>36</v>
+      </c>
+      <c r="G402" t="s">
+        <v>43</v>
+      </c>
+      <c r="H402">
+        <v>0</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402" t="s">
+        <v>47</v>
+      </c>
+      <c r="K402">
+        <v>2.375</v>
+      </c>
+      <c r="L402">
+        <v>3.25</v>
+      </c>
+      <c r="M402">
+        <v>3</v>
+      </c>
+      <c r="N402">
+        <v>2.7</v>
+      </c>
+      <c r="O402">
+        <v>3.25</v>
+      </c>
+      <c r="P402">
+        <v>2.7</v>
+      </c>
+      <c r="Q402">
+        <v>0</v>
+      </c>
+      <c r="R402">
+        <v>1.925</v>
+      </c>
+      <c r="S402">
+        <v>1.925</v>
+      </c>
+      <c r="T402">
+        <v>2.5</v>
+      </c>
+      <c r="U402">
         <v>2.05</v>
       </c>
-      <c r="V400">
+      <c r="V402">
         <v>1.8</v>
       </c>
-      <c r="W400">
+      <c r="W402">
+        <v>-1</v>
+      </c>
+      <c r="X402">
+        <v>-1</v>
+      </c>
+      <c r="Y402">
+        <v>1.7</v>
+      </c>
+      <c r="Z402">
+        <v>-1</v>
+      </c>
+      <c r="AA402">
+        <v>0.925</v>
+      </c>
+      <c r="AB402">
+        <v>-1</v>
+      </c>
+      <c r="AC402">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="403" spans="1:29">
+      <c r="A403" s="1">
+        <v>401</v>
+      </c>
+      <c r="B403">
+        <v>7612852</v>
+      </c>
+      <c r="C403" t="s">
+        <v>28</v>
+      </c>
+      <c r="D403" t="s">
+        <v>28</v>
+      </c>
+      <c r="E403" s="2">
+        <v>45340.95833333334</v>
+      </c>
+      <c r="F403" t="s">
+        <v>31</v>
+      </c>
+      <c r="G403" t="s">
+        <v>40</v>
+      </c>
+      <c r="K403">
+        <v>1.666</v>
+      </c>
+      <c r="L403">
+        <v>3.8</v>
+      </c>
+      <c r="M403">
+        <v>5</v>
+      </c>
+      <c r="N403">
+        <v>1.6</v>
+      </c>
+      <c r="O403">
+        <v>4.2</v>
+      </c>
+      <c r="P403">
+        <v>5.25</v>
+      </c>
+      <c r="Q403">
+        <v>-1</v>
+      </c>
+      <c r="R403">
+        <v>1.975</v>
+      </c>
+      <c r="S403">
+        <v>1.875</v>
+      </c>
+      <c r="T403">
+        <v>3</v>
+      </c>
+      <c r="U403">
+        <v>2</v>
+      </c>
+      <c r="V403">
+        <v>1.85</v>
+      </c>
+      <c r="W403">
         <v>0</v>
       </c>
-      <c r="X400">
+      <c r="X403">
         <v>0</v>
       </c>
-      <c r="Y400">
+      <c r="Y403">
         <v>0</v>
       </c>
-      <c r="Z400">
+      <c r="Z403">
         <v>0</v>
       </c>
-      <c r="AA400">
+      <c r="AA403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:29">
+      <c r="A404" s="1">
+        <v>402</v>
+      </c>
+      <c r="B404">
+        <v>7612863</v>
+      </c>
+      <c r="C404" t="s">
+        <v>28</v>
+      </c>
+      <c r="D404" t="s">
+        <v>28</v>
+      </c>
+      <c r="E404" s="2">
+        <v>45342.91666666666</v>
+      </c>
+      <c r="F404" t="s">
+        <v>38</v>
+      </c>
+      <c r="G404" t="s">
+        <v>35</v>
+      </c>
+      <c r="K404">
+        <v>3.1</v>
+      </c>
+      <c r="L404">
+        <v>3.6</v>
+      </c>
+      <c r="M404">
+        <v>2.15</v>
+      </c>
+      <c r="N404">
+        <v>3.1</v>
+      </c>
+      <c r="O404">
+        <v>3.6</v>
+      </c>
+      <c r="P404">
+        <v>2.15</v>
+      </c>
+      <c r="Q404">
+        <v>0.25</v>
+      </c>
+      <c r="R404">
+        <v>1.925</v>
+      </c>
+      <c r="S404">
+        <v>1.925</v>
+      </c>
+      <c r="T404">
+        <v>3</v>
+      </c>
+      <c r="U404">
+        <v>1.95</v>
+      </c>
+      <c r="V404">
+        <v>1.9</v>
+      </c>
+      <c r="W404">
+        <v>0</v>
+      </c>
+      <c r="X404">
+        <v>0</v>
+      </c>
+      <c r="Y404">
+        <v>0</v>
+      </c>
+      <c r="Z404">
+        <v>0</v>
+      </c>
+      <c r="AA404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:29">
+      <c r="A405" s="1">
+        <v>403</v>
+      </c>
+      <c r="B405">
+        <v>7612864</v>
+      </c>
+      <c r="C405" t="s">
+        <v>28</v>
+      </c>
+      <c r="D405" t="s">
+        <v>28</v>
+      </c>
+      <c r="E405" s="2">
+        <v>45343</v>
+      </c>
+      <c r="F405" t="s">
+        <v>29</v>
+      </c>
+      <c r="G405" t="s">
+        <v>45</v>
+      </c>
+      <c r="K405">
+        <v>3.75</v>
+      </c>
+      <c r="L405">
+        <v>3.5</v>
+      </c>
+      <c r="M405">
+        <v>1.95</v>
+      </c>
+      <c r="N405">
+        <v>3.75</v>
+      </c>
+      <c r="O405">
+        <v>3.5</v>
+      </c>
+      <c r="P405">
+        <v>1.95</v>
+      </c>
+      <c r="Q405">
+        <v>0.5</v>
+      </c>
+      <c r="R405">
+        <v>1.875</v>
+      </c>
+      <c r="S405">
+        <v>1.975</v>
+      </c>
+      <c r="T405">
+        <v>2.5</v>
+      </c>
+      <c r="U405">
+        <v>2</v>
+      </c>
+      <c r="V405">
+        <v>1.85</v>
+      </c>
+      <c r="W405">
+        <v>0</v>
+      </c>
+      <c r="X405">
+        <v>0</v>
+      </c>
+      <c r="Y405">
+        <v>0</v>
+      </c>
+      <c r="Z405">
+        <v>0</v>
+      </c>
+      <c r="AA405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:29">
+      <c r="A406" s="1">
+        <v>404</v>
+      </c>
+      <c r="B406">
+        <v>7612865</v>
+      </c>
+      <c r="C406" t="s">
+        <v>28</v>
+      </c>
+      <c r="D406" t="s">
+        <v>28</v>
+      </c>
+      <c r="E406" s="2">
+        <v>45343.91666666666</v>
+      </c>
+      <c r="F406" t="s">
+        <v>40</v>
+      </c>
+      <c r="G406" t="s">
+        <v>33</v>
+      </c>
+      <c r="K406">
+        <v>1.8</v>
+      </c>
+      <c r="L406">
+        <v>3.75</v>
+      </c>
+      <c r="M406">
+        <v>4.2</v>
+      </c>
+      <c r="N406">
+        <v>1.8</v>
+      </c>
+      <c r="O406">
+        <v>3.75</v>
+      </c>
+      <c r="P406">
+        <v>4.333</v>
+      </c>
+      <c r="Q406">
+        <v>-0.75</v>
+      </c>
+      <c r="R406">
+        <v>2.025</v>
+      </c>
+      <c r="S406">
+        <v>1.825</v>
+      </c>
+      <c r="T406">
+        <v>2.75</v>
+      </c>
+      <c r="U406">
+        <v>1.8</v>
+      </c>
+      <c r="V406">
+        <v>2.05</v>
+      </c>
+      <c r="W406">
+        <v>0</v>
+      </c>
+      <c r="X406">
+        <v>0</v>
+      </c>
+      <c r="Y406">
+        <v>0</v>
+      </c>
+      <c r="Z406">
+        <v>0</v>
+      </c>
+      <c r="AA406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:29">
+      <c r="A407" s="1">
+        <v>405</v>
+      </c>
+      <c r="B407">
+        <v>7612866</v>
+      </c>
+      <c r="C407" t="s">
+        <v>28</v>
+      </c>
+      <c r="D407" t="s">
+        <v>28</v>
+      </c>
+      <c r="E407" s="2">
+        <v>45344</v>
+      </c>
+      <c r="F407" t="s">
+        <v>43</v>
+      </c>
+      <c r="G407" t="s">
+        <v>39</v>
+      </c>
+      <c r="K407">
+        <v>2.5</v>
+      </c>
+      <c r="L407">
+        <v>3.4</v>
+      </c>
+      <c r="M407">
+        <v>2.7</v>
+      </c>
+      <c r="N407">
+        <v>2.5</v>
+      </c>
+      <c r="O407">
+        <v>3.4</v>
+      </c>
+      <c r="P407">
+        <v>2.7</v>
+      </c>
+      <c r="Q407">
+        <v>0</v>
+      </c>
+      <c r="R407">
+        <v>1.85</v>
+      </c>
+      <c r="S407">
+        <v>2</v>
+      </c>
+      <c r="T407">
+        <v>2.75</v>
+      </c>
+      <c r="U407">
+        <v>2.025</v>
+      </c>
+      <c r="V407">
+        <v>1.825</v>
+      </c>
+      <c r="W407">
+        <v>0</v>
+      </c>
+      <c r="X407">
+        <v>0</v>
+      </c>
+      <c r="Y407">
+        <v>0</v>
+      </c>
+      <c r="Z407">
+        <v>0</v>
+      </c>
+      <c r="AA407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:29">
+      <c r="A408" s="1">
+        <v>406</v>
+      </c>
+      <c r="B408">
+        <v>7612867</v>
+      </c>
+      <c r="C408" t="s">
+        <v>28</v>
+      </c>
+      <c r="D408" t="s">
+        <v>28</v>
+      </c>
+      <c r="E408" s="2">
+        <v>45344</v>
+      </c>
+      <c r="F408" t="s">
+        <v>30</v>
+      </c>
+      <c r="G408" t="s">
+        <v>44</v>
+      </c>
+      <c r="K408">
+        <v>1.363</v>
+      </c>
+      <c r="L408">
+        <v>5</v>
+      </c>
+      <c r="M408">
+        <v>7.5</v>
+      </c>
+      <c r="N408">
+        <v>1.363</v>
+      </c>
+      <c r="O408">
+        <v>5</v>
+      </c>
+      <c r="P408">
+        <v>8</v>
+      </c>
+      <c r="Q408">
+        <v>-1.5</v>
+      </c>
+      <c r="R408">
+        <v>1.925</v>
+      </c>
+      <c r="S408">
+        <v>1.925</v>
+      </c>
+      <c r="T408">
+        <v>3.25</v>
+      </c>
+      <c r="U408">
+        <v>2</v>
+      </c>
+      <c r="V408">
+        <v>1.85</v>
+      </c>
+      <c r="W408">
+        <v>0</v>
+      </c>
+      <c r="X408">
+        <v>0</v>
+      </c>
+      <c r="Y408">
+        <v>0</v>
+      </c>
+      <c r="Z408">
+        <v>0</v>
+      </c>
+      <c r="AA408">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC408"/>
+  <dimension ref="A1:AC411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6001946</v>
+        <v>6001406</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,73 +3215,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>2.5</v>
+      </c>
+      <c r="L31">
+        <v>3.3</v>
+      </c>
+      <c r="M31">
+        <v>2.75</v>
+      </c>
+      <c r="N31">
+        <v>2.875</v>
+      </c>
+      <c r="O31">
+        <v>2.875</v>
+      </c>
+      <c r="P31">
+        <v>2.75</v>
+      </c>
+      <c r="Q31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31">
-        <v>1.3</v>
-      </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
-      <c r="M31">
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <v>1.222</v>
-      </c>
-      <c r="O31">
-        <v>6</v>
-      </c>
-      <c r="P31">
-        <v>12</v>
-      </c>
-      <c r="Q31">
-        <v>-1.75</v>
-      </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
         <v>1.85</v>
       </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
-      <c r="T31">
-        <v>3.25</v>
-      </c>
-      <c r="U31">
-        <v>1.925</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6001406</v>
+        <v>6001946</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,73 +3304,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="N32">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="O32">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="P32">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R32">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6001968</v>
+        <v>6001967</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>44971.92013888889</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L54">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
         <v>5</v>
       </c>
-      <c r="P54">
-        <v>6.5</v>
-      </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X54">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6001967</v>
+        <v>6001968</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>44971.92013888889</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M55">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N55">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P55">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q55">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6001970</v>
+        <v>6001409</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,58 +5529,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>49</v>
       </c>
       <c r="K57">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>0.363</v>
+        <v>0.8</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5589,16 +5589,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6001409</v>
+        <v>6001970</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,58 +5618,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>49</v>
       </c>
       <c r="K58">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N58">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6001992</v>
+        <v>6001991</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,46 +7665,46 @@
         <v>44988.92013888889</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K81">
+        <v>4.75</v>
+      </c>
+      <c r="L81">
+        <v>3.5</v>
+      </c>
+      <c r="M81">
+        <v>1.75</v>
+      </c>
+      <c r="N81">
+        <v>4.75</v>
+      </c>
+      <c r="O81">
         <v>3.6</v>
       </c>
-      <c r="L81">
-        <v>3.3</v>
-      </c>
-      <c r="M81">
-        <v>2.05</v>
-      </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>3.4</v>
-      </c>
       <c r="P81">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
         <v>2.5</v>
@@ -7716,25 +7716,25 @@
         <v>1.85</v>
       </c>
       <c r="W81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6001991</v>
+        <v>6001992</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,46 +7754,46 @@
         <v>44988.92013888889</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K82">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M82">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N82">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q82">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
         <v>2.5</v>
@@ -7805,25 +7805,25 @@
         <v>1.85</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA82">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6002005</v>
+        <v>6362550</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,40 +9000,40 @@
         <v>44997.92013888889</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N96">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
         <v>2</v>
@@ -9042,7 +9042,7 @@
         <v>1.85</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
         <v>1.9</v>
@@ -9051,19 +9051,19 @@
         <v>1.95</v>
       </c>
       <c r="W96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z96">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
         <v>0.8999999999999999</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6362550</v>
+        <v>6002005</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,40 +9089,40 @@
         <v>44997.92013888889</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N97">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9131,7 +9131,7 @@
         <v>1.85</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U97">
         <v>1.9</v>
@@ -9140,19 +9140,19 @@
         <v>1.95</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
         <v>0.8999999999999999</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6001419</v>
+        <v>6002050</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,10 +13717,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -13732,43 +13732,43 @@
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="L149">
+        <v>4.333</v>
+      </c>
+      <c r="M149">
+        <v>5</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>4</v>
+      </c>
+      <c r="P149">
         <v>4.75</v>
       </c>
-      <c r="M149">
-        <v>7.5</v>
-      </c>
-      <c r="N149">
-        <v>1.333</v>
-      </c>
-      <c r="O149">
-        <v>5.25</v>
-      </c>
-      <c r="P149">
-        <v>9</v>
-      </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S149">
+        <v>1.975</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
         <v>1.85</v>
       </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>2.025</v>
-      </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6002050</v>
+        <v>6001419</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,10 +13806,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13821,43 +13821,43 @@
         <v>49</v>
       </c>
       <c r="K150">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="L150">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P150">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,13 +13866,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7053868</v>
+        <v>7094230</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,49 +18701,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K205">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L205">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O205">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q205">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
         <v>2</v>
@@ -18755,22 +18755,22 @@
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y205">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7094230</v>
+        <v>7053868</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,49 +18790,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M206">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N206">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
         <v>2</v>
@@ -18844,22 +18844,22 @@
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,10 +18879,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18894,61 +18894,61 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L207">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M207">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N207">
+        <v>1.615</v>
+      </c>
+      <c r="O207">
+        <v>4.2</v>
+      </c>
+      <c r="P207">
+        <v>5</v>
+      </c>
+      <c r="Q207">
+        <v>-0.75</v>
+      </c>
+      <c r="R207">
+        <v>1.8</v>
+      </c>
+      <c r="S207">
+        <v>2.05</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
+        <v>2</v>
+      </c>
+      <c r="V207">
         <v>1.85</v>
       </c>
-      <c r="O207">
-        <v>3.75</v>
-      </c>
-      <c r="P207">
-        <v>4</v>
-      </c>
-      <c r="Q207">
+      <c r="W207">
+        <v>0.615</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>0.4</v>
+      </c>
+      <c r="AA207">
         <v>-0.5</v>
       </c>
-      <c r="R207">
-        <v>1.875</v>
-      </c>
-      <c r="S207">
-        <v>1.975</v>
-      </c>
-      <c r="T207">
-        <v>3</v>
-      </c>
-      <c r="U207">
-        <v>1.825</v>
-      </c>
-      <c r="V207">
-        <v>2.025</v>
-      </c>
-      <c r="W207">
+      <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X207">
-        <v>-1</v>
-      </c>
-      <c r="Y207">
-        <v>-1</v>
-      </c>
-      <c r="Z207">
-        <v>0.875</v>
-      </c>
-      <c r="AA207">
-        <v>-1</v>
-      </c>
-      <c r="AB207">
-        <v>-1</v>
-      </c>
-      <c r="AC207">
-        <v>1.025</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,10 +18968,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -18983,43 +18983,43 @@
         <v>49</v>
       </c>
       <c r="K208">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L208">
+        <v>3.3</v>
+      </c>
+      <c r="M208">
+        <v>2.9</v>
+      </c>
+      <c r="N208">
+        <v>1.85</v>
+      </c>
+      <c r="O208">
+        <v>3.75</v>
+      </c>
+      <c r="P208">
+        <v>4</v>
+      </c>
+      <c r="Q208">
+        <v>-0.5</v>
+      </c>
+      <c r="R208">
+        <v>1.875</v>
+      </c>
+      <c r="S208">
+        <v>1.975</v>
+      </c>
+      <c r="T208">
         <v>3</v>
       </c>
-      <c r="M208">
-        <v>1.5</v>
-      </c>
-      <c r="N208">
-        <v>1.615</v>
-      </c>
-      <c r="O208">
-        <v>4.2</v>
-      </c>
-      <c r="P208">
-        <v>5</v>
-      </c>
-      <c r="Q208">
-        <v>-0.75</v>
-      </c>
-      <c r="R208">
-        <v>1.8</v>
-      </c>
-      <c r="S208">
-        <v>2.05</v>
-      </c>
-      <c r="T208">
-        <v>2.75</v>
-      </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W208">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19028,16 +19028,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,73 +22083,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G243" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M243">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N243">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O243">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P243">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R243">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S243">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V243">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W243">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB243">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC243">
         <v>-1</v>
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,73 +22172,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I244">
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L244">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M244">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N244">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O244">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P244">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q244">
+        <v>-1</v>
+      </c>
+      <c r="R244">
+        <v>1.95</v>
+      </c>
+      <c r="S244">
+        <v>1.9</v>
+      </c>
+      <c r="T244">
+        <v>3</v>
+      </c>
+      <c r="U244">
+        <v>1.925</v>
+      </c>
+      <c r="V244">
+        <v>1.925</v>
+      </c>
+      <c r="W244">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
+        <v>-1</v>
+      </c>
+      <c r="Z244">
         <v>0</v>
       </c>
-      <c r="R244">
-        <v>1.85</v>
-      </c>
-      <c r="S244">
-        <v>2</v>
-      </c>
-      <c r="T244">
-        <v>2.25</v>
-      </c>
-      <c r="U244">
-        <v>2.1</v>
-      </c>
-      <c r="V244">
-        <v>1.775</v>
-      </c>
-      <c r="W244">
-        <v>-1</v>
-      </c>
-      <c r="X244">
-        <v>-1</v>
-      </c>
-      <c r="Y244">
-        <v>1.8</v>
-      </c>
-      <c r="Z244">
-        <v>-1</v>
-      </c>
       <c r="AA244">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB244">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,61 +22350,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246">
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K246">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L246">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M246">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N246">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O246">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P246">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U246">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X246">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22413,13 +22413,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,61 +22439,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247">
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K247">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M247">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N247">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O247">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S247">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T247">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V247">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22502,13 +22502,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6754096</v>
+        <v>6754097</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,40 +26889,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F297" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G297" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
         <v>1</v>
-      </c>
-      <c r="I297">
-        <v>2</v>
       </c>
       <c r="J297" t="s">
         <v>47</v>
       </c>
       <c r="K297">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L297">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M297">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N297">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O297">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P297">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R297">
         <v>2</v>
@@ -26931,13 +26931,13 @@
         <v>1.85</v>
       </c>
       <c r="T297">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U297">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V297">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,7 +26946,7 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Z297">
         <v>-1</v>
@@ -26955,10 +26955,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB297">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6754097</v>
+        <v>6754096</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,40 +26978,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G298" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J298" t="s">
         <v>47</v>
       </c>
       <c r="K298">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L298">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M298">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N298">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O298">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P298">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q298">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R298">
         <v>2</v>
@@ -27020,13 +27020,13 @@
         <v>1.85</v>
       </c>
       <c r="T298">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U298">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V298">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,7 +27035,7 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Z298">
         <v>-1</v>
@@ -27044,10 +27044,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC298">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6754099</v>
+        <v>6754098</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,76 +27067,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F299" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G299" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H299">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K299">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L299">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M299">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N299">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O299">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P299">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q299">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R299">
+        <v>1.975</v>
+      </c>
+      <c r="S299">
+        <v>1.875</v>
+      </c>
+      <c r="T299">
+        <v>2.75</v>
+      </c>
+      <c r="U299">
         <v>1.825</v>
       </c>
-      <c r="S299">
+      <c r="V299">
         <v>2.025</v>
       </c>
-      <c r="T299">
-        <v>3</v>
-      </c>
-      <c r="U299">
-        <v>1.875</v>
-      </c>
-      <c r="V299">
-        <v>1.975</v>
-      </c>
       <c r="W299">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X299">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA299">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB299">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC299">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27144,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6754098</v>
+        <v>6754099</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27156,76 +27156,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F300" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G300" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I300">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J300" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K300">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L300">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M300">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N300">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O300">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P300">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q300">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R300">
+        <v>1.825</v>
+      </c>
+      <c r="S300">
+        <v>2.025</v>
+      </c>
+      <c r="T300">
+        <v>3</v>
+      </c>
+      <c r="U300">
+        <v>1.875</v>
+      </c>
+      <c r="V300">
         <v>1.975</v>
       </c>
-      <c r="S300">
-        <v>1.875</v>
-      </c>
-      <c r="T300">
-        <v>2.75</v>
-      </c>
-      <c r="U300">
-        <v>1.825</v>
-      </c>
-      <c r="V300">
-        <v>2.025</v>
-      </c>
       <c r="W300">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X300">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA300">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB300">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC300">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G301" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K301">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L301">
         <v>3.3</v>
       </c>
       <c r="M301">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N301">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O301">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P301">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q301">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
+        <v>2.05</v>
+      </c>
+      <c r="S301">
         <v>1.8</v>
       </c>
-      <c r="S301">
-        <v>2.05</v>
-      </c>
       <c r="T301">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U301">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V301">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W301">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z301">
+        <v>-1</v>
+      </c>
+      <c r="AA301">
         <v>0.8</v>
       </c>
-      <c r="AA301">
-        <v>-1</v>
-      </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC301">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G302" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H302">
+        <v>2</v>
+      </c>
+      <c r="I302">
         <v>0</v>
       </c>
-      <c r="I302">
-        <v>2</v>
-      </c>
       <c r="J302" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K302">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L302">
         <v>3.3</v>
       </c>
       <c r="M302">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N302">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O302">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P302">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R302">
+        <v>1.8</v>
+      </c>
+      <c r="S302">
         <v>2.05</v>
       </c>
-      <c r="S302">
-        <v>1.8</v>
-      </c>
       <c r="T302">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V302">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA302">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -31238,7 +31238,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31250,76 +31250,76 @@
         <v>45305</v>
       </c>
       <c r="F346" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G346" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J346" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K346">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L346">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M346">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N346">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O346">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P346">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q346">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S346">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T346">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U346">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V346">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W346">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z346">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC346">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31327,7 +31327,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31339,76 +31339,76 @@
         <v>45305</v>
       </c>
       <c r="F347" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G347" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H347">
+        <v>2</v>
+      </c>
+      <c r="I347">
         <v>0</v>
       </c>
-      <c r="I347">
-        <v>2</v>
-      </c>
       <c r="J347" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K347">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L347">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M347">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N347">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O347">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P347">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q347">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R347">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S347">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T347">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V347">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA347">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -32395,7 +32395,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32407,76 +32407,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F359" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G359" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H359">
         <v>1</v>
       </c>
       <c r="I359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J359" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K359">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L359">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M359">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N359">
+        <v>3</v>
+      </c>
+      <c r="O359">
+        <v>3.3</v>
+      </c>
+      <c r="P359">
+        <v>2.4</v>
+      </c>
+      <c r="Q359">
+        <v>0.25</v>
+      </c>
+      <c r="R359">
+        <v>1.775</v>
+      </c>
+      <c r="S359">
+        <v>2.1</v>
+      </c>
+      <c r="T359">
+        <v>2.25</v>
+      </c>
+      <c r="U359">
+        <v>1.8</v>
+      </c>
+      <c r="V359">
+        <v>2.05</v>
+      </c>
+      <c r="W359">
+        <v>-1</v>
+      </c>
+      <c r="X359">
+        <v>-1</v>
+      </c>
+      <c r="Y359">
         <v>1.4</v>
       </c>
-      <c r="O359">
-        <v>4.333</v>
-      </c>
-      <c r="P359">
-        <v>8.5</v>
-      </c>
-      <c r="Q359">
-        <v>-1.25</v>
-      </c>
-      <c r="R359">
-        <v>1.925</v>
-      </c>
-      <c r="S359">
-        <v>1.925</v>
-      </c>
-      <c r="T359">
-        <v>2.75</v>
-      </c>
-      <c r="U359">
-        <v>2.025</v>
-      </c>
-      <c r="V359">
-        <v>1.825</v>
-      </c>
-      <c r="W359">
-        <v>-1</v>
-      </c>
-      <c r="X359">
-        <v>3.333</v>
-      </c>
-      <c r="Y359">
-        <v>-1</v>
-      </c>
       <c r="Z359">
         <v>-1</v>
       </c>
       <c r="AA359">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB359">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC359">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32484,7 +32484,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32496,76 +32496,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F360" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G360" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H360">
         <v>1</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K360">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L360">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M360">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N360">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O360">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P360">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q360">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R360">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S360">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T360">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U360">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V360">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W360">
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y360">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
         <v>-1</v>
       </c>
       <c r="AA360">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB360">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32840,7 +32840,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7612811</v>
+        <v>7612810</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32852,58 +32852,58 @@
         <v>45318.83333333334</v>
       </c>
       <c r="F364" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G364" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H364">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J364" t="s">
         <v>49</v>
       </c>
       <c r="K364">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L364">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M364">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N364">
+        <v>1.5</v>
+      </c>
+      <c r="O364">
+        <v>4.2</v>
+      </c>
+      <c r="P364">
+        <v>5.5</v>
+      </c>
+      <c r="Q364">
+        <v>-1</v>
+      </c>
+      <c r="R364">
+        <v>1.85</v>
+      </c>
+      <c r="S364">
+        <v>2</v>
+      </c>
+      <c r="T364">
+        <v>2.75</v>
+      </c>
+      <c r="U364">
         <v>1.8</v>
       </c>
-      <c r="O364">
-        <v>4</v>
-      </c>
-      <c r="P364">
-        <v>4.2</v>
-      </c>
-      <c r="Q364">
-        <v>-0.75</v>
-      </c>
-      <c r="R364">
-        <v>2</v>
-      </c>
-      <c r="S364">
-        <v>1.85</v>
-      </c>
-      <c r="T364">
-        <v>3</v>
-      </c>
-      <c r="U364">
-        <v>1.975</v>
-      </c>
       <c r="V364">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W364">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X364">
         <v>-1</v>
@@ -32912,16 +32912,16 @@
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA364">
+        <v>-0</v>
+      </c>
+      <c r="AB364">
+        <v>0.4</v>
+      </c>
+      <c r="AC364">
         <v>-0.5</v>
-      </c>
-      <c r="AB364">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC364">
-        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32929,7 +32929,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7612810</v>
+        <v>7612811</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32941,76 +32941,76 @@
         <v>45318.83333333334</v>
       </c>
       <c r="F365" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G365" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J365" t="s">
         <v>49</v>
       </c>
       <c r="K365">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L365">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M365">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N365">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O365">
+        <v>4</v>
+      </c>
+      <c r="P365">
         <v>4.2</v>
       </c>
-      <c r="P365">
-        <v>5.5</v>
-      </c>
       <c r="Q365">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R365">
+        <v>2</v>
+      </c>
+      <c r="S365">
         <v>1.85</v>
       </c>
-      <c r="S365">
-        <v>2</v>
-      </c>
       <c r="T365">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U365">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V365">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W365">
+        <v>0.8</v>
+      </c>
+      <c r="X365">
+        <v>-1</v>
+      </c>
+      <c r="Y365">
+        <v>-1</v>
+      </c>
+      <c r="Z365">
         <v>0.5</v>
       </c>
-      <c r="X365">
-        <v>-1</v>
-      </c>
-      <c r="Y365">
-        <v>-1</v>
-      </c>
-      <c r="Z365">
-        <v>0</v>
-      </c>
       <c r="AA365">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB365">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC365">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -36311,7 +36311,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>7612852</v>
+        <v>7612851</v>
       </c>
       <c r="C403" t="s">
         <v>28</v>
@@ -36320,64 +36320,79 @@
         <v>28</v>
       </c>
       <c r="E403" s="2">
-        <v>45340.95833333334</v>
+        <v>45340.87847222222</v>
       </c>
       <c r="F403" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G403" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H403">
+        <v>3</v>
+      </c>
+      <c r="I403">
+        <v>0</v>
+      </c>
+      <c r="J403" t="s">
+        <v>49</v>
       </c>
       <c r="K403">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L403">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M403">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N403">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O403">
         <v>4.2</v>
       </c>
       <c r="P403">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q403">
         <v>-1</v>
       </c>
       <c r="R403">
+        <v>2.025</v>
+      </c>
+      <c r="S403">
+        <v>1.825</v>
+      </c>
+      <c r="T403">
+        <v>2.75</v>
+      </c>
+      <c r="U403">
         <v>1.975</v>
       </c>
-      <c r="S403">
+      <c r="V403">
         <v>1.875</v>
       </c>
-      <c r="T403">
-        <v>3</v>
-      </c>
-      <c r="U403">
-        <v>2</v>
-      </c>
-      <c r="V403">
-        <v>1.85</v>
-      </c>
       <c r="W403">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="X403">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y403">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z403">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA403">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB403">
+        <v>0.4875</v>
+      </c>
+      <c r="AC403">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="404" spans="1:29">
@@ -36385,7 +36400,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>7612863</v>
+        <v>7612852</v>
       </c>
       <c r="C404" t="s">
         <v>28</v>
@@ -36394,34 +36409,43 @@
         <v>28</v>
       </c>
       <c r="E404" s="2">
-        <v>45342.91666666666</v>
+        <v>45340.96527777778</v>
       </c>
       <c r="F404" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G404" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="H404">
+        <v>0</v>
+      </c>
+      <c r="I404">
+        <v>0</v>
+      </c>
+      <c r="J404" t="s">
+        <v>48</v>
       </c>
       <c r="K404">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L404">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M404">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N404">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="O404">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P404">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q404">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R404">
         <v>1.925</v>
@@ -36430,28 +36454,34 @@
         <v>1.925</v>
       </c>
       <c r="T404">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U404">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V404">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W404">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X404">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y404">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z404">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA404">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB404">
+        <v>-1</v>
+      </c>
+      <c r="AC404">
+        <v>1.05</v>
       </c>
     </row>
     <row r="405" spans="1:29">
@@ -36459,7 +36489,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7612864</v>
+        <v>7612863</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36468,43 +36498,43 @@
         <v>28</v>
       </c>
       <c r="E405" s="2">
-        <v>45343</v>
+        <v>45342.91666666666</v>
       </c>
       <c r="F405" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G405" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K405">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L405">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M405">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N405">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O405">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P405">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="Q405">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R405">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S405">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T405">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U405">
         <v>2</v>
@@ -36533,7 +36563,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>7612865</v>
+        <v>7612864</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36542,49 +36572,49 @@
         <v>28</v>
       </c>
       <c r="E406" s="2">
-        <v>45343.91666666666</v>
+        <v>45343</v>
       </c>
       <c r="F406" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G406" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="K406">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L406">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M406">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="N406">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="O406">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P406">
-        <v>4.333</v>
+        <v>1.95</v>
       </c>
       <c r="Q406">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R406">
+        <v>1.825</v>
+      </c>
+      <c r="S406">
         <v>2.025</v>
       </c>
-      <c r="S406">
-        <v>1.825</v>
-      </c>
       <c r="T406">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U406">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V406">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W406">
         <v>0</v>
@@ -36607,7 +36637,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>7612866</v>
+        <v>7612865</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36616,49 +36646,49 @@
         <v>28</v>
       </c>
       <c r="E407" s="2">
-        <v>45344</v>
+        <v>45343.91666666666</v>
       </c>
       <c r="F407" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G407" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K407">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L407">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M407">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N407">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O407">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P407">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="Q407">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R407">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S407">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T407">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U407">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V407">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W407">
         <v>0</v>
@@ -36681,7 +36711,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>7612867</v>
+        <v>7612866</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36693,46 +36723,46 @@
         <v>45344</v>
       </c>
       <c r="F408" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G408" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K408">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L408">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M408">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N408">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O408">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P408">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="Q408">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R408">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S408">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T408">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U408">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V408">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W408">
         <v>0</v>
@@ -36747,6 +36777,228 @@
         <v>0</v>
       </c>
       <c r="AA408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:29">
+      <c r="A409" s="1">
+        <v>407</v>
+      </c>
+      <c r="B409">
+        <v>7612867</v>
+      </c>
+      <c r="C409" t="s">
+        <v>28</v>
+      </c>
+      <c r="D409" t="s">
+        <v>28</v>
+      </c>
+      <c r="E409" s="2">
+        <v>45344</v>
+      </c>
+      <c r="F409" t="s">
+        <v>30</v>
+      </c>
+      <c r="G409" t="s">
+        <v>44</v>
+      </c>
+      <c r="K409">
+        <v>1.363</v>
+      </c>
+      <c r="L409">
+        <v>5</v>
+      </c>
+      <c r="M409">
+        <v>7.5</v>
+      </c>
+      <c r="N409">
+        <v>1.333</v>
+      </c>
+      <c r="O409">
+        <v>5.25</v>
+      </c>
+      <c r="P409">
+        <v>8.5</v>
+      </c>
+      <c r="Q409">
+        <v>-1.5</v>
+      </c>
+      <c r="R409">
+        <v>1.925</v>
+      </c>
+      <c r="S409">
+        <v>1.925</v>
+      </c>
+      <c r="T409">
+        <v>3.25</v>
+      </c>
+      <c r="U409">
+        <v>1.975</v>
+      </c>
+      <c r="V409">
+        <v>1.875</v>
+      </c>
+      <c r="W409">
+        <v>0</v>
+      </c>
+      <c r="X409">
+        <v>0</v>
+      </c>
+      <c r="Y409">
+        <v>0</v>
+      </c>
+      <c r="Z409">
+        <v>0</v>
+      </c>
+      <c r="AA409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:29">
+      <c r="A410" s="1">
+        <v>408</v>
+      </c>
+      <c r="B410">
+        <v>7612855</v>
+      </c>
+      <c r="C410" t="s">
+        <v>28</v>
+      </c>
+      <c r="D410" t="s">
+        <v>28</v>
+      </c>
+      <c r="E410" s="2">
+        <v>45346.00694444445</v>
+      </c>
+      <c r="F410" t="s">
+        <v>41</v>
+      </c>
+      <c r="G410" t="s">
+        <v>31</v>
+      </c>
+      <c r="K410">
+        <v>5</v>
+      </c>
+      <c r="L410">
+        <v>4.1</v>
+      </c>
+      <c r="M410">
+        <v>1.533</v>
+      </c>
+      <c r="N410">
+        <v>4.333</v>
+      </c>
+      <c r="O410">
+        <v>4</v>
+      </c>
+      <c r="P410">
+        <v>1.65</v>
+      </c>
+      <c r="Q410">
+        <v>0.75</v>
+      </c>
+      <c r="R410">
+        <v>1.975</v>
+      </c>
+      <c r="S410">
+        <v>1.875</v>
+      </c>
+      <c r="T410">
+        <v>2.5</v>
+      </c>
+      <c r="U410">
+        <v>1.825</v>
+      </c>
+      <c r="V410">
+        <v>2.025</v>
+      </c>
+      <c r="W410">
+        <v>0</v>
+      </c>
+      <c r="X410">
+        <v>0</v>
+      </c>
+      <c r="Y410">
+        <v>0</v>
+      </c>
+      <c r="Z410">
+        <v>0</v>
+      </c>
+      <c r="AA410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:29">
+      <c r="A411" s="1">
+        <v>409</v>
+      </c>
+      <c r="B411">
+        <v>7612858</v>
+      </c>
+      <c r="C411" t="s">
+        <v>28</v>
+      </c>
+      <c r="D411" t="s">
+        <v>28</v>
+      </c>
+      <c r="E411" s="2">
+        <v>45346.91666666666</v>
+      </c>
+      <c r="F411" t="s">
+        <v>42</v>
+      </c>
+      <c r="G411" t="s">
+        <v>36</v>
+      </c>
+      <c r="K411">
+        <v>1.444</v>
+      </c>
+      <c r="L411">
+        <v>4.2</v>
+      </c>
+      <c r="M411">
+        <v>6.2</v>
+      </c>
+      <c r="N411">
+        <v>1.571</v>
+      </c>
+      <c r="O411">
+        <v>3.8</v>
+      </c>
+      <c r="P411">
+        <v>5</v>
+      </c>
+      <c r="Q411">
+        <v>-1</v>
+      </c>
+      <c r="R411">
+        <v>2.1</v>
+      </c>
+      <c r="S411">
+        <v>1.775</v>
+      </c>
+      <c r="T411">
+        <v>2.5</v>
+      </c>
+      <c r="U411">
+        <v>2</v>
+      </c>
+      <c r="V411">
+        <v>1.85</v>
+      </c>
+      <c r="W411">
+        <v>0</v>
+      </c>
+      <c r="X411">
+        <v>0</v>
+      </c>
+      <c r="Y411">
+        <v>0</v>
+      </c>
+      <c r="Z411">
+        <v>0</v>
+      </c>
+      <c r="AA411">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC411"/>
+  <dimension ref="A1:AC417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6001406</v>
+        <v>6001946</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,73 +3215,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="O31">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="P31">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6001946</v>
+        <v>6001406</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,73 +3304,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L32">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="N32">
-        <v>1.222</v>
+        <v>2.875</v>
       </c>
       <c r="O32">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="P32">
-        <v>12</v>
+        <v>2.75</v>
       </c>
       <c r="Q32">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R32">
+        <v>2.025</v>
+      </c>
+      <c r="S32">
+        <v>1.825</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
-      <c r="T32">
-        <v>3.25</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6362550</v>
+        <v>6002005</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,40 +9000,40 @@
         <v>44997.92013888889</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N96">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
         <v>2</v>
@@ -9042,7 +9042,7 @@
         <v>1.85</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U96">
         <v>1.9</v>
@@ -9051,19 +9051,19 @@
         <v>1.95</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
         <v>0.8999999999999999</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6002005</v>
+        <v>6362550</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,40 +9089,40 @@
         <v>44997.92013888889</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N97">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9131,7 +9131,7 @@
         <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
         <v>1.9</v>
@@ -9140,19 +9140,19 @@
         <v>1.95</v>
       </c>
       <c r="W97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z97">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
         <v>0.8999999999999999</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6002050</v>
+        <v>6001419</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,10 +13717,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -13732,43 +13732,43 @@
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="L149">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N149">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P149">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W149">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6001419</v>
+        <v>6002050</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,10 +13806,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13821,43 +13821,43 @@
         <v>49</v>
       </c>
       <c r="K150">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="L150">
+        <v>4.333</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>4</v>
+      </c>
+      <c r="P150">
         <v>4.75</v>
       </c>
-      <c r="M150">
-        <v>7.5</v>
-      </c>
-      <c r="N150">
-        <v>1.333</v>
-      </c>
-      <c r="O150">
-        <v>5.25</v>
-      </c>
-      <c r="P150">
-        <v>9</v>
-      </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
+        <v>1.975</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
         <v>1.85</v>
       </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>2.025</v>
-      </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,13 +13866,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7094230</v>
+        <v>7053868</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,49 +18701,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P205">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R205">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
         <v>2</v>
@@ -18755,22 +18755,22 @@
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7053868</v>
+        <v>7094230</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,49 +18790,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K206">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L206">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N206">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q206">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
         <v>2</v>
@@ -18844,22 +18844,22 @@
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y206">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,73 +22083,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I243">
         <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L243">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M243">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N243">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O243">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P243">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R243">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S243">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T243">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U243">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V243">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W243">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA243">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB243">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC243">
         <v>-1</v>
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,73 +22172,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K244">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M244">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N244">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O244">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P244">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R244">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S244">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V244">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W244">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB244">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,73 +23863,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G263" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J263" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L263">
+        <v>3.3</v>
+      </c>
+      <c r="M263">
+        <v>2.8</v>
+      </c>
+      <c r="N263">
         <v>3.5</v>
-      </c>
-      <c r="M263">
-        <v>4.5</v>
-      </c>
-      <c r="N263">
-        <v>1.8</v>
       </c>
       <c r="O263">
         <v>3.6</v>
       </c>
       <c r="P263">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q263">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S263">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T263">
         <v>2.5</v>
       </c>
       <c r="U263">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z263">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB263">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC263">
         <v>-1</v>
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,73 +23952,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G264" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I264">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K264">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L264">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M264">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N264">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O264">
         <v>3.6</v>
       </c>
       <c r="P264">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q264">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R264">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S264">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V264">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA264">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24385,7 +24385,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24397,76 +24397,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F269" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G269" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H269">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I269">
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K269">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L269">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M269">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N269">
+        <v>2.9</v>
+      </c>
+      <c r="O269">
+        <v>3.5</v>
+      </c>
+      <c r="P269">
         <v>2.4</v>
       </c>
-      <c r="O269">
-        <v>3.2</v>
-      </c>
-      <c r="P269">
-        <v>3.1</v>
-      </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R269">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S269">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T269">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U269">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V269">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W269">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB269">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,76 +24486,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G270" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I270">
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K270">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L270">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M270">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N270">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O270">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P270">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q270">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R270">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S270">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T270">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U270">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V270">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X270">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA270">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC270">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6754097</v>
+        <v>6754096</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,40 +26889,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G297" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J297" t="s">
         <v>47</v>
       </c>
       <c r="K297">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L297">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M297">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N297">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O297">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P297">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q297">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R297">
         <v>2</v>
@@ -26931,13 +26931,13 @@
         <v>1.85</v>
       </c>
       <c r="T297">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V297">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,7 +26946,7 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Z297">
         <v>-1</v>
@@ -26955,10 +26955,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC297">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6754096</v>
+        <v>6754097</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,40 +26978,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G298" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
         <v>1</v>
-      </c>
-      <c r="I298">
-        <v>2</v>
       </c>
       <c r="J298" t="s">
         <v>47</v>
       </c>
       <c r="K298">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L298">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M298">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N298">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O298">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P298">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q298">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R298">
         <v>2</v>
@@ -27020,13 +27020,13 @@
         <v>1.85</v>
       </c>
       <c r="T298">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U298">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V298">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,7 +27035,7 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Z298">
         <v>-1</v>
@@ -27044,10 +27044,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB298">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27411,7 +27411,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>6754129</v>
+        <v>6754103</v>
       </c>
       <c r="C303" t="s">
         <v>28</v>
@@ -27423,76 +27423,76 @@
         <v>45232</v>
       </c>
       <c r="F303" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G303" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I303">
         <v>1</v>
       </c>
       <c r="J303" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K303">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L303">
         <v>3.3</v>
       </c>
       <c r="M303">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N303">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O303">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P303">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q303">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R303">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S303">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T303">
         <v>3</v>
       </c>
       <c r="U303">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V303">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W303">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X303">
         <v>-1</v>
       </c>
       <c r="Y303">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z303">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA303">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB303">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC303">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304" spans="1:29">
@@ -27500,7 +27500,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>6754103</v>
+        <v>6754129</v>
       </c>
       <c r="C304" t="s">
         <v>28</v>
@@ -27512,76 +27512,76 @@
         <v>45232</v>
       </c>
       <c r="F304" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G304" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H304">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304">
         <v>1</v>
       </c>
       <c r="J304" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K304">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L304">
         <v>3.3</v>
       </c>
       <c r="M304">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N304">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O304">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P304">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q304">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R304">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S304">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T304">
         <v>3</v>
       </c>
       <c r="U304">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V304">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W304">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X304">
         <v>-1</v>
       </c>
       <c r="Y304">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z304">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA304">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB304">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC304">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="305" spans="1:29">
@@ -27945,7 +27945,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6754105</v>
+        <v>6754643</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27957,76 +27957,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F309" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G309" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J309" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K309">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L309">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M309">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N309">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O309">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P309">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q309">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R309">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S309">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T309">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U309">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V309">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W309">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z309">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28034,7 +28034,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6754643</v>
+        <v>6754105</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28046,76 +28046,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F310" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G310" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J310" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K310">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L310">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M310">
+        <v>4.2</v>
+      </c>
+      <c r="N310">
+        <v>2.45</v>
+      </c>
+      <c r="O310">
+        <v>3.25</v>
+      </c>
+      <c r="P310">
+        <v>3</v>
+      </c>
+      <c r="Q310">
+        <v>-0.25</v>
+      </c>
+      <c r="R310">
+        <v>2.05</v>
+      </c>
+      <c r="S310">
+        <v>1.75</v>
+      </c>
+      <c r="T310">
         <v>2.5</v>
       </c>
-      <c r="N310">
-        <v>2.7</v>
-      </c>
-      <c r="O310">
-        <v>3.5</v>
-      </c>
-      <c r="P310">
-        <v>2.55</v>
-      </c>
-      <c r="Q310">
-        <v>0</v>
-      </c>
-      <c r="R310">
+      <c r="U310">
         <v>1.975</v>
       </c>
-      <c r="S310">
+      <c r="V310">
         <v>1.875</v>
       </c>
-      <c r="T310">
-        <v>2.75</v>
-      </c>
-      <c r="U310">
-        <v>2.025</v>
-      </c>
-      <c r="V310">
-        <v>1.825</v>
-      </c>
       <c r="W310">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X310">
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA310">
+        <v>-1</v>
+      </c>
+      <c r="AB310">
+        <v>-1</v>
+      </c>
+      <c r="AC310">
         <v>0.875</v>
-      </c>
-      <c r="AB310">
-        <v>-1</v>
-      </c>
-      <c r="AC310">
-        <v>0.825</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28835,7 +28835,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6754114</v>
+        <v>6754113</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28847,76 +28847,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G319" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K319">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L319">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M319">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N319">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O319">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P319">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q319">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R319">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S319">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T319">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U319">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB319">
         <v>-1</v>
       </c>
       <c r="AC319">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28924,7 +28924,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6754113</v>
+        <v>6754114</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28936,76 +28936,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G320" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H320">
         <v>0</v>
       </c>
       <c r="I320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K320">
+        <v>4</v>
+      </c>
+      <c r="L320">
+        <v>3.7</v>
+      </c>
+      <c r="M320">
+        <v>1.75</v>
+      </c>
+      <c r="N320">
+        <v>2.7</v>
+      </c>
+      <c r="O320">
+        <v>3.5</v>
+      </c>
+      <c r="P320">
+        <v>2.45</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
         <v>1.95</v>
       </c>
-      <c r="L320">
-        <v>3.5</v>
-      </c>
-      <c r="M320">
-        <v>3.4</v>
-      </c>
-      <c r="N320">
-        <v>2.375</v>
-      </c>
-      <c r="O320">
-        <v>3.6</v>
-      </c>
-      <c r="P320">
-        <v>2.875</v>
-      </c>
-      <c r="Q320">
-        <v>-0.25</v>
-      </c>
-      <c r="R320">
-        <v>1.975</v>
-      </c>
       <c r="S320">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T320">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V320">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y320">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
         <v>-1</v>
       </c>
       <c r="AC320">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -31238,7 +31238,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31250,76 +31250,76 @@
         <v>45305</v>
       </c>
       <c r="F346" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G346" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J346" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K346">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L346">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M346">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N346">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O346">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P346">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q346">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R346">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S346">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T346">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U346">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V346">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W346">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z346">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA346">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB346">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC346">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31327,7 +31327,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31339,76 +31339,76 @@
         <v>45305</v>
       </c>
       <c r="F347" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G347" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J347" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K347">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L347">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M347">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N347">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O347">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P347">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q347">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R347">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S347">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T347">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U347">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V347">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W347">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z347">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA347">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB347">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC347">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -33463,7 +33463,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33475,76 +33475,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F371" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G371" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J371" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K371">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L371">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M371">
+        <v>4.5</v>
+      </c>
+      <c r="N371">
+        <v>1.533</v>
+      </c>
+      <c r="O371">
+        <v>4.2</v>
+      </c>
+      <c r="P371">
+        <v>6</v>
+      </c>
+      <c r="Q371">
+        <v>-1</v>
+      </c>
+      <c r="R371">
+        <v>1.95</v>
+      </c>
+      <c r="S371">
+        <v>1.9</v>
+      </c>
+      <c r="T371">
         <v>2.75</v>
       </c>
-      <c r="N371">
-        <v>3.3</v>
-      </c>
-      <c r="O371">
-        <v>3.6</v>
-      </c>
-      <c r="P371">
-        <v>2.15</v>
-      </c>
-      <c r="Q371">
-        <v>0.25</v>
-      </c>
-      <c r="R371">
-        <v>1.925</v>
-      </c>
-      <c r="S371">
-        <v>1.925</v>
-      </c>
-      <c r="T371">
-        <v>2.5</v>
-      </c>
       <c r="U371">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V371">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W371">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X371">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA371">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB371">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC371">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33552,7 +33552,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33564,76 +33564,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F372" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G372" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J372" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K372">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L372">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M372">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N372">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O372">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P372">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q372">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R372">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S372">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T372">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V372">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W372">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA372">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC372">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -36489,7 +36489,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7612863</v>
+        <v>7612864</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36498,43 +36498,43 @@
         <v>28</v>
       </c>
       <c r="E405" s="2">
-        <v>45342.91666666666</v>
+        <v>45343</v>
       </c>
       <c r="F405" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G405" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K405">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="L405">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M405">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="N405">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O405">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P405">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="Q405">
         <v>0.25</v>
       </c>
       <c r="R405">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S405">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T405">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U405">
         <v>2</v>
@@ -36563,7 +36563,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>7612864</v>
+        <v>7612865</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36572,49 +36572,49 @@
         <v>28</v>
       </c>
       <c r="E406" s="2">
-        <v>45343</v>
+        <v>45343.91666666666</v>
       </c>
       <c r="F406" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G406" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K406">
+        <v>1.8</v>
+      </c>
+      <c r="L406">
         <v>3.75</v>
       </c>
-      <c r="L406">
-        <v>3.5</v>
-      </c>
       <c r="M406">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="N406">
-        <v>4</v>
+        <v>1.615</v>
       </c>
       <c r="O406">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P406">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q406">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R406">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S406">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T406">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U406">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V406">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W406">
         <v>0</v>
@@ -36637,7 +36637,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>7612865</v>
+        <v>7612866</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36646,49 +36646,49 @@
         <v>28</v>
       </c>
       <c r="E407" s="2">
-        <v>45343.91666666666</v>
+        <v>45344</v>
       </c>
       <c r="F407" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G407" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K407">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L407">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M407">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N407">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O407">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P407">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q407">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R407">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S407">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T407">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U407">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V407">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W407">
         <v>0</v>
@@ -36711,7 +36711,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>7612866</v>
+        <v>7612867</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36723,31 +36723,31 @@
         <v>45344</v>
       </c>
       <c r="F408" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G408" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K408">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L408">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M408">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N408">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="O408">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P408">
-        <v>2.8</v>
+        <v>8.5</v>
       </c>
       <c r="Q408">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R408">
         <v>1.875</v>
@@ -36756,13 +36756,13 @@
         <v>1.975</v>
       </c>
       <c r="T408">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U408">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V408">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W408">
         <v>0</v>
@@ -36785,7 +36785,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7612867</v>
+        <v>7612853</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36794,49 +36794,49 @@
         <v>28</v>
       </c>
       <c r="E409" s="2">
-        <v>45344</v>
+        <v>45345.91666666666</v>
       </c>
       <c r="F409" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G409" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K409">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="L409">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M409">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="N409">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O409">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P409">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q409">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R409">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S409">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T409">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U409">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V409">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W409">
         <v>0</v>
@@ -36859,7 +36859,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7612855</v>
+        <v>7612854</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36868,49 +36868,49 @@
         <v>28</v>
       </c>
       <c r="E410" s="2">
-        <v>45346.00694444445</v>
+        <v>45346</v>
       </c>
       <c r="F410" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G410" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K410">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="L410">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M410">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="N410">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="O410">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P410">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q410">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R410">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S410">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T410">
         <v>2.5</v>
       </c>
       <c r="U410">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V410">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W410">
         <v>0</v>
@@ -36933,7 +36933,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7612858</v>
+        <v>7612855</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -36942,63 +36942,507 @@
         <v>28</v>
       </c>
       <c r="E411" s="2">
-        <v>45346.91666666666</v>
+        <v>45346.00694444445</v>
       </c>
       <c r="F411" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G411" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K411">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="L411">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M411">
-        <v>6.2</v>
+        <v>1.533</v>
       </c>
       <c r="N411">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="O411">
         <v>3.8</v>
       </c>
       <c r="P411">
-        <v>5</v>
+        <v>1.65</v>
       </c>
       <c r="Q411">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R411">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S411">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T411">
         <v>2.5</v>
       </c>
       <c r="U411">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V411">
+        <v>1.975</v>
+      </c>
+      <c r="W411">
+        <v>0</v>
+      </c>
+      <c r="X411">
+        <v>0</v>
+      </c>
+      <c r="Y411">
+        <v>0</v>
+      </c>
+      <c r="Z411">
+        <v>0</v>
+      </c>
+      <c r="AA411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:29">
+      <c r="A412" s="1">
+        <v>410</v>
+      </c>
+      <c r="B412">
+        <v>7612856</v>
+      </c>
+      <c r="C412" t="s">
+        <v>28</v>
+      </c>
+      <c r="D412" t="s">
+        <v>28</v>
+      </c>
+      <c r="E412" s="2">
+        <v>45346.83333333334</v>
+      </c>
+      <c r="F412" t="s">
+        <v>43</v>
+      </c>
+      <c r="G412" t="s">
+        <v>37</v>
+      </c>
+      <c r="K412">
+        <v>2.1</v>
+      </c>
+      <c r="L412">
+        <v>3.5</v>
+      </c>
+      <c r="M412">
+        <v>3</v>
+      </c>
+      <c r="N412">
+        <v>2.05</v>
+      </c>
+      <c r="O412">
+        <v>3.5</v>
+      </c>
+      <c r="P412">
+        <v>3.1</v>
+      </c>
+      <c r="Q412">
+        <v>-0.25</v>
+      </c>
+      <c r="R412">
+        <v>1.825</v>
+      </c>
+      <c r="S412">
+        <v>2.025</v>
+      </c>
+      <c r="T412">
+        <v>2.75</v>
+      </c>
+      <c r="U412">
+        <v>1.95</v>
+      </c>
+      <c r="V412">
+        <v>1.9</v>
+      </c>
+      <c r="W412">
+        <v>0</v>
+      </c>
+      <c r="X412">
+        <v>0</v>
+      </c>
+      <c r="Y412">
+        <v>0</v>
+      </c>
+      <c r="Z412">
+        <v>0</v>
+      </c>
+      <c r="AA412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:29">
+      <c r="A413" s="1">
+        <v>411</v>
+      </c>
+      <c r="B413">
+        <v>7612858</v>
+      </c>
+      <c r="C413" t="s">
+        <v>28</v>
+      </c>
+      <c r="D413" t="s">
+        <v>28</v>
+      </c>
+      <c r="E413" s="2">
+        <v>45346.91666666666</v>
+      </c>
+      <c r="F413" t="s">
+        <v>42</v>
+      </c>
+      <c r="G413" t="s">
+        <v>36</v>
+      </c>
+      <c r="K413">
+        <v>1.444</v>
+      </c>
+      <c r="L413">
+        <v>4.2</v>
+      </c>
+      <c r="M413">
+        <v>6.2</v>
+      </c>
+      <c r="N413">
+        <v>1.571</v>
+      </c>
+      <c r="O413">
+        <v>4</v>
+      </c>
+      <c r="P413">
+        <v>5</v>
+      </c>
+      <c r="Q413">
+        <v>-1</v>
+      </c>
+      <c r="R413">
+        <v>2.05</v>
+      </c>
+      <c r="S413">
+        <v>1.8</v>
+      </c>
+      <c r="T413">
+        <v>2.5</v>
+      </c>
+      <c r="U413">
+        <v>1.975</v>
+      </c>
+      <c r="V413">
+        <v>1.875</v>
+      </c>
+      <c r="W413">
+        <v>0</v>
+      </c>
+      <c r="X413">
+        <v>0</v>
+      </c>
+      <c r="Y413">
+        <v>0</v>
+      </c>
+      <c r="Z413">
+        <v>0</v>
+      </c>
+      <c r="AA413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:29">
+      <c r="A414" s="1">
+        <v>412</v>
+      </c>
+      <c r="B414">
+        <v>7612857</v>
+      </c>
+      <c r="C414" t="s">
+        <v>28</v>
+      </c>
+      <c r="D414" t="s">
+        <v>28</v>
+      </c>
+      <c r="E414" s="2">
+        <v>45346.92013888889</v>
+      </c>
+      <c r="F414" t="s">
+        <v>45</v>
+      </c>
+      <c r="G414" t="s">
+        <v>32</v>
+      </c>
+      <c r="K414">
+        <v>2.3</v>
+      </c>
+      <c r="L414">
+        <v>3.4</v>
+      </c>
+      <c r="M414">
+        <v>2.75</v>
+      </c>
+      <c r="N414">
+        <v>2.3</v>
+      </c>
+      <c r="O414">
+        <v>3.4</v>
+      </c>
+      <c r="P414">
+        <v>2.8</v>
+      </c>
+      <c r="Q414">
+        <v>-0.25</v>
+      </c>
+      <c r="R414">
+        <v>2.05</v>
+      </c>
+      <c r="S414">
+        <v>1.8</v>
+      </c>
+      <c r="T414">
+        <v>2.5</v>
+      </c>
+      <c r="U414">
         <v>1.85</v>
       </c>
-      <c r="W411">
-        <v>0</v>
-      </c>
-      <c r="X411">
-        <v>0</v>
-      </c>
-      <c r="Y411">
-        <v>0</v>
-      </c>
-      <c r="Z411">
-        <v>0</v>
-      </c>
-      <c r="AA411">
+      <c r="V414">
+        <v>2</v>
+      </c>
+      <c r="W414">
+        <v>0</v>
+      </c>
+      <c r="X414">
+        <v>0</v>
+      </c>
+      <c r="Y414">
+        <v>0</v>
+      </c>
+      <c r="Z414">
+        <v>0</v>
+      </c>
+      <c r="AA414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:29">
+      <c r="A415" s="1">
+        <v>413</v>
+      </c>
+      <c r="B415">
+        <v>7612859</v>
+      </c>
+      <c r="C415" t="s">
+        <v>28</v>
+      </c>
+      <c r="D415" t="s">
+        <v>28</v>
+      </c>
+      <c r="E415" s="2">
+        <v>45347</v>
+      </c>
+      <c r="F415" t="s">
+        <v>30</v>
+      </c>
+      <c r="G415" t="s">
+        <v>39</v>
+      </c>
+      <c r="K415">
+        <v>1.444</v>
+      </c>
+      <c r="L415">
+        <v>4.25</v>
+      </c>
+      <c r="M415">
+        <v>6</v>
+      </c>
+      <c r="N415">
+        <v>1.55</v>
+      </c>
+      <c r="O415">
+        <v>4.2</v>
+      </c>
+      <c r="P415">
+        <v>4.75</v>
+      </c>
+      <c r="Q415">
+        <v>-1</v>
+      </c>
+      <c r="R415">
+        <v>2</v>
+      </c>
+      <c r="S415">
+        <v>1.85</v>
+      </c>
+      <c r="T415">
+        <v>2.75</v>
+      </c>
+      <c r="U415">
+        <v>1.85</v>
+      </c>
+      <c r="V415">
+        <v>2</v>
+      </c>
+      <c r="W415">
+        <v>0</v>
+      </c>
+      <c r="X415">
+        <v>0</v>
+      </c>
+      <c r="Y415">
+        <v>0</v>
+      </c>
+      <c r="Z415">
+        <v>0</v>
+      </c>
+      <c r="AA415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:29">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>7612860</v>
+      </c>
+      <c r="C416" t="s">
+        <v>28</v>
+      </c>
+      <c r="D416" t="s">
+        <v>28</v>
+      </c>
+      <c r="E416" s="2">
+        <v>45347.625</v>
+      </c>
+      <c r="F416" t="s">
+        <v>40</v>
+      </c>
+      <c r="G416" t="s">
+        <v>34</v>
+      </c>
+      <c r="K416">
+        <v>1.75</v>
+      </c>
+      <c r="L416">
+        <v>3.6</v>
+      </c>
+      <c r="M416">
+        <v>4.1</v>
+      </c>
+      <c r="N416">
+        <v>1.75</v>
+      </c>
+      <c r="O416">
+        <v>3.6</v>
+      </c>
+      <c r="P416">
+        <v>4</v>
+      </c>
+      <c r="Q416">
+        <v>-0.5</v>
+      </c>
+      <c r="R416">
+        <v>1.8</v>
+      </c>
+      <c r="S416">
+        <v>2.05</v>
+      </c>
+      <c r="T416">
+        <v>2.75</v>
+      </c>
+      <c r="U416">
+        <v>2</v>
+      </c>
+      <c r="V416">
+        <v>1.85</v>
+      </c>
+      <c r="W416">
+        <v>0</v>
+      </c>
+      <c r="X416">
+        <v>0</v>
+      </c>
+      <c r="Y416">
+        <v>0</v>
+      </c>
+      <c r="Z416">
+        <v>0</v>
+      </c>
+      <c r="AA416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:27">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>7854021</v>
+      </c>
+      <c r="C417" t="s">
+        <v>28</v>
+      </c>
+      <c r="D417" t="s">
+        <v>28</v>
+      </c>
+      <c r="E417" s="2">
+        <v>45347.875</v>
+      </c>
+      <c r="F417" t="s">
+        <v>33</v>
+      </c>
+      <c r="G417" t="s">
+        <v>44</v>
+      </c>
+      <c r="K417">
+        <v>1.95</v>
+      </c>
+      <c r="L417">
+        <v>3.6</v>
+      </c>
+      <c r="M417">
+        <v>3.3</v>
+      </c>
+      <c r="N417">
+        <v>2</v>
+      </c>
+      <c r="O417">
+        <v>3.6</v>
+      </c>
+      <c r="P417">
+        <v>3.2</v>
+      </c>
+      <c r="Q417">
+        <v>-0.25</v>
+      </c>
+      <c r="R417">
+        <v>1.8</v>
+      </c>
+      <c r="S417">
+        <v>2.05</v>
+      </c>
+      <c r="T417">
+        <v>2.75</v>
+      </c>
+      <c r="U417">
+        <v>1.85</v>
+      </c>
+      <c r="V417">
+        <v>2</v>
+      </c>
+      <c r="W417">
+        <v>0</v>
+      </c>
+      <c r="X417">
+        <v>0</v>
+      </c>
+      <c r="Y417">
+        <v>0</v>
+      </c>
+      <c r="Z417">
+        <v>0</v>
+      </c>
+      <c r="AA417">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -136,10 +136,10 @@
     <t>Cruz Azul</t>
   </si>
   <si>
-    <t>Toluca</t>
+    <t>Juarez FC</t>
   </si>
   <si>
-    <t>Juarez FC</t>
+    <t>Toluca</t>
   </si>
   <si>
     <t>Tigres UANL</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC417"/>
+  <dimension ref="A1:AC418"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6001928</v>
+        <v>6001930</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,46 +1616,46 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N13">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P13">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q13">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -1664,16 +1664,16 @@
         <v>1.85</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X13">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6001930</v>
+        <v>6001928</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,46 +1705,46 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>4.2</v>
+      </c>
+      <c r="L14">
+        <v>3.6</v>
+      </c>
+      <c r="M14">
+        <v>1.833</v>
+      </c>
+      <c r="N14">
+        <v>4.2</v>
+      </c>
+      <c r="O14">
+        <v>3.6</v>
+      </c>
+      <c r="P14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14">
+        <v>0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>2.025</v>
+      </c>
+      <c r="T14">
         <v>3</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14">
-        <v>2.25</v>
-      </c>
-      <c r="L14">
-        <v>3.2</v>
-      </c>
-      <c r="M14">
-        <v>3.2</v>
-      </c>
-      <c r="N14">
-        <v>2.25</v>
-      </c>
-      <c r="O14">
-        <v>3.25</v>
-      </c>
-      <c r="P14">
-        <v>3.4</v>
-      </c>
-      <c r="Q14">
-        <v>-0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.875</v>
-      </c>
-      <c r="T14">
-        <v>2.25</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -1753,16 +1753,16 @@
         <v>1.85</v>
       </c>
       <c r="W14">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -2417,7 +2417,7 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6001946</v>
+        <v>6001406</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,73 +3215,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="N31">
-        <v>1.222</v>
+        <v>2.875</v>
       </c>
       <c r="O31">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="P31">
-        <v>12</v>
+        <v>2.75</v>
       </c>
       <c r="Q31">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
         <v>1.85</v>
       </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
-      <c r="T31">
-        <v>3.25</v>
-      </c>
-      <c r="U31">
-        <v>1.925</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6001406</v>
+        <v>6001946</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,73 +3304,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="N32">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="O32">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="P32">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R32">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3393,7 +3393,7 @@
         <v>44955.625</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
         <v>43</v>
@@ -3574,7 +3574,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3841,7 +3841,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4375,7 +4375,7 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6001964</v>
+        <v>6001965</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,58 +4906,58 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M50">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N50">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P50">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q50">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>1.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4966,13 +4966,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6001965</v>
+        <v>6001964</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,58 +4995,58 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
       </c>
       <c r="K51">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="L51">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N51">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O51">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q51">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W51">
-        <v>0.3999999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5055,13 +5055,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5173,7 +5173,7 @@
         <v>44969.625</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
         <v>39</v>
@@ -5354,7 +5354,7 @@
         <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6001409</v>
+        <v>6001970</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,58 +5529,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>49</v>
       </c>
       <c r="K57">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L57">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N57">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5589,16 +5589,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6001970</v>
+        <v>6001409</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,58 +5618,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>49</v>
       </c>
       <c r="K58">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M58">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N58">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q58">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V58">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W58">
-        <v>0.363</v>
+        <v>0.8</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC58">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>44974.92083333333</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
         <v>43</v>
@@ -6600,7 +6600,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6778,7 +6778,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>44983.625</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
         <v>37</v>
@@ -8113,7 +8113,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8380,7 +8380,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>44997.625</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
         <v>44</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6002005</v>
+        <v>6362550</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,40 +9000,40 @@
         <v>44997.92013888889</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N96">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O96">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
         <v>2</v>
@@ -9042,7 +9042,7 @@
         <v>1.85</v>
       </c>
       <c r="T96">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
         <v>1.9</v>
@@ -9051,19 +9051,19 @@
         <v>1.95</v>
       </c>
       <c r="W96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z96">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
         <v>0.8999999999999999</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6362550</v>
+        <v>6002005</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,40 +9089,40 @@
         <v>44997.92013888889</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N97">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O97">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P97">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9131,7 +9131,7 @@
         <v>1.85</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U97">
         <v>1.9</v>
@@ -9140,19 +9140,19 @@
         <v>1.95</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
         <v>0.8999999999999999</v>
@@ -9178,7 +9178,7 @@
         <v>44998.01041666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9359,7 +9359,7 @@
         <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9893,7 +9893,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>45017</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -10780,7 +10780,7 @@
         <v>45018.625</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -11050,7 +11050,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11759,7 +11759,7 @@
         <v>45025.96527777778</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
         <v>36</v>
@@ -11851,7 +11851,7 @@
         <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12385,7 +12385,7 @@
         <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -13272,10 +13272,10 @@
         <v>45039.625</v>
       </c>
       <c r="F144" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144" t="s">
         <v>40</v>
-      </c>
-      <c r="G144" t="s">
-        <v>41</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13450,7 +13450,7 @@
         <v>45045.00347222222</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
         <v>30</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6001419</v>
+        <v>6002050</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,10 +13717,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -13732,43 +13732,43 @@
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="L149">
+        <v>4.333</v>
+      </c>
+      <c r="M149">
+        <v>5</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>4</v>
+      </c>
+      <c r="P149">
         <v>4.75</v>
       </c>
-      <c r="M149">
-        <v>7.5</v>
-      </c>
-      <c r="N149">
-        <v>1.333</v>
-      </c>
-      <c r="O149">
-        <v>5.25</v>
-      </c>
-      <c r="P149">
-        <v>9</v>
-      </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S149">
+        <v>1.975</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
         <v>1.85</v>
       </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>2.025</v>
-      </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6002050</v>
+        <v>6001419</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,10 +13806,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13821,43 +13821,43 @@
         <v>49</v>
       </c>
       <c r="K150">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="L150">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P150">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,13 +13866,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13984,7 +13984,7 @@
         <v>45046.625</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
         <v>29</v>
@@ -14877,7 +14877,7 @@
         <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H162">
         <v>4</v>
@@ -15141,7 +15141,7 @@
         <v>45060.625</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15856,7 +15856,7 @@
         <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -16387,7 +16387,7 @@
         <v>45109.625</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
         <v>29</v>
@@ -16835,7 +16835,7 @@
         <v>39</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -17010,7 +17010,7 @@
         <v>45115.87916666667</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17989,10 +17989,10 @@
         <v>45123.625</v>
       </c>
       <c r="F197" t="s">
+        <v>41</v>
+      </c>
+      <c r="G197" t="s">
         <v>40</v>
-      </c>
-      <c r="G197" t="s">
-        <v>41</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18259,7 +18259,7 @@
         <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18434,7 +18434,7 @@
         <v>45157.00694444445</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G202" t="s">
         <v>45</v>
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7053868</v>
+        <v>7094230</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,49 +18701,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F205" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G205" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K205">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L205">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O205">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q205">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R205">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
         <v>2</v>
@@ -18755,22 +18755,22 @@
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y205">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA205">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB205">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC205">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7094230</v>
+        <v>7053868</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,49 +18790,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M206">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N206">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P206">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
         <v>2</v>
@@ -18844,22 +18844,22 @@
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z206">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -19057,7 +19057,7 @@
         <v>45161.00347222222</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
         <v>32</v>
@@ -19416,7 +19416,7 @@
         <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19594,7 +19594,7 @@
         <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -20214,7 +20214,7 @@
         <v>45168.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
         <v>31</v>
@@ -20481,7 +20481,7 @@
         <v>45170.92013888889</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
         <v>44</v>
@@ -20926,7 +20926,7 @@
         <v>45172.625</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
         <v>35</v>
@@ -21285,7 +21285,7 @@
         <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21374,7 +21374,7 @@
         <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -22172,7 +22172,7 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G244" t="s">
         <v>36</v>
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,61 +22350,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246">
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K246">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N246">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O246">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P246">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q246">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V246">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22413,13 +22413,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,61 +22439,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247">
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K247">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M247">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N247">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P247">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R247">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U247">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X247">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22502,13 +22502,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22617,7 +22617,7 @@
         <v>45193.625</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
         <v>30</v>
@@ -23243,7 +23243,7 @@
         <v>34</v>
       </c>
       <c r="G256" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H256">
         <v>5</v>
@@ -23596,7 +23596,7 @@
         <v>45200.84722222222</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G260" t="s">
         <v>45</v>
@@ -24044,7 +24044,7 @@
         <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H265">
         <v>2</v>
@@ -24311,7 +24311,7 @@
         <v>31</v>
       </c>
       <c r="G268" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H268">
         <v>3</v>
@@ -24664,7 +24664,7 @@
         <v>45207.625</v>
       </c>
       <c r="F272" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G272" t="s">
         <v>46</v>
@@ -25109,7 +25109,7 @@
         <v>45219.92083333333</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G277" t="s">
         <v>35</v>
@@ -25290,7 +25290,7 @@
         <v>43</v>
       </c>
       <c r="G279" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H279">
         <v>1</v>
@@ -25999,7 +25999,7 @@
         <v>45225</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G287" t="s">
         <v>37</v>
@@ -26622,7 +26622,7 @@
         <v>45228.625</v>
       </c>
       <c r="F294" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G294" t="s">
         <v>37</v>
@@ -26714,7 +26714,7 @@
         <v>33</v>
       </c>
       <c r="G295" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H295">
         <v>5</v>
@@ -26978,7 +26978,7 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G298" t="s">
         <v>38</v>
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G301" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K301">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L301">
         <v>3.3</v>
       </c>
       <c r="M301">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N301">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O301">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P301">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R301">
+        <v>1.8</v>
+      </c>
+      <c r="S301">
         <v>2.05</v>
       </c>
-      <c r="S301">
-        <v>1.8</v>
-      </c>
       <c r="T301">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U301">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA301">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G302" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K302">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L302">
         <v>3.3</v>
       </c>
       <c r="M302">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O302">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P302">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q302">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
+        <v>2.05</v>
+      </c>
+      <c r="S302">
         <v>1.8</v>
       </c>
-      <c r="S302">
-        <v>2.05</v>
-      </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V302">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W302">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z302">
+        <v>-1</v>
+      </c>
+      <c r="AA302">
         <v>0.8</v>
       </c>
-      <c r="AA302">
-        <v>-1</v>
-      </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC302">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27945,7 +27945,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6754643</v>
+        <v>6754105</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27957,76 +27957,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F309" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G309" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I309">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J309" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K309">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L309">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M309">
+        <v>4.2</v>
+      </c>
+      <c r="N309">
+        <v>2.45</v>
+      </c>
+      <c r="O309">
+        <v>3.25</v>
+      </c>
+      <c r="P309">
+        <v>3</v>
+      </c>
+      <c r="Q309">
+        <v>-0.25</v>
+      </c>
+      <c r="R309">
+        <v>2.05</v>
+      </c>
+      <c r="S309">
+        <v>1.75</v>
+      </c>
+      <c r="T309">
         <v>2.5</v>
       </c>
-      <c r="N309">
-        <v>2.7</v>
-      </c>
-      <c r="O309">
-        <v>3.5</v>
-      </c>
-      <c r="P309">
-        <v>2.55</v>
-      </c>
-      <c r="Q309">
-        <v>0</v>
-      </c>
-      <c r="R309">
+      <c r="U309">
         <v>1.975</v>
       </c>
-      <c r="S309">
+      <c r="V309">
         <v>1.875</v>
       </c>
-      <c r="T309">
-        <v>2.75</v>
-      </c>
-      <c r="U309">
-        <v>2.025</v>
-      </c>
-      <c r="V309">
-        <v>1.825</v>
-      </c>
       <c r="W309">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA309">
+        <v>-1</v>
+      </c>
+      <c r="AB309">
+        <v>-1</v>
+      </c>
+      <c r="AC309">
         <v>0.875</v>
-      </c>
-      <c r="AB309">
-        <v>-1</v>
-      </c>
-      <c r="AC309">
-        <v>0.825</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28034,7 +28034,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6754105</v>
+        <v>6754643</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28046,76 +28046,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F310" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G310" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J310" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K310">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="L310">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M310">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N310">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="O310">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P310">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="Q310">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R310">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S310">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T310">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V310">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W310">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X310">
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z310">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB310">
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28316,7 +28316,7 @@
         <v>33</v>
       </c>
       <c r="G313" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H313">
         <v>3</v>
@@ -28402,7 +28402,7 @@
         <v>45235.9625</v>
       </c>
       <c r="F314" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G314" t="s">
         <v>46</v>
@@ -28672,7 +28672,7 @@
         <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H317">
         <v>1</v>
@@ -28835,7 +28835,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6754113</v>
+        <v>6754114</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28847,76 +28847,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G319" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
       <c r="I319">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J319" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K319">
+        <v>4</v>
+      </c>
+      <c r="L319">
+        <v>3.7</v>
+      </c>
+      <c r="M319">
+        <v>1.75</v>
+      </c>
+      <c r="N319">
+        <v>2.7</v>
+      </c>
+      <c r="O319">
+        <v>3.5</v>
+      </c>
+      <c r="P319">
+        <v>2.45</v>
+      </c>
+      <c r="Q319">
+        <v>0</v>
+      </c>
+      <c r="R319">
         <v>1.95</v>
       </c>
-      <c r="L319">
-        <v>3.5</v>
-      </c>
-      <c r="M319">
-        <v>3.4</v>
-      </c>
-      <c r="N319">
-        <v>2.375</v>
-      </c>
-      <c r="O319">
-        <v>3.6</v>
-      </c>
-      <c r="P319">
-        <v>2.875</v>
-      </c>
-      <c r="Q319">
-        <v>-0.25</v>
-      </c>
-      <c r="R319">
-        <v>1.975</v>
-      </c>
       <c r="S319">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T319">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V319">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y319">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z319">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA319">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB319">
         <v>-1</v>
       </c>
       <c r="AC319">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28924,7 +28924,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6754114</v>
+        <v>6754113</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28936,76 +28936,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G320" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H320">
         <v>0</v>
       </c>
       <c r="I320">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K320">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L320">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M320">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N320">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O320">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P320">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q320">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R320">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S320">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U320">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V320">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y320">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z320">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA320">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB320">
         <v>-1</v>
       </c>
       <c r="AC320">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29295,7 +29295,7 @@
         <v>43</v>
       </c>
       <c r="G324" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H324">
         <v>2</v>
@@ -30897,7 +30897,7 @@
         <v>46</v>
       </c>
       <c r="G342" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H342">
         <v>2</v>
@@ -31431,7 +31431,7 @@
         <v>32</v>
       </c>
       <c r="G348" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H348">
         <v>1</v>
@@ -31873,7 +31873,7 @@
         <v>45311.00694444445</v>
       </c>
       <c r="F353" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G353" t="s">
         <v>39</v>
@@ -31962,7 +31962,7 @@
         <v>45311.83333333334</v>
       </c>
       <c r="F354" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G354" t="s">
         <v>44</v>
@@ -32395,7 +32395,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32407,76 +32407,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F359" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G359" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H359">
         <v>1</v>
       </c>
       <c r="I359">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J359" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K359">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L359">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M359">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N359">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O359">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P359">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q359">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R359">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S359">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T359">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U359">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V359">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W359">
         <v>-1</v>
       </c>
       <c r="X359">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y359">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z359">
         <v>-1</v>
       </c>
       <c r="AA359">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB359">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC359">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32484,7 +32484,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32496,76 +32496,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F360" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G360" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H360">
         <v>1</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K360">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L360">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M360">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N360">
+        <v>3</v>
+      </c>
+      <c r="O360">
+        <v>3.3</v>
+      </c>
+      <c r="P360">
+        <v>2.4</v>
+      </c>
+      <c r="Q360">
+        <v>0.25</v>
+      </c>
+      <c r="R360">
+        <v>1.775</v>
+      </c>
+      <c r="S360">
+        <v>2.1</v>
+      </c>
+      <c r="T360">
+        <v>2.25</v>
+      </c>
+      <c r="U360">
+        <v>1.8</v>
+      </c>
+      <c r="V360">
+        <v>2.05</v>
+      </c>
+      <c r="W360">
+        <v>-1</v>
+      </c>
+      <c r="X360">
+        <v>-1</v>
+      </c>
+      <c r="Y360">
         <v>1.4</v>
       </c>
-      <c r="O360">
-        <v>4.333</v>
-      </c>
-      <c r="P360">
-        <v>8.5</v>
-      </c>
-      <c r="Q360">
-        <v>-1.25</v>
-      </c>
-      <c r="R360">
-        <v>1.925</v>
-      </c>
-      <c r="S360">
-        <v>1.925</v>
-      </c>
-      <c r="T360">
-        <v>2.75</v>
-      </c>
-      <c r="U360">
-        <v>2.025</v>
-      </c>
-      <c r="V360">
-        <v>1.825</v>
-      </c>
-      <c r="W360">
-        <v>-1</v>
-      </c>
-      <c r="X360">
-        <v>3.333</v>
-      </c>
-      <c r="Y360">
-        <v>-1</v>
-      </c>
       <c r="Z360">
         <v>-1</v>
       </c>
       <c r="AA360">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC360">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32585,7 +32585,7 @@
         <v>45316.00416666667</v>
       </c>
       <c r="F361" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G361" t="s">
         <v>30</v>
@@ -32677,7 +32677,7 @@
         <v>38</v>
       </c>
       <c r="G362" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H362">
         <v>1</v>
@@ -33300,7 +33300,7 @@
         <v>36</v>
       </c>
       <c r="G369" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H369">
         <v>2</v>
@@ -33463,7 +33463,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33475,76 +33475,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F371" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G371" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J371" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K371">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L371">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M371">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N371">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O371">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P371">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q371">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R371">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S371">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T371">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U371">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V371">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W371">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X371">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA371">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC371">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33552,7 +33552,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33564,76 +33564,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F372" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G372" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K372">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L372">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M372">
+        <v>4.5</v>
+      </c>
+      <c r="N372">
+        <v>1.533</v>
+      </c>
+      <c r="O372">
+        <v>4.2</v>
+      </c>
+      <c r="P372">
+        <v>6</v>
+      </c>
+      <c r="Q372">
+        <v>-1</v>
+      </c>
+      <c r="R372">
+        <v>1.95</v>
+      </c>
+      <c r="S372">
+        <v>1.9</v>
+      </c>
+      <c r="T372">
         <v>2.75</v>
       </c>
-      <c r="N372">
-        <v>3.3</v>
-      </c>
-      <c r="O372">
-        <v>3.6</v>
-      </c>
-      <c r="P372">
-        <v>2.15</v>
-      </c>
-      <c r="Q372">
-        <v>0.25</v>
-      </c>
-      <c r="R372">
-        <v>1.925</v>
-      </c>
-      <c r="S372">
-        <v>1.925</v>
-      </c>
-      <c r="T372">
-        <v>2.5</v>
-      </c>
       <c r="U372">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V372">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X372">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA372">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB372">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33745,7 +33745,7 @@
         <v>45</v>
       </c>
       <c r="G374" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H374">
         <v>3</v>
@@ -34187,7 +34187,7 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F379" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G379" t="s">
         <v>43</v>
@@ -34276,7 +34276,7 @@
         <v>45325.8375</v>
       </c>
       <c r="F380" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G380" t="s">
         <v>29</v>
@@ -35080,7 +35080,7 @@
         <v>29</v>
       </c>
       <c r="G389" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H389">
         <v>3</v>
@@ -35169,7 +35169,7 @@
         <v>45</v>
       </c>
       <c r="G390" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H390">
         <v>2</v>
@@ -36415,7 +36415,7 @@
         <v>31</v>
       </c>
       <c r="G404" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H404">
         <v>0</v>
@@ -36489,7 +36489,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>7612864</v>
+        <v>7612863</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36498,64 +36498,79 @@
         <v>28</v>
       </c>
       <c r="E405" s="2">
-        <v>45343</v>
+        <v>45342.91666666666</v>
       </c>
       <c r="F405" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G405" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="H405">
+        <v>1</v>
+      </c>
+      <c r="I405">
+        <v>4</v>
+      </c>
+      <c r="J405" t="s">
+        <v>47</v>
       </c>
       <c r="K405">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="L405">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M405">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="N405">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="O405">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P405">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="Q405">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R405">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S405">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T405">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U405">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V405">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W405">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X405">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y405">
-        <v>0</v>
+        <v>0.833</v>
       </c>
       <c r="Z405">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA405">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB405">
+        <v>0.8</v>
+      </c>
+      <c r="AC405">
+        <v>-1</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36563,7 +36578,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>7612865</v>
+        <v>7612864</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36572,64 +36587,79 @@
         <v>28</v>
       </c>
       <c r="E406" s="2">
-        <v>45343.91666666666</v>
+        <v>45343</v>
       </c>
       <c r="F406" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G406" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="H406">
+        <v>1</v>
+      </c>
+      <c r="I406">
+        <v>0</v>
+      </c>
+      <c r="J406" t="s">
+        <v>49</v>
       </c>
       <c r="K406">
+        <v>3.75</v>
+      </c>
+      <c r="L406">
+        <v>3.5</v>
+      </c>
+      <c r="M406">
+        <v>1.95</v>
+      </c>
+      <c r="N406">
+        <v>3.6</v>
+      </c>
+      <c r="O406">
+        <v>3.4</v>
+      </c>
+      <c r="P406">
+        <v>2.1</v>
+      </c>
+      <c r="Q406">
+        <v>0.5</v>
+      </c>
+      <c r="R406">
         <v>1.8</v>
       </c>
-      <c r="L406">
-        <v>3.75</v>
-      </c>
-      <c r="M406">
-        <v>4.2</v>
-      </c>
-      <c r="N406">
-        <v>1.615</v>
-      </c>
-      <c r="O406">
-        <v>4.2</v>
-      </c>
-      <c r="P406">
-        <v>4.75</v>
-      </c>
-      <c r="Q406">
-        <v>-1</v>
-      </c>
-      <c r="R406">
+      <c r="S406">
         <v>2.05</v>
       </c>
-      <c r="S406">
+      <c r="T406">
+        <v>2.25</v>
+      </c>
+      <c r="U406">
         <v>1.8</v>
       </c>
-      <c r="T406">
-        <v>3.25</v>
-      </c>
-      <c r="U406">
+      <c r="V406">
         <v>2.05</v>
       </c>
-      <c r="V406">
-        <v>1.8</v>
-      </c>
       <c r="W406">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X406">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y406">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA406">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB406">
+        <v>-1</v>
+      </c>
+      <c r="AC406">
+        <v>1.05</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36637,7 +36667,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>7612866</v>
+        <v>7612865</v>
       </c>
       <c r="C407" t="s">
         <v>28</v>
@@ -36646,49 +36676,49 @@
         <v>28</v>
       </c>
       <c r="E407" s="2">
-        <v>45344</v>
+        <v>45343.91666666666</v>
       </c>
       <c r="F407" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G407" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K407">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="L407">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M407">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N407">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="O407">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P407">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q407">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R407">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S407">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T407">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U407">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V407">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W407">
         <v>0</v>
@@ -36738,31 +36768,31 @@
         <v>7.5</v>
       </c>
       <c r="N408">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="O408">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="P408">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Q408">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R408">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S408">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T408">
         <v>3.25</v>
       </c>
       <c r="U408">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V408">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W408">
         <v>0</v>
@@ -36785,7 +36815,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7612853</v>
+        <v>7612866</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36794,49 +36824,49 @@
         <v>28</v>
       </c>
       <c r="E409" s="2">
-        <v>45345.91666666666</v>
+        <v>45344</v>
       </c>
       <c r="F409" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G409" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K409">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L409">
         <v>3.4</v>
       </c>
       <c r="M409">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N409">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="O409">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P409">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q409">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R409">
+        <v>1.975</v>
+      </c>
+      <c r="S409">
         <v>1.875</v>
       </c>
-      <c r="S409">
+      <c r="T409">
+        <v>2.75</v>
+      </c>
+      <c r="U409">
+        <v>1.875</v>
+      </c>
+      <c r="V409">
         <v>1.975</v>
-      </c>
-      <c r="T409">
-        <v>2.5</v>
-      </c>
-      <c r="U409">
-        <v>1.825</v>
-      </c>
-      <c r="V409">
-        <v>2.025</v>
       </c>
       <c r="W409">
         <v>0</v>
@@ -36859,7 +36889,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7612854</v>
+        <v>7612853</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36868,49 +36898,49 @@
         <v>28</v>
       </c>
       <c r="E410" s="2">
-        <v>45346</v>
+        <v>45345.91666666666</v>
       </c>
       <c r="F410" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G410" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K410">
+        <v>2.1</v>
+      </c>
+      <c r="L410">
+        <v>3.4</v>
+      </c>
+      <c r="M410">
+        <v>3.1</v>
+      </c>
+      <c r="N410">
+        <v>2.05</v>
+      </c>
+      <c r="O410">
+        <v>3.5</v>
+      </c>
+      <c r="P410">
+        <v>3.2</v>
+      </c>
+      <c r="Q410">
+        <v>-0.25</v>
+      </c>
+      <c r="R410">
+        <v>1.875</v>
+      </c>
+      <c r="S410">
+        <v>1.975</v>
+      </c>
+      <c r="T410">
         <v>2.75</v>
       </c>
-      <c r="L410">
-        <v>3.3</v>
-      </c>
-      <c r="M410">
-        <v>2.45</v>
-      </c>
-      <c r="N410">
-        <v>2.75</v>
-      </c>
-      <c r="O410">
-        <v>3.3</v>
-      </c>
-      <c r="P410">
-        <v>2.45</v>
-      </c>
-      <c r="Q410">
-        <v>0</v>
-      </c>
-      <c r="R410">
-        <v>2.05</v>
-      </c>
-      <c r="S410">
-        <v>1.8</v>
-      </c>
-      <c r="T410">
-        <v>2.5</v>
-      </c>
       <c r="U410">
+        <v>2</v>
+      </c>
+      <c r="V410">
         <v>1.85</v>
-      </c>
-      <c r="V410">
-        <v>2</v>
       </c>
       <c r="W410">
         <v>0</v>
@@ -36933,7 +36963,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7612855</v>
+        <v>7612854</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -36942,49 +36972,49 @@
         <v>28</v>
       </c>
       <c r="E411" s="2">
-        <v>45346.00694444445</v>
+        <v>45346</v>
       </c>
       <c r="F411" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G411" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K411">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="L411">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="M411">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="N411">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="O411">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P411">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="Q411">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R411">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S411">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T411">
         <v>2.5</v>
       </c>
       <c r="U411">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V411">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W411">
         <v>0</v>
@@ -37007,7 +37037,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7612856</v>
+        <v>7612855</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37016,49 +37046,49 @@
         <v>28</v>
       </c>
       <c r="E412" s="2">
-        <v>45346.83333333334</v>
+        <v>45346.00694444445</v>
       </c>
       <c r="F412" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G412" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K412">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L412">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M412">
-        <v>3</v>
+        <v>1.533</v>
       </c>
       <c r="N412">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="O412">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P412">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="Q412">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R412">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S412">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T412">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U412">
+        <v>1.9</v>
+      </c>
+      <c r="V412">
         <v>1.95</v>
-      </c>
-      <c r="V412">
-        <v>1.9</v>
       </c>
       <c r="W412">
         <v>0</v>
@@ -37081,7 +37111,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7612858</v>
+        <v>7612856</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37090,49 +37120,49 @@
         <v>28</v>
       </c>
       <c r="E413" s="2">
-        <v>45346.91666666666</v>
+        <v>45346.83333333334</v>
       </c>
       <c r="F413" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G413" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K413">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L413">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M413">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="N413">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="O413">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P413">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q413">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R413">
+        <v>1.85</v>
+      </c>
+      <c r="S413">
+        <v>2</v>
+      </c>
+      <c r="T413">
+        <v>2.75</v>
+      </c>
+      <c r="U413">
+        <v>1.8</v>
+      </c>
+      <c r="V413">
         <v>2.05</v>
-      </c>
-      <c r="S413">
-        <v>1.8</v>
-      </c>
-      <c r="T413">
-        <v>2.5</v>
-      </c>
-      <c r="U413">
-        <v>1.975</v>
-      </c>
-      <c r="V413">
-        <v>1.875</v>
       </c>
       <c r="W413">
         <v>0</v>
@@ -37155,7 +37185,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7612857</v>
+        <v>7612858</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37164,34 +37194,34 @@
         <v>28</v>
       </c>
       <c r="E414" s="2">
-        <v>45346.92013888889</v>
+        <v>45346.91666666666</v>
       </c>
       <c r="F414" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G414" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K414">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L414">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M414">
-        <v>2.75</v>
+        <v>6.2</v>
       </c>
       <c r="N414">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O414">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P414">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q414">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R414">
         <v>2.05</v>
@@ -37203,10 +37233,10 @@
         <v>2.5</v>
       </c>
       <c r="U414">
+        <v>2</v>
+      </c>
+      <c r="V414">
         <v>1.85</v>
-      </c>
-      <c r="V414">
-        <v>2</v>
       </c>
       <c r="W414">
         <v>0</v>
@@ -37229,7 +37259,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7612859</v>
+        <v>7612857</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37238,49 +37268,49 @@
         <v>28</v>
       </c>
       <c r="E415" s="2">
-        <v>45347</v>
+        <v>45346.92013888889</v>
       </c>
       <c r="F415" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="G415" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K415">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L415">
-        <v>4.25</v>
+        <v>3.4</v>
       </c>
       <c r="M415">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="N415">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="O415">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P415">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q415">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S415">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T415">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U415">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V415">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W415">
         <v>0</v>
@@ -37303,7 +37333,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>7612860</v>
+        <v>7612859</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37312,49 +37342,49 @@
         <v>28</v>
       </c>
       <c r="E416" s="2">
-        <v>45347.625</v>
+        <v>45347</v>
       </c>
       <c r="F416" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G416" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K416">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="L416">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="M416">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="N416">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O416">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P416">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q416">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R416">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S416">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T416">
         <v>2.75</v>
       </c>
       <c r="U416">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V416">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W416">
         <v>0</v>
@@ -37377,7 +37407,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>7854021</v>
+        <v>7612860</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37386,63 +37416,137 @@
         <v>28</v>
       </c>
       <c r="E417" s="2">
-        <v>45347.875</v>
+        <v>45347.625</v>
       </c>
       <c r="F417" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G417" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K417">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="L417">
         <v>3.6</v>
       </c>
       <c r="M417">
+        <v>4.1</v>
+      </c>
+      <c r="N417">
+        <v>1.666</v>
+      </c>
+      <c r="O417">
+        <v>3.75</v>
+      </c>
+      <c r="P417">
+        <v>4.5</v>
+      </c>
+      <c r="Q417">
+        <v>-0.75</v>
+      </c>
+      <c r="R417">
+        <v>1.9</v>
+      </c>
+      <c r="S417">
+        <v>1.95</v>
+      </c>
+      <c r="T417">
+        <v>3</v>
+      </c>
+      <c r="U417">
+        <v>2</v>
+      </c>
+      <c r="V417">
+        <v>1.85</v>
+      </c>
+      <c r="W417">
+        <v>0</v>
+      </c>
+      <c r="X417">
+        <v>0</v>
+      </c>
+      <c r="Y417">
+        <v>0</v>
+      </c>
+      <c r="Z417">
+        <v>0</v>
+      </c>
+      <c r="AA417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:27">
+      <c r="A418" s="1">
+        <v>416</v>
+      </c>
+      <c r="B418">
+        <v>7854021</v>
+      </c>
+      <c r="C418" t="s">
+        <v>28</v>
+      </c>
+      <c r="D418" t="s">
+        <v>28</v>
+      </c>
+      <c r="E418" s="2">
+        <v>45347.875</v>
+      </c>
+      <c r="F418" t="s">
+        <v>33</v>
+      </c>
+      <c r="G418" t="s">
+        <v>44</v>
+      </c>
+      <c r="K418">
+        <v>1.95</v>
+      </c>
+      <c r="L418">
+        <v>3.6</v>
+      </c>
+      <c r="M418">
         <v>3.3</v>
       </c>
-      <c r="N417">
-        <v>2</v>
-      </c>
-      <c r="O417">
+      <c r="N418">
+        <v>2</v>
+      </c>
+      <c r="O418">
         <v>3.6</v>
       </c>
-      <c r="P417">
+      <c r="P418">
         <v>3.2</v>
       </c>
-      <c r="Q417">
+      <c r="Q418">
         <v>-0.25</v>
       </c>
-      <c r="R417">
+      <c r="R418">
         <v>1.8</v>
       </c>
-      <c r="S417">
+      <c r="S418">
         <v>2.05</v>
       </c>
-      <c r="T417">
+      <c r="T418">
         <v>2.75</v>
       </c>
-      <c r="U417">
+      <c r="U418">
         <v>1.85</v>
       </c>
-      <c r="V417">
-        <v>2</v>
-      </c>
-      <c r="W417">
-        <v>0</v>
-      </c>
-      <c r="X417">
-        <v>0</v>
-      </c>
-      <c r="Y417">
-        <v>0</v>
-      </c>
-      <c r="Z417">
-        <v>0</v>
-      </c>
-      <c r="AA417">
+      <c r="V418">
+        <v>2</v>
+      </c>
+      <c r="W418">
+        <v>0</v>
+      </c>
+      <c r="X418">
+        <v>0</v>
+      </c>
+      <c r="Y418">
+        <v>0</v>
+      </c>
+      <c r="Z418">
+        <v>0</v>
+      </c>
+      <c r="AA418">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -136,10 +136,10 @@
     <t>Cruz Azul</t>
   </si>
   <si>
-    <t>Juarez FC</t>
+    <t>Toluca</t>
   </si>
   <si>
-    <t>Toluca</t>
+    <t>Juarez FC</t>
   </si>
   <si>
     <t>Tigres UANL</t>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6001930</v>
+        <v>6001928</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,46 +1616,46 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13">
+        <v>4.2</v>
+      </c>
+      <c r="L13">
+        <v>3.6</v>
+      </c>
+      <c r="M13">
+        <v>1.833</v>
+      </c>
+      <c r="N13">
+        <v>4.2</v>
+      </c>
+      <c r="O13">
+        <v>3.6</v>
+      </c>
+      <c r="P13">
+        <v>1.8</v>
+      </c>
+      <c r="Q13">
+        <v>0.75</v>
+      </c>
+      <c r="R13">
+        <v>1.825</v>
+      </c>
+      <c r="S13">
+        <v>2.025</v>
+      </c>
+      <c r="T13">
         <v>3</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13">
-        <v>2.25</v>
-      </c>
-      <c r="L13">
-        <v>3.2</v>
-      </c>
-      <c r="M13">
-        <v>3.2</v>
-      </c>
-      <c r="N13">
-        <v>2.25</v>
-      </c>
-      <c r="O13">
-        <v>3.25</v>
-      </c>
-      <c r="P13">
-        <v>3.4</v>
-      </c>
-      <c r="Q13">
-        <v>-0.25</v>
-      </c>
-      <c r="R13">
-        <v>1.975</v>
-      </c>
-      <c r="S13">
-        <v>1.875</v>
-      </c>
-      <c r="T13">
-        <v>2.25</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -1664,16 +1664,16 @@
         <v>1.85</v>
       </c>
       <c r="W13">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6001928</v>
+        <v>6001930</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,46 +1705,46 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N14">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q14">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -1753,16 +1753,16 @@
         <v>1.85</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -2417,7 +2417,7 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3215,7 +3215,7 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3393,7 +3393,7 @@
         <v>44955.625</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
         <v>43</v>
@@ -3574,7 +3574,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3841,7 +3841,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4375,7 +4375,7 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4995,7 +4995,7 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
@@ -5173,7 +5173,7 @@
         <v>44969.625</v>
       </c>
       <c r="F53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
         <v>39</v>
@@ -5354,7 +5354,7 @@
         <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6001970</v>
+        <v>6001409</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,58 +5529,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>49</v>
       </c>
       <c r="K57">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M57">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>0.363</v>
+        <v>0.8</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5589,16 +5589,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5606,7 +5606,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6001409</v>
+        <v>6001970</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5618,58 +5618,58 @@
         <v>44972.92013888889</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>49</v>
       </c>
       <c r="K58">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L58">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N58">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R58">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W58">
-        <v>0.8</v>
+        <v>0.363</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5678,16 +5678,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>44974.92083333333</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61" t="s">
         <v>43</v>
@@ -6600,7 +6600,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6778,7 +6778,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>44983.625</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
         <v>37</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6001991</v>
+        <v>6001992</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,46 +7665,46 @@
         <v>44988.92013888889</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M81">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N81">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q81">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R81">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T81">
         <v>2.5</v>
@@ -7716,25 +7716,25 @@
         <v>1.85</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA81">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6001992</v>
+        <v>6001991</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,46 +7754,46 @@
         <v>44988.92013888889</v>
       </c>
       <c r="F82" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K82">
+        <v>4.75</v>
+      </c>
+      <c r="L82">
+        <v>3.5</v>
+      </c>
+      <c r="M82">
+        <v>1.75</v>
+      </c>
+      <c r="N82">
+        <v>4.75</v>
+      </c>
+      <c r="O82">
         <v>3.6</v>
       </c>
-      <c r="L82">
-        <v>3.3</v>
-      </c>
-      <c r="M82">
-        <v>2.05</v>
-      </c>
-      <c r="N82">
-        <v>3.6</v>
-      </c>
-      <c r="O82">
-        <v>3.4</v>
-      </c>
       <c r="P82">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R82">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>2.5</v>
@@ -7805,25 +7805,25 @@
         <v>1.85</v>
       </c>
       <c r="W82">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z82">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8113,7 +8113,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8380,7 +8380,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>44997.625</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
         <v>44</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6362550</v>
+        <v>6002005</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,40 +9000,40 @@
         <v>44997.92013888889</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="N96">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="O96">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P96">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
         <v>2</v>
@@ -9042,7 +9042,7 @@
         <v>1.85</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U96">
         <v>1.9</v>
@@ -9051,19 +9051,19 @@
         <v>1.95</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
         <v>0.8999999999999999</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6002005</v>
+        <v>6362550</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,40 +9089,40 @@
         <v>44997.92013888889</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="N97">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="O97">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
         <v>2</v>
@@ -9131,7 +9131,7 @@
         <v>1.85</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
         <v>1.9</v>
@@ -9140,19 +9140,19 @@
         <v>1.95</v>
       </c>
       <c r="W97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z97">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB97">
         <v>0.8999999999999999</v>
@@ -9178,7 +9178,7 @@
         <v>44998.01041666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9359,7 +9359,7 @@
         <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9893,7 +9893,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>45017</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -10780,7 +10780,7 @@
         <v>45018.625</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -11050,7 +11050,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11759,7 +11759,7 @@
         <v>45025.96527777778</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
         <v>36</v>
@@ -11851,7 +11851,7 @@
         <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12385,7 +12385,7 @@
         <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -13272,10 +13272,10 @@
         <v>45039.625</v>
       </c>
       <c r="F144" t="s">
+        <v>40</v>
+      </c>
+      <c r="G144" t="s">
         <v>41</v>
-      </c>
-      <c r="G144" t="s">
-        <v>40</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13450,7 +13450,7 @@
         <v>45045.00347222222</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G146" t="s">
         <v>30</v>
@@ -13984,7 +13984,7 @@
         <v>45046.625</v>
       </c>
       <c r="F152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G152" t="s">
         <v>29</v>
@@ -14877,7 +14877,7 @@
         <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H162">
         <v>4</v>
@@ -15141,7 +15141,7 @@
         <v>45060.625</v>
       </c>
       <c r="F165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45107.91666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G173" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H173">
         <v>1</v>
       </c>
       <c r="I173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L173">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M173">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N173">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O173">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P173">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q173">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R173">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T173">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U173">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V173">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y173">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC173">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,76 +15942,76 @@
         <v>45107.91666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G174" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K174">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M174">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N174">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P174">
+        <v>7</v>
+      </c>
+      <c r="Q174">
+        <v>-1.25</v>
+      </c>
+      <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.875</v>
+      </c>
+      <c r="T174">
+        <v>3</v>
+      </c>
+      <c r="U174">
         <v>2.05</v>
       </c>
-      <c r="Q174">
-        <v>0.5</v>
-      </c>
-      <c r="R174">
-        <v>1.825</v>
-      </c>
-      <c r="S174">
-        <v>2.025</v>
-      </c>
-      <c r="T174">
-        <v>2.75</v>
-      </c>
-      <c r="U174">
-        <v>1.9</v>
-      </c>
       <c r="V174">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z174">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC174">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16387,7 +16387,7 @@
         <v>45109.625</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G179" t="s">
         <v>29</v>
@@ -16835,7 +16835,7 @@
         <v>39</v>
       </c>
       <c r="G184" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -17010,7 +17010,7 @@
         <v>45115.87916666667</v>
       </c>
       <c r="F186" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17989,10 +17989,10 @@
         <v>45123.625</v>
       </c>
       <c r="F197" t="s">
+        <v>40</v>
+      </c>
+      <c r="G197" t="s">
         <v>41</v>
-      </c>
-      <c r="G197" t="s">
-        <v>40</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18259,7 +18259,7 @@
         <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18434,7 +18434,7 @@
         <v>45157.00694444445</v>
       </c>
       <c r="F202" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G202" t="s">
         <v>45</v>
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,10 +18879,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18894,43 +18894,43 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L207">
+        <v>3.3</v>
+      </c>
+      <c r="M207">
+        <v>2.9</v>
+      </c>
+      <c r="N207">
+        <v>1.85</v>
+      </c>
+      <c r="O207">
+        <v>3.75</v>
+      </c>
+      <c r="P207">
+        <v>4</v>
+      </c>
+      <c r="Q207">
+        <v>-0.5</v>
+      </c>
+      <c r="R207">
+        <v>1.875</v>
+      </c>
+      <c r="S207">
+        <v>1.975</v>
+      </c>
+      <c r="T207">
         <v>3</v>
       </c>
-      <c r="M207">
-        <v>1.5</v>
-      </c>
-      <c r="N207">
-        <v>1.615</v>
-      </c>
-      <c r="O207">
-        <v>4.2</v>
-      </c>
-      <c r="P207">
-        <v>5</v>
-      </c>
-      <c r="Q207">
-        <v>-0.75</v>
-      </c>
-      <c r="R207">
-        <v>1.8</v>
-      </c>
-      <c r="S207">
-        <v>2.05</v>
-      </c>
-      <c r="T207">
-        <v>2.75</v>
-      </c>
       <c r="U207">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V207">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W207">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X207">
         <v>-1</v>
@@ -18939,16 +18939,16 @@
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,10 +18968,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G208" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -18983,61 +18983,61 @@
         <v>49</v>
       </c>
       <c r="K208">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L208">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M208">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N208">
+        <v>1.615</v>
+      </c>
+      <c r="O208">
+        <v>4.2</v>
+      </c>
+      <c r="P208">
+        <v>5</v>
+      </c>
+      <c r="Q208">
+        <v>-0.75</v>
+      </c>
+      <c r="R208">
+        <v>1.8</v>
+      </c>
+      <c r="S208">
+        <v>2.05</v>
+      </c>
+      <c r="T208">
+        <v>2.75</v>
+      </c>
+      <c r="U208">
+        <v>2</v>
+      </c>
+      <c r="V208">
         <v>1.85</v>
       </c>
-      <c r="O208">
-        <v>3.75</v>
-      </c>
-      <c r="P208">
-        <v>4</v>
-      </c>
-      <c r="Q208">
+      <c r="W208">
+        <v>0.615</v>
+      </c>
+      <c r="X208">
+        <v>-1</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>0.4</v>
+      </c>
+      <c r="AA208">
         <v>-0.5</v>
       </c>
-      <c r="R208">
-        <v>1.875</v>
-      </c>
-      <c r="S208">
-        <v>1.975</v>
-      </c>
-      <c r="T208">
-        <v>3</v>
-      </c>
-      <c r="U208">
-        <v>1.825</v>
-      </c>
-      <c r="V208">
-        <v>2.025</v>
-      </c>
-      <c r="W208">
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
-      <c r="Z208">
-        <v>0.875</v>
-      </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
-      <c r="AB208">
-        <v>-1</v>
-      </c>
-      <c r="AC208">
-        <v>1.025</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19057,7 +19057,7 @@
         <v>45161.00347222222</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G209" t="s">
         <v>32</v>
@@ -19416,7 +19416,7 @@
         <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19594,7 +19594,7 @@
         <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -20214,7 +20214,7 @@
         <v>45168.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G222" t="s">
         <v>31</v>
@@ -20481,7 +20481,7 @@
         <v>45170.92013888889</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G225" t="s">
         <v>44</v>
@@ -20926,7 +20926,7 @@
         <v>45172.625</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
         <v>35</v>
@@ -21285,7 +21285,7 @@
         <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21374,7 +21374,7 @@
         <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -22172,7 +22172,7 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
         <v>36</v>
@@ -22617,7 +22617,7 @@
         <v>45193.625</v>
       </c>
       <c r="F249" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G249" t="s">
         <v>30</v>
@@ -23243,7 +23243,7 @@
         <v>34</v>
       </c>
       <c r="G256" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H256">
         <v>5</v>
@@ -23596,7 +23596,7 @@
         <v>45200.84722222222</v>
       </c>
       <c r="F260" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G260" t="s">
         <v>45</v>
@@ -24044,7 +24044,7 @@
         <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H265">
         <v>2</v>
@@ -24311,7 +24311,7 @@
         <v>31</v>
       </c>
       <c r="G268" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H268">
         <v>3</v>
@@ -24664,7 +24664,7 @@
         <v>45207.625</v>
       </c>
       <c r="F272" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G272" t="s">
         <v>46</v>
@@ -25109,7 +25109,7 @@
         <v>45219.92083333333</v>
       </c>
       <c r="F277" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G277" t="s">
         <v>35</v>
@@ -25290,7 +25290,7 @@
         <v>43</v>
       </c>
       <c r="G279" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H279">
         <v>1</v>
@@ -25999,7 +25999,7 @@
         <v>45225</v>
       </c>
       <c r="F287" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G287" t="s">
         <v>37</v>
@@ -26622,7 +26622,7 @@
         <v>45228.625</v>
       </c>
       <c r="F294" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G294" t="s">
         <v>37</v>
@@ -26714,7 +26714,7 @@
         <v>33</v>
       </c>
       <c r="G295" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H295">
         <v>5</v>
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6754096</v>
+        <v>6754097</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,40 +26889,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F297" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G297" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
         <v>1</v>
-      </c>
-      <c r="I297">
-        <v>2</v>
       </c>
       <c r="J297" t="s">
         <v>47</v>
       </c>
       <c r="K297">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L297">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M297">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N297">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O297">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P297">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R297">
         <v>2</v>
@@ -26931,13 +26931,13 @@
         <v>1.85</v>
       </c>
       <c r="T297">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U297">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V297">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,7 +26946,7 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Z297">
         <v>-1</v>
@@ -26955,10 +26955,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB297">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6754097</v>
+        <v>6754096</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,40 +26978,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G298" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J298" t="s">
         <v>47</v>
       </c>
       <c r="K298">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L298">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M298">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N298">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O298">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P298">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q298">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R298">
         <v>2</v>
@@ -27020,13 +27020,13 @@
         <v>1.85</v>
       </c>
       <c r="T298">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U298">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V298">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,7 +27035,7 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Z298">
         <v>-1</v>
@@ -27044,10 +27044,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC298">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27055,7 +27055,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>6754098</v>
+        <v>6754099</v>
       </c>
       <c r="C299" t="s">
         <v>28</v>
@@ -27067,76 +27067,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F299" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G299" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I299">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K299">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L299">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M299">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N299">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O299">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P299">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q299">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R299">
+        <v>1.825</v>
+      </c>
+      <c r="S299">
+        <v>2.025</v>
+      </c>
+      <c r="T299">
+        <v>3</v>
+      </c>
+      <c r="U299">
+        <v>1.875</v>
+      </c>
+      <c r="V299">
         <v>1.975</v>
       </c>
-      <c r="S299">
-        <v>1.875</v>
-      </c>
-      <c r="T299">
-        <v>2.75</v>
-      </c>
-      <c r="U299">
-        <v>1.825</v>
-      </c>
-      <c r="V299">
-        <v>2.025</v>
-      </c>
       <c r="W299">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X299">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y299">
         <v>-1</v>
       </c>
       <c r="Z299">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA299">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB299">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC299">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="300" spans="1:29">
@@ -27144,7 +27144,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>6754099</v>
+        <v>6754098</v>
       </c>
       <c r="C300" t="s">
         <v>28</v>
@@ -27156,76 +27156,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F300" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G300" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H300">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I300">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J300" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K300">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L300">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M300">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N300">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O300">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P300">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q300">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R300">
+        <v>1.975</v>
+      </c>
+      <c r="S300">
+        <v>1.875</v>
+      </c>
+      <c r="T300">
+        <v>2.75</v>
+      </c>
+      <c r="U300">
         <v>1.825</v>
       </c>
-      <c r="S300">
+      <c r="V300">
         <v>2.025</v>
       </c>
-      <c r="T300">
-        <v>3</v>
-      </c>
-      <c r="U300">
-        <v>1.875</v>
-      </c>
-      <c r="V300">
-        <v>1.975</v>
-      </c>
       <c r="W300">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X300">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y300">
         <v>-1</v>
       </c>
       <c r="Z300">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA300">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB300">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC300">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="301" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G301" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K301">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L301">
         <v>3.3</v>
       </c>
       <c r="M301">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N301">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O301">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P301">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q301">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
+        <v>2.05</v>
+      </c>
+      <c r="S301">
         <v>1.8</v>
       </c>
-      <c r="S301">
-        <v>2.05</v>
-      </c>
       <c r="T301">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U301">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V301">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W301">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z301">
+        <v>-1</v>
+      </c>
+      <c r="AA301">
         <v>0.8</v>
       </c>
-      <c r="AA301">
-        <v>-1</v>
-      </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC301">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G302" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H302">
+        <v>2</v>
+      </c>
+      <c r="I302">
         <v>0</v>
       </c>
-      <c r="I302">
-        <v>2</v>
-      </c>
       <c r="J302" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K302">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L302">
         <v>3.3</v>
       </c>
       <c r="M302">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N302">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O302">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P302">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R302">
+        <v>1.8</v>
+      </c>
+      <c r="S302">
         <v>2.05</v>
       </c>
-      <c r="S302">
-        <v>1.8</v>
-      </c>
       <c r="T302">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V302">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA302">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27945,7 +27945,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6754105</v>
+        <v>6754643</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27957,76 +27957,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F309" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G309" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309">
+        <v>2</v>
+      </c>
+      <c r="J309" t="s">
+        <v>47</v>
+      </c>
+      <c r="K309">
+        <v>2.7</v>
+      </c>
+      <c r="L309">
+        <v>3.4</v>
+      </c>
+      <c r="M309">
+        <v>2.5</v>
+      </c>
+      <c r="N309">
+        <v>2.7</v>
+      </c>
+      <c r="O309">
+        <v>3.5</v>
+      </c>
+      <c r="P309">
+        <v>2.55</v>
+      </c>
+      <c r="Q309">
         <v>0</v>
       </c>
-      <c r="J309" t="s">
-        <v>49</v>
-      </c>
-      <c r="K309">
-        <v>1.8</v>
-      </c>
-      <c r="L309">
-        <v>3.75</v>
-      </c>
-      <c r="M309">
-        <v>4.2</v>
-      </c>
-      <c r="N309">
-        <v>2.45</v>
-      </c>
-      <c r="O309">
-        <v>3.25</v>
-      </c>
-      <c r="P309">
-        <v>3</v>
-      </c>
-      <c r="Q309">
-        <v>-0.25</v>
-      </c>
       <c r="R309">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S309">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T309">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U309">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V309">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W309">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z309">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA309">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB309">
         <v>-1</v>
       </c>
       <c r="AC309">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28034,7 +28034,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6754643</v>
+        <v>6754105</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28046,76 +28046,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F310" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G310" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H310">
+        <v>1</v>
+      </c>
+      <c r="I310">
         <v>0</v>
       </c>
-      <c r="I310">
-        <v>2</v>
-      </c>
       <c r="J310" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K310">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L310">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M310">
+        <v>4.2</v>
+      </c>
+      <c r="N310">
+        <v>2.45</v>
+      </c>
+      <c r="O310">
+        <v>3.25</v>
+      </c>
+      <c r="P310">
+        <v>3</v>
+      </c>
+      <c r="Q310">
+        <v>-0.25</v>
+      </c>
+      <c r="R310">
+        <v>2.05</v>
+      </c>
+      <c r="S310">
+        <v>1.75</v>
+      </c>
+      <c r="T310">
         <v>2.5</v>
       </c>
-      <c r="N310">
-        <v>2.7</v>
-      </c>
-      <c r="O310">
-        <v>3.5</v>
-      </c>
-      <c r="P310">
-        <v>2.55</v>
-      </c>
-      <c r="Q310">
-        <v>0</v>
-      </c>
-      <c r="R310">
+      <c r="U310">
         <v>1.975</v>
       </c>
-      <c r="S310">
+      <c r="V310">
         <v>1.875</v>
       </c>
-      <c r="T310">
-        <v>2.75</v>
-      </c>
-      <c r="U310">
-        <v>2.025</v>
-      </c>
-      <c r="V310">
-        <v>1.825</v>
-      </c>
       <c r="W310">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X310">
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z310">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA310">
+        <v>-1</v>
+      </c>
+      <c r="AB310">
+        <v>-1</v>
+      </c>
+      <c r="AC310">
         <v>0.875</v>
-      </c>
-      <c r="AB310">
-        <v>-1</v>
-      </c>
-      <c r="AC310">
-        <v>0.825</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28316,7 +28316,7 @@
         <v>33</v>
       </c>
       <c r="G313" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H313">
         <v>3</v>
@@ -28402,7 +28402,7 @@
         <v>45235.9625</v>
       </c>
       <c r="F314" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G314" t="s">
         <v>46</v>
@@ -28672,7 +28672,7 @@
         <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H317">
         <v>1</v>
@@ -29295,7 +29295,7 @@
         <v>43</v>
       </c>
       <c r="G324" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H324">
         <v>2</v>
@@ -30897,7 +30897,7 @@
         <v>46</v>
       </c>
       <c r="G342" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H342">
         <v>2</v>
@@ -31431,7 +31431,7 @@
         <v>32</v>
       </c>
       <c r="G348" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H348">
         <v>1</v>
@@ -31873,7 +31873,7 @@
         <v>45311.00694444445</v>
       </c>
       <c r="F353" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G353" t="s">
         <v>39</v>
@@ -31962,7 +31962,7 @@
         <v>45311.83333333334</v>
       </c>
       <c r="F354" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G354" t="s">
         <v>44</v>
@@ -32395,7 +32395,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32407,76 +32407,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F359" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G359" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H359">
         <v>1</v>
       </c>
       <c r="I359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J359" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K359">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L359">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M359">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N359">
+        <v>3</v>
+      </c>
+      <c r="O359">
+        <v>3.3</v>
+      </c>
+      <c r="P359">
+        <v>2.4</v>
+      </c>
+      <c r="Q359">
+        <v>0.25</v>
+      </c>
+      <c r="R359">
+        <v>1.775</v>
+      </c>
+      <c r="S359">
+        <v>2.1</v>
+      </c>
+      <c r="T359">
+        <v>2.25</v>
+      </c>
+      <c r="U359">
+        <v>1.8</v>
+      </c>
+      <c r="V359">
+        <v>2.05</v>
+      </c>
+      <c r="W359">
+        <v>-1</v>
+      </c>
+      <c r="X359">
+        <v>-1</v>
+      </c>
+      <c r="Y359">
         <v>1.4</v>
       </c>
-      <c r="O359">
-        <v>4.333</v>
-      </c>
-      <c r="P359">
-        <v>8.5</v>
-      </c>
-      <c r="Q359">
-        <v>-1.25</v>
-      </c>
-      <c r="R359">
-        <v>1.925</v>
-      </c>
-      <c r="S359">
-        <v>1.925</v>
-      </c>
-      <c r="T359">
-        <v>2.75</v>
-      </c>
-      <c r="U359">
-        <v>2.025</v>
-      </c>
-      <c r="V359">
-        <v>1.825</v>
-      </c>
-      <c r="W359">
-        <v>-1</v>
-      </c>
-      <c r="X359">
-        <v>3.333</v>
-      </c>
-      <c r="Y359">
-        <v>-1</v>
-      </c>
       <c r="Z359">
         <v>-1</v>
       </c>
       <c r="AA359">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB359">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC359">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32484,7 +32484,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32496,76 +32496,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F360" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G360" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H360">
         <v>1</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K360">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L360">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M360">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N360">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O360">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P360">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q360">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R360">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S360">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T360">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U360">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V360">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W360">
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y360">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
         <v>-1</v>
       </c>
       <c r="AA360">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB360">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32585,7 +32585,7 @@
         <v>45316.00416666667</v>
       </c>
       <c r="F361" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G361" t="s">
         <v>30</v>
@@ -32677,7 +32677,7 @@
         <v>38</v>
       </c>
       <c r="G362" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H362">
         <v>1</v>
@@ -32840,7 +32840,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>7612810</v>
+        <v>7612811</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32852,76 +32852,76 @@
         <v>45318.83333333334</v>
       </c>
       <c r="F364" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G364" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J364" t="s">
         <v>49</v>
       </c>
       <c r="K364">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L364">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M364">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N364">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O364">
+        <v>4</v>
+      </c>
+      <c r="P364">
         <v>4.2</v>
       </c>
-      <c r="P364">
-        <v>5.5</v>
-      </c>
       <c r="Q364">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R364">
+        <v>2</v>
+      </c>
+      <c r="S364">
         <v>1.85</v>
       </c>
-      <c r="S364">
-        <v>2</v>
-      </c>
       <c r="T364">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U364">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V364">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W364">
+        <v>0.8</v>
+      </c>
+      <c r="X364">
+        <v>-1</v>
+      </c>
+      <c r="Y364">
+        <v>-1</v>
+      </c>
+      <c r="Z364">
         <v>0.5</v>
       </c>
-      <c r="X364">
-        <v>-1</v>
-      </c>
-      <c r="Y364">
-        <v>-1</v>
-      </c>
-      <c r="Z364">
-        <v>0</v>
-      </c>
       <c r="AA364">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB364">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC364">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -32929,7 +32929,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>7612811</v>
+        <v>7612810</v>
       </c>
       <c r="C365" t="s">
         <v>28</v>
@@ -32941,58 +32941,58 @@
         <v>45318.83333333334</v>
       </c>
       <c r="F365" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G365" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H365">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J365" t="s">
         <v>49</v>
       </c>
       <c r="K365">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L365">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M365">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N365">
+        <v>1.5</v>
+      </c>
+      <c r="O365">
+        <v>4.2</v>
+      </c>
+      <c r="P365">
+        <v>5.5</v>
+      </c>
+      <c r="Q365">
+        <v>-1</v>
+      </c>
+      <c r="R365">
+        <v>1.85</v>
+      </c>
+      <c r="S365">
+        <v>2</v>
+      </c>
+      <c r="T365">
+        <v>2.75</v>
+      </c>
+      <c r="U365">
         <v>1.8</v>
       </c>
-      <c r="O365">
-        <v>4</v>
-      </c>
-      <c r="P365">
-        <v>4.2</v>
-      </c>
-      <c r="Q365">
-        <v>-0.75</v>
-      </c>
-      <c r="R365">
-        <v>2</v>
-      </c>
-      <c r="S365">
-        <v>1.85</v>
-      </c>
-      <c r="T365">
-        <v>3</v>
-      </c>
-      <c r="U365">
-        <v>1.975</v>
-      </c>
       <c r="V365">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W365">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X365">
         <v>-1</v>
@@ -33001,16 +33001,16 @@
         <v>-1</v>
       </c>
       <c r="Z365">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA365">
+        <v>-0</v>
+      </c>
+      <c r="AB365">
+        <v>0.4</v>
+      </c>
+      <c r="AC365">
         <v>-0.5</v>
-      </c>
-      <c r="AB365">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC365">
-        <v>-1</v>
       </c>
     </row>
     <row r="366" spans="1:29">
@@ -33300,7 +33300,7 @@
         <v>36</v>
       </c>
       <c r="G369" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H369">
         <v>2</v>
@@ -33463,7 +33463,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33475,76 +33475,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F371" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G371" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J371" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K371">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L371">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M371">
+        <v>4.5</v>
+      </c>
+      <c r="N371">
+        <v>1.533</v>
+      </c>
+      <c r="O371">
+        <v>4.2</v>
+      </c>
+      <c r="P371">
+        <v>6</v>
+      </c>
+      <c r="Q371">
+        <v>-1</v>
+      </c>
+      <c r="R371">
+        <v>1.95</v>
+      </c>
+      <c r="S371">
+        <v>1.9</v>
+      </c>
+      <c r="T371">
         <v>2.75</v>
       </c>
-      <c r="N371">
-        <v>3.3</v>
-      </c>
-      <c r="O371">
-        <v>3.6</v>
-      </c>
-      <c r="P371">
-        <v>2.15</v>
-      </c>
-      <c r="Q371">
-        <v>0.25</v>
-      </c>
-      <c r="R371">
-        <v>1.925</v>
-      </c>
-      <c r="S371">
-        <v>1.925</v>
-      </c>
-      <c r="T371">
-        <v>2.5</v>
-      </c>
       <c r="U371">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V371">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W371">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X371">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA371">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB371">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC371">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33552,7 +33552,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33564,76 +33564,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F372" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G372" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J372" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K372">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L372">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M372">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N372">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O372">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P372">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q372">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R372">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S372">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T372">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V372">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W372">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X372">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA372">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB372">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC372">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -33745,7 +33745,7 @@
         <v>45</v>
       </c>
       <c r="G374" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H374">
         <v>3</v>
@@ -34187,7 +34187,7 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F379" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G379" t="s">
         <v>43</v>
@@ -34276,7 +34276,7 @@
         <v>45325.8375</v>
       </c>
       <c r="F380" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G380" t="s">
         <v>29</v>
@@ -35080,7 +35080,7 @@
         <v>29</v>
       </c>
       <c r="G389" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H389">
         <v>3</v>
@@ -35169,7 +35169,7 @@
         <v>45</v>
       </c>
       <c r="G390" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H390">
         <v>2</v>
@@ -35421,7 +35421,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,73 +35433,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F393" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G393" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I393">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J393" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K393">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L393">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M393">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N393">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O393">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P393">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q393">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R393">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S393">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T393">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U393">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V393">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W393">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X393">
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA393">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB393">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC393">
         <v>-1</v>
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F394" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G394" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H394">
+        <v>0</v>
+      </c>
+      <c r="I394">
         <v>3</v>
       </c>
-      <c r="I394">
-        <v>2</v>
-      </c>
       <c r="J394" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K394">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L394">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M394">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N394">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O394">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P394">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q394">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R394">
+        <v>2.05</v>
+      </c>
+      <c r="S394">
+        <v>1.8</v>
+      </c>
+      <c r="T394">
+        <v>2.5</v>
+      </c>
+      <c r="U394">
+        <v>1.9</v>
+      </c>
+      <c r="V394">
         <v>1.95</v>
       </c>
-      <c r="S394">
-        <v>1.9</v>
-      </c>
-      <c r="T394">
-        <v>2.75</v>
-      </c>
-      <c r="U394">
-        <v>1.825</v>
-      </c>
-      <c r="V394">
-        <v>2.025</v>
-      </c>
       <c r="W394">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z394">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB394">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -36415,7 +36415,7 @@
         <v>31</v>
       </c>
       <c r="G404" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H404">
         <v>0</v>
@@ -36679,11 +36679,20 @@
         <v>45343.91666666666</v>
       </c>
       <c r="F407" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G407" t="s">
         <v>33</v>
       </c>
+      <c r="H407">
+        <v>1</v>
+      </c>
+      <c r="I407">
+        <v>0</v>
+      </c>
+      <c r="J407" t="s">
+        <v>49</v>
+      </c>
       <c r="K407">
         <v>1.8</v>
       </c>
@@ -36697,43 +36706,49 @@
         <v>1.5</v>
       </c>
       <c r="O407">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P407">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q407">
         <v>-1.25</v>
       </c>
       <c r="R407">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S407">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T407">
         <v>3.25</v>
       </c>
       <c r="U407">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V407">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W407">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X407">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y407">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z407">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA407">
-        <v>0</v>
+        <v>0.4375</v>
+      </c>
+      <c r="AB407">
+        <v>-1</v>
+      </c>
+      <c r="AC407">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="408" spans="1:29">
@@ -36741,7 +36756,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>7612867</v>
+        <v>7612866</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36753,61 +36768,76 @@
         <v>45344</v>
       </c>
       <c r="F408" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G408" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="H408">
+        <v>2</v>
+      </c>
+      <c r="I408">
+        <v>3</v>
+      </c>
+      <c r="J408" t="s">
+        <v>47</v>
       </c>
       <c r="K408">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L408">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M408">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N408">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="O408">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P408">
-        <v>11</v>
+        <v>2.375</v>
       </c>
       <c r="Q408">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R408">
+        <v>1.75</v>
+      </c>
+      <c r="S408">
+        <v>2.05</v>
+      </c>
+      <c r="T408">
+        <v>2.75</v>
+      </c>
+      <c r="U408">
         <v>1.85</v>
       </c>
-      <c r="S408">
-        <v>2</v>
-      </c>
-      <c r="T408">
-        <v>3.25</v>
-      </c>
-      <c r="U408">
-        <v>2.025</v>
-      </c>
       <c r="V408">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W408">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X408">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y408">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="Z408">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA408">
-        <v>0</v>
+        <v>1.05</v>
+      </c>
+      <c r="AB408">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC408">
+        <v>-1</v>
       </c>
     </row>
     <row r="409" spans="1:29">
@@ -36815,7 +36845,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7612866</v>
+        <v>7612867</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36827,61 +36857,76 @@
         <v>45344</v>
       </c>
       <c r="F409" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G409" t="s">
-        <v>39</v>
+        <v>44</v>
+      </c>
+      <c r="H409">
+        <v>2</v>
+      </c>
+      <c r="I409">
+        <v>2</v>
+      </c>
+      <c r="J409" t="s">
+        <v>48</v>
       </c>
       <c r="K409">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L409">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M409">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N409">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="O409">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P409">
-        <v>2.6</v>
+        <v>12</v>
       </c>
       <c r="Q409">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R409">
+        <v>1.825</v>
+      </c>
+      <c r="S409">
+        <v>2.025</v>
+      </c>
+      <c r="T409">
+        <v>3.25</v>
+      </c>
+      <c r="U409">
         <v>1.975</v>
       </c>
-      <c r="S409">
+      <c r="V409">
         <v>1.875</v>
       </c>
-      <c r="T409">
-        <v>2.75</v>
-      </c>
-      <c r="U409">
-        <v>1.875</v>
-      </c>
-      <c r="V409">
-        <v>1.975</v>
-      </c>
       <c r="W409">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X409">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="Y409">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z409">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA409">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB409">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC409">
+        <v>-1</v>
       </c>
     </row>
     <row r="410" spans="1:29">
@@ -36916,10 +36961,10 @@
         <v>3.1</v>
       </c>
       <c r="N410">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O410">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P410">
         <v>3.2</v>
@@ -36928,19 +36973,19 @@
         <v>-0.25</v>
       </c>
       <c r="R410">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S410">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T410">
         <v>2.75</v>
       </c>
       <c r="U410">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V410">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W410">
         <v>0</v>
@@ -36990,31 +37035,31 @@
         <v>2.45</v>
       </c>
       <c r="N411">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="O411">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P411">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q411">
         <v>0.25</v>
       </c>
       <c r="R411">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S411">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T411">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U411">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V411">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W411">
         <v>0</v>
@@ -37049,7 +37094,7 @@
         <v>45346.00694444445</v>
       </c>
       <c r="F412" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G412" t="s">
         <v>31</v>
@@ -37064,31 +37109,31 @@
         <v>1.533</v>
       </c>
       <c r="N412">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="O412">
         <v>3.8</v>
       </c>
       <c r="P412">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="Q412">
         <v>0.75</v>
       </c>
       <c r="R412">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S412">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T412">
         <v>2.5</v>
       </c>
       <c r="U412">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V412">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W412">
         <v>0</v>
@@ -37138,10 +37183,10 @@
         <v>3</v>
       </c>
       <c r="N413">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O413">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P413">
         <v>3.8</v>
@@ -37150,19 +37195,19 @@
         <v>-0.5</v>
       </c>
       <c r="R413">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S413">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T413">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U413">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V413">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W413">
         <v>0</v>
@@ -37215,19 +37260,19 @@
         <v>1.571</v>
       </c>
       <c r="O414">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P414">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q414">
         <v>-1</v>
       </c>
       <c r="R414">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S414">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T414">
         <v>2.5</v>
@@ -37292,16 +37337,16 @@
         <v>3.4</v>
       </c>
       <c r="P415">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="Q415">
         <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S415">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T415">
         <v>2.5</v>
@@ -37360,31 +37405,31 @@
         <v>6</v>
       </c>
       <c r="N416">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="O416">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P416">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q416">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R416">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S416">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T416">
         <v>2.75</v>
       </c>
       <c r="U416">
+        <v>1.95</v>
+      </c>
+      <c r="V416">
         <v>1.9</v>
-      </c>
-      <c r="V416">
-        <v>1.95</v>
       </c>
       <c r="W416">
         <v>0</v>
@@ -37419,7 +37464,7 @@
         <v>45347.625</v>
       </c>
       <c r="F417" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G417" t="s">
         <v>34</v>
@@ -37434,31 +37479,31 @@
         <v>4.1</v>
       </c>
       <c r="N417">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="O417">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P417">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q417">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R417">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S417">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T417">
         <v>3</v>
       </c>
       <c r="U417">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V417">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W417">
         <v>0</v>
@@ -37508,31 +37553,31 @@
         <v>3.3</v>
       </c>
       <c r="N418">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O418">
+        <v>3.8</v>
+      </c>
+      <c r="P418">
         <v>3.6</v>
       </c>
-      <c r="P418">
-        <v>3.2</v>
-      </c>
       <c r="Q418">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R418">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S418">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T418">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U418">
+        <v>2</v>
+      </c>
+      <c r="V418">
         <v>1.85</v>
-      </c>
-      <c r="V418">
-        <v>2</v>
       </c>
       <c r="W418">
         <v>0</v>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC418"/>
+  <dimension ref="A1:AC417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6001406</v>
+        <v>6001946</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,73 +3215,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="N31">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="O31">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="P31">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S31">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA31">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6001946</v>
+        <v>6001406</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,73 +3304,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H32">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32">
+        <v>2.5</v>
+      </c>
+      <c r="L32">
+        <v>3.3</v>
+      </c>
+      <c r="M32">
+        <v>2.75</v>
+      </c>
+      <c r="N32">
+        <v>2.875</v>
+      </c>
+      <c r="O32">
+        <v>2.875</v>
+      </c>
+      <c r="P32">
+        <v>2.75</v>
+      </c>
+      <c r="Q32">
         <v>0</v>
       </c>
-      <c r="J32" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32">
-        <v>1.3</v>
-      </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-      <c r="M32">
-        <v>10</v>
-      </c>
-      <c r="N32">
-        <v>1.222</v>
-      </c>
-      <c r="O32">
-        <v>6</v>
-      </c>
-      <c r="P32">
-        <v>12</v>
-      </c>
-      <c r="Q32">
-        <v>-1.75</v>
-      </c>
       <c r="R32">
+        <v>2.025</v>
+      </c>
+      <c r="S32">
+        <v>1.825</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
         <v>1.85</v>
       </c>
-      <c r="S32">
-        <v>2</v>
-      </c>
-      <c r="T32">
-        <v>3.25</v>
-      </c>
-      <c r="U32">
-        <v>1.925</v>
-      </c>
-      <c r="V32">
-        <v>1.925</v>
-      </c>
       <c r="W32">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB32">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6001965</v>
+        <v>6001964</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,58 +4906,58 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
         <v>49</v>
       </c>
       <c r="K50">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="L50">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N50">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="O50">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>7</v>
+        <v>2.3</v>
       </c>
       <c r="Q50">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T50">
         <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.3999999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4966,13 +4966,13 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4983,7 +4983,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6001964</v>
+        <v>6001965</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4995,58 +4995,58 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>49</v>
       </c>
       <c r="K51">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M51">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N51">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="Q51">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R51">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
         <v>2.75</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>1.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5055,13 +5055,13 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC51">
         <v>-1</v>
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6001967</v>
+        <v>6001968</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>44971.92013888889</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N54">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V54">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W54">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6001968</v>
+        <v>6001967</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>44971.92013888889</v>
       </c>
       <c r="F55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K55">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L55">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N55">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O55">
+        <v>4</v>
+      </c>
+      <c r="P55">
         <v>5</v>
       </c>
-      <c r="P55">
-        <v>6.5</v>
-      </c>
       <c r="Q55">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R55">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S55">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X55">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA55">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6002050</v>
+        <v>6001419</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,10 +13717,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -13732,43 +13732,43 @@
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="L149">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M149">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N149">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P149">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q149">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R149">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S149">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V149">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W149">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6001419</v>
+        <v>6002050</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,10 +13806,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F150" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13821,43 +13821,43 @@
         <v>49</v>
       </c>
       <c r="K150">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="L150">
+        <v>4.333</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
+        <v>1.7</v>
+      </c>
+      <c r="O150">
+        <v>4</v>
+      </c>
+      <c r="P150">
         <v>4.75</v>
       </c>
-      <c r="M150">
-        <v>7.5</v>
-      </c>
-      <c r="N150">
-        <v>1.333</v>
-      </c>
-      <c r="O150">
-        <v>5.25</v>
-      </c>
-      <c r="P150">
-        <v>9</v>
-      </c>
       <c r="Q150">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
+        <v>1.975</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
         <v>1.85</v>
       </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>2.025</v>
-      </c>
       <c r="V150">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W150">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,13 +13866,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -18689,7 +18689,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7094230</v>
+        <v>7053868</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18701,49 +18701,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M205">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P205">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R205">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
         <v>2</v>
@@ -18755,22 +18755,22 @@
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z205">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC205">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7053868</v>
+        <v>7094230</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,49 +18790,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K206">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L206">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N206">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O206">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P206">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q206">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
         <v>2</v>
@@ -18844,22 +18844,22 @@
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y206">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA206">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB206">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,73 +22083,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G243" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H243">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I243">
         <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K243">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M243">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N243">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O243">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P243">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q243">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R243">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S243">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T243">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V243">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W243">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X243">
         <v>-1</v>
       </c>
       <c r="Y243">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA243">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB243">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC243">
         <v>-1</v>
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,73 +22172,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G244" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I244">
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K244">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L244">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M244">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N244">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O244">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P244">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q244">
+        <v>-1</v>
+      </c>
+      <c r="R244">
+        <v>1.95</v>
+      </c>
+      <c r="S244">
+        <v>1.9</v>
+      </c>
+      <c r="T244">
+        <v>3</v>
+      </c>
+      <c r="U244">
+        <v>1.925</v>
+      </c>
+      <c r="V244">
+        <v>1.925</v>
+      </c>
+      <c r="W244">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X244">
+        <v>-1</v>
+      </c>
+      <c r="Y244">
+        <v>-1</v>
+      </c>
+      <c r="Z244">
         <v>0</v>
       </c>
-      <c r="R244">
-        <v>1.85</v>
-      </c>
-      <c r="S244">
-        <v>2</v>
-      </c>
-      <c r="T244">
-        <v>2.25</v>
-      </c>
-      <c r="U244">
-        <v>2.1</v>
-      </c>
-      <c r="V244">
-        <v>1.775</v>
-      </c>
-      <c r="W244">
-        <v>-1</v>
-      </c>
-      <c r="X244">
-        <v>-1</v>
-      </c>
-      <c r="Y244">
-        <v>1.8</v>
-      </c>
-      <c r="Z244">
-        <v>-1</v>
-      </c>
       <c r="AA244">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB244">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,61 +22350,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G246" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246">
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K246">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L246">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M246">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N246">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O246">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P246">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q246">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S246">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T246">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U246">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V246">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X246">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22413,13 +22413,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,61 +22439,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G247" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247">
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K247">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M247">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N247">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O247">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P247">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q247">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R247">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S247">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T247">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U247">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V247">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W247">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22502,13 +22502,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,73 +23863,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G263" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I263">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K263">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L263">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M263">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N263">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O263">
         <v>3.6</v>
       </c>
       <c r="P263">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R263">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S263">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T263">
         <v>2.5</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA263">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC263">
         <v>-1</v>
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,73 +23952,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K264">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L264">
+        <v>3.3</v>
+      </c>
+      <c r="M264">
+        <v>2.8</v>
+      </c>
+      <c r="N264">
         <v>3.5</v>
-      </c>
-      <c r="M264">
-        <v>4.5</v>
-      </c>
-      <c r="N264">
-        <v>1.8</v>
       </c>
       <c r="O264">
         <v>3.6</v>
       </c>
       <c r="P264">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R264">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W264">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z264">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB264">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45204</v>
       </c>
       <c r="F265" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H265">
         <v>2</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K265">
+        <v>1.75</v>
+      </c>
+      <c r="L265">
+        <v>3.6</v>
+      </c>
+      <c r="M265">
+        <v>4.2</v>
+      </c>
+      <c r="N265">
+        <v>1.65</v>
+      </c>
+      <c r="O265">
+        <v>4</v>
+      </c>
+      <c r="P265">
+        <v>4.75</v>
+      </c>
+      <c r="Q265">
+        <v>-0.75</v>
+      </c>
+      <c r="R265">
         <v>1.8</v>
       </c>
-      <c r="L265">
-        <v>3.3</v>
-      </c>
-      <c r="M265">
-        <v>4.333</v>
-      </c>
-      <c r="N265">
-        <v>1.533</v>
-      </c>
-      <c r="O265">
-        <v>4.2</v>
-      </c>
-      <c r="P265">
-        <v>6</v>
-      </c>
-      <c r="Q265">
-        <v>-1</v>
-      </c>
-      <c r="R265">
-        <v>1.925</v>
-      </c>
       <c r="S265">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V265">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X265">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA265">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB265">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC265">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,76 +24130,76 @@
         <v>45204</v>
       </c>
       <c r="F266" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G266" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H266">
         <v>2</v>
       </c>
       <c r="I266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J266" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K266">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L266">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M266">
+        <v>4.333</v>
+      </c>
+      <c r="N266">
+        <v>1.533</v>
+      </c>
+      <c r="O266">
         <v>4.2</v>
       </c>
-      <c r="N266">
-        <v>1.65</v>
-      </c>
-      <c r="O266">
-        <v>4</v>
-      </c>
       <c r="P266">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q266">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R266">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S266">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T266">
         <v>3</v>
       </c>
       <c r="U266">
+        <v>2</v>
+      </c>
+      <c r="V266">
         <v>1.85</v>
       </c>
-      <c r="V266">
-        <v>2</v>
-      </c>
       <c r="W266">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X266">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA266">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC266">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24385,7 +24385,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24397,76 +24397,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F269" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G269" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I269">
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K269">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L269">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M269">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N269">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O269">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P269">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q269">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R269">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S269">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T269">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U269">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V269">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X269">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA269">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC269">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,76 +24486,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G270" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H270">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I270">
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K270">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L270">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M270">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N270">
+        <v>2.9</v>
+      </c>
+      <c r="O270">
+        <v>3.5</v>
+      </c>
+      <c r="P270">
         <v>2.4</v>
       </c>
-      <c r="O270">
-        <v>3.2</v>
-      </c>
-      <c r="P270">
-        <v>3.1</v>
-      </c>
       <c r="Q270">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R270">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S270">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T270">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U270">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V270">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W270">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X270">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y270">
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB270">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6754097</v>
+        <v>6754096</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,40 +26889,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G297" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J297" t="s">
         <v>47</v>
       </c>
       <c r="K297">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L297">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M297">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N297">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O297">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P297">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q297">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R297">
         <v>2</v>
@@ -26931,13 +26931,13 @@
         <v>1.85</v>
       </c>
       <c r="T297">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V297">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,7 +26946,7 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Z297">
         <v>-1</v>
@@ -26955,10 +26955,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC297">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6754096</v>
+        <v>6754097</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,40 +26978,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G298" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H298">
+        <v>0</v>
+      </c>
+      <c r="I298">
         <v>1</v>
-      </c>
-      <c r="I298">
-        <v>2</v>
       </c>
       <c r="J298" t="s">
         <v>47</v>
       </c>
       <c r="K298">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L298">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M298">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N298">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O298">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P298">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q298">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R298">
         <v>2</v>
@@ -27020,13 +27020,13 @@
         <v>1.85</v>
       </c>
       <c r="T298">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U298">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V298">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,7 +27035,7 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Z298">
         <v>-1</v>
@@ -27044,10 +27044,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB298">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G301" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H301">
+        <v>2</v>
+      </c>
+      <c r="I301">
         <v>0</v>
       </c>
-      <c r="I301">
-        <v>2</v>
-      </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K301">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L301">
         <v>3.3</v>
       </c>
       <c r="M301">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N301">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O301">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P301">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R301">
+        <v>1.8</v>
+      </c>
+      <c r="S301">
         <v>2.05</v>
       </c>
-      <c r="S301">
-        <v>1.8</v>
-      </c>
       <c r="T301">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U301">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA301">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G302" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K302">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L302">
         <v>3.3</v>
       </c>
       <c r="M302">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O302">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P302">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q302">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
+        <v>2.05</v>
+      </c>
+      <c r="S302">
         <v>1.8</v>
       </c>
-      <c r="S302">
-        <v>2.05</v>
-      </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V302">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W302">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z302">
+        <v>-1</v>
+      </c>
+      <c r="AA302">
         <v>0.8</v>
       </c>
-      <c r="AA302">
-        <v>-1</v>
-      </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC302">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -33463,7 +33463,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C371" t="s">
         <v>28</v>
@@ -33475,76 +33475,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F371" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G371" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J371" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K371">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L371">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M371">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N371">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O371">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P371">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q371">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R371">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S371">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T371">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U371">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V371">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W371">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X371">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y371">
         <v>-1</v>
       </c>
       <c r="Z371">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA371">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB371">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC371">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372" spans="1:29">
@@ -33552,7 +33552,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33564,76 +33564,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F372" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G372" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J372" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K372">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L372">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M372">
+        <v>4.5</v>
+      </c>
+      <c r="N372">
+        <v>1.533</v>
+      </c>
+      <c r="O372">
+        <v>4.2</v>
+      </c>
+      <c r="P372">
+        <v>6</v>
+      </c>
+      <c r="Q372">
+        <v>-1</v>
+      </c>
+      <c r="R372">
+        <v>1.95</v>
+      </c>
+      <c r="S372">
+        <v>1.9</v>
+      </c>
+      <c r="T372">
         <v>2.75</v>
       </c>
-      <c r="N372">
-        <v>3.3</v>
-      </c>
-      <c r="O372">
-        <v>3.6</v>
-      </c>
-      <c r="P372">
-        <v>2.15</v>
-      </c>
-      <c r="Q372">
-        <v>0.25</v>
-      </c>
-      <c r="R372">
-        <v>1.925</v>
-      </c>
-      <c r="S372">
-        <v>1.925</v>
-      </c>
-      <c r="T372">
-        <v>2.5</v>
-      </c>
       <c r="U372">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V372">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X372">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y372">
         <v>-1</v>
       </c>
       <c r="Z372">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA372">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB372">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC372">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="373" spans="1:29">
@@ -35421,7 +35421,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,73 +35433,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F393" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G393" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H393">
+        <v>0</v>
+      </c>
+      <c r="I393">
         <v>3</v>
       </c>
-      <c r="I393">
-        <v>2</v>
-      </c>
       <c r="J393" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K393">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L393">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M393">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N393">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O393">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P393">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q393">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R393">
+        <v>2.05</v>
+      </c>
+      <c r="S393">
+        <v>1.8</v>
+      </c>
+      <c r="T393">
+        <v>2.5</v>
+      </c>
+      <c r="U393">
+        <v>1.9</v>
+      </c>
+      <c r="V393">
         <v>1.95</v>
       </c>
-      <c r="S393">
-        <v>1.9</v>
-      </c>
-      <c r="T393">
-        <v>2.75</v>
-      </c>
-      <c r="U393">
-        <v>1.825</v>
-      </c>
-      <c r="V393">
-        <v>2.025</v>
-      </c>
       <c r="W393">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X393">
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z393">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA393">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB393">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC393">
         <v>-1</v>
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F394" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G394" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I394">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J394" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K394">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L394">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M394">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N394">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O394">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P394">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q394">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R394">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S394">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T394">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U394">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V394">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA394">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB394">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -36756,7 +36756,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>7612866</v>
+        <v>7612867</v>
       </c>
       <c r="C408" t="s">
         <v>28</v>
@@ -36768,73 +36768,73 @@
         <v>45344</v>
       </c>
       <c r="F408" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G408" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H408">
         <v>2</v>
       </c>
       <c r="I408">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J408" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K408">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L408">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M408">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N408">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="O408">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P408">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q408">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R408">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S408">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T408">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U408">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V408">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W408">
         <v>-1</v>
       </c>
       <c r="X408">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y408">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z408">
         <v>-1</v>
       </c>
       <c r="AA408">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB408">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC408">
         <v>-1</v>
@@ -36845,7 +36845,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>7612867</v>
+        <v>7612866</v>
       </c>
       <c r="C409" t="s">
         <v>28</v>
@@ -36857,73 +36857,73 @@
         <v>45344</v>
       </c>
       <c r="F409" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G409" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H409">
         <v>2</v>
       </c>
       <c r="I409">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J409" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K409">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L409">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M409">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N409">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="O409">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P409">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q409">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R409">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S409">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T409">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U409">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V409">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W409">
         <v>-1</v>
       </c>
       <c r="X409">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y409">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z409">
         <v>-1</v>
       </c>
       <c r="AA409">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB409">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC409">
         <v>-1</v>
@@ -36934,7 +36934,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7612853</v>
+        <v>7612854</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36943,49 +36943,49 @@
         <v>28</v>
       </c>
       <c r="E410" s="2">
-        <v>45345.91666666666</v>
+        <v>45346</v>
       </c>
       <c r="F410" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G410" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K410">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L410">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M410">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="N410">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="O410">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P410">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q410">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R410">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S410">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T410">
         <v>2.75</v>
       </c>
       <c r="U410">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V410">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W410">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7612854</v>
+        <v>7612855</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37017,49 +37017,49 @@
         <v>28</v>
       </c>
       <c r="E411" s="2">
-        <v>45346</v>
+        <v>45346.00694444445</v>
       </c>
       <c r="F411" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G411" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K411">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="L411">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M411">
-        <v>2.45</v>
+        <v>1.533</v>
       </c>
       <c r="N411">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="O411">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P411">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q411">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R411">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S411">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T411">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U411">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V411">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W411">
         <v>0</v>
@@ -37082,7 +37082,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7612855</v>
+        <v>7612856</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37091,49 +37091,49 @@
         <v>28</v>
       </c>
       <c r="E412" s="2">
-        <v>45346.00694444445</v>
+        <v>45346.83333333334</v>
       </c>
       <c r="F412" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G412" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K412">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L412">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="M412">
-        <v>1.533</v>
+        <v>3</v>
       </c>
       <c r="N412">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="O412">
+        <v>4</v>
+      </c>
+      <c r="P412">
         <v>3.8</v>
       </c>
-      <c r="P412">
-        <v>1.75</v>
-      </c>
       <c r="Q412">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R412">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S412">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T412">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U412">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V412">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W412">
         <v>0</v>
@@ -37156,7 +37156,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7612856</v>
+        <v>7612858</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37165,49 +37165,49 @@
         <v>28</v>
       </c>
       <c r="E413" s="2">
-        <v>45346.83333333334</v>
+        <v>45346.91666666666</v>
       </c>
       <c r="F413" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G413" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K413">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L413">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M413">
-        <v>3</v>
+        <v>6.2</v>
       </c>
       <c r="N413">
+        <v>1.571</v>
+      </c>
+      <c r="O413">
+        <v>4.2</v>
+      </c>
+      <c r="P413">
+        <v>5.5</v>
+      </c>
+      <c r="Q413">
+        <v>-1</v>
+      </c>
+      <c r="R413">
+        <v>2</v>
+      </c>
+      <c r="S413">
         <v>1.85</v>
       </c>
-      <c r="O413">
-        <v>4</v>
-      </c>
-      <c r="P413">
-        <v>3.8</v>
-      </c>
-      <c r="Q413">
-        <v>-0.5</v>
-      </c>
-      <c r="R413">
-        <v>1.875</v>
-      </c>
-      <c r="S413">
-        <v>1.975</v>
-      </c>
       <c r="T413">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U413">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V413">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W413">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7612858</v>
+        <v>7612857</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37239,49 +37239,49 @@
         <v>28</v>
       </c>
       <c r="E414" s="2">
-        <v>45346.91666666666</v>
+        <v>45346.92013888889</v>
       </c>
       <c r="F414" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G414" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K414">
-        <v>1.444</v>
+        <v>2.3</v>
       </c>
       <c r="L414">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M414">
-        <v>6.2</v>
+        <v>2.75</v>
       </c>
       <c r="N414">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O414">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P414">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q414">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R414">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S414">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T414">
         <v>2.5</v>
       </c>
       <c r="U414">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V414">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W414">
         <v>0</v>
@@ -37304,7 +37304,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7612857</v>
+        <v>7612859</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37313,49 +37313,49 @@
         <v>28</v>
       </c>
       <c r="E415" s="2">
-        <v>45346.92013888889</v>
+        <v>45347.00694444445</v>
       </c>
       <c r="F415" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G415" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K415">
-        <v>2.3</v>
+        <v>1.444</v>
       </c>
       <c r="L415">
+        <v>4.25</v>
+      </c>
+      <c r="M415">
+        <v>6</v>
+      </c>
+      <c r="N415">
+        <v>2.05</v>
+      </c>
+      <c r="O415">
+        <v>3.75</v>
+      </c>
+      <c r="P415">
         <v>3.4</v>
-      </c>
-      <c r="M415">
-        <v>2.75</v>
-      </c>
-      <c r="N415">
-        <v>2.15</v>
-      </c>
-      <c r="O415">
-        <v>3.4</v>
-      </c>
-      <c r="P415">
-        <v>3.3</v>
       </c>
       <c r="Q415">
         <v>-0.25</v>
       </c>
       <c r="R415">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S415">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T415">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U415">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V415">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W415">
         <v>0</v>
@@ -37378,7 +37378,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>7612859</v>
+        <v>7612860</v>
       </c>
       <c r="C416" t="s">
         <v>28</v>
@@ -37387,43 +37387,43 @@
         <v>28</v>
       </c>
       <c r="E416" s="2">
-        <v>45347</v>
+        <v>45347.625</v>
       </c>
       <c r="F416" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G416" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K416">
-        <v>1.444</v>
+        <v>1.75</v>
       </c>
       <c r="L416">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="M416">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="N416">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="O416">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P416">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q416">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R416">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S416">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T416">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U416">
         <v>1.95</v>
@@ -37452,7 +37452,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>7612860</v>
+        <v>7854021</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37461,49 +37461,49 @@
         <v>28</v>
       </c>
       <c r="E417" s="2">
-        <v>45347.625</v>
+        <v>45347.875</v>
       </c>
       <c r="F417" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G417" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K417">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="L417">
         <v>3.6</v>
       </c>
       <c r="M417">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="N417">
-        <v>1.615</v>
+        <v>1.95</v>
       </c>
       <c r="O417">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P417">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="Q417">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R417">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S417">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T417">
         <v>3</v>
       </c>
       <c r="U417">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V417">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W417">
         <v>0</v>
@@ -37518,80 +37518,6 @@
         <v>0</v>
       </c>
       <c r="AA417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:27">
-      <c r="A418" s="1">
-        <v>416</v>
-      </c>
-      <c r="B418">
-        <v>7854021</v>
-      </c>
-      <c r="C418" t="s">
-        <v>28</v>
-      </c>
-      <c r="D418" t="s">
-        <v>28</v>
-      </c>
-      <c r="E418" s="2">
-        <v>45347.875</v>
-      </c>
-      <c r="F418" t="s">
-        <v>33</v>
-      </c>
-      <c r="G418" t="s">
-        <v>44</v>
-      </c>
-      <c r="K418">
-        <v>1.95</v>
-      </c>
-      <c r="L418">
-        <v>3.6</v>
-      </c>
-      <c r="M418">
-        <v>3.3</v>
-      </c>
-      <c r="N418">
-        <v>1.95</v>
-      </c>
-      <c r="O418">
-        <v>3.8</v>
-      </c>
-      <c r="P418">
-        <v>3.6</v>
-      </c>
-      <c r="Q418">
-        <v>-0.5</v>
-      </c>
-      <c r="R418">
-        <v>1.975</v>
-      </c>
-      <c r="S418">
-        <v>1.875</v>
-      </c>
-      <c r="T418">
-        <v>3</v>
-      </c>
-      <c r="U418">
-        <v>2</v>
-      </c>
-      <c r="V418">
-        <v>1.85</v>
-      </c>
-      <c r="W418">
-        <v>0</v>
-      </c>
-      <c r="X418">
-        <v>0</v>
-      </c>
-      <c r="Y418">
-        <v>0</v>
-      </c>
-      <c r="Z418">
-        <v>0</v>
-      </c>
-      <c r="AA418">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC417"/>
+  <dimension ref="A1:AC415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6002025</v>
+        <v>6002026</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45024.92013888889</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M122">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N122">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O122">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P122">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R122">
+        <v>1.9</v>
+      </c>
+      <c r="S122">
+        <v>1.95</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
         <v>1.8</v>
       </c>
-      <c r="S122">
+      <c r="V122">
         <v>2.05</v>
       </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.825</v>
-      </c>
-      <c r="V122">
-        <v>2.025</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z122">
+        <v>-1</v>
+      </c>
+      <c r="AA122">
+        <v>0.95</v>
+      </c>
+      <c r="AB122">
+        <v>0.4</v>
+      </c>
+      <c r="AC122">
         <v>-0.5</v>
-      </c>
-      <c r="AA122">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
-      <c r="AC122">
-        <v>1.025</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6002026</v>
+        <v>6002025</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45024.92013888889</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N123">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O123">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q123">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y123">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB123">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -15841,7 +15841,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C173" t="s">
         <v>28</v>
@@ -15853,76 +15853,76 @@
         <v>45107.91666666666</v>
       </c>
       <c r="F173" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H173">
         <v>1</v>
       </c>
       <c r="I173">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K173">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M173">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N173">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O173">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P173">
+        <v>7</v>
+      </c>
+      <c r="Q173">
+        <v>-1.25</v>
+      </c>
+      <c r="R173">
+        <v>1.975</v>
+      </c>
+      <c r="S173">
+        <v>1.875</v>
+      </c>
+      <c r="T173">
+        <v>3</v>
+      </c>
+      <c r="U173">
         <v>2.05</v>
       </c>
-      <c r="Q173">
-        <v>0.5</v>
-      </c>
-      <c r="R173">
-        <v>1.825</v>
-      </c>
-      <c r="S173">
-        <v>2.025</v>
-      </c>
-      <c r="T173">
-        <v>2.75</v>
-      </c>
-      <c r="U173">
-        <v>1.9</v>
-      </c>
       <c r="V173">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W173">
         <v>-1</v>
       </c>
       <c r="X173">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y173">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z173">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA173">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC173">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="174" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,76 +15942,76 @@
         <v>45107.91666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>1</v>
       </c>
       <c r="I174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K174">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L174">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M174">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N174">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O174">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P174">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q174">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R174">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S174">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U174">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y174">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA174">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,10 +18879,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F207" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G207" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18894,61 +18894,61 @@
         <v>49</v>
       </c>
       <c r="K207">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L207">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M207">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N207">
+        <v>1.615</v>
+      </c>
+      <c r="O207">
+        <v>4.2</v>
+      </c>
+      <c r="P207">
+        <v>5</v>
+      </c>
+      <c r="Q207">
+        <v>-0.75</v>
+      </c>
+      <c r="R207">
+        <v>1.8</v>
+      </c>
+      <c r="S207">
+        <v>2.05</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
+        <v>2</v>
+      </c>
+      <c r="V207">
         <v>1.85</v>
       </c>
-      <c r="O207">
-        <v>3.75</v>
-      </c>
-      <c r="P207">
-        <v>4</v>
-      </c>
-      <c r="Q207">
+      <c r="W207">
+        <v>0.615</v>
+      </c>
+      <c r="X207">
+        <v>-1</v>
+      </c>
+      <c r="Y207">
+        <v>-1</v>
+      </c>
+      <c r="Z207">
+        <v>0.4</v>
+      </c>
+      <c r="AA207">
         <v>-0.5</v>
       </c>
-      <c r="R207">
-        <v>1.875</v>
-      </c>
-      <c r="S207">
-        <v>1.975</v>
-      </c>
-      <c r="T207">
-        <v>3</v>
-      </c>
-      <c r="U207">
-        <v>1.825</v>
-      </c>
-      <c r="V207">
-        <v>2.025</v>
-      </c>
-      <c r="W207">
+      <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X207">
-        <v>-1</v>
-      </c>
-      <c r="Y207">
-        <v>-1</v>
-      </c>
-      <c r="Z207">
-        <v>0.875</v>
-      </c>
-      <c r="AA207">
-        <v>-1</v>
-      </c>
-      <c r="AB207">
-        <v>-1</v>
-      </c>
-      <c r="AC207">
-        <v>1.025</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,10 +18968,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -18983,43 +18983,43 @@
         <v>49</v>
       </c>
       <c r="K208">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L208">
+        <v>3.3</v>
+      </c>
+      <c r="M208">
+        <v>2.9</v>
+      </c>
+      <c r="N208">
+        <v>1.85</v>
+      </c>
+      <c r="O208">
+        <v>3.75</v>
+      </c>
+      <c r="P208">
+        <v>4</v>
+      </c>
+      <c r="Q208">
+        <v>-0.5</v>
+      </c>
+      <c r="R208">
+        <v>1.875</v>
+      </c>
+      <c r="S208">
+        <v>1.975</v>
+      </c>
+      <c r="T208">
         <v>3</v>
       </c>
-      <c r="M208">
-        <v>1.5</v>
-      </c>
-      <c r="N208">
-        <v>1.615</v>
-      </c>
-      <c r="O208">
-        <v>4.2</v>
-      </c>
-      <c r="P208">
-        <v>5</v>
-      </c>
-      <c r="Q208">
-        <v>-0.75</v>
-      </c>
-      <c r="R208">
-        <v>1.8</v>
-      </c>
-      <c r="S208">
-        <v>2.05</v>
-      </c>
-      <c r="T208">
-        <v>2.75</v>
-      </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V208">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W208">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X208">
         <v>-1</v>
@@ -19028,16 +19028,16 @@
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA208">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -22071,7 +22071,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22083,73 +22083,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F243" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G243" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I243">
         <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K243">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L243">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M243">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N243">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O243">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P243">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q243">
+        <v>-1</v>
+      </c>
+      <c r="R243">
+        <v>1.95</v>
+      </c>
+      <c r="S243">
+        <v>1.9</v>
+      </c>
+      <c r="T243">
+        <v>3</v>
+      </c>
+      <c r="U243">
+        <v>1.925</v>
+      </c>
+      <c r="V243">
+        <v>1.925</v>
+      </c>
+      <c r="W243">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X243">
+        <v>-1</v>
+      </c>
+      <c r="Y243">
+        <v>-1</v>
+      </c>
+      <c r="Z243">
         <v>0</v>
       </c>
-      <c r="R243">
-        <v>1.85</v>
-      </c>
-      <c r="S243">
-        <v>2</v>
-      </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>2.1</v>
-      </c>
-      <c r="V243">
-        <v>1.775</v>
-      </c>
-      <c r="W243">
-        <v>-1</v>
-      </c>
-      <c r="X243">
-        <v>-1</v>
-      </c>
-      <c r="Y243">
-        <v>1.8</v>
-      </c>
-      <c r="Z243">
-        <v>-1</v>
-      </c>
       <c r="AA243">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB243">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC243">
         <v>-1</v>
@@ -22160,7 +22160,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22172,73 +22172,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G244" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H244">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I244">
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K244">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M244">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N244">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O244">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P244">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q244">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R244">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S244">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T244">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V244">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W244">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X244">
         <v>-1</v>
       </c>
       <c r="Y244">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z244">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA244">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB244">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC244">
         <v>-1</v>
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,73 +23863,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G263" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H263">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I263">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J263" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K263">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L263">
+        <v>3.3</v>
+      </c>
+      <c r="M263">
+        <v>2.8</v>
+      </c>
+      <c r="N263">
         <v>3.5</v>
-      </c>
-      <c r="M263">
-        <v>4.5</v>
-      </c>
-      <c r="N263">
-        <v>1.8</v>
       </c>
       <c r="O263">
         <v>3.6</v>
       </c>
       <c r="P263">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q263">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R263">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S263">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T263">
         <v>2.5</v>
       </c>
       <c r="U263">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V263">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W263">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z263">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB263">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC263">
         <v>-1</v>
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,73 +23952,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G264" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I264">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K264">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L264">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M264">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N264">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O264">
         <v>3.6</v>
       </c>
       <c r="P264">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q264">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R264">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S264">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V264">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA264">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,76 +24041,76 @@
         <v>45204</v>
       </c>
       <c r="F265" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H265">
         <v>2</v>
       </c>
       <c r="I265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K265">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L265">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M265">
+        <v>4.333</v>
+      </c>
+      <c r="N265">
+        <v>1.533</v>
+      </c>
+      <c r="O265">
         <v>4.2</v>
       </c>
-      <c r="N265">
-        <v>1.65</v>
-      </c>
-      <c r="O265">
-        <v>4</v>
-      </c>
       <c r="P265">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q265">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R265">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S265">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T265">
         <v>3</v>
       </c>
       <c r="U265">
+        <v>2</v>
+      </c>
+      <c r="V265">
         <v>1.85</v>
       </c>
-      <c r="V265">
-        <v>2</v>
-      </c>
       <c r="W265">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X265">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y265">
         <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC265">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24118,7 +24118,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24130,76 +24130,76 @@
         <v>45204</v>
       </c>
       <c r="F266" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G266" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H266">
         <v>2</v>
       </c>
       <c r="I266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K266">
+        <v>1.75</v>
+      </c>
+      <c r="L266">
+        <v>3.6</v>
+      </c>
+      <c r="M266">
+        <v>4.2</v>
+      </c>
+      <c r="N266">
+        <v>1.65</v>
+      </c>
+      <c r="O266">
+        <v>4</v>
+      </c>
+      <c r="P266">
+        <v>4.75</v>
+      </c>
+      <c r="Q266">
+        <v>-0.75</v>
+      </c>
+      <c r="R266">
         <v>1.8</v>
       </c>
-      <c r="L266">
-        <v>3.3</v>
-      </c>
-      <c r="M266">
-        <v>4.333</v>
-      </c>
-      <c r="N266">
-        <v>1.533</v>
-      </c>
-      <c r="O266">
-        <v>4.2</v>
-      </c>
-      <c r="P266">
-        <v>6</v>
-      </c>
-      <c r="Q266">
-        <v>-1</v>
-      </c>
-      <c r="R266">
-        <v>1.925</v>
-      </c>
       <c r="S266">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T266">
         <v>3</v>
       </c>
       <c r="U266">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V266">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W266">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X266">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA266">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC266">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -26877,7 +26877,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>6754096</v>
+        <v>6754097</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26889,40 +26889,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F297" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G297" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H297">
+        <v>0</v>
+      </c>
+      <c r="I297">
         <v>1</v>
-      </c>
-      <c r="I297">
-        <v>2</v>
       </c>
       <c r="J297" t="s">
         <v>47</v>
       </c>
       <c r="K297">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L297">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M297">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N297">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O297">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P297">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q297">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R297">
         <v>2</v>
@@ -26931,13 +26931,13 @@
         <v>1.85</v>
       </c>
       <c r="T297">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U297">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V297">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W297">
         <v>-1</v>
@@ -26946,7 +26946,7 @@
         <v>-1</v>
       </c>
       <c r="Y297">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Z297">
         <v>-1</v>
@@ -26955,10 +26955,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB297">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC297">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26966,7 +26966,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>6754097</v>
+        <v>6754096</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26978,40 +26978,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F298" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G298" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J298" t="s">
         <v>47</v>
       </c>
       <c r="K298">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L298">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M298">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N298">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O298">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P298">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q298">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R298">
         <v>2</v>
@@ -27020,13 +27020,13 @@
         <v>1.85</v>
       </c>
       <c r="T298">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U298">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V298">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W298">
         <v>-1</v>
@@ -27035,7 +27035,7 @@
         <v>-1</v>
       </c>
       <c r="Y298">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Z298">
         <v>-1</v>
@@ -27044,10 +27044,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB298">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC298">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G301" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K301">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L301">
         <v>3.3</v>
       </c>
       <c r="M301">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N301">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O301">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P301">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q301">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R301">
+        <v>2.05</v>
+      </c>
+      <c r="S301">
         <v>1.8</v>
       </c>
-      <c r="S301">
-        <v>2.05</v>
-      </c>
       <c r="T301">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U301">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V301">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W301">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z301">
+        <v>-1</v>
+      </c>
+      <c r="AA301">
         <v>0.8</v>
       </c>
-      <c r="AA301">
-        <v>-1</v>
-      </c>
       <c r="AB301">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC301">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G302" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H302">
+        <v>2</v>
+      </c>
+      <c r="I302">
         <v>0</v>
       </c>
-      <c r="I302">
-        <v>2</v>
-      </c>
       <c r="J302" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K302">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L302">
         <v>3.3</v>
       </c>
       <c r="M302">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N302">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O302">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P302">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q302">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R302">
+        <v>1.8</v>
+      </c>
+      <c r="S302">
         <v>2.05</v>
       </c>
-      <c r="S302">
-        <v>1.8</v>
-      </c>
       <c r="T302">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U302">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V302">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W302">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z302">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA302">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB302">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC302">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -35421,7 +35421,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,73 +35433,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F393" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G393" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I393">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J393" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K393">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L393">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M393">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N393">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O393">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P393">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q393">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R393">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S393">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T393">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U393">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V393">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W393">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X393">
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA393">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB393">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC393">
         <v>-1</v>
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F394" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G394" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H394">
+        <v>0</v>
+      </c>
+      <c r="I394">
         <v>3</v>
       </c>
-      <c r="I394">
-        <v>2</v>
-      </c>
       <c r="J394" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K394">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L394">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M394">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N394">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O394">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P394">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q394">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R394">
+        <v>2.05</v>
+      </c>
+      <c r="S394">
+        <v>1.8</v>
+      </c>
+      <c r="T394">
+        <v>2.5</v>
+      </c>
+      <c r="U394">
+        <v>1.9</v>
+      </c>
+      <c r="V394">
         <v>1.95</v>
       </c>
-      <c r="S394">
-        <v>1.9</v>
-      </c>
-      <c r="T394">
-        <v>2.75</v>
-      </c>
-      <c r="U394">
-        <v>1.825</v>
-      </c>
-      <c r="V394">
-        <v>2.025</v>
-      </c>
       <c r="W394">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z394">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB394">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -36934,7 +36934,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7612854</v>
+        <v>7612856</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36943,49 +36943,49 @@
         <v>28</v>
       </c>
       <c r="E410" s="2">
-        <v>45346</v>
+        <v>45346.83333333334</v>
       </c>
       <c r="F410" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G410" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K410">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L410">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M410">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="N410">
+        <v>2</v>
+      </c>
+      <c r="O410">
+        <v>3.8</v>
+      </c>
+      <c r="P410">
+        <v>3.4</v>
+      </c>
+      <c r="Q410">
+        <v>-0.5</v>
+      </c>
+      <c r="R410">
+        <v>2.025</v>
+      </c>
+      <c r="S410">
+        <v>1.825</v>
+      </c>
+      <c r="T410">
         <v>3</v>
       </c>
-      <c r="O410">
-        <v>3.5</v>
-      </c>
-      <c r="P410">
-        <v>2.3</v>
-      </c>
-      <c r="Q410">
-        <v>0.25</v>
-      </c>
-      <c r="R410">
+      <c r="U410">
+        <v>2</v>
+      </c>
+      <c r="V410">
         <v>1.85</v>
-      </c>
-      <c r="S410">
-        <v>2</v>
-      </c>
-      <c r="T410">
-        <v>2.75</v>
-      </c>
-      <c r="U410">
-        <v>1.9</v>
-      </c>
-      <c r="V410">
-        <v>1.95</v>
       </c>
       <c r="W410">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7612855</v>
+        <v>7612858</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37017,34 +37017,34 @@
         <v>28</v>
       </c>
       <c r="E411" s="2">
-        <v>45346.00694444445</v>
+        <v>45346.91666666666</v>
       </c>
       <c r="F411" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G411" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K411">
+        <v>1.444</v>
+      </c>
+      <c r="L411">
+        <v>4.2</v>
+      </c>
+      <c r="M411">
+        <v>6.2</v>
+      </c>
+      <c r="N411">
+        <v>1.65</v>
+      </c>
+      <c r="O411">
+        <v>4</v>
+      </c>
+      <c r="P411">
         <v>5</v>
       </c>
-      <c r="L411">
-        <v>4.1</v>
-      </c>
-      <c r="M411">
-        <v>1.533</v>
-      </c>
-      <c r="N411">
-        <v>4.5</v>
-      </c>
-      <c r="O411">
-        <v>3.8</v>
-      </c>
-      <c r="P411">
-        <v>1.75</v>
-      </c>
       <c r="Q411">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R411">
         <v>1.875</v>
@@ -37053,13 +37053,13 @@
         <v>1.975</v>
       </c>
       <c r="T411">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U411">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V411">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W411">
         <v>0</v>
@@ -37082,7 +37082,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7612856</v>
+        <v>7612857</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37091,43 +37091,43 @@
         <v>28</v>
       </c>
       <c r="E412" s="2">
-        <v>45346.83333333334</v>
+        <v>45346.92013888889</v>
       </c>
       <c r="F412" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G412" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K412">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L412">
+        <v>3.4</v>
+      </c>
+      <c r="M412">
+        <v>2.75</v>
+      </c>
+      <c r="N412">
+        <v>2.05</v>
+      </c>
+      <c r="O412">
+        <v>3.4</v>
+      </c>
+      <c r="P412">
         <v>3.5</v>
       </c>
-      <c r="M412">
-        <v>3</v>
-      </c>
-      <c r="N412">
-        <v>1.85</v>
-      </c>
-      <c r="O412">
-        <v>4</v>
-      </c>
-      <c r="P412">
-        <v>3.8</v>
-      </c>
       <c r="Q412">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R412">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S412">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T412">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U412">
         <v>1.975</v>
@@ -37156,7 +37156,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7612858</v>
+        <v>7612859</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37165,49 +37165,49 @@
         <v>28</v>
       </c>
       <c r="E413" s="2">
-        <v>45346.91666666666</v>
+        <v>45347.00694444445</v>
       </c>
       <c r="F413" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G413" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K413">
         <v>1.444</v>
       </c>
       <c r="L413">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M413">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="N413">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="O413">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P413">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q413">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R413">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S413">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T413">
         <v>2.5</v>
       </c>
       <c r="U413">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V413">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W413">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7612857</v>
+        <v>7612860</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37239,49 +37239,49 @@
         <v>28</v>
       </c>
       <c r="E414" s="2">
-        <v>45346.92013888889</v>
+        <v>45347.625</v>
       </c>
       <c r="F414" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G414" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K414">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L414">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M414">
-        <v>2.75</v>
+        <v>4.1</v>
       </c>
       <c r="N414">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="O414">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P414">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q414">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R414">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S414">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T414">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U414">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V414">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W414">
         <v>0</v>
@@ -37304,7 +37304,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7612859</v>
+        <v>7854021</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37313,49 +37313,49 @@
         <v>28</v>
       </c>
       <c r="E415" s="2">
-        <v>45347.00694444445</v>
+        <v>45347.875</v>
       </c>
       <c r="F415" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G415" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K415">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L415">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="M415">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="N415">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O415">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P415">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q415">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R415">
+        <v>1.95</v>
+      </c>
+      <c r="S415">
+        <v>1.9</v>
+      </c>
+      <c r="T415">
+        <v>3</v>
+      </c>
+      <c r="U415">
+        <v>2.025</v>
+      </c>
+      <c r="V415">
         <v>1.825</v>
-      </c>
-      <c r="S415">
-        <v>2.025</v>
-      </c>
-      <c r="T415">
-        <v>2.75</v>
-      </c>
-      <c r="U415">
-        <v>1.95</v>
-      </c>
-      <c r="V415">
-        <v>1.9</v>
       </c>
       <c r="W415">
         <v>0</v>
@@ -37370,154 +37370,6 @@
         <v>0</v>
       </c>
       <c r="AA415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:29">
-      <c r="A416" s="1">
-        <v>414</v>
-      </c>
-      <c r="B416">
-        <v>7612860</v>
-      </c>
-      <c r="C416" t="s">
-        <v>28</v>
-      </c>
-      <c r="D416" t="s">
-        <v>28</v>
-      </c>
-      <c r="E416" s="2">
-        <v>45347.625</v>
-      </c>
-      <c r="F416" t="s">
-        <v>40</v>
-      </c>
-      <c r="G416" t="s">
-        <v>34</v>
-      </c>
-      <c r="K416">
-        <v>1.75</v>
-      </c>
-      <c r="L416">
-        <v>3.6</v>
-      </c>
-      <c r="M416">
-        <v>4.1</v>
-      </c>
-      <c r="N416">
-        <v>1.615</v>
-      </c>
-      <c r="O416">
-        <v>4.2</v>
-      </c>
-      <c r="P416">
-        <v>5</v>
-      </c>
-      <c r="Q416">
-        <v>-1</v>
-      </c>
-      <c r="R416">
-        <v>2.025</v>
-      </c>
-      <c r="S416">
-        <v>1.825</v>
-      </c>
-      <c r="T416">
-        <v>3</v>
-      </c>
-      <c r="U416">
-        <v>1.95</v>
-      </c>
-      <c r="V416">
-        <v>1.9</v>
-      </c>
-      <c r="W416">
-        <v>0</v>
-      </c>
-      <c r="X416">
-        <v>0</v>
-      </c>
-      <c r="Y416">
-        <v>0</v>
-      </c>
-      <c r="Z416">
-        <v>0</v>
-      </c>
-      <c r="AA416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:27">
-      <c r="A417" s="1">
-        <v>415</v>
-      </c>
-      <c r="B417">
-        <v>7854021</v>
-      </c>
-      <c r="C417" t="s">
-        <v>28</v>
-      </c>
-      <c r="D417" t="s">
-        <v>28</v>
-      </c>
-      <c r="E417" s="2">
-        <v>45347.875</v>
-      </c>
-      <c r="F417" t="s">
-        <v>33</v>
-      </c>
-      <c r="G417" t="s">
-        <v>44</v>
-      </c>
-      <c r="K417">
-        <v>1.95</v>
-      </c>
-      <c r="L417">
-        <v>3.6</v>
-      </c>
-      <c r="M417">
-        <v>3.3</v>
-      </c>
-      <c r="N417">
-        <v>1.95</v>
-      </c>
-      <c r="O417">
-        <v>3.8</v>
-      </c>
-      <c r="P417">
-        <v>3.6</v>
-      </c>
-      <c r="Q417">
-        <v>-0.5</v>
-      </c>
-      <c r="R417">
-        <v>1.95</v>
-      </c>
-      <c r="S417">
-        <v>1.9</v>
-      </c>
-      <c r="T417">
-        <v>3</v>
-      </c>
-      <c r="U417">
-        <v>2.025</v>
-      </c>
-      <c r="V417">
-        <v>1.825</v>
-      </c>
-      <c r="W417">
-        <v>0</v>
-      </c>
-      <c r="X417">
-        <v>0</v>
-      </c>
-      <c r="Y417">
-        <v>0</v>
-      </c>
-      <c r="Z417">
-        <v>0</v>
-      </c>
-      <c r="AA417">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -136,10 +136,10 @@
     <t>Cruz Azul</t>
   </si>
   <si>
-    <t>Toluca</t>
+    <t>Juarez FC</t>
   </si>
   <si>
-    <t>Juarez FC</t>
+    <t>Toluca</t>
   </si>
   <si>
     <t>Tigres UANL</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC415"/>
+  <dimension ref="A1:AC417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6001928</v>
+        <v>6001930</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,46 +1616,46 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>1.833</v>
+        <v>3.2</v>
       </c>
       <c r="N13">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="O13">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P13">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q13">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -1664,16 +1664,16 @@
         <v>1.85</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X13">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA13">
         <v>-1</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6001930</v>
+        <v>6001928</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1705,46 +1705,46 @@
         <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14">
+        <v>4.2</v>
+      </c>
+      <c r="L14">
+        <v>3.6</v>
+      </c>
+      <c r="M14">
+        <v>1.833</v>
+      </c>
+      <c r="N14">
+        <v>4.2</v>
+      </c>
+      <c r="O14">
+        <v>3.6</v>
+      </c>
+      <c r="P14">
+        <v>1.8</v>
+      </c>
+      <c r="Q14">
+        <v>0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.825</v>
+      </c>
+      <c r="S14">
+        <v>2.025</v>
+      </c>
+      <c r="T14">
         <v>3</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14">
-        <v>2.25</v>
-      </c>
-      <c r="L14">
-        <v>3.2</v>
-      </c>
-      <c r="M14">
-        <v>3.2</v>
-      </c>
-      <c r="N14">
-        <v>2.25</v>
-      </c>
-      <c r="O14">
-        <v>3.25</v>
-      </c>
-      <c r="P14">
-        <v>3.4</v>
-      </c>
-      <c r="Q14">
-        <v>-0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.975</v>
-      </c>
-      <c r="S14">
-        <v>1.875</v>
-      </c>
-      <c r="T14">
-        <v>2.25</v>
       </c>
       <c r="U14">
         <v>2</v>
@@ -1753,16 +1753,16 @@
         <v>1.85</v>
       </c>
       <c r="W14">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
         <v>-1</v>
@@ -2417,7 +2417,7 @@
         <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2773,7 +2773,7 @@
         <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H26">
         <v>4</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6001946</v>
+        <v>6001406</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,73 +3215,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H31">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K31">
+        <v>2.5</v>
+      </c>
+      <c r="L31">
+        <v>3.3</v>
+      </c>
+      <c r="M31">
+        <v>2.75</v>
+      </c>
+      <c r="N31">
+        <v>2.875</v>
+      </c>
+      <c r="O31">
+        <v>2.875</v>
+      </c>
+      <c r="P31">
+        <v>2.75</v>
+      </c>
+      <c r="Q31">
         <v>0</v>
       </c>
-      <c r="J31" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31">
-        <v>1.3</v>
-      </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
-      <c r="M31">
-        <v>10</v>
-      </c>
-      <c r="N31">
-        <v>1.222</v>
-      </c>
-      <c r="O31">
-        <v>6</v>
-      </c>
-      <c r="P31">
-        <v>12</v>
-      </c>
-      <c r="Q31">
-        <v>-1.75</v>
-      </c>
       <c r="R31">
+        <v>2.025</v>
+      </c>
+      <c r="S31">
+        <v>1.825</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="V31">
         <v>1.85</v>
       </c>
-      <c r="S31">
-        <v>2</v>
-      </c>
-      <c r="T31">
-        <v>3.25</v>
-      </c>
-      <c r="U31">
-        <v>1.925</v>
-      </c>
-      <c r="V31">
-        <v>1.925</v>
-      </c>
       <c r="W31">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6001406</v>
+        <v>6001946</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,73 +3304,73 @@
         <v>44955.00347222222</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K32">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="L32">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="M32">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="N32">
-        <v>2.875</v>
+        <v>1.222</v>
       </c>
       <c r="O32">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="P32">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R32">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S32">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA32">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3393,7 +3393,7 @@
         <v>44955.625</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" t="s">
         <v>43</v>
@@ -3574,7 +3574,7 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -3841,7 +3841,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -4375,7 +4375,7 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4906,7 +4906,7 @@
         <v>44968.92013888889</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -5173,7 +5173,7 @@
         <v>44969.625</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G53" t="s">
         <v>39</v>
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6001968</v>
+        <v>6001967</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>44971.92013888889</v>
       </c>
       <c r="F54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>1.444</v>
+        <v>2.05</v>
       </c>
       <c r="L54">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
         <v>5</v>
       </c>
-      <c r="P54">
-        <v>6.5</v>
-      </c>
       <c r="Q54">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S54">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
         <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X54">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA54">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6001967</v>
+        <v>6001968</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,76 +5351,76 @@
         <v>44971.92013888889</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>2.05</v>
+        <v>1.444</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M55">
-        <v>3.6</v>
+        <v>6</v>
       </c>
       <c r="N55">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P55">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q55">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S55">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T55">
         <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V55">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB55">
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5885,7 +5885,7 @@
         <v>44974.92083333333</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G61" t="s">
         <v>43</v>
@@ -6600,7 +6600,7 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6778,7 +6778,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -7045,7 +7045,7 @@
         <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7309,7 +7309,7 @@
         <v>44983.625</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
         <v>37</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6001992</v>
+        <v>6001991</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,46 +7665,46 @@
         <v>44988.92013888889</v>
       </c>
       <c r="F81" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K81">
+        <v>4.75</v>
+      </c>
+      <c r="L81">
+        <v>3.5</v>
+      </c>
+      <c r="M81">
+        <v>1.75</v>
+      </c>
+      <c r="N81">
+        <v>4.75</v>
+      </c>
+      <c r="O81">
         <v>3.6</v>
       </c>
-      <c r="L81">
-        <v>3.3</v>
-      </c>
-      <c r="M81">
-        <v>2.05</v>
-      </c>
-      <c r="N81">
-        <v>3.6</v>
-      </c>
-      <c r="O81">
-        <v>3.4</v>
-      </c>
       <c r="P81">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R81">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T81">
         <v>2.5</v>
@@ -7716,25 +7716,25 @@
         <v>1.85</v>
       </c>
       <c r="W81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z81">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6001991</v>
+        <v>6001992</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,46 +7754,46 @@
         <v>44988.92013888889</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K82">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M82">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="N82">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q82">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
         <v>2.5</v>
@@ -7805,25 +7805,25 @@
         <v>1.85</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X82">
         <v>-1</v>
       </c>
       <c r="Y82">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA82">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8113,7 +8113,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8380,7 +8380,7 @@
         <v>46</v>
       </c>
       <c r="G89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8911,7 +8911,7 @@
         <v>44997.625</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s">
         <v>44</v>
@@ -9178,7 +9178,7 @@
         <v>44998.01041666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9359,7 +9359,7 @@
         <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H100">
         <v>3</v>
@@ -9893,7 +9893,7 @@
         <v>46</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -10335,7 +10335,7 @@
         <v>45017</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G111" t="s">
         <v>38</v>
@@ -10780,7 +10780,7 @@
         <v>45018.625</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
         <v>42</v>
@@ -11050,7 +11050,7 @@
         <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6002026</v>
+        <v>6002025</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45024.92013888889</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N122">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="O122">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P122">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q122">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y122">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA122">
-        <v>0.95</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB122">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6002025</v>
+        <v>6002026</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45024.92013888889</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M123">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N123">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P123">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
+        <v>1.95</v>
+      </c>
+      <c r="T123">
+        <v>2.75</v>
+      </c>
+      <c r="U123">
         <v>1.8</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>2.05</v>
       </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.825</v>
-      </c>
-      <c r="V123">
-        <v>2.025</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>7.5</v>
       </c>
       <c r="Z123">
+        <v>-1</v>
+      </c>
+      <c r="AA123">
+        <v>0.95</v>
+      </c>
+      <c r="AB123">
+        <v>0.4</v>
+      </c>
+      <c r="AC123">
         <v>-0.5</v>
-      </c>
-      <c r="AA123">
-        <v>0.5249999999999999</v>
-      </c>
-      <c r="AB123">
-        <v>-1</v>
-      </c>
-      <c r="AC123">
-        <v>1.025</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11759,7 +11759,7 @@
         <v>45025.96527777778</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
         <v>36</v>
@@ -11851,7 +11851,7 @@
         <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12385,7 +12385,7 @@
         <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H134">
         <v>3</v>
@@ -13272,10 +13272,10 @@
         <v>45039.625</v>
       </c>
       <c r="F144" t="s">
+        <v>41</v>
+      </c>
+      <c r="G144" t="s">
         <v>40</v>
-      </c>
-      <c r="G144" t="s">
-        <v>41</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13450,7 +13450,7 @@
         <v>45045.00347222222</v>
       </c>
       <c r="F146" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
         <v>30</v>
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6001419</v>
+        <v>6002050</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,10 +13717,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F149" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>4</v>
@@ -13732,43 +13732,43 @@
         <v>49</v>
       </c>
       <c r="K149">
-        <v>1.363</v>
+        <v>1.55</v>
       </c>
       <c r="L149">
+        <v>4.333</v>
+      </c>
+      <c r="M149">
+        <v>5</v>
+      </c>
+      <c r="N149">
+        <v>1.7</v>
+      </c>
+      <c r="O149">
+        <v>4</v>
+      </c>
+      <c r="P149">
         <v>4.75</v>
       </c>
-      <c r="M149">
-        <v>7.5</v>
-      </c>
-      <c r="N149">
-        <v>1.333</v>
-      </c>
-      <c r="O149">
-        <v>5.25</v>
-      </c>
-      <c r="P149">
-        <v>9</v>
-      </c>
       <c r="Q149">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S149">
+        <v>1.975</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
         <v>1.85</v>
       </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>2.025</v>
-      </c>
       <c r="V149">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>0.333</v>
+        <v>0.7</v>
       </c>
       <c r="X149">
         <v>-1</v>
@@ -13777,13 +13777,13 @@
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13794,7 +13794,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6002050</v>
+        <v>6001419</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13806,10 +13806,10 @@
         <v>45045.92013888889</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13821,43 +13821,43 @@
         <v>49</v>
       </c>
       <c r="K150">
-        <v>1.55</v>
+        <v>1.363</v>
       </c>
       <c r="L150">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="M150">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N150">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P150">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V150">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W150">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13866,13 +13866,13 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA150">
         <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13984,7 +13984,7 @@
         <v>45046.625</v>
       </c>
       <c r="F152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G152" t="s">
         <v>29</v>
@@ -14877,7 +14877,7 @@
         <v>42</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H162">
         <v>4</v>
@@ -15141,7 +15141,7 @@
         <v>45060.625</v>
       </c>
       <c r="F165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
         <v>42</v>
@@ -15856,7 +15856,7 @@
         <v>30</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H173">
         <v>1</v>
@@ -16387,7 +16387,7 @@
         <v>45109.625</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G179" t="s">
         <v>29</v>
@@ -16835,7 +16835,7 @@
         <v>39</v>
       </c>
       <c r="G184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -17010,7 +17010,7 @@
         <v>45115.87916666667</v>
       </c>
       <c r="F186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
         <v>42</v>
@@ -17989,10 +17989,10 @@
         <v>45123.625</v>
       </c>
       <c r="F197" t="s">
+        <v>41</v>
+      </c>
+      <c r="G197" t="s">
         <v>40</v>
-      </c>
-      <c r="G197" t="s">
-        <v>41</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -18259,7 +18259,7 @@
         <v>32</v>
       </c>
       <c r="G200" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18434,7 +18434,7 @@
         <v>45157.00694444445</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G202" t="s">
         <v>45</v>
@@ -19057,7 +19057,7 @@
         <v>45161.00347222222</v>
       </c>
       <c r="F209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G209" t="s">
         <v>32</v>
@@ -19416,7 +19416,7 @@
         <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H213">
         <v>1</v>
@@ -19594,7 +19594,7 @@
         <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -20214,7 +20214,7 @@
         <v>45168.91666666666</v>
       </c>
       <c r="F222" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G222" t="s">
         <v>31</v>
@@ -20481,7 +20481,7 @@
         <v>45170.92013888889</v>
       </c>
       <c r="F225" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
         <v>44</v>
@@ -20926,7 +20926,7 @@
         <v>45172.625</v>
       </c>
       <c r="F230" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G230" t="s">
         <v>35</v>
@@ -21285,7 +21285,7 @@
         <v>34</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21374,7 +21374,7 @@
         <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H235">
         <v>1</v>
@@ -22172,7 +22172,7 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G244" t="s">
         <v>36</v>
@@ -22338,7 +22338,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C246" t="s">
         <v>28</v>
@@ -22350,61 +22350,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G246" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246">
         <v>0</v>
       </c>
       <c r="J246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K246">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M246">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N246">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O246">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P246">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q246">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R246">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S246">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T246">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U246">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V246">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W246">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X246">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y246">
         <v>-1</v>
@@ -22413,13 +22413,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA246">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB246">
         <v>-1</v>
       </c>
       <c r="AC246">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="247" spans="1:29">
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22439,61 +22439,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F247" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G247" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247">
         <v>0</v>
       </c>
       <c r="J247" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K247">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L247">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M247">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N247">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O247">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P247">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q247">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R247">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S247">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T247">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U247">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V247">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X247">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
         <v>-1</v>
@@ -22502,13 +22502,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA247">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB247">
         <v>-1</v>
       </c>
       <c r="AC247">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22617,7 +22617,7 @@
         <v>45193.625</v>
       </c>
       <c r="F249" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G249" t="s">
         <v>30</v>
@@ -23243,7 +23243,7 @@
         <v>34</v>
       </c>
       <c r="G256" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H256">
         <v>5</v>
@@ -23596,7 +23596,7 @@
         <v>45200.84722222222</v>
       </c>
       <c r="F260" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G260" t="s">
         <v>45</v>
@@ -23851,7 +23851,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C263" t="s">
         <v>28</v>
@@ -23863,73 +23863,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F263" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G263" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I263">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K263">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L263">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M263">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N263">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O263">
         <v>3.6</v>
       </c>
       <c r="P263">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q263">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R263">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S263">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T263">
         <v>2.5</v>
       </c>
       <c r="U263">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V263">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W263">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X263">
         <v>-1</v>
       </c>
       <c r="Y263">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z263">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA263">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB263">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC263">
         <v>-1</v>
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,73 +23952,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K264">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L264">
+        <v>3.3</v>
+      </c>
+      <c r="M264">
+        <v>2.8</v>
+      </c>
+      <c r="N264">
         <v>3.5</v>
-      </c>
-      <c r="M264">
-        <v>4.5</v>
-      </c>
-      <c r="N264">
-        <v>1.8</v>
       </c>
       <c r="O264">
         <v>3.6</v>
       </c>
       <c r="P264">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R264">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T264">
         <v>2.5</v>
       </c>
       <c r="U264">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V264">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W264">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z264">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB264">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC264">
         <v>-1</v>
@@ -24044,7 +24044,7 @@
         <v>42</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H265">
         <v>2</v>
@@ -24311,7 +24311,7 @@
         <v>31</v>
       </c>
       <c r="G268" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H268">
         <v>3</v>
@@ -24385,7 +24385,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24397,76 +24397,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F269" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G269" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H269">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I269">
         <v>1</v>
       </c>
       <c r="J269" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K269">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L269">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M269">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N269">
+        <v>2.9</v>
+      </c>
+      <c r="O269">
+        <v>3.5</v>
+      </c>
+      <c r="P269">
         <v>2.4</v>
       </c>
-      <c r="O269">
-        <v>3.2</v>
-      </c>
-      <c r="P269">
-        <v>3.1</v>
-      </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R269">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S269">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T269">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U269">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V269">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W269">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X269">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y269">
         <v>-1</v>
       </c>
       <c r="Z269">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB269">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24486,76 +24486,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F270" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G270" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I270">
         <v>1</v>
       </c>
       <c r="J270" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K270">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L270">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M270">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N270">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O270">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P270">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q270">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R270">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S270">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T270">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U270">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V270">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X270">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y270">
         <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA270">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC270">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24664,7 +24664,7 @@
         <v>45207.625</v>
       </c>
       <c r="F272" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G272" t="s">
         <v>46</v>
@@ -25109,7 +25109,7 @@
         <v>45219.92083333333</v>
       </c>
       <c r="F277" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G277" t="s">
         <v>35</v>
@@ -25290,7 +25290,7 @@
         <v>43</v>
       </c>
       <c r="G279" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H279">
         <v>1</v>
@@ -25999,7 +25999,7 @@
         <v>45225</v>
       </c>
       <c r="F287" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G287" t="s">
         <v>37</v>
@@ -26622,7 +26622,7 @@
         <v>45228.625</v>
       </c>
       <c r="F294" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G294" t="s">
         <v>37</v>
@@ -26714,7 +26714,7 @@
         <v>33</v>
       </c>
       <c r="G295" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H295">
         <v>5</v>
@@ -26889,7 +26889,7 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F297" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G297" t="s">
         <v>38</v>
@@ -27233,7 +27233,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C301" t="s">
         <v>28</v>
@@ -27245,76 +27245,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F301" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G301" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H301">
+        <v>2</v>
+      </c>
+      <c r="I301">
         <v>0</v>
       </c>
-      <c r="I301">
-        <v>2</v>
-      </c>
       <c r="J301" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K301">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L301">
         <v>3.3</v>
       </c>
       <c r="M301">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N301">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O301">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P301">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q301">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R301">
+        <v>1.8</v>
+      </c>
+      <c r="S301">
         <v>2.05</v>
       </c>
-      <c r="S301">
-        <v>1.8</v>
-      </c>
       <c r="T301">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U301">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V301">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W301">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X301">
         <v>-1</v>
       </c>
       <c r="Y301">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z301">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA301">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB301">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC301">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="302" spans="1:29">
@@ -27322,7 +27322,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C302" t="s">
         <v>28</v>
@@ -27334,76 +27334,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F302" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G302" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K302">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L302">
         <v>3.3</v>
       </c>
       <c r="M302">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N302">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O302">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P302">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q302">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R302">
+        <v>2.05</v>
+      </c>
+      <c r="S302">
         <v>1.8</v>
       </c>
-      <c r="S302">
-        <v>2.05</v>
-      </c>
       <c r="T302">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U302">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V302">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W302">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X302">
         <v>-1</v>
       </c>
       <c r="Y302">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z302">
+        <v>-1</v>
+      </c>
+      <c r="AA302">
         <v>0.8</v>
       </c>
-      <c r="AA302">
-        <v>-1</v>
-      </c>
       <c r="AB302">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC302">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="303" spans="1:29">
@@ -27945,7 +27945,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>6754643</v>
+        <v>6754105</v>
       </c>
       <c r="C309" t="s">
         <v>28</v>
@@ -27957,76 +27957,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F309" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G309" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309">
         <v>0</v>
       </c>
-      <c r="I309">
-        <v>2</v>
-      </c>
       <c r="J309" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K309">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L309">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M309">
+        <v>4.2</v>
+      </c>
+      <c r="N309">
+        <v>2.45</v>
+      </c>
+      <c r="O309">
+        <v>3.25</v>
+      </c>
+      <c r="P309">
+        <v>3</v>
+      </c>
+      <c r="Q309">
+        <v>-0.25</v>
+      </c>
+      <c r="R309">
+        <v>2.05</v>
+      </c>
+      <c r="S309">
+        <v>1.75</v>
+      </c>
+      <c r="T309">
         <v>2.5</v>
       </c>
-      <c r="N309">
-        <v>2.7</v>
-      </c>
-      <c r="O309">
-        <v>3.5</v>
-      </c>
-      <c r="P309">
-        <v>2.55</v>
-      </c>
-      <c r="Q309">
-        <v>0</v>
-      </c>
-      <c r="R309">
+      <c r="U309">
         <v>1.975</v>
       </c>
-      <c r="S309">
+      <c r="V309">
         <v>1.875</v>
       </c>
-      <c r="T309">
-        <v>2.75</v>
-      </c>
-      <c r="U309">
-        <v>2.025</v>
-      </c>
-      <c r="V309">
-        <v>1.825</v>
-      </c>
       <c r="W309">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X309">
         <v>-1</v>
       </c>
       <c r="Y309">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z309">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA309">
+        <v>-1</v>
+      </c>
+      <c r="AB309">
+        <v>-1</v>
+      </c>
+      <c r="AC309">
         <v>0.875</v>
-      </c>
-      <c r="AB309">
-        <v>-1</v>
-      </c>
-      <c r="AC309">
-        <v>0.825</v>
       </c>
     </row>
     <row r="310" spans="1:29">
@@ -28034,7 +28034,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>6754105</v>
+        <v>6754643</v>
       </c>
       <c r="C310" t="s">
         <v>28</v>
@@ -28046,76 +28046,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F310" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G310" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310">
+        <v>2</v>
+      </c>
+      <c r="J310" t="s">
+        <v>47</v>
+      </c>
+      <c r="K310">
+        <v>2.7</v>
+      </c>
+      <c r="L310">
+        <v>3.4</v>
+      </c>
+      <c r="M310">
+        <v>2.5</v>
+      </c>
+      <c r="N310">
+        <v>2.7</v>
+      </c>
+      <c r="O310">
+        <v>3.5</v>
+      </c>
+      <c r="P310">
+        <v>2.55</v>
+      </c>
+      <c r="Q310">
         <v>0</v>
       </c>
-      <c r="J310" t="s">
-        <v>49</v>
-      </c>
-      <c r="K310">
-        <v>1.8</v>
-      </c>
-      <c r="L310">
-        <v>3.75</v>
-      </c>
-      <c r="M310">
-        <v>4.2</v>
-      </c>
-      <c r="N310">
-        <v>2.45</v>
-      </c>
-      <c r="O310">
-        <v>3.25</v>
-      </c>
-      <c r="P310">
-        <v>3</v>
-      </c>
-      <c r="Q310">
-        <v>-0.25</v>
-      </c>
       <c r="R310">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S310">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T310">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U310">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V310">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W310">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X310">
         <v>-1</v>
       </c>
       <c r="Y310">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z310">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA310">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB310">
         <v>-1</v>
       </c>
       <c r="AC310">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="311" spans="1:29">
@@ -28316,7 +28316,7 @@
         <v>33</v>
       </c>
       <c r="G313" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H313">
         <v>3</v>
@@ -28402,7 +28402,7 @@
         <v>45235.9625</v>
       </c>
       <c r="F314" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G314" t="s">
         <v>46</v>
@@ -28672,7 +28672,7 @@
         <v>44</v>
       </c>
       <c r="G317" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H317">
         <v>1</v>
@@ -28835,7 +28835,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>6754114</v>
+        <v>6754113</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28847,76 +28847,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F319" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G319" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H319">
         <v>0</v>
       </c>
       <c r="I319">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K319">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L319">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M319">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N319">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O319">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P319">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q319">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R319">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S319">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T319">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U319">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V319">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W319">
         <v>-1</v>
       </c>
       <c r="X319">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y319">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z319">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA319">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB319">
         <v>-1</v>
       </c>
       <c r="AC319">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="320" spans="1:29">
@@ -28924,7 +28924,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>6754113</v>
+        <v>6754114</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28936,76 +28936,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G320" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H320">
         <v>0</v>
       </c>
       <c r="I320">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J320" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K320">
+        <v>4</v>
+      </c>
+      <c r="L320">
+        <v>3.7</v>
+      </c>
+      <c r="M320">
+        <v>1.75</v>
+      </c>
+      <c r="N320">
+        <v>2.7</v>
+      </c>
+      <c r="O320">
+        <v>3.5</v>
+      </c>
+      <c r="P320">
+        <v>2.45</v>
+      </c>
+      <c r="Q320">
+        <v>0</v>
+      </c>
+      <c r="R320">
         <v>1.95</v>
       </c>
-      <c r="L320">
-        <v>3.5</v>
-      </c>
-      <c r="M320">
-        <v>3.4</v>
-      </c>
-      <c r="N320">
-        <v>2.375</v>
-      </c>
-      <c r="O320">
-        <v>3.6</v>
-      </c>
-      <c r="P320">
-        <v>2.875</v>
-      </c>
-      <c r="Q320">
-        <v>-0.25</v>
-      </c>
-      <c r="R320">
-        <v>1.975</v>
-      </c>
       <c r="S320">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T320">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U320">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V320">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W320">
         <v>-1</v>
       </c>
       <c r="X320">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y320">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z320">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA320">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB320">
         <v>-1</v>
       </c>
       <c r="AC320">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="321" spans="1:29">
@@ -29295,7 +29295,7 @@
         <v>43</v>
       </c>
       <c r="G324" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H324">
         <v>2</v>
@@ -30897,7 +30897,7 @@
         <v>46</v>
       </c>
       <c r="G342" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H342">
         <v>2</v>
@@ -31238,7 +31238,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C346" t="s">
         <v>28</v>
@@ -31250,76 +31250,76 @@
         <v>45305</v>
       </c>
       <c r="F346" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G346" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J346" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K346">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L346">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M346">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N346">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O346">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P346">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q346">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R346">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S346">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T346">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U346">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V346">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W346">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X346">
         <v>-1</v>
       </c>
       <c r="Y346">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z346">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA346">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB346">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC346">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="347" spans="1:29">
@@ -31327,7 +31327,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C347" t="s">
         <v>28</v>
@@ -31339,76 +31339,76 @@
         <v>45305</v>
       </c>
       <c r="F347" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G347" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H347">
+        <v>2</v>
+      </c>
+      <c r="I347">
         <v>0</v>
       </c>
-      <c r="I347">
-        <v>2</v>
-      </c>
       <c r="J347" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K347">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L347">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M347">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N347">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O347">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P347">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q347">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R347">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S347">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T347">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U347">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V347">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W347">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X347">
         <v>-1</v>
       </c>
       <c r="Y347">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z347">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA347">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB347">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC347">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:29">
@@ -31431,7 +31431,7 @@
         <v>32</v>
       </c>
       <c r="G348" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H348">
         <v>1</v>
@@ -31873,7 +31873,7 @@
         <v>45311.00694444445</v>
       </c>
       <c r="F353" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G353" t="s">
         <v>39</v>
@@ -31962,7 +31962,7 @@
         <v>45311.83333333334</v>
       </c>
       <c r="F354" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G354" t="s">
         <v>44</v>
@@ -32395,7 +32395,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32407,76 +32407,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F359" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G359" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H359">
         <v>1</v>
       </c>
       <c r="I359">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J359" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K359">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L359">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M359">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N359">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O359">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P359">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q359">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R359">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S359">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T359">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U359">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V359">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W359">
         <v>-1</v>
       </c>
       <c r="X359">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y359">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z359">
         <v>-1</v>
       </c>
       <c r="AA359">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB359">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC359">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32484,7 +32484,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32496,76 +32496,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F360" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G360" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H360">
         <v>1</v>
       </c>
       <c r="I360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K360">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L360">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M360">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N360">
+        <v>3</v>
+      </c>
+      <c r="O360">
+        <v>3.3</v>
+      </c>
+      <c r="P360">
+        <v>2.4</v>
+      </c>
+      <c r="Q360">
+        <v>0.25</v>
+      </c>
+      <c r="R360">
+        <v>1.775</v>
+      </c>
+      <c r="S360">
+        <v>2.1</v>
+      </c>
+      <c r="T360">
+        <v>2.25</v>
+      </c>
+      <c r="U360">
+        <v>1.8</v>
+      </c>
+      <c r="V360">
+        <v>2.05</v>
+      </c>
+      <c r="W360">
+        <v>-1</v>
+      </c>
+      <c r="X360">
+        <v>-1</v>
+      </c>
+      <c r="Y360">
         <v>1.4</v>
       </c>
-      <c r="O360">
-        <v>4.333</v>
-      </c>
-      <c r="P360">
-        <v>8.5</v>
-      </c>
-      <c r="Q360">
-        <v>-1.25</v>
-      </c>
-      <c r="R360">
-        <v>1.925</v>
-      </c>
-      <c r="S360">
-        <v>1.925</v>
-      </c>
-      <c r="T360">
-        <v>2.75</v>
-      </c>
-      <c r="U360">
-        <v>2.025</v>
-      </c>
-      <c r="V360">
-        <v>1.825</v>
-      </c>
-      <c r="W360">
-        <v>-1</v>
-      </c>
-      <c r="X360">
-        <v>3.333</v>
-      </c>
-      <c r="Y360">
-        <v>-1</v>
-      </c>
       <c r="Z360">
         <v>-1</v>
       </c>
       <c r="AA360">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB360">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC360">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -32585,7 +32585,7 @@
         <v>45316.00416666667</v>
       </c>
       <c r="F361" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G361" t="s">
         <v>30</v>
@@ -32677,7 +32677,7 @@
         <v>38</v>
       </c>
       <c r="G362" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H362">
         <v>1</v>
@@ -33300,7 +33300,7 @@
         <v>36</v>
       </c>
       <c r="G369" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H369">
         <v>2</v>
@@ -33745,7 +33745,7 @@
         <v>45</v>
       </c>
       <c r="G374" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H374">
         <v>3</v>
@@ -34187,7 +34187,7 @@
         <v>45325.83333333334</v>
       </c>
       <c r="F379" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G379" t="s">
         <v>43</v>
@@ -34276,7 +34276,7 @@
         <v>45325.8375</v>
       </c>
       <c r="F380" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G380" t="s">
         <v>29</v>
@@ -35080,7 +35080,7 @@
         <v>29</v>
       </c>
       <c r="G389" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H389">
         <v>3</v>
@@ -35169,7 +35169,7 @@
         <v>45</v>
       </c>
       <c r="G390" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H390">
         <v>2</v>
@@ -35421,7 +35421,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,73 +35433,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F393" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G393" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H393">
+        <v>0</v>
+      </c>
+      <c r="I393">
         <v>3</v>
       </c>
-      <c r="I393">
-        <v>2</v>
-      </c>
       <c r="J393" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K393">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L393">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M393">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N393">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O393">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P393">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q393">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R393">
+        <v>2.05</v>
+      </c>
+      <c r="S393">
+        <v>1.8</v>
+      </c>
+      <c r="T393">
+        <v>2.5</v>
+      </c>
+      <c r="U393">
+        <v>1.9</v>
+      </c>
+      <c r="V393">
         <v>1.95</v>
       </c>
-      <c r="S393">
-        <v>1.9</v>
-      </c>
-      <c r="T393">
-        <v>2.75</v>
-      </c>
-      <c r="U393">
-        <v>1.825</v>
-      </c>
-      <c r="V393">
-        <v>2.025</v>
-      </c>
       <c r="W393">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X393">
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z393">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA393">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB393">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC393">
         <v>-1</v>
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F394" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G394" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I394">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J394" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K394">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L394">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M394">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N394">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O394">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P394">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q394">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R394">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S394">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T394">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U394">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V394">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W394">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z394">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA394">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB394">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -36415,7 +36415,7 @@
         <v>31</v>
       </c>
       <c r="G404" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H404">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>45343.91666666666</v>
       </c>
       <c r="F407" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G407" t="s">
         <v>33</v>
@@ -36934,7 +36934,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>7612856</v>
+        <v>7612853</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36943,64 +36943,79 @@
         <v>28</v>
       </c>
       <c r="E410" s="2">
-        <v>45346.83333333334</v>
+        <v>45345.91666666666</v>
       </c>
       <c r="F410" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G410" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="H410">
+        <v>0</v>
+      </c>
+      <c r="I410">
+        <v>2</v>
+      </c>
+      <c r="J410" t="s">
+        <v>47</v>
       </c>
       <c r="K410">
         <v>2.1</v>
       </c>
       <c r="L410">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M410">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N410">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O410">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P410">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q410">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R410">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S410">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T410">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U410">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V410">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y410">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z410">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA410">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB410">
+        <v>-1</v>
+      </c>
+      <c r="AC410">
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37008,7 +37023,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>7612858</v>
+        <v>7612854</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37017,34 +37032,43 @@
         <v>28</v>
       </c>
       <c r="E411" s="2">
-        <v>45346.91666666666</v>
+        <v>45346</v>
       </c>
       <c r="F411" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G411" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="H411">
+        <v>1</v>
+      </c>
+      <c r="I411">
+        <v>1</v>
+      </c>
+      <c r="J411" t="s">
+        <v>48</v>
       </c>
       <c r="K411">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="L411">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M411">
-        <v>6.2</v>
+        <v>2.45</v>
       </c>
       <c r="N411">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O411">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P411">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q411">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R411">
         <v>1.875</v>
@@ -37053,28 +37077,34 @@
         <v>1.975</v>
       </c>
       <c r="T411">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U411">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V411">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X411">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y411">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z411">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AA411">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB411">
+        <v>-1</v>
+      </c>
+      <c r="AC411">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37082,7 +37112,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>7612857</v>
+        <v>7612855</v>
       </c>
       <c r="C412" t="s">
         <v>28</v>
@@ -37091,64 +37121,79 @@
         <v>28</v>
       </c>
       <c r="E412" s="2">
-        <v>45346.92013888889</v>
+        <v>45346.00694444445</v>
       </c>
       <c r="F412" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G412" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="H412">
+        <v>0</v>
+      </c>
+      <c r="I412">
+        <v>3</v>
+      </c>
+      <c r="J412" t="s">
+        <v>47</v>
       </c>
       <c r="K412">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="L412">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="M412">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="N412">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="O412">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P412">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="Q412">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R412">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S412">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T412">
         <v>2.5</v>
       </c>
       <c r="U412">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V412">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W412">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X412">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y412">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z412">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA412">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB412">
+        <v>0.925</v>
+      </c>
+      <c r="AC412">
+        <v>-1</v>
       </c>
     </row>
     <row r="413" spans="1:29">
@@ -37156,7 +37201,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7612859</v>
+        <v>7612858</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37165,49 +37210,49 @@
         <v>28</v>
       </c>
       <c r="E413" s="2">
-        <v>45347.00694444445</v>
+        <v>45346.91666666666</v>
       </c>
       <c r="F413" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G413" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K413">
         <v>1.444</v>
       </c>
       <c r="L413">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="M413">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="N413">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O413">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P413">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q413">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R413">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S413">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T413">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U413">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V413">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W413">
         <v>0</v>
@@ -37230,7 +37275,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7612860</v>
+        <v>7612857</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37239,49 +37284,49 @@
         <v>28</v>
       </c>
       <c r="E414" s="2">
-        <v>45347.625</v>
+        <v>45346.92013888889</v>
       </c>
       <c r="F414" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G414" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K414">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="L414">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M414">
-        <v>4.1</v>
+        <v>2.75</v>
       </c>
       <c r="N414">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O414">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P414">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q414">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R414">
+        <v>1.825</v>
+      </c>
+      <c r="S414">
         <v>2.025</v>
       </c>
-      <c r="S414">
-        <v>1.825</v>
-      </c>
       <c r="T414">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U414">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V414">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W414">
         <v>0</v>
@@ -37304,7 +37349,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7854021</v>
+        <v>7612859</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37313,28 +37358,28 @@
         <v>28</v>
       </c>
       <c r="E415" s="2">
-        <v>45347.875</v>
+        <v>45347.00694444445</v>
       </c>
       <c r="F415" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G415" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K415">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L415">
-        <v>3.6</v>
+        <v>4.25</v>
       </c>
       <c r="M415">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="N415">
         <v>1.95</v>
       </c>
       <c r="O415">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P415">
         <v>3.6</v>
@@ -37343,13 +37388,13 @@
         <v>-0.5</v>
       </c>
       <c r="R415">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S415">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T415">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U415">
         <v>2.025</v>
@@ -37370,6 +37415,154 @@
         <v>0</v>
       </c>
       <c r="AA415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:29">
+      <c r="A416" s="1">
+        <v>414</v>
+      </c>
+      <c r="B416">
+        <v>7612860</v>
+      </c>
+      <c r="C416" t="s">
+        <v>28</v>
+      </c>
+      <c r="D416" t="s">
+        <v>28</v>
+      </c>
+      <c r="E416" s="2">
+        <v>45347.625</v>
+      </c>
+      <c r="F416" t="s">
+        <v>41</v>
+      </c>
+      <c r="G416" t="s">
+        <v>34</v>
+      </c>
+      <c r="K416">
+        <v>1.75</v>
+      </c>
+      <c r="L416">
+        <v>3.6</v>
+      </c>
+      <c r="M416">
+        <v>4.1</v>
+      </c>
+      <c r="N416">
+        <v>1.615</v>
+      </c>
+      <c r="O416">
+        <v>4.2</v>
+      </c>
+      <c r="P416">
+        <v>5</v>
+      </c>
+      <c r="Q416">
+        <v>-1</v>
+      </c>
+      <c r="R416">
+        <v>2</v>
+      </c>
+      <c r="S416">
+        <v>1.85</v>
+      </c>
+      <c r="T416">
+        <v>3</v>
+      </c>
+      <c r="U416">
+        <v>1.95</v>
+      </c>
+      <c r="V416">
+        <v>1.9</v>
+      </c>
+      <c r="W416">
+        <v>0</v>
+      </c>
+      <c r="X416">
+        <v>0</v>
+      </c>
+      <c r="Y416">
+        <v>0</v>
+      </c>
+      <c r="Z416">
+        <v>0</v>
+      </c>
+      <c r="AA416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:27">
+      <c r="A417" s="1">
+        <v>415</v>
+      </c>
+      <c r="B417">
+        <v>7854021</v>
+      </c>
+      <c r="C417" t="s">
+        <v>28</v>
+      </c>
+      <c r="D417" t="s">
+        <v>28</v>
+      </c>
+      <c r="E417" s="2">
+        <v>45347.875</v>
+      </c>
+      <c r="F417" t="s">
+        <v>33</v>
+      </c>
+      <c r="G417" t="s">
+        <v>44</v>
+      </c>
+      <c r="K417">
+        <v>1.95</v>
+      </c>
+      <c r="L417">
+        <v>3.6</v>
+      </c>
+      <c r="M417">
+        <v>3.3</v>
+      </c>
+      <c r="N417">
+        <v>1.95</v>
+      </c>
+      <c r="O417">
+        <v>3.8</v>
+      </c>
+      <c r="P417">
+        <v>3.6</v>
+      </c>
+      <c r="Q417">
+        <v>-0.5</v>
+      </c>
+      <c r="R417">
+        <v>1.95</v>
+      </c>
+      <c r="S417">
+        <v>1.9</v>
+      </c>
+      <c r="T417">
+        <v>2.75</v>
+      </c>
+      <c r="U417">
+        <v>1.8</v>
+      </c>
+      <c r="V417">
+        <v>2.05</v>
+      </c>
+      <c r="W417">
+        <v>0</v>
+      </c>
+      <c r="X417">
+        <v>0</v>
+      </c>
+      <c r="Y417">
+        <v>0</v>
+      </c>
+      <c r="Z417">
+        <v>0</v>
+      </c>
+      <c r="AA417">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC417"/>
+  <dimension ref="A1:AC415"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -32395,7 +32395,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C359" t="s">
         <v>28</v>
@@ -32407,76 +32407,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F359" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G359" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H359">
         <v>1</v>
       </c>
       <c r="I359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J359" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K359">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L359">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M359">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N359">
+        <v>3</v>
+      </c>
+      <c r="O359">
+        <v>3.3</v>
+      </c>
+      <c r="P359">
+        <v>2.4</v>
+      </c>
+      <c r="Q359">
+        <v>0.25</v>
+      </c>
+      <c r="R359">
+        <v>1.775</v>
+      </c>
+      <c r="S359">
+        <v>2.1</v>
+      </c>
+      <c r="T359">
+        <v>2.25</v>
+      </c>
+      <c r="U359">
+        <v>1.8</v>
+      </c>
+      <c r="V359">
+        <v>2.05</v>
+      </c>
+      <c r="W359">
+        <v>-1</v>
+      </c>
+      <c r="X359">
+        <v>-1</v>
+      </c>
+      <c r="Y359">
         <v>1.4</v>
       </c>
-      <c r="O359">
-        <v>4.333</v>
-      </c>
-      <c r="P359">
-        <v>8.5</v>
-      </c>
-      <c r="Q359">
-        <v>-1.25</v>
-      </c>
-      <c r="R359">
-        <v>1.925</v>
-      </c>
-      <c r="S359">
-        <v>1.925</v>
-      </c>
-      <c r="T359">
-        <v>2.75</v>
-      </c>
-      <c r="U359">
-        <v>2.025</v>
-      </c>
-      <c r="V359">
-        <v>1.825</v>
-      </c>
-      <c r="W359">
-        <v>-1</v>
-      </c>
-      <c r="X359">
-        <v>3.333</v>
-      </c>
-      <c r="Y359">
-        <v>-1</v>
-      </c>
       <c r="Z359">
         <v>-1</v>
       </c>
       <c r="AA359">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB359">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC359">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="360" spans="1:29">
@@ -32484,7 +32484,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C360" t="s">
         <v>28</v>
@@ -32496,76 +32496,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F360" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G360" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H360">
         <v>1</v>
       </c>
       <c r="I360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J360" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K360">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L360">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M360">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N360">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O360">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P360">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q360">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R360">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S360">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T360">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U360">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V360">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W360">
         <v>-1</v>
       </c>
       <c r="X360">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y360">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z360">
         <v>-1</v>
       </c>
       <c r="AA360">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB360">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC360">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="361" spans="1:29">
@@ -35421,7 +35421,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C393" t="s">
         <v>28</v>
@@ -35433,73 +35433,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F393" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G393" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I393">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J393" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K393">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L393">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M393">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N393">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O393">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P393">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q393">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R393">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S393">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T393">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U393">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V393">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W393">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X393">
         <v>-1</v>
       </c>
       <c r="Y393">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z393">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA393">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB393">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC393">
         <v>-1</v>
@@ -35510,7 +35510,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C394" t="s">
         <v>28</v>
@@ -35522,73 +35522,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F394" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G394" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H394">
+        <v>0</v>
+      </c>
+      <c r="I394">
         <v>3</v>
       </c>
-      <c r="I394">
-        <v>2</v>
-      </c>
       <c r="J394" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K394">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L394">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M394">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N394">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O394">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P394">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q394">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R394">
+        <v>2.05</v>
+      </c>
+      <c r="S394">
+        <v>1.8</v>
+      </c>
+      <c r="T394">
+        <v>2.5</v>
+      </c>
+      <c r="U394">
+        <v>1.9</v>
+      </c>
+      <c r="V394">
         <v>1.95</v>
       </c>
-      <c r="S394">
-        <v>1.9</v>
-      </c>
-      <c r="T394">
-        <v>2.75</v>
-      </c>
-      <c r="U394">
-        <v>1.825</v>
-      </c>
-      <c r="V394">
-        <v>2.025</v>
-      </c>
       <c r="W394">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X394">
         <v>-1</v>
       </c>
       <c r="Y394">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z394">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA394">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB394">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC394">
         <v>-1</v>
@@ -37201,7 +37201,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>7612858</v>
+        <v>7612859</v>
       </c>
       <c r="C413" t="s">
         <v>28</v>
@@ -37210,34 +37210,34 @@
         <v>28</v>
       </c>
       <c r="E413" s="2">
-        <v>45346.91666666666</v>
+        <v>45347.00694444445</v>
       </c>
       <c r="F413" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G413" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K413">
         <v>1.444</v>
       </c>
       <c r="L413">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M413">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="N413">
-        <v>1.571</v>
+        <v>1.95</v>
       </c>
       <c r="O413">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P413">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q413">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R413">
         <v>2</v>
@@ -37246,13 +37246,13 @@
         <v>1.85</v>
       </c>
       <c r="T413">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U413">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V413">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W413">
         <v>0</v>
@@ -37275,7 +37275,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>7612857</v>
+        <v>7612860</v>
       </c>
       <c r="C414" t="s">
         <v>28</v>
@@ -37284,49 +37284,49 @@
         <v>28</v>
       </c>
       <c r="E414" s="2">
-        <v>45346.92013888889</v>
+        <v>45347.625</v>
       </c>
       <c r="F414" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G414" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K414">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="L414">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M414">
-        <v>2.75</v>
+        <v>4.1</v>
       </c>
       <c r="N414">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="O414">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P414">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="Q414">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R414">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S414">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T414">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U414">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V414">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W414">
         <v>0</v>
@@ -37349,7 +37349,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>7612859</v>
+        <v>7854021</v>
       </c>
       <c r="C415" t="s">
         <v>28</v>
@@ -37358,28 +37358,28 @@
         <v>28</v>
       </c>
       <c r="E415" s="2">
-        <v>45347.00694444445</v>
+        <v>45347.875</v>
       </c>
       <c r="F415" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G415" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K415">
-        <v>1.444</v>
+        <v>1.95</v>
       </c>
       <c r="L415">
-        <v>4.25</v>
+        <v>3.6</v>
       </c>
       <c r="M415">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="N415">
         <v>1.95</v>
       </c>
       <c r="O415">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P415">
         <v>3.6</v>
@@ -37388,19 +37388,19 @@
         <v>-0.5</v>
       </c>
       <c r="R415">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S415">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T415">
         <v>2.75</v>
       </c>
       <c r="U415">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V415">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W415">
         <v>0</v>
@@ -37415,154 +37415,6 @@
         <v>0</v>
       </c>
       <c r="AA415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:29">
-      <c r="A416" s="1">
-        <v>414</v>
-      </c>
-      <c r="B416">
-        <v>7612860</v>
-      </c>
-      <c r="C416" t="s">
-        <v>28</v>
-      </c>
-      <c r="D416" t="s">
-        <v>28</v>
-      </c>
-      <c r="E416" s="2">
-        <v>45347.625</v>
-      </c>
-      <c r="F416" t="s">
-        <v>41</v>
-      </c>
-      <c r="G416" t="s">
-        <v>34</v>
-      </c>
-      <c r="K416">
-        <v>1.75</v>
-      </c>
-      <c r="L416">
-        <v>3.6</v>
-      </c>
-      <c r="M416">
-        <v>4.1</v>
-      </c>
-      <c r="N416">
-        <v>1.615</v>
-      </c>
-      <c r="O416">
-        <v>4.2</v>
-      </c>
-      <c r="P416">
-        <v>5</v>
-      </c>
-      <c r="Q416">
-        <v>-1</v>
-      </c>
-      <c r="R416">
-        <v>2</v>
-      </c>
-      <c r="S416">
-        <v>1.85</v>
-      </c>
-      <c r="T416">
-        <v>3</v>
-      </c>
-      <c r="U416">
-        <v>1.95</v>
-      </c>
-      <c r="V416">
-        <v>1.9</v>
-      </c>
-      <c r="W416">
-        <v>0</v>
-      </c>
-      <c r="X416">
-        <v>0</v>
-      </c>
-      <c r="Y416">
-        <v>0</v>
-      </c>
-      <c r="Z416">
-        <v>0</v>
-      </c>
-      <c r="AA416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:27">
-      <c r="A417" s="1">
-        <v>415</v>
-      </c>
-      <c r="B417">
-        <v>7854021</v>
-      </c>
-      <c r="C417" t="s">
-        <v>28</v>
-      </c>
-      <c r="D417" t="s">
-        <v>28</v>
-      </c>
-      <c r="E417" s="2">
-        <v>45347.875</v>
-      </c>
-      <c r="F417" t="s">
-        <v>33</v>
-      </c>
-      <c r="G417" t="s">
-        <v>44</v>
-      </c>
-      <c r="K417">
-        <v>1.95</v>
-      </c>
-      <c r="L417">
-        <v>3.6</v>
-      </c>
-      <c r="M417">
-        <v>3.3</v>
-      </c>
-      <c r="N417">
-        <v>1.95</v>
-      </c>
-      <c r="O417">
-        <v>3.8</v>
-      </c>
-      <c r="P417">
-        <v>3.6</v>
-      </c>
-      <c r="Q417">
-        <v>-0.5</v>
-      </c>
-      <c r="R417">
-        <v>1.95</v>
-      </c>
-      <c r="S417">
-        <v>1.9</v>
-      </c>
-      <c r="T417">
-        <v>2.75</v>
-      </c>
-      <c r="U417">
-        <v>1.8</v>
-      </c>
-      <c r="V417">
-        <v>2.05</v>
-      </c>
-      <c r="W417">
-        <v>0</v>
-      </c>
-      <c r="X417">
-        <v>0</v>
-      </c>
-      <c r="Y417">
-        <v>0</v>
-      </c>
-      <c r="Z417">
-        <v>0</v>
-      </c>
-      <c r="AA417">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
-    <t>Club America</t>
+    <t>Mazatlan FC</t>
   </si>
   <si>
-    <t>Mazatlan FC</t>
+    <t>Club America</t>
   </si>
   <si>
     <t>Tijuana</t>
@@ -157,10 +157,10 @@
     <t>Queretaro</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC251"/>
+  <dimension ref="A1:AC259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y2">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>-1.25</v>
+      </c>
+      <c r="R3">
+        <v>1.975</v>
+      </c>
+      <c r="S3">
+        <v>1.875</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>2.05</v>
       </c>
-      <c r="Q3">
-        <v>0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
-      <c r="S3">
-        <v>2.025</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>3.5</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2.55</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2.45</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>45121.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>45122.91666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>1.75</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>1.9</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>2.8</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2.7</v>
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>2.05</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7053868</v>
+        <v>7094230</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,49 +3482,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>47</v>
       </c>
       <c r="K34">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N34">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
         <v>2</v>
@@ -3536,22 +3536,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y34">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7094230</v>
+        <v>7053868</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,49 +3571,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
       <c r="K35">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N35">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
         <v>2</v>
@@ -3625,22 +3625,22 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,43 +3675,43 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>2.9</v>
+      </c>
+      <c r="N36">
+        <v>1.85</v>
+      </c>
+      <c r="O36">
+        <v>3.75</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.875</v>
+      </c>
+      <c r="S36">
+        <v>1.975</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="M36">
-        <v>1.5</v>
-      </c>
-      <c r="N36">
-        <v>1.615</v>
-      </c>
-      <c r="O36">
-        <v>4.2</v>
-      </c>
-      <c r="P36">
-        <v>5</v>
-      </c>
-      <c r="Q36">
-        <v>-0.75</v>
-      </c>
-      <c r="R36">
-        <v>1.8</v>
-      </c>
-      <c r="S36">
-        <v>2.05</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,61 +3764,61 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N37">
+        <v>1.615</v>
+      </c>
+      <c r="O37">
+        <v>4.2</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <v>-0.75</v>
+      </c>
+      <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>2.05</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="O37">
-        <v>3.75</v>
-      </c>
-      <c r="P37">
-        <v>4</v>
-      </c>
-      <c r="Q37">
+      <c r="W37">
+        <v>0.615</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>0.4</v>
+      </c>
+      <c r="AA37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.975</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.825</v>
-      </c>
-      <c r="V37">
-        <v>2.025</v>
-      </c>
-      <c r="W37">
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4286,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>1.55</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4461,7 +4461,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>1.7</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>1.6</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>1.727</v>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>1.363</v>
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5974,7 +5974,7 @@
         <v>45184.90972222222</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5986,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6330,7 +6330,7 @@
         <v>45186.00694444445</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>3.2</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,73 +6864,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N72">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O72">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,61 +7131,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X75">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7194,13 +7194,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,61 +7220,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N76">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7283,13 +7283,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7499,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7668,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>1.444</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>2.1</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>2.6</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>45199.90277777778</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8288,7 +8288,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8300,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>3.25</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.25</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45203</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
+        <v>3.3</v>
+      </c>
+      <c r="M93">
+        <v>2.8</v>
+      </c>
+      <c r="N93">
         <v>3.5</v>
-      </c>
-      <c r="M93">
-        <v>4.5</v>
-      </c>
-      <c r="N93">
-        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8834,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94">
         <v>1.8</v>
@@ -9000,10 +9000,10 @@
         <v>45206</v>
       </c>
       <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" t="s">
         <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>3.75</v>
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>2.875</v>
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>2.2</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>2.2</v>
@@ -9804,7 +9804,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K106">
         <v>2.5</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10157,7 +10157,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45227</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11237,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>2.5</v>
@@ -11317,7 +11317,7 @@
         <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>3.2</v>
@@ -11682,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
         <v>1.5</v>
@@ -11771,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>3.25</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6754098</v>
+        <v>6754099</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N128">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P128">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
+        <v>2.025</v>
+      </c>
+      <c r="T128">
+        <v>3</v>
+      </c>
+      <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
-      <c r="V128">
-        <v>2.025</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6754099</v>
+        <v>6754098</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N129">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q129">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.875</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
         <v>1.825</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>2.025</v>
       </c>
-      <c r="T129">
-        <v>3</v>
-      </c>
-      <c r="U129">
-        <v>1.875</v>
-      </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K130">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L130">
         <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
         <v>1.8</v>
       </c>
-      <c r="S130">
-        <v>2.05</v>
-      </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
         <v>0.8</v>
       </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
         <v>3.3</v>
       </c>
       <c r="M131">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N131">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
         <v>2.05</v>
       </c>
-      <c r="S131">
-        <v>1.8</v>
-      </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12204,7 +12204,7 @@
         <v>45232</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
         <v>36</v>
@@ -12296,7 +12296,7 @@
         <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>3.75</v>
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>1.666</v>
@@ -12649,7 +12649,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>31</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>2.7</v>
@@ -13008,7 +13008,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
         <v>1.909</v>
@@ -13450,7 +13450,7 @@
         <v>45240.92013888889</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
         <v>2.35</v>
@@ -13640,7 +13640,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>1.95</v>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K149">
         <v>4</v>
@@ -13898,7 +13898,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14254,7 +14254,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K157">
         <v>2.7</v>
@@ -14619,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>3.5</v>
@@ -14785,7 +14785,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K162">
         <v>1.533</v>
@@ -15144,7 +15144,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>5</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>3.4</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15319,7 +15319,7 @@
         <v>45269.95833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15331,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>1.3</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K168">
         <v>1.5</v>
@@ -15500,7 +15500,7 @@
         <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K169">
         <v>2.6</v>
@@ -15586,7 +15586,7 @@
         <v>45277.9375</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>2.8</v>
@@ -15764,7 +15764,7 @@
         <v>45304</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45305</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L175">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N175">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P175">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R175">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA175">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45305</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K176">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N176">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O176">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W176">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z176">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>2.8</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -16746,7 +16746,7 @@
         <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16832,7 +16832,7 @@
         <v>45311.92013888889</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185">
         <v>2.3</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>47</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M188">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y188">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189">
+        <v>3.3</v>
+      </c>
+      <c r="P189">
+        <v>2.4</v>
+      </c>
+      <c r="Q189">
+        <v>0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.775</v>
+      </c>
+      <c r="S189">
+        <v>2.1</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2.05</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.4</v>
       </c>
-      <c r="O189">
-        <v>4.333</v>
-      </c>
-      <c r="P189">
-        <v>8.5</v>
-      </c>
-      <c r="Q189">
-        <v>-1.25</v>
-      </c>
-      <c r="R189">
-        <v>1.925</v>
-      </c>
-      <c r="S189">
-        <v>1.925</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>3.333</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>4.333</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K191">
         <v>3</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17725,7 +17725,7 @@
         <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H194">
         <v>2</v>
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K196">
         <v>4.2</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L200">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M200">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N200">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O200">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q200">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W200">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K201">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L201">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
+        <v>4.5</v>
+      </c>
+      <c r="N201">
+        <v>1.533</v>
+      </c>
+      <c r="O201">
+        <v>4.2</v>
+      </c>
+      <c r="P201">
+        <v>6</v>
+      </c>
+      <c r="Q201">
+        <v>-1</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.9</v>
+      </c>
+      <c r="T201">
         <v>2.75</v>
       </c>
-      <c r="N201">
-        <v>3.3</v>
-      </c>
-      <c r="O201">
-        <v>3.6</v>
-      </c>
-      <c r="P201">
-        <v>2.15</v>
-      </c>
-      <c r="Q201">
-        <v>0.25</v>
-      </c>
-      <c r="R201">
-        <v>1.925</v>
-      </c>
-      <c r="S201">
-        <v>1.925</v>
-      </c>
-      <c r="T201">
-        <v>2.5</v>
-      </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X201">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K206">
         <v>3.25</v>
@@ -18882,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19069,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K209">
         <v>2.4</v>
@@ -19158,7 +19158,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K210">
         <v>1.666</v>
@@ -19324,7 +19324,7 @@
         <v>45326.00694444445</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
         <v>44</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K212">
         <v>1.75</v>
@@ -19514,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
         <v>2.6</v>
@@ -19680,7 +19680,7 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K217">
         <v>1.95</v>
@@ -19870,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K218">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K220">
         <v>3.25</v>
@@ -20226,7 +20226,7 @@
         <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K222">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K225">
         <v>2.4</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>45339</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20760,7 +20760,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K228">
         <v>1.95</v>
@@ -20840,7 +20840,7 @@
         <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
         <v>2.375</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K233">
         <v>1.666</v>
@@ -21294,7 +21294,7 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K234">
         <v>3.1</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7612867</v>
+        <v>7612866</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,73 +21549,73 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
         <v>48</v>
       </c>
       <c r="K237">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L237">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N237">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="O237">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q237">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T237">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB237">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7612866</v>
+        <v>7612867</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,73 +21638,73 @@
         <v>45344</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>47</v>
       </c>
       <c r="K238">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M238">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N238">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P238">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R238">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y238">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB238">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K239">
         <v>2.1</v>
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K240">
         <v>2.75</v>
@@ -21917,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K241">
         <v>5</v>
@@ -22095,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K243">
         <v>1.444</v>
@@ -22261,7 +22261,7 @@
         <v>45347.00694444445</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G245" t="s">
         <v>40</v>
@@ -22427,7 +22427,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>7612868</v>
+        <v>7854021</v>
       </c>
       <c r="C247" t="s">
         <v>28</v>
@@ -22436,64 +22436,79 @@
         <v>28</v>
       </c>
       <c r="E247" s="2">
-        <v>45349.91666666666</v>
+        <v>45347.875</v>
       </c>
       <c r="F247" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247" t="s">
+        <v>49</v>
       </c>
       <c r="K247">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L247">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M247">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="N247">
+        <v>2.05</v>
+      </c>
+      <c r="O247">
+        <v>3.75</v>
+      </c>
+      <c r="P247">
+        <v>3.4</v>
+      </c>
+      <c r="Q247">
+        <v>-0.5</v>
+      </c>
+      <c r="R247">
+        <v>2.025</v>
+      </c>
+      <c r="S247">
+        <v>1.825</v>
+      </c>
+      <c r="T247">
         <v>2.75</v>
       </c>
-      <c r="O247">
-        <v>3.3</v>
-      </c>
-      <c r="P247">
-        <v>2.6</v>
-      </c>
-      <c r="Q247">
-        <v>0</v>
-      </c>
-      <c r="R247">
-        <v>2</v>
-      </c>
-      <c r="S247">
-        <v>1.85</v>
-      </c>
-      <c r="T247">
-        <v>2.5</v>
-      </c>
       <c r="U247">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V247">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W247">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z247">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA247">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB247">
+        <v>-1</v>
+      </c>
+      <c r="AC247">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="248" spans="1:29">
@@ -22501,7 +22516,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>7612869</v>
+        <v>7612868</v>
       </c>
       <c r="C248" t="s">
         <v>28</v>
@@ -22510,34 +22525,34 @@
         <v>28</v>
       </c>
       <c r="E248" s="2">
-        <v>45350.91666666666</v>
+        <v>45349.91666666666</v>
       </c>
       <c r="F248" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G248" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="K248">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L248">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M248">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N248">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O248">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="P248">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q248">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R248">
         <v>1.925</v>
@@ -22546,13 +22561,13 @@
         <v>1.925</v>
       </c>
       <c r="T248">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U248">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V248">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W248">
         <v>0</v>
@@ -22575,7 +22590,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7612870</v>
+        <v>7612869</v>
       </c>
       <c r="C249" t="s">
         <v>28</v>
@@ -22584,49 +22599,49 @@
         <v>28</v>
       </c>
       <c r="E249" s="2">
-        <v>45351</v>
+        <v>45350.91666666666</v>
       </c>
       <c r="F249" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G249" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K249">
-        <v>3.75</v>
+        <v>1.4</v>
       </c>
       <c r="L249">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M249">
-        <v>1.833</v>
+        <v>6.5</v>
       </c>
       <c r="N249">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="O249">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P249">
-        <v>1.833</v>
+        <v>9</v>
       </c>
       <c r="Q249">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R249">
+        <v>1.9</v>
+      </c>
+      <c r="S249">
+        <v>1.95</v>
+      </c>
+      <c r="T249">
+        <v>2.75</v>
+      </c>
+      <c r="U249">
         <v>1.925</v>
       </c>
-      <c r="S249">
+      <c r="V249">
         <v>1.925</v>
-      </c>
-      <c r="T249">
-        <v>2.5</v>
-      </c>
-      <c r="U249">
-        <v>1.875</v>
-      </c>
-      <c r="V249">
-        <v>1.975</v>
       </c>
       <c r="W249">
         <v>0</v>
@@ -22649,7 +22664,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7612873</v>
+        <v>7612870</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22658,49 +22673,49 @@
         <v>28</v>
       </c>
       <c r="E250" s="2">
-        <v>45353</v>
+        <v>45351</v>
       </c>
       <c r="F250" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G250" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K250">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="L250">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M250">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="N250">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="O250">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P250">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R250">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S250">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T250">
         <v>2.5</v>
       </c>
       <c r="U250">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V250">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22723,7 +22738,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612876</v>
+        <v>7612871</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22732,63 +22747,655 @@
         <v>28</v>
       </c>
       <c r="E251" s="2">
-        <v>45353.91666666666</v>
+        <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G251" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K251">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L251">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M251">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="N251">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="O251">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P251">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="Q251">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R251">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S251">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T251">
         <v>2.5</v>
       </c>
       <c r="U251">
+        <v>1.875</v>
+      </c>
+      <c r="V251">
         <v>1.975</v>
       </c>
-      <c r="V251">
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+      <c r="Y251">
+        <v>0</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AA251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:29">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>7612872</v>
+      </c>
+      <c r="C252" t="s">
+        <v>28</v>
+      </c>
+      <c r="D252" t="s">
+        <v>28</v>
+      </c>
+      <c r="E252" s="2">
+        <v>45352.91666666666</v>
+      </c>
+      <c r="F252" t="s">
+        <v>32</v>
+      </c>
+      <c r="G252" t="s">
+        <v>38</v>
+      </c>
+      <c r="K252">
+        <v>2.05</v>
+      </c>
+      <c r="L252">
+        <v>3.4</v>
+      </c>
+      <c r="M252">
+        <v>3.5</v>
+      </c>
+      <c r="N252">
+        <v>2.05</v>
+      </c>
+      <c r="O252">
+        <v>3.4</v>
+      </c>
+      <c r="P252">
+        <v>3.5</v>
+      </c>
+      <c r="Q252">
+        <v>-0.25</v>
+      </c>
+      <c r="R252">
+        <v>1.8</v>
+      </c>
+      <c r="S252">
+        <v>2.05</v>
+      </c>
+      <c r="T252">
+        <v>2.5</v>
+      </c>
+      <c r="U252">
+        <v>1.85</v>
+      </c>
+      <c r="V252">
+        <v>2</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252">
+        <v>0</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AA252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:29">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>7612873</v>
+      </c>
+      <c r="C253" t="s">
+        <v>28</v>
+      </c>
+      <c r="D253" t="s">
+        <v>28</v>
+      </c>
+      <c r="E253" s="2">
+        <v>45353</v>
+      </c>
+      <c r="F253" t="s">
+        <v>29</v>
+      </c>
+      <c r="G253" t="s">
+        <v>39</v>
+      </c>
+      <c r="K253">
+        <v>2.7</v>
+      </c>
+      <c r="L253">
+        <v>3.25</v>
+      </c>
+      <c r="M253">
+        <v>2.6</v>
+      </c>
+      <c r="N253">
+        <v>2.3</v>
+      </c>
+      <c r="O253">
+        <v>3.3</v>
+      </c>
+      <c r="P253">
+        <v>3.1</v>
+      </c>
+      <c r="Q253">
+        <v>-0.25</v>
+      </c>
+      <c r="R253">
+        <v>2</v>
+      </c>
+      <c r="S253">
+        <v>1.85</v>
+      </c>
+      <c r="T253">
+        <v>2.5</v>
+      </c>
+      <c r="U253">
+        <v>1.85</v>
+      </c>
+      <c r="V253">
+        <v>2</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+      <c r="Y253">
+        <v>0</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AA253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:29">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>7612874</v>
+      </c>
+      <c r="C254" t="s">
+        <v>28</v>
+      </c>
+      <c r="D254" t="s">
+        <v>28</v>
+      </c>
+      <c r="E254" s="2">
+        <v>45353.83333333334</v>
+      </c>
+      <c r="F254" t="s">
+        <v>35</v>
+      </c>
+      <c r="G254" t="s">
+        <v>33</v>
+      </c>
+      <c r="K254">
+        <v>2.5</v>
+      </c>
+      <c r="L254">
+        <v>3.25</v>
+      </c>
+      <c r="M254">
+        <v>2.8</v>
+      </c>
+      <c r="N254">
+        <v>2.5</v>
+      </c>
+      <c r="O254">
+        <v>3.25</v>
+      </c>
+      <c r="P254">
+        <v>2.8</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>1.8</v>
+      </c>
+      <c r="S254">
+        <v>2.05</v>
+      </c>
+      <c r="T254">
+        <v>2.5</v>
+      </c>
+      <c r="U254">
+        <v>1.9</v>
+      </c>
+      <c r="V254">
+        <v>1.95</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254">
+        <v>0</v>
+      </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
+      <c r="AA254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:29">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>7612875</v>
+      </c>
+      <c r="C255" t="s">
+        <v>28</v>
+      </c>
+      <c r="D255" t="s">
+        <v>28</v>
+      </c>
+      <c r="E255" s="2">
+        <v>45353.91666666666</v>
+      </c>
+      <c r="F255" t="s">
+        <v>45</v>
+      </c>
+      <c r="G255" t="s">
+        <v>42</v>
+      </c>
+      <c r="K255">
+        <v>1.444</v>
+      </c>
+      <c r="L255">
+        <v>4</v>
+      </c>
+      <c r="M255">
+        <v>8</v>
+      </c>
+      <c r="N255">
+        <v>1.45</v>
+      </c>
+      <c r="O255">
+        <v>4</v>
+      </c>
+      <c r="P255">
+        <v>7.5</v>
+      </c>
+      <c r="Q255">
+        <v>-1</v>
+      </c>
+      <c r="R255">
+        <v>1.8</v>
+      </c>
+      <c r="S255">
+        <v>2.05</v>
+      </c>
+      <c r="T255">
+        <v>2.75</v>
+      </c>
+      <c r="U255">
+        <v>1.85</v>
+      </c>
+      <c r="V255">
+        <v>2</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+      <c r="Y255">
+        <v>0</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AA255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:29">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>7612876</v>
+      </c>
+      <c r="C256" t="s">
+        <v>28</v>
+      </c>
+      <c r="D256" t="s">
+        <v>28</v>
+      </c>
+      <c r="E256" s="2">
+        <v>45353.91666666666</v>
+      </c>
+      <c r="F256" t="s">
+        <v>40</v>
+      </c>
+      <c r="G256" t="s">
+        <v>41</v>
+      </c>
+      <c r="K256">
+        <v>2</v>
+      </c>
+      <c r="L256">
+        <v>3.4</v>
+      </c>
+      <c r="M256">
+        <v>3.75</v>
+      </c>
+      <c r="N256">
+        <v>1.909</v>
+      </c>
+      <c r="O256">
+        <v>3.5</v>
+      </c>
+      <c r="P256">
+        <v>4</v>
+      </c>
+      <c r="Q256">
+        <v>-0.5</v>
+      </c>
+      <c r="R256">
+        <v>1.9</v>
+      </c>
+      <c r="S256">
+        <v>1.95</v>
+      </c>
+      <c r="T256">
+        <v>2.5</v>
+      </c>
+      <c r="U256">
+        <v>1.925</v>
+      </c>
+      <c r="V256">
+        <v>1.925</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256">
+        <v>0</v>
+      </c>
+      <c r="Z256">
+        <v>0</v>
+      </c>
+      <c r="AA256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>7612877</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45354</v>
+      </c>
+      <c r="F257" t="s">
+        <v>34</v>
+      </c>
+      <c r="G257" t="s">
+        <v>30</v>
+      </c>
+      <c r="K257">
+        <v>3.5</v>
+      </c>
+      <c r="L257">
+        <v>3.4</v>
+      </c>
+      <c r="M257">
+        <v>2.05</v>
+      </c>
+      <c r="N257">
+        <v>3.8</v>
+      </c>
+      <c r="O257">
+        <v>3.5</v>
+      </c>
+      <c r="P257">
+        <v>1.909</v>
+      </c>
+      <c r="Q257">
+        <v>0.5</v>
+      </c>
+      <c r="R257">
+        <v>1.925</v>
+      </c>
+      <c r="S257">
+        <v>1.925</v>
+      </c>
+      <c r="T257">
+        <v>2.5</v>
+      </c>
+      <c r="U257">
+        <v>1.975</v>
+      </c>
+      <c r="V257">
         <v>1.875</v>
       </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
-        <v>0</v>
-      </c>
-      <c r="Y251">
-        <v>0</v>
-      </c>
-      <c r="Z251">
-        <v>0</v>
-      </c>
-      <c r="AA251">
+      <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257">
+        <v>0</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AA257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>7883158</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45354.91666666666</v>
+      </c>
+      <c r="F258" t="s">
+        <v>44</v>
+      </c>
+      <c r="G258" t="s">
+        <v>43</v>
+      </c>
+      <c r="K258">
+        <v>1.8</v>
+      </c>
+      <c r="L258">
+        <v>3.4</v>
+      </c>
+      <c r="M258">
+        <v>4.75</v>
+      </c>
+      <c r="N258">
+        <v>1.833</v>
+      </c>
+      <c r="O258">
+        <v>3.4</v>
+      </c>
+      <c r="P258">
+        <v>4.5</v>
+      </c>
+      <c r="Q258">
+        <v>-0.5</v>
+      </c>
+      <c r="R258">
+        <v>1.85</v>
+      </c>
+      <c r="S258">
+        <v>2</v>
+      </c>
+      <c r="T258">
+        <v>2.75</v>
+      </c>
+      <c r="U258">
+        <v>1.925</v>
+      </c>
+      <c r="V258">
+        <v>1.925</v>
+      </c>
+      <c r="W258">
+        <v>0</v>
+      </c>
+      <c r="X258">
+        <v>0</v>
+      </c>
+      <c r="Y258">
+        <v>0</v>
+      </c>
+      <c r="Z258">
+        <v>0</v>
+      </c>
+      <c r="AA258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>7612879</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45355</v>
+      </c>
+      <c r="F259" t="s">
+        <v>31</v>
+      </c>
+      <c r="G259" t="s">
+        <v>37</v>
+      </c>
+      <c r="K259">
+        <v>2.8</v>
+      </c>
+      <c r="L259">
+        <v>3.25</v>
+      </c>
+      <c r="M259">
+        <v>2.5</v>
+      </c>
+      <c r="N259">
+        <v>2.8</v>
+      </c>
+      <c r="O259">
+        <v>3.25</v>
+      </c>
+      <c r="P259">
+        <v>2.5</v>
+      </c>
+      <c r="Q259">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>2.05</v>
+      </c>
+      <c r="S259">
+        <v>1.8</v>
+      </c>
+      <c r="T259">
+        <v>2.5</v>
+      </c>
+      <c r="U259">
+        <v>1.85</v>
+      </c>
+      <c r="V259">
+        <v>2</v>
+      </c>
+      <c r="W259">
+        <v>0</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>0</v>
+      </c>
+      <c r="Z259">
+        <v>0</v>
+      </c>
+      <c r="AA259">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC259"/>
+  <dimension ref="A1:AC258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,73 +6864,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P72">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N73">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45204</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
+        <v>1.75</v>
+      </c>
+      <c r="L94">
+        <v>3.6</v>
+      </c>
+      <c r="M94">
+        <v>4.2</v>
+      </c>
+      <c r="N94">
+        <v>1.65</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>4.75</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
         <v>1.8</v>
       </c>
-      <c r="L94">
-        <v>3.3</v>
-      </c>
-      <c r="M94">
-        <v>4.333</v>
-      </c>
-      <c r="N94">
-        <v>1.533</v>
-      </c>
-      <c r="O94">
-        <v>4.2</v>
-      </c>
-      <c r="P94">
-        <v>6</v>
-      </c>
-      <c r="Q94">
-        <v>-1</v>
-      </c>
-      <c r="R94">
-        <v>1.925</v>
-      </c>
       <c r="S94">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X94">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA94">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45204</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
+        <v>4.333</v>
+      </c>
+      <c r="N95">
+        <v>1.533</v>
+      </c>
+      <c r="O95">
         <v>4.2</v>
       </c>
-      <c r="N95">
-        <v>1.65</v>
-      </c>
-      <c r="O95">
-        <v>4</v>
-      </c>
       <c r="P95">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.85</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N98">
+        <v>2.9</v>
+      </c>
+      <c r="O98">
+        <v>3.5</v>
+      </c>
+      <c r="P98">
         <v>2.4</v>
       </c>
-      <c r="O98">
-        <v>3.2</v>
-      </c>
-      <c r="P98">
-        <v>3.1</v>
-      </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S99">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X99">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6754099</v>
+        <v>6754098</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N128">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q128">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
+        <v>1.875</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
         <v>1.825</v>
       </c>
-      <c r="S128">
+      <c r="V128">
         <v>2.025</v>
       </c>
-      <c r="T128">
-        <v>3</v>
-      </c>
-      <c r="U128">
-        <v>1.875</v>
-      </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6754098</v>
+        <v>6754099</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M129">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N129">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P129">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>2.025</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.875</v>
-      </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>1.825</v>
-      </c>
-      <c r="V129">
-        <v>2.025</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6754103</v>
+        <v>6754129</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45232</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L132">
         <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>3</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z132">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6754129</v>
+        <v>6754103</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45232</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N133">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O133">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
         <v>3</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA133">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6754113</v>
+        <v>6754114</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>3.7</v>
+      </c>
+      <c r="M148">
+        <v>1.75</v>
+      </c>
+      <c r="N148">
+        <v>2.7</v>
+      </c>
+      <c r="O148">
+        <v>3.5</v>
+      </c>
+      <c r="P148">
+        <v>2.45</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
         <v>1.95</v>
       </c>
-      <c r="L148">
-        <v>3.5</v>
-      </c>
-      <c r="M148">
-        <v>3.4</v>
-      </c>
-      <c r="N148">
-        <v>2.375</v>
-      </c>
-      <c r="O148">
-        <v>3.6</v>
-      </c>
-      <c r="P148">
-        <v>2.875</v>
-      </c>
-      <c r="Q148">
-        <v>-0.25</v>
-      </c>
-      <c r="R148">
-        <v>1.975</v>
-      </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y148">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6754114</v>
+        <v>6754113</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L149">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N149">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45305</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K175">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N175">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q175">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W175">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45305</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N176">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P176">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R176">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K188">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188">
+        <v>3.3</v>
+      </c>
+      <c r="P188">
+        <v>2.4</v>
+      </c>
+      <c r="Q188">
+        <v>0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.775</v>
+      </c>
+      <c r="S188">
+        <v>2.1</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
+        <v>2.05</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1.4</v>
       </c>
-      <c r="O188">
-        <v>4.333</v>
-      </c>
-      <c r="P188">
-        <v>8.5</v>
-      </c>
-      <c r="Q188">
-        <v>-1.25</v>
-      </c>
-      <c r="R188">
-        <v>1.925</v>
-      </c>
-      <c r="S188">
-        <v>1.925</v>
-      </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>2.025</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>3.333</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M189">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P189">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y189">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17621,7 +17621,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7612811</v>
+        <v>7612810</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17633,58 +17633,58 @@
         <v>45318.83333333334</v>
       </c>
       <c r="F193" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>49</v>
       </c>
       <c r="K193">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L193">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M193">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N193">
+        <v>1.5</v>
+      </c>
+      <c r="O193">
+        <v>4.2</v>
+      </c>
+      <c r="P193">
+        <v>5.5</v>
+      </c>
+      <c r="Q193">
+        <v>-1</v>
+      </c>
+      <c r="R193">
+        <v>1.85</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <v>2.75</v>
+      </c>
+      <c r="U193">
         <v>1.8</v>
       </c>
-      <c r="O193">
-        <v>4</v>
-      </c>
-      <c r="P193">
-        <v>4.2</v>
-      </c>
-      <c r="Q193">
-        <v>-0.75</v>
-      </c>
-      <c r="R193">
-        <v>2</v>
-      </c>
-      <c r="S193">
-        <v>1.85</v>
-      </c>
-      <c r="T193">
-        <v>3</v>
-      </c>
-      <c r="U193">
-        <v>1.975</v>
-      </c>
       <c r="V193">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W193">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="X193">
         <v>-1</v>
@@ -17693,16 +17693,16 @@
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA193">
+        <v>-0</v>
+      </c>
+      <c r="AB193">
+        <v>0.4</v>
+      </c>
+      <c r="AC193">
         <v>-0.5</v>
-      </c>
-      <c r="AB193">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC193">
-        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17710,7 +17710,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7612810</v>
+        <v>7612811</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17722,76 +17722,76 @@
         <v>45318.83333333334</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G194" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
         <v>49</v>
       </c>
       <c r="K194">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L194">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M194">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N194">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="O194">
+        <v>4</v>
+      </c>
+      <c r="P194">
         <v>4.2</v>
       </c>
-      <c r="P194">
-        <v>5.5</v>
-      </c>
       <c r="Q194">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
         <v>1.85</v>
       </c>
-      <c r="S194">
-        <v>2</v>
-      </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U194">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V194">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W194">
+        <v>0.8</v>
+      </c>
+      <c r="X194">
+        <v>-1</v>
+      </c>
+      <c r="Y194">
+        <v>-1</v>
+      </c>
+      <c r="Z194">
         <v>0.5</v>
       </c>
-      <c r="X194">
-        <v>-1</v>
-      </c>
-      <c r="Y194">
-        <v>-1</v>
-      </c>
-      <c r="Z194">
-        <v>0</v>
-      </c>
       <c r="AA194">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB194">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,73 +20214,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M222">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N222">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA222">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,73 +20303,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
         <v>3</v>
       </c>
-      <c r="I223">
-        <v>2</v>
-      </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L223">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N223">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O223">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
+        <v>2.05</v>
+      </c>
+      <c r="S223">
+        <v>1.8</v>
+      </c>
+      <c r="T223">
+        <v>2.5</v>
+      </c>
+      <c r="U223">
+        <v>1.9</v>
+      </c>
+      <c r="V223">
         <v>1.95</v>
       </c>
-      <c r="S223">
-        <v>1.9</v>
-      </c>
-      <c r="T223">
-        <v>2.75</v>
-      </c>
-      <c r="U223">
-        <v>1.825</v>
-      </c>
-      <c r="V223">
-        <v>2.025</v>
-      </c>
       <c r="W223">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z223">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB223">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7612866</v>
+        <v>7612867</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,73 +21549,73 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M237">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N237">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P237">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R237">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y237">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB237">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7612867</v>
+        <v>7612866</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,73 +21638,73 @@
         <v>45344</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K238">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L238">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N238">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="O238">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q238">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T238">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB238">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -22533,6 +22533,15 @@
       <c r="G248" t="s">
         <v>32</v>
       </c>
+      <c r="H248">
+        <v>4</v>
+      </c>
+      <c r="I248">
+        <v>1</v>
+      </c>
+      <c r="J248" t="s">
+        <v>49</v>
+      </c>
       <c r="K248">
         <v>2.6</v>
       </c>
@@ -22543,13 +22552,13 @@
         <v>2.5</v>
       </c>
       <c r="N248">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="O248">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P248">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="Q248">
         <v>0</v>
@@ -22570,19 +22579,25 @@
         <v>1.875</v>
       </c>
       <c r="W248">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z248">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA248">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB248">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC248">
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:29">
@@ -22607,6 +22622,15 @@
       <c r="G249" t="s">
         <v>42</v>
       </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249" t="s">
+        <v>49</v>
+      </c>
       <c r="K249">
         <v>1.4</v>
       </c>
@@ -22629,10 +22653,10 @@
         <v>-1.25</v>
       </c>
       <c r="R249">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S249">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T249">
         <v>2.75</v>
@@ -22644,19 +22668,25 @@
         <v>1.925</v>
       </c>
       <c r="W249">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X249">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y249">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA249">
-        <v>0</v>
+        <v>0.4875</v>
+      </c>
+      <c r="AB249">
+        <v>-1</v>
+      </c>
+      <c r="AC249">
+        <v>0.925</v>
       </c>
     </row>
     <row r="250" spans="1:29">
@@ -22664,7 +22694,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7612870</v>
+        <v>7612871</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22673,49 +22703,49 @@
         <v>28</v>
       </c>
       <c r="E250" s="2">
-        <v>45351</v>
+        <v>45352.91666666666</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G250" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K250">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="L250">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M250">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N250">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="O250">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P250">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="Q250">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R250">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S250">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T250">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U250">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V250">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W250">
         <v>0</v>
@@ -22738,7 +22768,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612871</v>
+        <v>7612872</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22750,46 +22780,46 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K251">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="L251">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M251">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N251">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="O251">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P251">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q251">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R251">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S251">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T251">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U251">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V251">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W251">
         <v>0</v>
@@ -22812,7 +22842,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612872</v>
+        <v>7612873</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22821,40 +22851,40 @@
         <v>28</v>
       </c>
       <c r="E252" s="2">
-        <v>45352.91666666666</v>
+        <v>45353</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G252" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K252">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L252">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M252">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="N252">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O252">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P252">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q252">
         <v>-0.25</v>
       </c>
       <c r="R252">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S252">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T252">
         <v>2.5</v>
@@ -22886,7 +22916,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7612873</v>
+        <v>7612874</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22895,49 +22925,49 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45353</v>
+        <v>45353.83333333334</v>
       </c>
       <c r="F253" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G253" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K253">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="L253">
         <v>3.25</v>
       </c>
       <c r="M253">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N253">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O253">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P253">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q253">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R253">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S253">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T253">
         <v>2.5</v>
       </c>
       <c r="U253">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V253">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W253">
         <v>0</v>
@@ -22960,7 +22990,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7612874</v>
+        <v>7612875</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -22969,49 +22999,49 @@
         <v>28</v>
       </c>
       <c r="E254" s="2">
-        <v>45353.83333333334</v>
+        <v>45353.91666666666</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G254" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K254">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="L254">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M254">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="N254">
-        <v>2.5</v>
+        <v>1.571</v>
       </c>
       <c r="O254">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P254">
-        <v>2.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R254">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S254">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U254">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V254">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W254">
         <v>0</v>
@@ -23034,7 +23064,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7612875</v>
+        <v>7612876</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23046,46 +23076,46 @@
         <v>45353.91666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G255" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K255">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L255">
+        <v>3.4</v>
+      </c>
+      <c r="M255">
+        <v>3.75</v>
+      </c>
+      <c r="N255">
+        <v>1.909</v>
+      </c>
+      <c r="O255">
+        <v>3.5</v>
+      </c>
+      <c r="P255">
         <v>4</v>
       </c>
-      <c r="M255">
-        <v>8</v>
-      </c>
-      <c r="N255">
-        <v>1.45</v>
-      </c>
-      <c r="O255">
-        <v>4</v>
-      </c>
-      <c r="P255">
-        <v>7.5</v>
-      </c>
       <c r="Q255">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R255">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S255">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T255">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V255">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23108,7 +23138,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7612876</v>
+        <v>7612877</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23117,49 +23147,49 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45353.91666666666</v>
+        <v>45354</v>
       </c>
       <c r="F256" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G256" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K256">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L256">
         <v>3.4</v>
       </c>
       <c r="M256">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="N256">
-        <v>1.909</v>
+        <v>3.8</v>
       </c>
       <c r="O256">
         <v>3.5</v>
       </c>
       <c r="P256">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="Q256">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R256">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S256">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T256">
         <v>2.5</v>
       </c>
       <c r="U256">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V256">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23182,7 +23212,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7612877</v>
+        <v>7883158</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23191,49 +23221,49 @@
         <v>28</v>
       </c>
       <c r="E257" s="2">
-        <v>45354</v>
+        <v>45354.91666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G257" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K257">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L257">
         <v>3.4</v>
       </c>
       <c r="M257">
-        <v>2.05</v>
+        <v>4.75</v>
       </c>
       <c r="N257">
-        <v>3.8</v>
+        <v>1.833</v>
       </c>
       <c r="O257">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P257">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q257">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R257">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S257">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T257">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U257">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V257">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23256,7 +23286,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7883158</v>
+        <v>7612879</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23265,49 +23295,49 @@
         <v>28</v>
       </c>
       <c r="E258" s="2">
-        <v>45354.91666666666</v>
+        <v>45355</v>
       </c>
       <c r="F258" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G258" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="K258">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L258">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M258">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="N258">
-        <v>1.833</v>
+        <v>2.625</v>
       </c>
       <c r="O258">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P258">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q258">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R258">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S258">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T258">
         <v>2.75</v>
       </c>
       <c r="U258">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V258">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23322,80 +23352,6 @@
         <v>0</v>
       </c>
       <c r="AA258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259">
-        <v>7612879</v>
-      </c>
-      <c r="C259" t="s">
-        <v>28</v>
-      </c>
-      <c r="D259" t="s">
-        <v>28</v>
-      </c>
-      <c r="E259" s="2">
-        <v>45355</v>
-      </c>
-      <c r="F259" t="s">
-        <v>31</v>
-      </c>
-      <c r="G259" t="s">
-        <v>37</v>
-      </c>
-      <c r="K259">
-        <v>2.8</v>
-      </c>
-      <c r="L259">
-        <v>3.25</v>
-      </c>
-      <c r="M259">
-        <v>2.5</v>
-      </c>
-      <c r="N259">
-        <v>2.8</v>
-      </c>
-      <c r="O259">
-        <v>3.25</v>
-      </c>
-      <c r="P259">
-        <v>2.5</v>
-      </c>
-      <c r="Q259">
-        <v>0</v>
-      </c>
-      <c r="R259">
-        <v>2.05</v>
-      </c>
-      <c r="S259">
-        <v>1.8</v>
-      </c>
-      <c r="T259">
-        <v>2.5</v>
-      </c>
-      <c r="U259">
-        <v>1.85</v>
-      </c>
-      <c r="V259">
-        <v>2</v>
-      </c>
-      <c r="W259">
-        <v>0</v>
-      </c>
-      <c r="X259">
-        <v>0</v>
-      </c>
-      <c r="Y259">
-        <v>0</v>
-      </c>
-      <c r="Z259">
-        <v>0</v>
-      </c>
-      <c r="AA259">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
-    <t>Mazatlan FC</t>
+    <t>Club America</t>
   </si>
   <si>
-    <t>Club America</t>
+    <t>Mazatlan FC</t>
   </si>
   <si>
     <t>Tijuana</t>
@@ -157,10 +157,10 @@
     <t>Queretaro</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC258"/>
+  <dimension ref="A1:AC259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M2">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N2">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>-1.25</v>
+      </c>
+      <c r="R2">
+        <v>1.975</v>
+      </c>
+      <c r="S2">
+        <v>1.875</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
         <v>2.05</v>
       </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.825</v>
-      </c>
-      <c r="S2">
-        <v>2.025</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>3.5</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>2.55</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>2.45</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>45121.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>45122.91666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>1.75</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>1.9</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>2.8</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>2.7</v>
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>2.05</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7094230</v>
+        <v>7053868</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,49 +3482,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
         <v>47</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
         <v>2</v>
@@ -3536,22 +3536,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7053868</v>
+        <v>7094230</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,49 +3571,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
       <c r="K35">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
         <v>2</v>
@@ -3625,22 +3625,22 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y35">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,61 +3675,61 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N36">
+        <v>1.615</v>
+      </c>
+      <c r="O36">
+        <v>4.2</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>-0.75</v>
+      </c>
+      <c r="R36">
+        <v>1.8</v>
+      </c>
+      <c r="S36">
+        <v>2.05</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="O36">
-        <v>3.75</v>
-      </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
+      <c r="W36">
+        <v>0.615</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>0.4</v>
+      </c>
+      <c r="AA36">
         <v>-0.5</v>
       </c>
-      <c r="R36">
-        <v>1.875</v>
-      </c>
-      <c r="S36">
-        <v>1.975</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.825</v>
-      </c>
-      <c r="V36">
-        <v>2.025</v>
-      </c>
-      <c r="W36">
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0.875</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
-      <c r="AC36">
-        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,43 +3764,43 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L37">
+        <v>3.3</v>
+      </c>
+      <c r="M37">
+        <v>2.9</v>
+      </c>
+      <c r="N37">
+        <v>1.85</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.975</v>
+      </c>
+      <c r="T37">
         <v>3</v>
       </c>
-      <c r="M37">
-        <v>1.5</v>
-      </c>
-      <c r="N37">
-        <v>1.615</v>
-      </c>
-      <c r="O37">
-        <v>4.2</v>
-      </c>
-      <c r="P37">
-        <v>5</v>
-      </c>
-      <c r="Q37">
-        <v>-0.75</v>
-      </c>
-      <c r="R37">
-        <v>1.8</v>
-      </c>
-      <c r="S37">
-        <v>2.05</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3809,16 +3809,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4286,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>1.55</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4461,7 +4461,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>1.7</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.6</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>1.727</v>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>1.363</v>
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5974,7 +5974,7 @@
         <v>45184.90972222222</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5986,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6330,7 +6330,7 @@
         <v>45186.00694444445</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>3.2</v>
@@ -6867,7 +6867,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6965,7 +6965,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>2.75</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,61 +7131,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7194,13 +7194,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,61 +7220,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X76">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7283,13 +7283,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7499,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7668,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>1.444</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>2.1</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>2.6</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>45199.90277777778</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8288,7 +8288,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8300,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>3.25</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>2.25</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45203</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
+        <v>3.3</v>
+      </c>
+      <c r="M92">
+        <v>2.8</v>
+      </c>
+      <c r="N92">
         <v>3.5</v>
-      </c>
-      <c r="M92">
-        <v>4.5</v>
-      </c>
-      <c r="N92">
-        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45204</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
+        <v>4.333</v>
+      </c>
+      <c r="N94">
+        <v>1.533</v>
+      </c>
+      <c r="O94">
         <v>4.2</v>
       </c>
-      <c r="N94">
-        <v>1.65</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
       <c r="P94">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
         <v>1.85</v>
       </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
       <c r="W94">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45204</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K95">
+        <v>1.75</v>
+      </c>
+      <c r="L95">
+        <v>3.6</v>
+      </c>
+      <c r="M95">
+        <v>4.2</v>
+      </c>
+      <c r="N95">
+        <v>1.65</v>
+      </c>
+      <c r="O95">
+        <v>4</v>
+      </c>
+      <c r="P95">
+        <v>4.75</v>
+      </c>
+      <c r="Q95">
+        <v>-0.75</v>
+      </c>
+      <c r="R95">
         <v>1.8</v>
       </c>
-      <c r="L95">
-        <v>3.3</v>
-      </c>
-      <c r="M95">
-        <v>4.333</v>
-      </c>
-      <c r="N95">
-        <v>1.533</v>
-      </c>
-      <c r="O95">
-        <v>4.2</v>
-      </c>
-      <c r="P95">
-        <v>6</v>
-      </c>
-      <c r="Q95">
-        <v>-1</v>
-      </c>
-      <c r="R95">
-        <v>1.925</v>
-      </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X95">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA95">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9000,10 +9000,10 @@
         <v>45206</v>
       </c>
       <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
         <v>29</v>
-      </c>
-      <c r="G96" t="s">
-        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>3.75</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>2.875</v>
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>2.2</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2.2</v>
@@ -9804,7 +9804,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>2.5</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10157,7 +10157,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45227</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11237,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.5</v>
@@ -11317,7 +11317,7 @@
         <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>3.2</v>
@@ -11682,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>1.5</v>
@@ -11771,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>3.25</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6754098</v>
+        <v>6754099</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N128">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P128">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
+        <v>2.025</v>
+      </c>
+      <c r="T128">
+        <v>3</v>
+      </c>
+      <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
-      <c r="V128">
-        <v>2.025</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6754099</v>
+        <v>6754098</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N129">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q129">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.875</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
         <v>1.825</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>2.025</v>
       </c>
-      <c r="T129">
-        <v>3</v>
-      </c>
-      <c r="U129">
-        <v>1.875</v>
-      </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12038,7 +12038,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>2.1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6754129</v>
+        <v>6754103</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45232</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L132">
         <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N132">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O132">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q132">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
         <v>3</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA132">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6754103</v>
+        <v>6754129</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45232</v>
       </c>
       <c r="F133" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
         <v>29</v>
       </c>
-      <c r="G133" t="s">
-        <v>36</v>
-      </c>
       <c r="H133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>3</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z133">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
         <v>1.666</v>
@@ -12649,7 +12649,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>31</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
         <v>2.7</v>
@@ -13008,7 +13008,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>1.909</v>
@@ -13450,7 +13450,7 @@
         <v>45240.92013888889</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>2.35</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>4</v>
@@ -13729,7 +13729,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K149">
         <v>1.95</v>
@@ -13898,7 +13898,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14254,7 +14254,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K157">
         <v>2.7</v>
@@ -14619,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>3.5</v>
@@ -14785,7 +14785,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>1.533</v>
@@ -15144,7 +15144,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>5</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>3.4</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15319,7 +15319,7 @@
         <v>45269.95833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15331,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K167">
         <v>1.3</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>1.5</v>
@@ -15500,7 +15500,7 @@
         <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>2.6</v>
@@ -15586,7 +15586,7 @@
         <v>45277.9375</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>2.8</v>
@@ -15764,7 +15764,7 @@
         <v>45304</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16034,7 +16034,7 @@
         <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16043,7 +16043,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K175">
         <v>4.5</v>
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K179">
         <v>2.8</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -16746,7 +16746,7 @@
         <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16832,7 +16832,7 @@
         <v>45311.92013888889</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K185">
         <v>2.3</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M188">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y188">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>47</v>
       </c>
       <c r="K189">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189">
+        <v>3.3</v>
+      </c>
+      <c r="P189">
+        <v>2.4</v>
+      </c>
+      <c r="Q189">
+        <v>0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.775</v>
+      </c>
+      <c r="S189">
+        <v>2.1</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2.05</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.4</v>
       </c>
-      <c r="O189">
-        <v>4.333</v>
-      </c>
-      <c r="P189">
-        <v>8.5</v>
-      </c>
-      <c r="Q189">
-        <v>-1.25</v>
-      </c>
-      <c r="R189">
-        <v>1.925</v>
-      </c>
-      <c r="S189">
-        <v>1.925</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>3.333</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K190">
         <v>4.333</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>3</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17636,7 +17636,7 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>4.2</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K200">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L200">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M200">
+        <v>4.5</v>
+      </c>
+      <c r="N200">
+        <v>1.533</v>
+      </c>
+      <c r="O200">
+        <v>4.2</v>
+      </c>
+      <c r="P200">
+        <v>6</v>
+      </c>
+      <c r="Q200">
+        <v>-1</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>1.9</v>
+      </c>
+      <c r="T200">
         <v>2.75</v>
       </c>
-      <c r="N200">
-        <v>3.3</v>
-      </c>
-      <c r="O200">
-        <v>3.6</v>
-      </c>
-      <c r="P200">
-        <v>2.15</v>
-      </c>
-      <c r="Q200">
-        <v>0.25</v>
-      </c>
-      <c r="R200">
-        <v>1.925</v>
-      </c>
-      <c r="S200">
-        <v>1.925</v>
-      </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
       <c r="U200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X200">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L201">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M201">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N201">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K206">
         <v>3.25</v>
@@ -18882,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19069,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K209">
         <v>2.4</v>
@@ -19158,7 +19158,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K210">
         <v>1.666</v>
@@ -19324,7 +19324,7 @@
         <v>45326.00694444445</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
         <v>44</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>1.75</v>
@@ -19514,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>2.6</v>
@@ -19680,7 +19680,7 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K217">
         <v>1.95</v>
@@ -19870,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K218">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>3.25</v>
@@ -20315,7 +20315,7 @@
         <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K223">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K225">
         <v>2.4</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>45339</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20760,7 +20760,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K228">
         <v>1.95</v>
@@ -20840,7 +20840,7 @@
         <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
         <v>2.375</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K233">
         <v>1.666</v>
@@ -21294,7 +21294,7 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K234">
         <v>3.1</v>
@@ -21549,11 +21549,11 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
+        <v>29</v>
+      </c>
+      <c r="G237" t="s">
         <v>30</v>
       </c>
-      <c r="G237" t="s">
-        <v>29</v>
-      </c>
       <c r="H237">
         <v>2</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K237">
         <v>1.363</v>
@@ -21650,7 +21650,7 @@
         <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K238">
         <v>2.5</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K239">
         <v>2.1</v>
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K240">
         <v>2.75</v>
@@ -21917,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K241">
         <v>5</v>
@@ -22095,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K243">
         <v>1.444</v>
@@ -22261,7 +22261,7 @@
         <v>45347.00694444445</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G245" t="s">
         <v>40</v>
@@ -22442,7 +22442,7 @@
         <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22694,7 +22694,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7612871</v>
+        <v>7612870</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22703,34 +22703,43 @@
         <v>28</v>
       </c>
       <c r="E250" s="2">
-        <v>45352.91666666666</v>
+        <v>45351</v>
       </c>
       <c r="F250" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G250" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>1</v>
+      </c>
+      <c r="J250" t="s">
+        <v>48</v>
       </c>
       <c r="K250">
-        <v>2.375</v>
+        <v>3.75</v>
       </c>
       <c r="L250">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M250">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N250">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="O250">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P250">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q250">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R250">
         <v>1.875</v>
@@ -22739,28 +22748,34 @@
         <v>1.975</v>
       </c>
       <c r="T250">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U250">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V250">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X250">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y250">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA250">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB250">
+        <v>-1</v>
+      </c>
+      <c r="AC250">
+        <v>0.95</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22768,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612872</v>
+        <v>7612871</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22780,61 +22795,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G251" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="H251">
+        <v>0</v>
+      </c>
+      <c r="I251">
+        <v>1</v>
+      </c>
+      <c r="J251" t="s">
+        <v>47</v>
       </c>
       <c r="K251">
+        <v>2.375</v>
+      </c>
+      <c r="L251">
+        <v>3.25</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>2.4</v>
+      </c>
+      <c r="O251">
+        <v>3.25</v>
+      </c>
+      <c r="P251">
+        <v>3.1</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
         <v>2.05</v>
       </c>
-      <c r="L251">
-        <v>3.4</v>
-      </c>
-      <c r="M251">
-        <v>3.5</v>
-      </c>
-      <c r="N251">
-        <v>1.95</v>
-      </c>
-      <c r="O251">
-        <v>3.5</v>
-      </c>
-      <c r="P251">
-        <v>3.75</v>
-      </c>
-      <c r="Q251">
-        <v>-0.5</v>
-      </c>
-      <c r="R251">
-        <v>1.95</v>
-      </c>
       <c r="S251">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T251">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V251">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y251">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Z251">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
+        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22842,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612873</v>
+        <v>7612872</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22851,34 +22881,43 @@
         <v>28</v>
       </c>
       <c r="E252" s="2">
-        <v>45353</v>
+        <v>45352.91666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H252">
+        <v>4</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252" t="s">
+        <v>49</v>
       </c>
       <c r="K252">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L252">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M252">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="N252">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O252">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P252">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q252">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R252">
         <v>2</v>
@@ -22887,28 +22926,34 @@
         <v>1.85</v>
       </c>
       <c r="T252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U252">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V252">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W252">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X252">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y252">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA252">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB252">
+        <v>0.825</v>
+      </c>
+      <c r="AC252">
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22916,7 +22961,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>7612874</v>
+        <v>7612873</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22925,64 +22970,79 @@
         <v>28</v>
       </c>
       <c r="E253" s="2">
-        <v>45353.83333333334</v>
+        <v>45353.00694444445</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G253" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="H253">
+        <v>2</v>
+      </c>
+      <c r="I253">
+        <v>1</v>
+      </c>
+      <c r="J253" t="s">
+        <v>49</v>
       </c>
       <c r="K253">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L253">
         <v>3.25</v>
       </c>
       <c r="M253">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N253">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O253">
         <v>3.25</v>
       </c>
       <c r="P253">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q253">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R253">
+        <v>1.825</v>
+      </c>
+      <c r="S253">
+        <v>2.025</v>
+      </c>
+      <c r="T253">
+        <v>2.25</v>
+      </c>
+      <c r="U253">
         <v>1.8</v>
       </c>
-      <c r="S253">
+      <c r="V253">
         <v>2.05</v>
       </c>
-      <c r="T253">
-        <v>2.5</v>
-      </c>
-      <c r="U253">
-        <v>1.9</v>
-      </c>
-      <c r="V253">
-        <v>1.95</v>
-      </c>
       <c r="W253">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z253">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA253">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB253">
+        <v>0.8</v>
+      </c>
+      <c r="AC253">
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -22990,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7612875</v>
+        <v>7612874</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -22999,49 +23059,49 @@
         <v>28</v>
       </c>
       <c r="E254" s="2">
-        <v>45353.91666666666</v>
+        <v>45353.83333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G254" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="K254">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M254">
-        <v>8</v>
+        <v>2.8</v>
       </c>
       <c r="N254">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O254">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P254">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q254">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R254">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S254">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T254">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U254">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V254">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W254">
         <v>0</v>
@@ -23091,31 +23151,31 @@
         <v>3.75</v>
       </c>
       <c r="N255">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O255">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P255">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q255">
         <v>-0.5</v>
       </c>
       <c r="R255">
+        <v>1.975</v>
+      </c>
+      <c r="S255">
         <v>1.875</v>
-      </c>
-      <c r="S255">
-        <v>1.975</v>
       </c>
       <c r="T255">
         <v>2.5</v>
       </c>
       <c r="U255">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V255">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W255">
         <v>0</v>
@@ -23138,7 +23198,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7612877</v>
+        <v>7612875</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23147,43 +23207,43 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45354</v>
+        <v>45353.91666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G256" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="K256">
-        <v>3.5</v>
+        <v>1.444</v>
       </c>
       <c r="L256">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M256">
-        <v>2.05</v>
+        <v>8</v>
       </c>
       <c r="N256">
-        <v>3.8</v>
+        <v>1.444</v>
       </c>
       <c r="O256">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P256">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="Q256">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R256">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S256">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T256">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U256">
         <v>1.975</v>
@@ -23212,7 +23272,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>7883158</v>
+        <v>7612877</v>
       </c>
       <c r="C257" t="s">
         <v>28</v>
@@ -23221,49 +23281,49 @@
         <v>28</v>
       </c>
       <c r="E257" s="2">
-        <v>45354.91666666666</v>
+        <v>45354</v>
       </c>
       <c r="F257" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G257" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="K257">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="L257">
         <v>3.4</v>
       </c>
       <c r="M257">
-        <v>4.75</v>
+        <v>2.05</v>
       </c>
       <c r="N257">
-        <v>1.833</v>
+        <v>4.2</v>
       </c>
       <c r="O257">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P257">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q257">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R257">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S257">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T257">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U257">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V257">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W257">
         <v>0</v>
@@ -23286,7 +23346,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>7612879</v>
+        <v>7883158</v>
       </c>
       <c r="C258" t="s">
         <v>28</v>
@@ -23295,49 +23355,49 @@
         <v>28</v>
       </c>
       <c r="E258" s="2">
-        <v>45355</v>
+        <v>45354.91666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G258" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K258">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L258">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M258">
+        <v>4.75</v>
+      </c>
+      <c r="N258">
+        <v>1.75</v>
+      </c>
+      <c r="O258">
+        <v>3.75</v>
+      </c>
+      <c r="P258">
+        <v>4.75</v>
+      </c>
+      <c r="Q258">
+        <v>-0.75</v>
+      </c>
+      <c r="R258">
+        <v>1.975</v>
+      </c>
+      <c r="S258">
+        <v>1.875</v>
+      </c>
+      <c r="T258">
         <v>2.5</v>
       </c>
-      <c r="N258">
-        <v>2.625</v>
-      </c>
-      <c r="O258">
-        <v>3.3</v>
-      </c>
-      <c r="P258">
-        <v>2.625</v>
-      </c>
-      <c r="Q258">
-        <v>0</v>
-      </c>
-      <c r="R258">
-        <v>1.875</v>
-      </c>
-      <c r="S258">
-        <v>1.975</v>
-      </c>
-      <c r="T258">
-        <v>2.75</v>
-      </c>
       <c r="U258">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V258">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W258">
         <v>0</v>
@@ -23352,6 +23412,80 @@
         <v>0</v>
       </c>
       <c r="AA258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>7612879</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45355</v>
+      </c>
+      <c r="F259" t="s">
+        <v>31</v>
+      </c>
+      <c r="G259" t="s">
+        <v>37</v>
+      </c>
+      <c r="K259">
+        <v>2.8</v>
+      </c>
+      <c r="L259">
+        <v>3.25</v>
+      </c>
+      <c r="M259">
+        <v>2.5</v>
+      </c>
+      <c r="N259">
+        <v>2.375</v>
+      </c>
+      <c r="O259">
+        <v>3.4</v>
+      </c>
+      <c r="P259">
+        <v>3</v>
+      </c>
+      <c r="Q259">
+        <v>-0.25</v>
+      </c>
+      <c r="R259">
+        <v>2.025</v>
+      </c>
+      <c r="S259">
+        <v>1.825</v>
+      </c>
+      <c r="T259">
+        <v>2.75</v>
+      </c>
+      <c r="U259">
+        <v>1.975</v>
+      </c>
+      <c r="V259">
+        <v>1.875</v>
+      </c>
+      <c r="W259">
+        <v>0</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259">
+        <v>0</v>
+      </c>
+      <c r="Z259">
+        <v>0</v>
+      </c>
+      <c r="AA259">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
-    <t>Club America</t>
+    <t>Mazatlan FC</t>
   </si>
   <si>
-    <t>Mazatlan FC</t>
+    <t>Club America</t>
   </si>
   <si>
     <t>Tijuana</t>
@@ -157,10 +157,10 @@
     <t>Queretaro</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC259"/>
+  <dimension ref="A1:AC256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y2">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>-1.25</v>
+      </c>
+      <c r="R3">
+        <v>1.975</v>
+      </c>
+      <c r="S3">
+        <v>1.875</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>2.05</v>
       </c>
-      <c r="Q3">
-        <v>0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
-      <c r="S3">
-        <v>2.025</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>3.5</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2.55</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2.45</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>45121.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>45122.91666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>1.75</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>1.9</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>2.8</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2.7</v>
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>2.05</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7053868</v>
+        <v>7094230</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,49 +3482,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>47</v>
       </c>
       <c r="K34">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N34">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
         <v>2</v>
@@ -3536,22 +3536,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y34">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7094230</v>
+        <v>7053868</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,49 +3571,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
       </c>
       <c r="K35">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N35">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
         <v>2</v>
@@ -3625,22 +3625,22 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,43 +3675,43 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>2.9</v>
+      </c>
+      <c r="N36">
+        <v>1.85</v>
+      </c>
+      <c r="O36">
+        <v>3.75</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.875</v>
+      </c>
+      <c r="S36">
+        <v>1.975</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="M36">
-        <v>1.5</v>
-      </c>
-      <c r="N36">
-        <v>1.615</v>
-      </c>
-      <c r="O36">
-        <v>4.2</v>
-      </c>
-      <c r="P36">
-        <v>5</v>
-      </c>
-      <c r="Q36">
-        <v>-0.75</v>
-      </c>
-      <c r="R36">
-        <v>1.8</v>
-      </c>
-      <c r="S36">
-        <v>2.05</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,61 +3764,61 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N37">
+        <v>1.615</v>
+      </c>
+      <c r="O37">
+        <v>4.2</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <v>-0.75</v>
+      </c>
+      <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>2.05</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="O37">
-        <v>3.75</v>
-      </c>
-      <c r="P37">
-        <v>4</v>
-      </c>
-      <c r="Q37">
+      <c r="W37">
+        <v>0.615</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>0.4</v>
+      </c>
+      <c r="AA37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.975</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.825</v>
-      </c>
-      <c r="V37">
-        <v>2.025</v>
-      </c>
-      <c r="W37">
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4286,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>1.55</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4461,7 +4461,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>1.7</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>1.6</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>1.727</v>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>1.363</v>
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5974,7 +5974,7 @@
         <v>45184.90972222222</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5986,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6330,7 +6330,7 @@
         <v>45186.00694444445</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>3.2</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,73 +6864,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N72">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O72">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q73">
+        <v>-1</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>1.9</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
+        <v>1.925</v>
+      </c>
+      <c r="W73">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>2.1</v>
-      </c>
-      <c r="V73">
-        <v>1.775</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>1.8</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7499,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7668,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>1.444</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>2.1</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>2.6</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>45199.90277777778</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8288,7 +8288,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8300,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>3.25</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.25</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45203</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
+        <v>3.3</v>
+      </c>
+      <c r="M93">
+        <v>2.8</v>
+      </c>
+      <c r="N93">
         <v>3.5</v>
-      </c>
-      <c r="M93">
-        <v>4.5</v>
-      </c>
-      <c r="N93">
-        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45204</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
+        <v>1.75</v>
+      </c>
+      <c r="L94">
+        <v>3.6</v>
+      </c>
+      <c r="M94">
+        <v>4.2</v>
+      </c>
+      <c r="N94">
+        <v>1.65</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>4.75</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
         <v>1.8</v>
       </c>
-      <c r="L94">
-        <v>3.3</v>
-      </c>
-      <c r="M94">
-        <v>4.333</v>
-      </c>
-      <c r="N94">
-        <v>1.533</v>
-      </c>
-      <c r="O94">
-        <v>4.2</v>
-      </c>
-      <c r="P94">
-        <v>6</v>
-      </c>
-      <c r="Q94">
-        <v>-1</v>
-      </c>
-      <c r="R94">
-        <v>1.925</v>
-      </c>
       <c r="S94">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X94">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA94">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45204</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
+        <v>4.333</v>
+      </c>
+      <c r="N95">
+        <v>1.533</v>
+      </c>
+      <c r="O95">
         <v>4.2</v>
       </c>
-      <c r="N95">
-        <v>1.65</v>
-      </c>
-      <c r="O95">
-        <v>4</v>
-      </c>
       <c r="P95">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.85</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9000,10 +9000,10 @@
         <v>45206</v>
       </c>
       <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" t="s">
         <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>3.75</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N98">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S98">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N99">
+        <v>2.9</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
         <v>2.4</v>
       </c>
-      <c r="O99">
-        <v>3.2</v>
-      </c>
-      <c r="P99">
-        <v>3.1</v>
-      </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>2.2</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>2.2</v>
@@ -9804,7 +9804,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K106">
         <v>2.5</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10157,7 +10157,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45227</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11237,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>2.5</v>
@@ -11317,7 +11317,7 @@
         <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>3.2</v>
@@ -11682,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
         <v>1.5</v>
@@ -11771,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>3.25</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6754099</v>
+        <v>6754098</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N128">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q128">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
+        <v>1.875</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
         <v>1.825</v>
       </c>
-      <c r="S128">
+      <c r="V128">
         <v>2.025</v>
       </c>
-      <c r="T128">
-        <v>3</v>
-      </c>
-      <c r="U128">
-        <v>1.875</v>
-      </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6754098</v>
+        <v>6754099</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M129">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N129">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P129">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>2.025</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.875</v>
-      </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>1.825</v>
-      </c>
-      <c r="V129">
-        <v>2.025</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
         <v>0</v>
       </c>
-      <c r="I130">
-        <v>2</v>
-      </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L130">
         <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N130">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
+        <v>1.8</v>
+      </c>
+      <c r="S130">
         <v>2.05</v>
       </c>
-      <c r="S130">
-        <v>1.8</v>
-      </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L131">
         <v>3.3</v>
       </c>
       <c r="M131">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O131">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
+        <v>2.05</v>
+      </c>
+      <c r="S131">
         <v>1.8</v>
       </c>
-      <c r="S131">
-        <v>2.05</v>
-      </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
         <v>0.8</v>
       </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6754103</v>
+        <v>6754129</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45232</v>
       </c>
       <c r="F132" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s">
         <v>30</v>
       </c>
-      <c r="G132" t="s">
-        <v>36</v>
-      </c>
       <c r="H132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L132">
         <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>3</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z132">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6754129</v>
+        <v>6754103</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45232</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N133">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O133">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
         <v>3</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA133">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>1.666</v>
@@ -12649,7 +12649,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>31</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K139">
         <v>2.7</v>
@@ -13008,7 +13008,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
         <v>1.909</v>
@@ -13450,7 +13450,7 @@
         <v>45240.92013888889</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
         <v>2.35</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>4</v>
@@ -13729,7 +13729,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>1.95</v>
@@ -13898,7 +13898,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14254,7 +14254,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K157">
         <v>2.7</v>
@@ -14619,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>3.5</v>
@@ -14785,7 +14785,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K162">
         <v>1.533</v>
@@ -15144,7 +15144,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>5</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>3.4</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15319,7 +15319,7 @@
         <v>45269.95833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15331,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>1.3</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K168">
         <v>1.5</v>
@@ -15500,7 +15500,7 @@
         <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K169">
         <v>2.6</v>
@@ -15586,7 +15586,7 @@
         <v>45277.9375</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>2.8</v>
@@ -15764,7 +15764,7 @@
         <v>45304</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16034,7 +16034,7 @@
         <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16043,7 +16043,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K175">
         <v>4.5</v>
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>2.8</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -16746,7 +16746,7 @@
         <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16832,7 +16832,7 @@
         <v>45311.92013888889</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185">
         <v>2.3</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K188">
         <v>1.444</v>
@@ -17289,7 +17289,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K189">
         <v>3.4</v>
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>4.333</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K191">
         <v>3</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17636,7 +17636,7 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K196">
         <v>4.2</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -18345,7 +18345,7 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G201" t="s">
         <v>37</v>
@@ -18357,7 +18357,7 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K201">
         <v>2.5</v>
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K206">
         <v>3.25</v>
@@ -18882,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19069,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K209">
         <v>2.4</v>
@@ -19158,7 +19158,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K210">
         <v>1.666</v>
@@ -19324,7 +19324,7 @@
         <v>45326.00694444445</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
         <v>44</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K212">
         <v>1.75</v>
@@ -19514,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
         <v>2.6</v>
@@ -19680,7 +19680,7 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K217">
         <v>1.95</v>
@@ -19870,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K218">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K220">
         <v>3.25</v>
@@ -20315,7 +20315,7 @@
         <v>3</v>
       </c>
       <c r="J223" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K223">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K225">
         <v>2.4</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>45339</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20760,7 +20760,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K228">
         <v>1.95</v>
@@ -20840,7 +20840,7 @@
         <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
         <v>2.375</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K233">
         <v>1.666</v>
@@ -21294,7 +21294,7 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K234">
         <v>3.1</v>
@@ -21549,11 +21549,11 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
         <v>29</v>
       </c>
-      <c r="G237" t="s">
-        <v>30</v>
-      </c>
       <c r="H237">
         <v>2</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K237">
         <v>1.363</v>
@@ -21650,7 +21650,7 @@
         <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K238">
         <v>2.5</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K239">
         <v>2.1</v>
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K240">
         <v>2.75</v>
@@ -21917,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K241">
         <v>5</v>
@@ -22095,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K243">
         <v>1.444</v>
@@ -22261,7 +22261,7 @@
         <v>45347.00694444445</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G245" t="s">
         <v>40</v>
@@ -22442,7 +22442,7 @@
         <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22718,7 +22718,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K250">
         <v>3.75</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612871</v>
+        <v>7612872</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,76 +22795,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H251">
+        <v>4</v>
+      </c>
+      <c r="I251">
         <v>0</v>
       </c>
-      <c r="I251">
+      <c r="J251" t="s">
+        <v>49</v>
+      </c>
+      <c r="K251">
+        <v>2.05</v>
+      </c>
+      <c r="L251">
+        <v>3.4</v>
+      </c>
+      <c r="M251">
+        <v>3.5</v>
+      </c>
+      <c r="N251">
+        <v>1.8</v>
+      </c>
+      <c r="O251">
+        <v>3.8</v>
+      </c>
+      <c r="P251">
+        <v>4</v>
+      </c>
+      <c r="Q251">
+        <v>-0.75</v>
+      </c>
+      <c r="R251">
+        <v>2</v>
+      </c>
+      <c r="S251">
+        <v>1.85</v>
+      </c>
+      <c r="T251">
+        <v>2.75</v>
+      </c>
+      <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
+        <v>2.025</v>
+      </c>
+      <c r="W251">
+        <v>0.8</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>-1</v>
+      </c>
+      <c r="Z251">
         <v>1</v>
       </c>
-      <c r="J251" t="s">
-        <v>47</v>
-      </c>
-      <c r="K251">
-        <v>2.375</v>
-      </c>
-      <c r="L251">
-        <v>3.25</v>
-      </c>
-      <c r="M251">
-        <v>3</v>
-      </c>
-      <c r="N251">
-        <v>2.4</v>
-      </c>
-      <c r="O251">
-        <v>3.25</v>
-      </c>
-      <c r="P251">
-        <v>3.1</v>
-      </c>
-      <c r="Q251">
-        <v>-0.25</v>
-      </c>
-      <c r="R251">
-        <v>2.05</v>
-      </c>
-      <c r="S251">
-        <v>1.8</v>
-      </c>
-      <c r="T251">
-        <v>2.25</v>
-      </c>
-      <c r="U251">
-        <v>1.925</v>
-      </c>
-      <c r="V251">
-        <v>1.925</v>
-      </c>
-      <c r="W251">
-        <v>-1</v>
-      </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>2.1</v>
-      </c>
-      <c r="Z251">
-        <v>-1</v>
-      </c>
       <c r="AA251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC251">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612872</v>
+        <v>7612871</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K252">
+        <v>2.375</v>
+      </c>
+      <c r="L252">
+        <v>3.25</v>
+      </c>
+      <c r="M252">
+        <v>3</v>
+      </c>
+      <c r="N252">
+        <v>2.4</v>
+      </c>
+      <c r="O252">
+        <v>3.25</v>
+      </c>
+      <c r="P252">
+        <v>3.1</v>
+      </c>
+      <c r="Q252">
+        <v>-0.25</v>
+      </c>
+      <c r="R252">
         <v>2.05</v>
       </c>
-      <c r="L252">
-        <v>3.4</v>
-      </c>
-      <c r="M252">
-        <v>3.5</v>
-      </c>
-      <c r="N252">
+      <c r="S252">
         <v>1.8</v>
       </c>
-      <c r="O252">
-        <v>3.8</v>
-      </c>
-      <c r="P252">
-        <v>4</v>
-      </c>
-      <c r="Q252">
-        <v>-0.75</v>
-      </c>
-      <c r="R252">
-        <v>2</v>
-      </c>
-      <c r="S252">
-        <v>1.85</v>
-      </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V252">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W252">
+        <v>-1</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>2.1</v>
+      </c>
+      <c r="Z252">
+        <v>-1</v>
+      </c>
+      <c r="AA252">
         <v>0.8</v>
       </c>
-      <c r="X252">
-        <v>-1</v>
-      </c>
-      <c r="Y252">
-        <v>-1</v>
-      </c>
-      <c r="Z252">
-        <v>1</v>
-      </c>
-      <c r="AA252">
-        <v>-1</v>
-      </c>
       <c r="AB252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>45353.00694444445</v>
       </c>
       <c r="F253" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G253" t="s">
         <v>39</v>
@@ -23050,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7612874</v>
+        <v>7612877</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23059,49 +23059,49 @@
         <v>28</v>
       </c>
       <c r="E254" s="2">
-        <v>45353.83333333334</v>
+        <v>45354</v>
       </c>
       <c r="F254" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G254" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K254">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="L254">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M254">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N254">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="O254">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P254">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="Q254">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R254">
+        <v>1.975</v>
+      </c>
+      <c r="S254">
         <v>1.875</v>
-      </c>
-      <c r="S254">
-        <v>1.975</v>
       </c>
       <c r="T254">
         <v>2.5</v>
       </c>
       <c r="U254">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V254">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W254">
         <v>0</v>
@@ -23124,7 +23124,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7612876</v>
+        <v>7883158</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23133,34 +23133,34 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45353.91666666666</v>
+        <v>45354.91666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G255" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K255">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L255">
         <v>3.4</v>
       </c>
       <c r="M255">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="N255">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O255">
         <v>3.75</v>
       </c>
       <c r="P255">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q255">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R255">
         <v>1.975</v>
@@ -23198,7 +23198,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7612875</v>
+        <v>7612879</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23207,49 +23207,49 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45353.91666666666</v>
+        <v>45355</v>
       </c>
       <c r="F256" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G256" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K256">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M256">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="N256">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="O256">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="P256">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="Q256">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R256">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S256">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T256">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U256">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V256">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W256">
         <v>0</v>
@@ -23264,228 +23264,6 @@
         <v>0</v>
       </c>
       <c r="AA256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:27">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257">
-        <v>7612877</v>
-      </c>
-      <c r="C257" t="s">
-        <v>28</v>
-      </c>
-      <c r="D257" t="s">
-        <v>28</v>
-      </c>
-      <c r="E257" s="2">
-        <v>45354</v>
-      </c>
-      <c r="F257" t="s">
-        <v>34</v>
-      </c>
-      <c r="G257" t="s">
-        <v>29</v>
-      </c>
-      <c r="K257">
-        <v>3.5</v>
-      </c>
-      <c r="L257">
-        <v>3.4</v>
-      </c>
-      <c r="M257">
-        <v>2.05</v>
-      </c>
-      <c r="N257">
-        <v>4.2</v>
-      </c>
-      <c r="O257">
-        <v>3.6</v>
-      </c>
-      <c r="P257">
-        <v>1.85</v>
-      </c>
-      <c r="Q257">
-        <v>0.5</v>
-      </c>
-      <c r="R257">
-        <v>1.95</v>
-      </c>
-      <c r="S257">
-        <v>1.9</v>
-      </c>
-      <c r="T257">
-        <v>2.5</v>
-      </c>
-      <c r="U257">
-        <v>1.975</v>
-      </c>
-      <c r="V257">
-        <v>1.875</v>
-      </c>
-      <c r="W257">
-        <v>0</v>
-      </c>
-      <c r="X257">
-        <v>0</v>
-      </c>
-      <c r="Y257">
-        <v>0</v>
-      </c>
-      <c r="Z257">
-        <v>0</v>
-      </c>
-      <c r="AA257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:27">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258">
-        <v>7883158</v>
-      </c>
-      <c r="C258" t="s">
-        <v>28</v>
-      </c>
-      <c r="D258" t="s">
-        <v>28</v>
-      </c>
-      <c r="E258" s="2">
-        <v>45354.91666666666</v>
-      </c>
-      <c r="F258" t="s">
-        <v>44</v>
-      </c>
-      <c r="G258" t="s">
-        <v>43</v>
-      </c>
-      <c r="K258">
-        <v>1.8</v>
-      </c>
-      <c r="L258">
-        <v>3.4</v>
-      </c>
-      <c r="M258">
-        <v>4.75</v>
-      </c>
-      <c r="N258">
-        <v>1.75</v>
-      </c>
-      <c r="O258">
-        <v>3.75</v>
-      </c>
-      <c r="P258">
-        <v>4.75</v>
-      </c>
-      <c r="Q258">
-        <v>-0.75</v>
-      </c>
-      <c r="R258">
-        <v>1.975</v>
-      </c>
-      <c r="S258">
-        <v>1.875</v>
-      </c>
-      <c r="T258">
-        <v>2.5</v>
-      </c>
-      <c r="U258">
-        <v>1.825</v>
-      </c>
-      <c r="V258">
-        <v>2.025</v>
-      </c>
-      <c r="W258">
-        <v>0</v>
-      </c>
-      <c r="X258">
-        <v>0</v>
-      </c>
-      <c r="Y258">
-        <v>0</v>
-      </c>
-      <c r="Z258">
-        <v>0</v>
-      </c>
-      <c r="AA258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:27">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259">
-        <v>7612879</v>
-      </c>
-      <c r="C259" t="s">
-        <v>28</v>
-      </c>
-      <c r="D259" t="s">
-        <v>28</v>
-      </c>
-      <c r="E259" s="2">
-        <v>45355</v>
-      </c>
-      <c r="F259" t="s">
-        <v>31</v>
-      </c>
-      <c r="G259" t="s">
-        <v>37</v>
-      </c>
-      <c r="K259">
-        <v>2.8</v>
-      </c>
-      <c r="L259">
-        <v>3.25</v>
-      </c>
-      <c r="M259">
-        <v>2.5</v>
-      </c>
-      <c r="N259">
-        <v>2.375</v>
-      </c>
-      <c r="O259">
-        <v>3.4</v>
-      </c>
-      <c r="P259">
-        <v>3</v>
-      </c>
-      <c r="Q259">
-        <v>-0.25</v>
-      </c>
-      <c r="R259">
-        <v>2.025</v>
-      </c>
-      <c r="S259">
-        <v>1.825</v>
-      </c>
-      <c r="T259">
-        <v>2.75</v>
-      </c>
-      <c r="U259">
-        <v>1.975</v>
-      </c>
-      <c r="V259">
-        <v>1.875</v>
-      </c>
-      <c r="W259">
-        <v>0</v>
-      </c>
-      <c r="X259">
-        <v>0</v>
-      </c>
-      <c r="Y259">
-        <v>0</v>
-      </c>
-      <c r="Z259">
-        <v>0</v>
-      </c>
-      <c r="AA259">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
-    <t>Mazatlan FC</t>
+    <t>Club America</t>
   </si>
   <si>
-    <t>Club America</t>
+    <t>Mazatlan FC</t>
   </si>
   <si>
     <t>Tijuana</t>
@@ -157,10 +157,10 @@
     <t>Queretaro</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC256"/>
+  <dimension ref="A1:AC268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M2">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N2">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>-1.25</v>
+      </c>
+      <c r="R2">
+        <v>1.975</v>
+      </c>
+      <c r="S2">
+        <v>1.875</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
         <v>2.05</v>
       </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.825</v>
-      </c>
-      <c r="S2">
-        <v>2.025</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>3.5</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>2.55</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>2.45</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>45121.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>45122.91666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>1.75</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>1.9</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>2.8</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>2.7</v>
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>2.05</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>2.3</v>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>3.75</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,61 +3675,61 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N36">
+        <v>1.615</v>
+      </c>
+      <c r="O36">
+        <v>4.2</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>-0.75</v>
+      </c>
+      <c r="R36">
+        <v>1.8</v>
+      </c>
+      <c r="S36">
+        <v>2.05</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="O36">
-        <v>3.75</v>
-      </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
+      <c r="W36">
+        <v>0.615</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>0.4</v>
+      </c>
+      <c r="AA36">
         <v>-0.5</v>
       </c>
-      <c r="R36">
-        <v>1.875</v>
-      </c>
-      <c r="S36">
-        <v>1.975</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.825</v>
-      </c>
-      <c r="V36">
-        <v>2.025</v>
-      </c>
-      <c r="W36">
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0.875</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
-      <c r="AC36">
-        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,43 +3764,43 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L37">
+        <v>3.3</v>
+      </c>
+      <c r="M37">
+        <v>2.9</v>
+      </c>
+      <c r="N37">
+        <v>1.85</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.975</v>
+      </c>
+      <c r="T37">
         <v>3</v>
       </c>
-      <c r="M37">
-        <v>1.5</v>
-      </c>
-      <c r="N37">
-        <v>1.615</v>
-      </c>
-      <c r="O37">
-        <v>4.2</v>
-      </c>
-      <c r="P37">
-        <v>5</v>
-      </c>
-      <c r="Q37">
-        <v>-0.75</v>
-      </c>
-      <c r="R37">
-        <v>1.8</v>
-      </c>
-      <c r="S37">
-        <v>2.05</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3809,16 +3809,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4286,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>1.55</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4461,7 +4461,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>1.7</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.6</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>1.727</v>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>1.363</v>
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5974,7 +5974,7 @@
         <v>45184.90972222222</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5986,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6330,7 +6330,7 @@
         <v>45186.00694444445</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>3.2</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,73 +6864,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P72">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q72">
+        <v>-1</v>
+      </c>
+      <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
+        <v>1.9</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>1.925</v>
+      </c>
+      <c r="V72">
+        <v>1.925</v>
+      </c>
+      <c r="W72">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>0</v>
       </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>2.25</v>
-      </c>
-      <c r="U72">
-        <v>2.1</v>
-      </c>
-      <c r="V72">
-        <v>1.775</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>1.8</v>
-      </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N73">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,61 +7131,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X75">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7194,13 +7194,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,61 +7220,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N76">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7283,13 +7283,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7499,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7668,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>1.444</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>2.1</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>2.6</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>45199.90277777778</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8288,7 +8288,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8300,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>3.25</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>2.25</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45203</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
+        <v>3.3</v>
+      </c>
+      <c r="M92">
+        <v>2.8</v>
+      </c>
+      <c r="N92">
         <v>3.5</v>
-      </c>
-      <c r="M92">
-        <v>4.5</v>
-      </c>
-      <c r="N92">
-        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45204</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
+        <v>4.333</v>
+      </c>
+      <c r="N94">
+        <v>1.533</v>
+      </c>
+      <c r="O94">
         <v>4.2</v>
       </c>
-      <c r="N94">
-        <v>1.65</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
       <c r="P94">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
         <v>1.85</v>
       </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
       <c r="W94">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45204</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K95">
+        <v>1.75</v>
+      </c>
+      <c r="L95">
+        <v>3.6</v>
+      </c>
+      <c r="M95">
+        <v>4.2</v>
+      </c>
+      <c r="N95">
+        <v>1.65</v>
+      </c>
+      <c r="O95">
+        <v>4</v>
+      </c>
+      <c r="P95">
+        <v>4.75</v>
+      </c>
+      <c r="Q95">
+        <v>-0.75</v>
+      </c>
+      <c r="R95">
         <v>1.8</v>
       </c>
-      <c r="L95">
-        <v>3.3</v>
-      </c>
-      <c r="M95">
-        <v>4.333</v>
-      </c>
-      <c r="N95">
-        <v>1.533</v>
-      </c>
-      <c r="O95">
-        <v>4.2</v>
-      </c>
-      <c r="P95">
-        <v>6</v>
-      </c>
-      <c r="Q95">
-        <v>-1</v>
-      </c>
-      <c r="R95">
-        <v>1.925</v>
-      </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X95">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA95">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9000,10 +9000,10 @@
         <v>45206</v>
       </c>
       <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
         <v>29</v>
-      </c>
-      <c r="G96" t="s">
-        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>3.75</v>
@@ -9279,7 +9279,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K99">
         <v>2.875</v>
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>2.2</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2.2</v>
@@ -9804,7 +9804,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>2.5</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10157,7 +10157,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45227</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11237,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.5</v>
@@ -11317,7 +11317,7 @@
         <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>3.2</v>
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6754097</v>
+        <v>6754096</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,40 +11670,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>47</v>
+      </c>
+      <c r="K126">
+        <v>3.25</v>
+      </c>
+      <c r="L126">
+        <v>3.3</v>
+      </c>
+      <c r="M126">
+        <v>2.2</v>
+      </c>
+      <c r="N126">
+        <v>2.8</v>
+      </c>
+      <c r="O126">
+        <v>3.1</v>
+      </c>
+      <c r="P126">
+        <v>2.7</v>
+      </c>
+      <c r="Q126">
         <v>0</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="J126" t="s">
-        <v>48</v>
-      </c>
-      <c r="K126">
-        <v>1.5</v>
-      </c>
-      <c r="L126">
-        <v>4</v>
-      </c>
-      <c r="M126">
-        <v>7</v>
-      </c>
-      <c r="N126">
-        <v>1.45</v>
-      </c>
-      <c r="O126">
-        <v>4.5</v>
-      </c>
-      <c r="P126">
-        <v>7</v>
-      </c>
-      <c r="Q126">
-        <v>-1.25</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -11712,13 +11712,13 @@
         <v>1.85</v>
       </c>
       <c r="T126">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11727,7 +11727,7 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Z126">
         <v>-1</v>
@@ -11736,10 +11736,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6754096</v>
+        <v>6754097</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,40 +11759,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>1</v>
       </c>
-      <c r="I127">
-        <v>2</v>
-      </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L127">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O127">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P127">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
         <v>2</v>
@@ -11801,13 +11801,13 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11816,7 +11816,7 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11825,10 +11825,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11860,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>2.1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L130">
         <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
         <v>1.8</v>
       </c>
-      <c r="S130">
-        <v>2.05</v>
-      </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
         <v>0.8</v>
       </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
         <v>0</v>
       </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
         <v>3.3</v>
       </c>
       <c r="M131">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N131">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
         <v>2.05</v>
       </c>
-      <c r="S131">
-        <v>1.8</v>
-      </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6754129</v>
+        <v>6754103</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45232</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L132">
         <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N132">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O132">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q132">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
         <v>3</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA132">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6754103</v>
+        <v>6754129</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45232</v>
       </c>
       <c r="F133" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
         <v>29</v>
       </c>
-      <c r="G133" t="s">
-        <v>36</v>
-      </c>
       <c r="H133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>3</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z133">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
         <v>1.666</v>
@@ -12649,7 +12649,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>31</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
         <v>2.7</v>
@@ -13008,7 +13008,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>1.909</v>
@@ -13450,7 +13450,7 @@
         <v>45240.92013888889</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>2.35</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>4</v>
@@ -13729,7 +13729,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K149">
         <v>1.95</v>
@@ -13898,7 +13898,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14254,7 +14254,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K157">
         <v>2.7</v>
@@ -14619,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>3.5</v>
@@ -14785,7 +14785,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>1.533</v>
@@ -15144,7 +15144,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>5</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>3.4</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15319,7 +15319,7 @@
         <v>45269.95833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15331,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K167">
         <v>1.3</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>1.5</v>
@@ -15500,7 +15500,7 @@
         <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>2.6</v>
@@ -15586,7 +15586,7 @@
         <v>45277.9375</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>2.8</v>
@@ -15764,7 +15764,7 @@
         <v>45304</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45305</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
         <v>0</v>
       </c>
-      <c r="I175">
-        <v>2</v>
-      </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L175">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N175">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P175">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R175">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA175">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45305</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N176">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O176">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W176">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z176">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K179">
         <v>2.8</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -16746,7 +16746,7 @@
         <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16832,7 +16832,7 @@
         <v>45311.92013888889</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K185">
         <v>2.3</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>47</v>
       </c>
       <c r="K188">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188">
+        <v>3.3</v>
+      </c>
+      <c r="P188">
+        <v>2.4</v>
+      </c>
+      <c r="Q188">
+        <v>0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.775</v>
+      </c>
+      <c r="S188">
+        <v>2.1</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
+        <v>2.05</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1.4</v>
       </c>
-      <c r="O188">
-        <v>4.333</v>
-      </c>
-      <c r="P188">
-        <v>8.5</v>
-      </c>
-      <c r="Q188">
-        <v>-1.25</v>
-      </c>
-      <c r="R188">
-        <v>1.925</v>
-      </c>
-      <c r="S188">
-        <v>1.925</v>
-      </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>2.025</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>3.333</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M189">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P189">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y189">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K190">
         <v>4.333</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>3</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17636,7 +17636,7 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>4.2</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L200">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M200">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N200">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O200">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q200">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W200">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K201">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L201">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
+        <v>4.5</v>
+      </c>
+      <c r="N201">
+        <v>1.533</v>
+      </c>
+      <c r="O201">
+        <v>4.2</v>
+      </c>
+      <c r="P201">
+        <v>6</v>
+      </c>
+      <c r="Q201">
+        <v>-1</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.9</v>
+      </c>
+      <c r="T201">
         <v>2.75</v>
       </c>
-      <c r="N201">
-        <v>3.3</v>
-      </c>
-      <c r="O201">
-        <v>3.6</v>
-      </c>
-      <c r="P201">
-        <v>2.15</v>
-      </c>
-      <c r="Q201">
-        <v>0.25</v>
-      </c>
-      <c r="R201">
-        <v>1.925</v>
-      </c>
-      <c r="S201">
-        <v>1.925</v>
-      </c>
-      <c r="T201">
-        <v>2.5</v>
-      </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X201">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K206">
         <v>3.25</v>
@@ -18882,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19069,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K209">
         <v>2.4</v>
@@ -19158,7 +19158,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K210">
         <v>1.666</v>
@@ -19324,7 +19324,7 @@
         <v>45326.00694444445</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
         <v>44</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>1.75</v>
@@ -19514,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>2.6</v>
@@ -19680,7 +19680,7 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K217">
         <v>1.95</v>
@@ -19870,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K218">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>3.25</v>
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,73 +20214,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
         <v>3</v>
       </c>
-      <c r="I222">
-        <v>2</v>
-      </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L222">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N222">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
+        <v>2.05</v>
+      </c>
+      <c r="S222">
+        <v>1.8</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.9</v>
+      </c>
+      <c r="V222">
         <v>1.95</v>
       </c>
-      <c r="S222">
-        <v>1.9</v>
-      </c>
-      <c r="T222">
-        <v>2.75</v>
-      </c>
-      <c r="U222">
-        <v>1.825</v>
-      </c>
-      <c r="V222">
-        <v>2.025</v>
-      </c>
       <c r="W222">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z222">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB222">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,73 +20303,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G223" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M223">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P223">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S223">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA223">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB223">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K225">
         <v>2.4</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>45339</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20760,7 +20760,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K228">
         <v>1.95</v>
@@ -20840,7 +20840,7 @@
         <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
         <v>2.375</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K233">
         <v>1.666</v>
@@ -21294,7 +21294,7 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K234">
         <v>3.1</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7612867</v>
+        <v>7612866</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,73 +21549,73 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
         <v>47</v>
       </c>
       <c r="K237">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L237">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N237">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="O237">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q237">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T237">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB237">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7612866</v>
+        <v>7612867</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,73 +21638,73 @@
         <v>45344</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>48</v>
       </c>
       <c r="K238">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M238">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N238">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P238">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R238">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y238">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB238">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K239">
         <v>2.1</v>
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K240">
         <v>2.75</v>
@@ -21917,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K241">
         <v>5</v>
@@ -22095,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K243">
         <v>1.444</v>
@@ -22261,7 +22261,7 @@
         <v>45347.00694444445</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G245" t="s">
         <v>40</v>
@@ -22442,7 +22442,7 @@
         <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22718,7 +22718,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K250">
         <v>3.75</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612872</v>
+        <v>7612871</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,76 +22795,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G251" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K251">
+        <v>2.375</v>
+      </c>
+      <c r="L251">
+        <v>3.25</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>2.4</v>
+      </c>
+      <c r="O251">
+        <v>3.25</v>
+      </c>
+      <c r="P251">
+        <v>3.1</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
         <v>2.05</v>
       </c>
-      <c r="L251">
-        <v>3.4</v>
-      </c>
-      <c r="M251">
-        <v>3.5</v>
-      </c>
-      <c r="N251">
+      <c r="S251">
         <v>1.8</v>
       </c>
-      <c r="O251">
-        <v>3.8</v>
-      </c>
-      <c r="P251">
-        <v>4</v>
-      </c>
-      <c r="Q251">
-        <v>-0.75</v>
-      </c>
-      <c r="R251">
-        <v>2</v>
-      </c>
-      <c r="S251">
-        <v>1.85</v>
-      </c>
       <c r="T251">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V251">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>2.1</v>
+      </c>
+      <c r="Z251">
+        <v>-1</v>
+      </c>
+      <c r="AA251">
         <v>0.8</v>
       </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>-1</v>
-      </c>
-      <c r="Z251">
-        <v>1</v>
-      </c>
-      <c r="AA251">
-        <v>-1</v>
-      </c>
       <c r="AB251">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612871</v>
+        <v>7612872</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H252">
+        <v>4</v>
+      </c>
+      <c r="I252">
         <v>0</v>
       </c>
-      <c r="I252">
+      <c r="J252" t="s">
+        <v>49</v>
+      </c>
+      <c r="K252">
+        <v>2.05</v>
+      </c>
+      <c r="L252">
+        <v>3.4</v>
+      </c>
+      <c r="M252">
+        <v>3.5</v>
+      </c>
+      <c r="N252">
+        <v>1.8</v>
+      </c>
+      <c r="O252">
+        <v>3.8</v>
+      </c>
+      <c r="P252">
+        <v>4</v>
+      </c>
+      <c r="Q252">
+        <v>-0.75</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>1.85</v>
+      </c>
+      <c r="T252">
+        <v>2.75</v>
+      </c>
+      <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
+        <v>2.025</v>
+      </c>
+      <c r="W252">
+        <v>0.8</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>-1</v>
+      </c>
+      <c r="Z252">
         <v>1</v>
       </c>
-      <c r="J252" t="s">
-        <v>48</v>
-      </c>
-      <c r="K252">
-        <v>2.375</v>
-      </c>
-      <c r="L252">
-        <v>3.25</v>
-      </c>
-      <c r="M252">
-        <v>3</v>
-      </c>
-      <c r="N252">
-        <v>2.4</v>
-      </c>
-      <c r="O252">
-        <v>3.25</v>
-      </c>
-      <c r="P252">
-        <v>3.1</v>
-      </c>
-      <c r="Q252">
-        <v>-0.25</v>
-      </c>
-      <c r="R252">
-        <v>2.05</v>
-      </c>
-      <c r="S252">
-        <v>1.8</v>
-      </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
-      <c r="U252">
-        <v>1.925</v>
-      </c>
-      <c r="V252">
-        <v>1.925</v>
-      </c>
-      <c r="W252">
-        <v>-1</v>
-      </c>
-      <c r="X252">
-        <v>-1</v>
-      </c>
-      <c r="Y252">
-        <v>2.1</v>
-      </c>
-      <c r="Z252">
-        <v>-1</v>
-      </c>
       <c r="AA252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC252">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>45353.00694444445</v>
       </c>
       <c r="F253" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G253" t="s">
         <v>39</v>
@@ -23050,7 +23050,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>7612877</v>
+        <v>7612874</v>
       </c>
       <c r="C254" t="s">
         <v>28</v>
@@ -23059,43 +23059,52 @@
         <v>28</v>
       </c>
       <c r="E254" s="2">
-        <v>45354</v>
+        <v>45353.83333333334</v>
       </c>
       <c r="F254" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G254" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H254">
+        <v>2</v>
+      </c>
+      <c r="I254">
+        <v>1</v>
+      </c>
+      <c r="J254" t="s">
+        <v>49</v>
       </c>
       <c r="K254">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L254">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M254">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N254">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="O254">
         <v>3.6</v>
       </c>
       <c r="P254">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="Q254">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R254">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S254">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T254">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U254">
         <v>1.925</v>
@@ -23104,19 +23113,25 @@
         <v>1.925</v>
       </c>
       <c r="W254">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y254">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z254">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA254">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB254">
+        <v>0.4625</v>
+      </c>
+      <c r="AC254">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="255" spans="1:29">
@@ -23124,7 +23139,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>7883158</v>
+        <v>7612875</v>
       </c>
       <c r="C255" t="s">
         <v>28</v>
@@ -23133,64 +23148,79 @@
         <v>28</v>
       </c>
       <c r="E255" s="2">
-        <v>45354.91666666666</v>
+        <v>45353.91666666666</v>
       </c>
       <c r="F255" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G255" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="H255">
+        <v>3</v>
+      </c>
+      <c r="I255">
+        <v>2</v>
+      </c>
+      <c r="J255" t="s">
+        <v>49</v>
       </c>
       <c r="K255">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="L255">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M255">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="N255">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="O255">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P255">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q255">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R255">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S255">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T255">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U255">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V255">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W255">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="X255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y255">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z255">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA255">
-        <v>0</v>
+        <v>0.425</v>
+      </c>
+      <c r="AB255">
+        <v>0.925</v>
+      </c>
+      <c r="AC255">
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:29">
@@ -23198,7 +23228,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>7612879</v>
+        <v>7612876</v>
       </c>
       <c r="C256" t="s">
         <v>28</v>
@@ -23207,63 +23237,1011 @@
         <v>28</v>
       </c>
       <c r="E256" s="2">
-        <v>45355</v>
+        <v>45353.92013888889</v>
       </c>
       <c r="F256" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G256" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="H256">
+        <v>3</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256" t="s">
+        <v>49</v>
       </c>
       <c r="K256">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L256">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M256">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="N256">
-        <v>2.375</v>
+        <v>1.85</v>
       </c>
       <c r="O256">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P256">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="Q256">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R256">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S256">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T256">
         <v>2.75</v>
       </c>
       <c r="U256">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V256">
+        <v>1.825</v>
+      </c>
+      <c r="W256">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X256">
+        <v>-1</v>
+      </c>
+      <c r="Y256">
+        <v>-1</v>
+      </c>
+      <c r="Z256">
+        <v>0.925</v>
+      </c>
+      <c r="AA256">
+        <v>-1</v>
+      </c>
+      <c r="AB256">
+        <v>0.5125</v>
+      </c>
+      <c r="AC256">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:29">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>7612877</v>
+      </c>
+      <c r="C257" t="s">
+        <v>28</v>
+      </c>
+      <c r="D257" t="s">
+        <v>28</v>
+      </c>
+      <c r="E257" s="2">
+        <v>45354.00694444445</v>
+      </c>
+      <c r="F257" t="s">
+        <v>34</v>
+      </c>
+      <c r="G257" t="s">
+        <v>29</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>5</v>
+      </c>
+      <c r="J257" t="s">
+        <v>47</v>
+      </c>
+      <c r="K257">
+        <v>3.5</v>
+      </c>
+      <c r="L257">
+        <v>3.4</v>
+      </c>
+      <c r="M257">
+        <v>2.05</v>
+      </c>
+      <c r="N257">
+        <v>4.2</v>
+      </c>
+      <c r="O257">
+        <v>3.6</v>
+      </c>
+      <c r="P257">
         <v>1.85</v>
       </c>
-      <c r="W256">
+      <c r="Q257">
+        <v>0.5</v>
+      </c>
+      <c r="R257">
+        <v>1.925</v>
+      </c>
+      <c r="S257">
+        <v>1.925</v>
+      </c>
+      <c r="T257">
+        <v>2.5</v>
+      </c>
+      <c r="U257">
+        <v>1.975</v>
+      </c>
+      <c r="V257">
+        <v>1.875</v>
+      </c>
+      <c r="W257">
+        <v>-1</v>
+      </c>
+      <c r="X257">
+        <v>-1</v>
+      </c>
+      <c r="Y257">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="Z257">
+        <v>-1</v>
+      </c>
+      <c r="AA257">
+        <v>0.925</v>
+      </c>
+      <c r="AB257">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC257">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:29">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>7883158</v>
+      </c>
+      <c r="C258" t="s">
+        <v>28</v>
+      </c>
+      <c r="D258" t="s">
+        <v>28</v>
+      </c>
+      <c r="E258" s="2">
+        <v>45354.91666666666</v>
+      </c>
+      <c r="F258" t="s">
+        <v>44</v>
+      </c>
+      <c r="G258" t="s">
+        <v>43</v>
+      </c>
+      <c r="H258">
+        <v>3</v>
+      </c>
+      <c r="I258">
         <v>0</v>
       </c>
-      <c r="X256">
+      <c r="J258" t="s">
+        <v>49</v>
+      </c>
+      <c r="K258">
+        <v>1.8</v>
+      </c>
+      <c r="L258">
+        <v>3.4</v>
+      </c>
+      <c r="M258">
+        <v>4.75</v>
+      </c>
+      <c r="N258">
+        <v>1.65</v>
+      </c>
+      <c r="O258">
+        <v>4</v>
+      </c>
+      <c r="P258">
+        <v>5.25</v>
+      </c>
+      <c r="Q258">
+        <v>-0.75</v>
+      </c>
+      <c r="R258">
+        <v>1.825</v>
+      </c>
+      <c r="S258">
+        <v>2.025</v>
+      </c>
+      <c r="T258">
+        <v>2.5</v>
+      </c>
+      <c r="U258">
+        <v>1.825</v>
+      </c>
+      <c r="V258">
+        <v>2.025</v>
+      </c>
+      <c r="W258">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X258">
+        <v>-1</v>
+      </c>
+      <c r="Y258">
+        <v>-1</v>
+      </c>
+      <c r="Z258">
+        <v>0.825</v>
+      </c>
+      <c r="AA258">
+        <v>-1</v>
+      </c>
+      <c r="AB258">
+        <v>0.825</v>
+      </c>
+      <c r="AC258">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:29">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>7612879</v>
+      </c>
+      <c r="C259" t="s">
+        <v>28</v>
+      </c>
+      <c r="D259" t="s">
+        <v>28</v>
+      </c>
+      <c r="E259" s="2">
+        <v>45355</v>
+      </c>
+      <c r="F259" t="s">
+        <v>31</v>
+      </c>
+      <c r="G259" t="s">
+        <v>37</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259" t="s">
+        <v>48</v>
+      </c>
+      <c r="K259">
+        <v>2.8</v>
+      </c>
+      <c r="L259">
+        <v>3.25</v>
+      </c>
+      <c r="M259">
+        <v>2.5</v>
+      </c>
+      <c r="N259">
+        <v>2.3</v>
+      </c>
+      <c r="O259">
+        <v>3.5</v>
+      </c>
+      <c r="P259">
+        <v>3.1</v>
+      </c>
+      <c r="Q259">
+        <v>-0.25</v>
+      </c>
+      <c r="R259">
+        <v>1.975</v>
+      </c>
+      <c r="S259">
+        <v>1.875</v>
+      </c>
+      <c r="T259">
+        <v>2.75</v>
+      </c>
+      <c r="U259">
+        <v>1.925</v>
+      </c>
+      <c r="V259">
+        <v>1.925</v>
+      </c>
+      <c r="W259">
+        <v>-1</v>
+      </c>
+      <c r="X259">
+        <v>2.5</v>
+      </c>
+      <c r="Y259">
+        <v>-1</v>
+      </c>
+      <c r="Z259">
+        <v>-0.5</v>
+      </c>
+      <c r="AA259">
+        <v>0.4375</v>
+      </c>
+      <c r="AB259">
+        <v>-1</v>
+      </c>
+      <c r="AC259">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="260" spans="1:29">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>7612880</v>
+      </c>
+      <c r="C260" t="s">
+        <v>28</v>
+      </c>
+      <c r="D260" t="s">
+        <v>28</v>
+      </c>
+      <c r="E260" s="2">
+        <v>45359.91666666666</v>
+      </c>
+      <c r="F260" t="s">
+        <v>38</v>
+      </c>
+      <c r="G260" t="s">
+        <v>34</v>
+      </c>
+      <c r="K260">
+        <v>2.6</v>
+      </c>
+      <c r="L260">
+        <v>3.4</v>
+      </c>
+      <c r="M260">
+        <v>2.6</v>
+      </c>
+      <c r="N260">
+        <v>2.75</v>
+      </c>
+      <c r="O260">
+        <v>3.4</v>
+      </c>
+      <c r="P260">
+        <v>2.5</v>
+      </c>
+      <c r="Q260">
         <v>0</v>
       </c>
-      <c r="Y256">
+      <c r="R260">
+        <v>2.05</v>
+      </c>
+      <c r="S260">
+        <v>1.8</v>
+      </c>
+      <c r="T260">
+        <v>2.5</v>
+      </c>
+      <c r="U260">
+        <v>1.825</v>
+      </c>
+      <c r="V260">
+        <v>2.025</v>
+      </c>
+      <c r="W260">
         <v>0</v>
       </c>
-      <c r="Z256">
+      <c r="X260">
         <v>0</v>
       </c>
-      <c r="AA256">
+      <c r="Y260">
+        <v>0</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AA260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:29">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>7612882</v>
+      </c>
+      <c r="C261" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>28</v>
+      </c>
+      <c r="E261" s="2">
+        <v>45360</v>
+      </c>
+      <c r="F261" t="s">
+        <v>39</v>
+      </c>
+      <c r="G261" t="s">
+        <v>32</v>
+      </c>
+      <c r="K261">
+        <v>2.35</v>
+      </c>
+      <c r="L261">
+        <v>3.4</v>
+      </c>
+      <c r="M261">
+        <v>2.9</v>
+      </c>
+      <c r="N261">
+        <v>2.3</v>
+      </c>
+      <c r="O261">
+        <v>3.4</v>
+      </c>
+      <c r="P261">
+        <v>3</v>
+      </c>
+      <c r="Q261">
+        <v>-0.25</v>
+      </c>
+      <c r="R261">
+        <v>2.025</v>
+      </c>
+      <c r="S261">
+        <v>1.825</v>
+      </c>
+      <c r="T261">
+        <v>2.5</v>
+      </c>
+      <c r="U261">
+        <v>1.825</v>
+      </c>
+      <c r="V261">
+        <v>2.025</v>
+      </c>
+      <c r="W261">
+        <v>0</v>
+      </c>
+      <c r="X261">
+        <v>0</v>
+      </c>
+      <c r="Y261">
+        <v>0</v>
+      </c>
+      <c r="Z261">
+        <v>0</v>
+      </c>
+      <c r="AA261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:29">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>7612881</v>
+      </c>
+      <c r="C262" t="s">
+        <v>28</v>
+      </c>
+      <c r="D262" t="s">
+        <v>28</v>
+      </c>
+      <c r="E262" s="2">
+        <v>45360.00694444445</v>
+      </c>
+      <c r="F262" t="s">
+        <v>42</v>
+      </c>
+      <c r="G262" t="s">
+        <v>35</v>
+      </c>
+      <c r="K262">
+        <v>3.75</v>
+      </c>
+      <c r="L262">
+        <v>3.5</v>
+      </c>
+      <c r="M262">
+        <v>1.95</v>
+      </c>
+      <c r="N262">
+        <v>3.8</v>
+      </c>
+      <c r="O262">
+        <v>3.5</v>
+      </c>
+      <c r="P262">
+        <v>1.95</v>
+      </c>
+      <c r="Q262">
+        <v>0.5</v>
+      </c>
+      <c r="R262">
+        <v>1.9</v>
+      </c>
+      <c r="S262">
+        <v>1.95</v>
+      </c>
+      <c r="T262">
+        <v>2.75</v>
+      </c>
+      <c r="U262">
+        <v>1.925</v>
+      </c>
+      <c r="V262">
+        <v>1.925</v>
+      </c>
+      <c r="W262">
+        <v>0</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262">
+        <v>0</v>
+      </c>
+      <c r="Z262">
+        <v>0</v>
+      </c>
+      <c r="AA262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:29">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>7612883</v>
+      </c>
+      <c r="C263" t="s">
+        <v>28</v>
+      </c>
+      <c r="D263" t="s">
+        <v>28</v>
+      </c>
+      <c r="E263" s="2">
+        <v>45360.83680555555</v>
+      </c>
+      <c r="F263" t="s">
+        <v>41</v>
+      </c>
+      <c r="G263" t="s">
+        <v>37</v>
+      </c>
+      <c r="K263">
+        <v>1.85</v>
+      </c>
+      <c r="L263">
+        <v>3.6</v>
+      </c>
+      <c r="M263">
+        <v>4</v>
+      </c>
+      <c r="N263">
+        <v>1.909</v>
+      </c>
+      <c r="O263">
+        <v>3.5</v>
+      </c>
+      <c r="P263">
+        <v>3.8</v>
+      </c>
+      <c r="Q263">
+        <v>-0.5</v>
+      </c>
+      <c r="R263">
+        <v>1.95</v>
+      </c>
+      <c r="S263">
+        <v>1.9</v>
+      </c>
+      <c r="T263">
+        <v>2.5</v>
+      </c>
+      <c r="U263">
+        <v>1.825</v>
+      </c>
+      <c r="V263">
+        <v>2.025</v>
+      </c>
+      <c r="W263">
+        <v>0</v>
+      </c>
+      <c r="X263">
+        <v>0</v>
+      </c>
+      <c r="Y263">
+        <v>0</v>
+      </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
+      <c r="AA263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:29">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>7612884</v>
+      </c>
+      <c r="C264" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" t="s">
+        <v>28</v>
+      </c>
+      <c r="E264" s="2">
+        <v>45360.91666666666</v>
+      </c>
+      <c r="F264" t="s">
+        <v>45</v>
+      </c>
+      <c r="G264" t="s">
+        <v>46</v>
+      </c>
+      <c r="K264">
+        <v>1.6</v>
+      </c>
+      <c r="L264">
+        <v>4.2</v>
+      </c>
+      <c r="M264">
+        <v>5</v>
+      </c>
+      <c r="N264">
+        <v>1.6</v>
+      </c>
+      <c r="O264">
+        <v>4.2</v>
+      </c>
+      <c r="P264">
+        <v>5</v>
+      </c>
+      <c r="Q264">
+        <v>-1</v>
+      </c>
+      <c r="R264">
+        <v>2.025</v>
+      </c>
+      <c r="S264">
+        <v>1.825</v>
+      </c>
+      <c r="T264">
+        <v>2.75</v>
+      </c>
+      <c r="U264">
+        <v>1.8</v>
+      </c>
+      <c r="V264">
+        <v>2.05</v>
+      </c>
+      <c r="W264">
+        <v>0</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264">
+        <v>0</v>
+      </c>
+      <c r="Z264">
+        <v>0</v>
+      </c>
+      <c r="AA264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:29">
+      <c r="A265" s="1">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>7612885</v>
+      </c>
+      <c r="C265" t="s">
+        <v>28</v>
+      </c>
+      <c r="D265" t="s">
+        <v>28</v>
+      </c>
+      <c r="E265" s="2">
+        <v>45360.91666666666</v>
+      </c>
+      <c r="F265" t="s">
+        <v>36</v>
+      </c>
+      <c r="G265" t="s">
+        <v>40</v>
+      </c>
+      <c r="K265">
+        <v>3.3</v>
+      </c>
+      <c r="L265">
+        <v>3.6</v>
+      </c>
+      <c r="M265">
+        <v>2.05</v>
+      </c>
+      <c r="N265">
+        <v>3.4</v>
+      </c>
+      <c r="O265">
+        <v>3.6</v>
+      </c>
+      <c r="P265">
+        <v>2</v>
+      </c>
+      <c r="Q265">
+        <v>0.5</v>
+      </c>
+      <c r="R265">
+        <v>1.85</v>
+      </c>
+      <c r="S265">
+        <v>2</v>
+      </c>
+      <c r="T265">
+        <v>2.75</v>
+      </c>
+      <c r="U265">
+        <v>1.875</v>
+      </c>
+      <c r="V265">
+        <v>1.975</v>
+      </c>
+      <c r="W265">
+        <v>0</v>
+      </c>
+      <c r="X265">
+        <v>0</v>
+      </c>
+      <c r="Y265">
+        <v>0</v>
+      </c>
+      <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:29">
+      <c r="A266" s="1">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>7612886</v>
+      </c>
+      <c r="C266" t="s">
+        <v>28</v>
+      </c>
+      <c r="D266" t="s">
+        <v>28</v>
+      </c>
+      <c r="E266" s="2">
+        <v>45361</v>
+      </c>
+      <c r="F266" t="s">
+        <v>29</v>
+      </c>
+      <c r="G266" t="s">
+        <v>33</v>
+      </c>
+      <c r="K266">
+        <v>1.833</v>
+      </c>
+      <c r="L266">
+        <v>3.6</v>
+      </c>
+      <c r="M266">
+        <v>4.2</v>
+      </c>
+      <c r="N266">
+        <v>1.75</v>
+      </c>
+      <c r="O266">
+        <v>3.75</v>
+      </c>
+      <c r="P266">
+        <v>4.5</v>
+      </c>
+      <c r="Q266">
+        <v>-0.75</v>
+      </c>
+      <c r="R266">
+        <v>1.975</v>
+      </c>
+      <c r="S266">
+        <v>1.875</v>
+      </c>
+      <c r="T266">
+        <v>2.5</v>
+      </c>
+      <c r="U266">
+        <v>1.925</v>
+      </c>
+      <c r="V266">
+        <v>1.925</v>
+      </c>
+      <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266">
+        <v>0</v>
+      </c>
+      <c r="Z266">
+        <v>0</v>
+      </c>
+      <c r="AA266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:29">
+      <c r="A267" s="1">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>7612887</v>
+      </c>
+      <c r="C267" t="s">
+        <v>28</v>
+      </c>
+      <c r="D267" t="s">
+        <v>28</v>
+      </c>
+      <c r="E267" s="2">
+        <v>45361.625</v>
+      </c>
+      <c r="F267" t="s">
+        <v>43</v>
+      </c>
+      <c r="G267" t="s">
+        <v>31</v>
+      </c>
+      <c r="K267">
+        <v>1.75</v>
+      </c>
+      <c r="L267">
+        <v>3.9</v>
+      </c>
+      <c r="M267">
+        <v>4.2</v>
+      </c>
+      <c r="N267">
+        <v>1.65</v>
+      </c>
+      <c r="O267">
+        <v>4</v>
+      </c>
+      <c r="P267">
+        <v>4.75</v>
+      </c>
+      <c r="Q267">
+        <v>-0.75</v>
+      </c>
+      <c r="R267">
+        <v>1.8</v>
+      </c>
+      <c r="S267">
+        <v>2.05</v>
+      </c>
+      <c r="T267">
+        <v>2.75</v>
+      </c>
+      <c r="U267">
+        <v>1.925</v>
+      </c>
+      <c r="V267">
+        <v>1.925</v>
+      </c>
+      <c r="W267">
+        <v>0</v>
+      </c>
+      <c r="X267">
+        <v>0</v>
+      </c>
+      <c r="Y267">
+        <v>0</v>
+      </c>
+      <c r="Z267">
+        <v>0</v>
+      </c>
+      <c r="AA267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:29">
+      <c r="A268" s="1">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>7612888</v>
+      </c>
+      <c r="C268" t="s">
+        <v>28</v>
+      </c>
+      <c r="D268" t="s">
+        <v>28</v>
+      </c>
+      <c r="E268" s="2">
+        <v>45361.91666666666</v>
+      </c>
+      <c r="F268" t="s">
+        <v>44</v>
+      </c>
+      <c r="G268" t="s">
+        <v>30</v>
+      </c>
+      <c r="K268">
+        <v>1.45</v>
+      </c>
+      <c r="L268">
+        <v>4.1</v>
+      </c>
+      <c r="M268">
+        <v>7.5</v>
+      </c>
+      <c r="N268">
+        <v>1.4</v>
+      </c>
+      <c r="O268">
+        <v>4.2</v>
+      </c>
+      <c r="P268">
+        <v>8</v>
+      </c>
+      <c r="Q268">
+        <v>-1.25</v>
+      </c>
+      <c r="R268">
+        <v>1.925</v>
+      </c>
+      <c r="S268">
+        <v>1.925</v>
+      </c>
+      <c r="T268">
+        <v>2.75</v>
+      </c>
+      <c r="U268">
+        <v>1.825</v>
+      </c>
+      <c r="V268">
+        <v>2.025</v>
+      </c>
+      <c r="W268">
+        <v>0</v>
+      </c>
+      <c r="X268">
+        <v>0</v>
+      </c>
+      <c r="Y268">
+        <v>0</v>
+      </c>
+      <c r="Z268">
+        <v>0</v>
+      </c>
+      <c r="AA268">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
-    <t>Club America</t>
+    <t>Mazatlan FC</t>
   </si>
   <si>
-    <t>Mazatlan FC</t>
+    <t>Club America</t>
   </si>
   <si>
     <t>Tijuana</t>
@@ -157,10 +157,10 @@
     <t>Queretaro</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y2">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>-1.25</v>
+      </c>
+      <c r="R3">
+        <v>1.975</v>
+      </c>
+      <c r="S3">
+        <v>1.875</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>2.05</v>
       </c>
-      <c r="Q3">
-        <v>0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
-      <c r="S3">
-        <v>2.025</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>3.5</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2.55</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2.45</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>45121.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>45122.91666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>1.75</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>1.9</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>2.8</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2.7</v>
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>2.05</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>2.3</v>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>3.75</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,43 +3675,43 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>2.9</v>
+      </c>
+      <c r="N36">
+        <v>1.85</v>
+      </c>
+      <c r="O36">
+        <v>3.75</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.875</v>
+      </c>
+      <c r="S36">
+        <v>1.975</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="M36">
-        <v>1.5</v>
-      </c>
-      <c r="N36">
-        <v>1.615</v>
-      </c>
-      <c r="O36">
-        <v>4.2</v>
-      </c>
-      <c r="P36">
-        <v>5</v>
-      </c>
-      <c r="Q36">
-        <v>-0.75</v>
-      </c>
-      <c r="R36">
-        <v>1.8</v>
-      </c>
-      <c r="S36">
-        <v>2.05</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,61 +3764,61 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N37">
+        <v>1.615</v>
+      </c>
+      <c r="O37">
+        <v>4.2</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <v>-0.75</v>
+      </c>
+      <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>2.05</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="O37">
-        <v>3.75</v>
-      </c>
-      <c r="P37">
-        <v>4</v>
-      </c>
-      <c r="Q37">
+      <c r="W37">
+        <v>0.615</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>0.4</v>
+      </c>
+      <c r="AA37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.975</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.825</v>
-      </c>
-      <c r="V37">
-        <v>2.025</v>
-      </c>
-      <c r="W37">
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4286,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>1.55</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4461,7 +4461,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>1.7</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>1.6</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>1.727</v>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>1.363</v>
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5974,7 +5974,7 @@
         <v>45184.90972222222</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5986,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6330,7 +6330,7 @@
         <v>45186.00694444445</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>3.2</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,73 +6864,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N72">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O72">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q73">
+        <v>-1</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>1.9</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
+        <v>1.925</v>
+      </c>
+      <c r="W73">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>2.1</v>
-      </c>
-      <c r="V73">
-        <v>1.775</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>1.8</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,61 +7131,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7194,13 +7194,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,61 +7220,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X76">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7283,13 +7283,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7499,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7668,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>1.444</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>2.1</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>2.6</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>45199.90277777778</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8288,7 +8288,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8300,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>3.25</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.25</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45203</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
+        <v>3.3</v>
+      </c>
+      <c r="M93">
+        <v>2.8</v>
+      </c>
+      <c r="N93">
         <v>3.5</v>
-      </c>
-      <c r="M93">
-        <v>4.5</v>
-      </c>
-      <c r="N93">
-        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8834,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94">
         <v>1.8</v>
@@ -9000,10 +9000,10 @@
         <v>45206</v>
       </c>
       <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" t="s">
         <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>3.75</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N98">
+        <v>2.9</v>
+      </c>
+      <c r="O98">
+        <v>3.5</v>
+      </c>
+      <c r="P98">
         <v>2.4</v>
       </c>
-      <c r="O98">
-        <v>3.2</v>
-      </c>
-      <c r="P98">
-        <v>3.1</v>
-      </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S99">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X99">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>2.2</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>2.2</v>
@@ -9804,7 +9804,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K106">
         <v>2.5</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10157,7 +10157,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45227</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11237,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>2.5</v>
@@ -11317,7 +11317,7 @@
         <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>3.2</v>
@@ -11682,7 +11682,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
         <v>3.25</v>
@@ -11771,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>1.5</v>
@@ -11860,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K128">
         <v>2.1</v>
@@ -12038,7 +12038,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K130">
         <v>2.1</v>
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6754103</v>
+        <v>6754129</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45232</v>
       </c>
       <c r="F132" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s">
         <v>30</v>
       </c>
-      <c r="G132" t="s">
-        <v>36</v>
-      </c>
       <c r="H132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L132">
         <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>3</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z132">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6754129</v>
+        <v>6754103</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45232</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N133">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O133">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
         <v>3</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA133">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>1.666</v>
@@ -12649,7 +12649,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>31</v>
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6754105</v>
+        <v>6754643</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,76 +12738,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138" t="s">
+        <v>48</v>
+      </c>
+      <c r="K138">
+        <v>2.7</v>
+      </c>
+      <c r="L138">
+        <v>3.4</v>
+      </c>
+      <c r="M138">
+        <v>2.5</v>
+      </c>
+      <c r="N138">
+        <v>2.7</v>
+      </c>
+      <c r="O138">
+        <v>3.5</v>
+      </c>
+      <c r="P138">
+        <v>2.55</v>
+      </c>
+      <c r="Q138">
         <v>0</v>
       </c>
-      <c r="J138" t="s">
-        <v>49</v>
-      </c>
-      <c r="K138">
-        <v>1.8</v>
-      </c>
-      <c r="L138">
-        <v>3.75</v>
-      </c>
-      <c r="M138">
-        <v>4.2</v>
-      </c>
-      <c r="N138">
-        <v>2.45</v>
-      </c>
-      <c r="O138">
-        <v>3.25</v>
-      </c>
-      <c r="P138">
-        <v>3</v>
-      </c>
-      <c r="Q138">
-        <v>-0.25</v>
-      </c>
       <c r="R138">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z138">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6754643</v>
+        <v>6754105</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
         <v>0</v>
       </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M139">
+        <v>4.2</v>
+      </c>
+      <c r="N139">
+        <v>2.45</v>
+      </c>
+      <c r="O139">
+        <v>3.25</v>
+      </c>
+      <c r="P139">
+        <v>3</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>2.05</v>
+      </c>
+      <c r="S139">
+        <v>1.75</v>
+      </c>
+      <c r="T139">
         <v>2.5</v>
       </c>
-      <c r="N139">
-        <v>2.7</v>
-      </c>
-      <c r="O139">
-        <v>3.5</v>
-      </c>
-      <c r="P139">
-        <v>2.55</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
+      <c r="U139">
         <v>1.975</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.875</v>
       </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>2.025</v>
-      </c>
-      <c r="V139">
-        <v>1.825</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.875</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
-      <c r="AC139">
-        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
         <v>1.909</v>
@@ -13450,7 +13450,7 @@
         <v>45240.92013888889</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
         <v>2.35</v>
@@ -13640,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>4</v>
@@ -13729,7 +13729,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>1.95</v>
@@ -13898,7 +13898,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14254,7 +14254,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K157">
         <v>2.7</v>
@@ -14619,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>3.5</v>
@@ -14785,7 +14785,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K162">
         <v>1.533</v>
@@ -15144,7 +15144,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>5</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>3.4</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15319,7 +15319,7 @@
         <v>45269.95833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15331,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>1.3</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K168">
         <v>1.5</v>
@@ -15500,7 +15500,7 @@
         <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K169">
         <v>2.6</v>
@@ -15586,7 +15586,7 @@
         <v>45277.9375</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>2.8</v>
@@ -15764,7 +15764,7 @@
         <v>45304</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16123,7 +16123,7 @@
         <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16132,7 +16132,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K176">
         <v>4.5</v>
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>2.8</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -16746,7 +16746,7 @@
         <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16832,7 +16832,7 @@
         <v>45311.92013888889</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185">
         <v>2.3</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>47</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M188">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y188">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189">
+        <v>3.3</v>
+      </c>
+      <c r="P189">
+        <v>2.4</v>
+      </c>
+      <c r="Q189">
+        <v>0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.775</v>
+      </c>
+      <c r="S189">
+        <v>2.1</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2.05</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.4</v>
       </c>
-      <c r="O189">
-        <v>4.333</v>
-      </c>
-      <c r="P189">
-        <v>8.5</v>
-      </c>
-      <c r="Q189">
-        <v>-1.25</v>
-      </c>
-      <c r="R189">
-        <v>1.925</v>
-      </c>
-      <c r="S189">
-        <v>1.925</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>3.333</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>4.333</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K191">
         <v>3</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17636,7 +17636,7 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K196">
         <v>4.2</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K200">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L200">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M200">
+        <v>4.5</v>
+      </c>
+      <c r="N200">
+        <v>1.533</v>
+      </c>
+      <c r="O200">
+        <v>4.2</v>
+      </c>
+      <c r="P200">
+        <v>6</v>
+      </c>
+      <c r="Q200">
+        <v>-1</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>1.9</v>
+      </c>
+      <c r="T200">
         <v>2.75</v>
       </c>
-      <c r="N200">
-        <v>3.3</v>
-      </c>
-      <c r="O200">
-        <v>3.6</v>
-      </c>
-      <c r="P200">
-        <v>2.15</v>
-      </c>
-      <c r="Q200">
-        <v>0.25</v>
-      </c>
-      <c r="R200">
-        <v>1.925</v>
-      </c>
-      <c r="S200">
-        <v>1.925</v>
-      </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
       <c r="U200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X200">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L201">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M201">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N201">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K206">
         <v>3.25</v>
@@ -18882,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19069,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K209">
         <v>2.4</v>
@@ -19158,7 +19158,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K210">
         <v>1.666</v>
@@ -19324,7 +19324,7 @@
         <v>45326.00694444445</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
         <v>44</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K212">
         <v>1.75</v>
@@ -19514,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
         <v>2.6</v>
@@ -19680,7 +19680,7 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K217">
         <v>1.95</v>
@@ -19870,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K218">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K220">
         <v>3.25</v>
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,73 +20214,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M222">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N222">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA222">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,73 +20303,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
         <v>3</v>
       </c>
-      <c r="I223">
-        <v>2</v>
-      </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L223">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N223">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O223">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
+        <v>2.05</v>
+      </c>
+      <c r="S223">
+        <v>1.8</v>
+      </c>
+      <c r="T223">
+        <v>2.5</v>
+      </c>
+      <c r="U223">
+        <v>1.9</v>
+      </c>
+      <c r="V223">
         <v>1.95</v>
       </c>
-      <c r="S223">
-        <v>1.9</v>
-      </c>
-      <c r="T223">
-        <v>2.75</v>
-      </c>
-      <c r="U223">
-        <v>1.825</v>
-      </c>
-      <c r="V223">
-        <v>2.025</v>
-      </c>
       <c r="W223">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z223">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB223">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K225">
         <v>2.4</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>45339</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20760,7 +20760,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K228">
         <v>1.95</v>
@@ -20840,7 +20840,7 @@
         <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
         <v>2.375</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K233">
         <v>1.666</v>
@@ -21294,7 +21294,7 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K234">
         <v>3.1</v>
@@ -21561,7 +21561,7 @@
         <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K237">
         <v>2.5</v>
@@ -21638,11 +21638,11 @@
         <v>45344</v>
       </c>
       <c r="F238" t="s">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
         <v>29</v>
       </c>
-      <c r="G238" t="s">
-        <v>30</v>
-      </c>
       <c r="H238">
         <v>2</v>
       </c>
@@ -21650,7 +21650,7 @@
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K238">
         <v>1.363</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K239">
         <v>2.1</v>
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K240">
         <v>2.75</v>
@@ -21917,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K241">
         <v>5</v>
@@ -22095,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K243">
         <v>1.444</v>
@@ -22261,7 +22261,7 @@
         <v>45347.00694444445</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G245" t="s">
         <v>40</v>
@@ -22442,7 +22442,7 @@
         <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22718,7 +22718,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K250">
         <v>3.75</v>
@@ -22807,7 +22807,7 @@
         <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K251">
         <v>2.375</v>
@@ -22973,7 +22973,7 @@
         <v>45353.00694444445</v>
       </c>
       <c r="F253" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G253" t="s">
         <v>39</v>
@@ -23332,7 +23332,7 @@
         <v>34</v>
       </c>
       <c r="G257" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23341,7 +23341,7 @@
         <v>5</v>
       </c>
       <c r="J257" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K257">
         <v>3.5</v>
@@ -23519,7 +23519,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K259">
         <v>2.8</v>
@@ -23601,6 +23601,15 @@
       <c r="G260" t="s">
         <v>34</v>
       </c>
+      <c r="H260">
+        <v>2</v>
+      </c>
+      <c r="I260">
+        <v>2</v>
+      </c>
+      <c r="J260" t="s">
+        <v>47</v>
+      </c>
       <c r="K260">
         <v>2.6</v>
       </c>
@@ -23611,46 +23620,52 @@
         <v>2.6</v>
       </c>
       <c r="N260">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="O260">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P260">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q260">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R260">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S260">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T260">
         <v>2.5</v>
       </c>
       <c r="U260">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V260">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W260">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X260">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y260">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z260">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA260">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB260">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC260">
+        <v>-1</v>
       </c>
     </row>
     <row r="261" spans="1:29">
@@ -23675,6 +23690,15 @@
       <c r="G261" t="s">
         <v>32</v>
       </c>
+      <c r="H261">
+        <v>3</v>
+      </c>
+      <c r="I261">
+        <v>1</v>
+      </c>
+      <c r="J261" t="s">
+        <v>49</v>
+      </c>
       <c r="K261">
         <v>2.35</v>
       </c>
@@ -23685,46 +23709,52 @@
         <v>2.9</v>
       </c>
       <c r="N261">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="O261">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P261">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q261">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R261">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S261">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T261">
         <v>2.5</v>
       </c>
       <c r="U261">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V261">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W261">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y261">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z261">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA261">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB261">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC261">
+        <v>-1</v>
       </c>
     </row>
     <row r="262" spans="1:29">
@@ -23749,6 +23779,15 @@
       <c r="G262" t="s">
         <v>35</v>
       </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+      <c r="I262">
+        <v>1</v>
+      </c>
+      <c r="J262" t="s">
+        <v>47</v>
+      </c>
       <c r="K262">
         <v>3.75</v>
       </c>
@@ -23771,34 +23810,40 @@
         <v>0.5</v>
       </c>
       <c r="R262">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S262">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T262">
         <v>2.75</v>
       </c>
       <c r="U262">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V262">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X262">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y262">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z262">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA262">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB262">
+        <v>-1</v>
+      </c>
+      <c r="AC262">
+        <v>0.95</v>
       </c>
     </row>
     <row r="263" spans="1:29">
@@ -23833,31 +23878,31 @@
         <v>4</v>
       </c>
       <c r="N263">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="O263">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P263">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="Q263">
         <v>-0.5</v>
       </c>
       <c r="R263">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S263">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T263">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U263">
+        <v>2.025</v>
+      </c>
+      <c r="V263">
         <v>1.825</v>
-      </c>
-      <c r="V263">
-        <v>2.025</v>
       </c>
       <c r="W263">
         <v>0</v>
@@ -23907,31 +23952,31 @@
         <v>5</v>
       </c>
       <c r="N264">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="O264">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P264">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q264">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R264">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S264">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T264">
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V264">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W264">
         <v>0</v>
@@ -23981,31 +24026,31 @@
         <v>2.05</v>
       </c>
       <c r="N265">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O265">
         <v>3.6</v>
       </c>
       <c r="P265">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Q265">
         <v>0.5</v>
       </c>
       <c r="R265">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S265">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T265">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U265">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V265">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W265">
         <v>0</v>
@@ -24040,7 +24085,7 @@
         <v>45361</v>
       </c>
       <c r="F266" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G266" t="s">
         <v>33</v>
@@ -24061,16 +24106,16 @@
         <v>3.75</v>
       </c>
       <c r="P266">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q266">
         <v>-0.75</v>
       </c>
       <c r="R266">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S266">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T266">
         <v>2.5</v>
@@ -24135,25 +24180,25 @@
         <v>4</v>
       </c>
       <c r="P267">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q267">
         <v>-0.75</v>
       </c>
       <c r="R267">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S267">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T267">
         <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V267">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W267">
         <v>0</v>
@@ -24191,7 +24236,7 @@
         <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K268">
         <v>1.45</v>
@@ -24203,7 +24248,7 @@
         <v>7.5</v>
       </c>
       <c r="N268">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="O268">
         <v>4.2</v>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC268"/>
+  <dimension ref="A1:AC277"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7094230</v>
+        <v>7053868</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,49 +3482,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
         <v>2</v>
@@ -3536,22 +3536,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7053868</v>
+        <v>7094230</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,49 +3571,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
         <v>2</v>
@@ -3625,22 +3625,22 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y35">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,61 +3675,61 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N36">
+        <v>1.615</v>
+      </c>
+      <c r="O36">
+        <v>4.2</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>-0.75</v>
+      </c>
+      <c r="R36">
+        <v>1.8</v>
+      </c>
+      <c r="S36">
+        <v>2.05</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="O36">
-        <v>3.75</v>
-      </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
+      <c r="W36">
+        <v>0.615</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>0.4</v>
+      </c>
+      <c r="AA36">
         <v>-0.5</v>
       </c>
-      <c r="R36">
-        <v>1.875</v>
-      </c>
-      <c r="S36">
-        <v>1.975</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.825</v>
-      </c>
-      <c r="V36">
-        <v>2.025</v>
-      </c>
-      <c r="W36">
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0.875</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
-      <c r="AC36">
-        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,43 +3764,43 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L37">
+        <v>3.3</v>
+      </c>
+      <c r="M37">
+        <v>2.9</v>
+      </c>
+      <c r="N37">
+        <v>1.85</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.975</v>
+      </c>
+      <c r="T37">
         <v>3</v>
       </c>
-      <c r="M37">
-        <v>1.5</v>
-      </c>
-      <c r="N37">
-        <v>1.615</v>
-      </c>
-      <c r="O37">
-        <v>4.2</v>
-      </c>
-      <c r="P37">
-        <v>5</v>
-      </c>
-      <c r="Q37">
-        <v>-0.75</v>
-      </c>
-      <c r="R37">
-        <v>1.8</v>
-      </c>
-      <c r="S37">
-        <v>2.05</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3809,16 +3809,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,73 +6864,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P72">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q72">
+        <v>-1</v>
+      </c>
+      <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
+        <v>1.9</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>1.925</v>
+      </c>
+      <c r="V72">
+        <v>1.925</v>
+      </c>
+      <c r="W72">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>0</v>
       </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>2.25</v>
-      </c>
-      <c r="U72">
-        <v>2.1</v>
-      </c>
-      <c r="V72">
-        <v>1.775</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>1.8</v>
-      </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N73">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
+        <v>3.3</v>
+      </c>
+      <c r="M92">
+        <v>2.8</v>
+      </c>
+      <c r="N92">
         <v>3.5</v>
-      </c>
-      <c r="M92">
-        <v>4.5</v>
-      </c>
-      <c r="N92">
-        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6754098</v>
+        <v>6754099</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N128">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P128">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
+        <v>2.025</v>
+      </c>
+      <c r="T128">
+        <v>3</v>
+      </c>
+      <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
-      <c r="V128">
-        <v>2.025</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6754099</v>
+        <v>6754098</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N129">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q129">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.875</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
         <v>1.825</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>2.025</v>
       </c>
-      <c r="T129">
-        <v>3</v>
-      </c>
-      <c r="U129">
-        <v>1.875</v>
-      </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6754643</v>
+        <v>6754105</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,76 +12738,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
         <v>0</v>
       </c>
-      <c r="I138">
-        <v>2</v>
-      </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
+        <v>4.2</v>
+      </c>
+      <c r="N138">
+        <v>2.45</v>
+      </c>
+      <c r="O138">
+        <v>3.25</v>
+      </c>
+      <c r="P138">
+        <v>3</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>2.05</v>
+      </c>
+      <c r="S138">
+        <v>1.75</v>
+      </c>
+      <c r="T138">
         <v>2.5</v>
       </c>
-      <c r="N138">
-        <v>2.7</v>
-      </c>
-      <c r="O138">
-        <v>3.5</v>
-      </c>
-      <c r="P138">
-        <v>2.55</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
+      <c r="U138">
         <v>1.975</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.875</v>
       </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>2.025</v>
-      </c>
-      <c r="V138">
-        <v>1.825</v>
-      </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.875</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
-      <c r="AC138">
-        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6754105</v>
+        <v>6754643</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>48</v>
+      </c>
+      <c r="K139">
+        <v>2.7</v>
+      </c>
+      <c r="L139">
+        <v>3.4</v>
+      </c>
+      <c r="M139">
+        <v>2.5</v>
+      </c>
+      <c r="N139">
+        <v>2.7</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>2.55</v>
+      </c>
+      <c r="Q139">
         <v>0</v>
       </c>
-      <c r="J139" t="s">
-        <v>49</v>
-      </c>
-      <c r="K139">
-        <v>1.8</v>
-      </c>
-      <c r="L139">
-        <v>3.75</v>
-      </c>
-      <c r="M139">
-        <v>4.2</v>
-      </c>
-      <c r="N139">
-        <v>2.45</v>
-      </c>
-      <c r="O139">
-        <v>3.25</v>
-      </c>
-      <c r="P139">
-        <v>3</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
       <c r="R139">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z139">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,73 +20214,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
         <v>3</v>
       </c>
-      <c r="I222">
-        <v>2</v>
-      </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L222">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N222">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
+        <v>2.05</v>
+      </c>
+      <c r="S222">
+        <v>1.8</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.9</v>
+      </c>
+      <c r="V222">
         <v>1.95</v>
       </c>
-      <c r="S222">
-        <v>1.9</v>
-      </c>
-      <c r="T222">
-        <v>2.75</v>
-      </c>
-      <c r="U222">
-        <v>1.825</v>
-      </c>
-      <c r="V222">
-        <v>2.025</v>
-      </c>
       <c r="W222">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z222">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB222">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,73 +20303,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G223" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M223">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P223">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S223">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA223">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB223">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612871</v>
+        <v>7612872</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,76 +22795,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H251">
+        <v>4</v>
+      </c>
+      <c r="I251">
         <v>0</v>
       </c>
-      <c r="I251">
+      <c r="J251" t="s">
+        <v>49</v>
+      </c>
+      <c r="K251">
+        <v>2.05</v>
+      </c>
+      <c r="L251">
+        <v>3.4</v>
+      </c>
+      <c r="M251">
+        <v>3.5</v>
+      </c>
+      <c r="N251">
+        <v>1.8</v>
+      </c>
+      <c r="O251">
+        <v>3.8</v>
+      </c>
+      <c r="P251">
+        <v>4</v>
+      </c>
+      <c r="Q251">
+        <v>-0.75</v>
+      </c>
+      <c r="R251">
+        <v>2</v>
+      </c>
+      <c r="S251">
+        <v>1.85</v>
+      </c>
+      <c r="T251">
+        <v>2.75</v>
+      </c>
+      <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
+        <v>2.025</v>
+      </c>
+      <c r="W251">
+        <v>0.8</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>-1</v>
+      </c>
+      <c r="Z251">
         <v>1</v>
       </c>
-      <c r="J251" t="s">
-        <v>48</v>
-      </c>
-      <c r="K251">
-        <v>2.375</v>
-      </c>
-      <c r="L251">
-        <v>3.25</v>
-      </c>
-      <c r="M251">
-        <v>3</v>
-      </c>
-      <c r="N251">
-        <v>2.4</v>
-      </c>
-      <c r="O251">
-        <v>3.25</v>
-      </c>
-      <c r="P251">
-        <v>3.1</v>
-      </c>
-      <c r="Q251">
-        <v>-0.25</v>
-      </c>
-      <c r="R251">
-        <v>2.05</v>
-      </c>
-      <c r="S251">
-        <v>1.8</v>
-      </c>
-      <c r="T251">
-        <v>2.25</v>
-      </c>
-      <c r="U251">
-        <v>1.925</v>
-      </c>
-      <c r="V251">
-        <v>1.925</v>
-      </c>
-      <c r="W251">
-        <v>-1</v>
-      </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>2.1</v>
-      </c>
-      <c r="Z251">
-        <v>-1</v>
-      </c>
       <c r="AA251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC251">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612872</v>
+        <v>7612871</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K252">
+        <v>2.375</v>
+      </c>
+      <c r="L252">
+        <v>3.25</v>
+      </c>
+      <c r="M252">
+        <v>3</v>
+      </c>
+      <c r="N252">
+        <v>2.4</v>
+      </c>
+      <c r="O252">
+        <v>3.25</v>
+      </c>
+      <c r="P252">
+        <v>3.1</v>
+      </c>
+      <c r="Q252">
+        <v>-0.25</v>
+      </c>
+      <c r="R252">
         <v>2.05</v>
       </c>
-      <c r="L252">
-        <v>3.4</v>
-      </c>
-      <c r="M252">
-        <v>3.5</v>
-      </c>
-      <c r="N252">
+      <c r="S252">
         <v>1.8</v>
       </c>
-      <c r="O252">
-        <v>3.8</v>
-      </c>
-      <c r="P252">
-        <v>4</v>
-      </c>
-      <c r="Q252">
-        <v>-0.75</v>
-      </c>
-      <c r="R252">
-        <v>2</v>
-      </c>
-      <c r="S252">
-        <v>1.85</v>
-      </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V252">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W252">
+        <v>-1</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>2.1</v>
+      </c>
+      <c r="Z252">
+        <v>-1</v>
+      </c>
+      <c r="AA252">
         <v>0.8</v>
       </c>
-      <c r="X252">
-        <v>-1</v>
-      </c>
-      <c r="Y252">
-        <v>-1</v>
-      </c>
-      <c r="Z252">
-        <v>1</v>
-      </c>
-      <c r="AA252">
-        <v>-1</v>
-      </c>
       <c r="AB252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23868,6 +23868,15 @@
       <c r="G263" t="s">
         <v>37</v>
       </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>2</v>
+      </c>
+      <c r="J263" t="s">
+        <v>48</v>
+      </c>
       <c r="K263">
         <v>1.85</v>
       </c>
@@ -23878,46 +23887,52 @@
         <v>4</v>
       </c>
       <c r="N263">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="O263">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P263">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q263">
         <v>-0.5</v>
       </c>
       <c r="R263">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S263">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T263">
         <v>2.75</v>
       </c>
       <c r="U263">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V263">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y263">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Z263">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA263">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB263">
+        <v>0.5</v>
+      </c>
+      <c r="AC263">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="264" spans="1:29">
@@ -23942,6 +23957,15 @@
       <c r="G264" t="s">
         <v>46</v>
       </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>2</v>
+      </c>
+      <c r="J264" t="s">
+        <v>48</v>
+      </c>
       <c r="K264">
         <v>1.6</v>
       </c>
@@ -23952,46 +23976,52 @@
         <v>5</v>
       </c>
       <c r="N264">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="O264">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P264">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q264">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R264">
+        <v>2.05</v>
+      </c>
+      <c r="S264">
         <v>1.8</v>
-      </c>
-      <c r="S264">
-        <v>2.05</v>
       </c>
       <c r="T264">
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V264">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y264">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Z264">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB264">
+        <v>0.4625</v>
+      </c>
+      <c r="AC264">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="265" spans="1:29">
@@ -24016,6 +24046,15 @@
       <c r="G265" t="s">
         <v>40</v>
       </c>
+      <c r="H265">
+        <v>3</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>49</v>
+      </c>
       <c r="K265">
         <v>3.3</v>
       </c>
@@ -24026,16 +24065,16 @@
         <v>2.05</v>
       </c>
       <c r="N265">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="O265">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P265">
-        <v>1.95</v>
+        <v>1.727</v>
       </c>
       <c r="Q265">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R265">
         <v>1.875</v>
@@ -24044,28 +24083,34 @@
         <v>1.975</v>
       </c>
       <c r="T265">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V265">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W265">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y265">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA265">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB265">
+        <v>0.4875</v>
+      </c>
+      <c r="AC265">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="266" spans="1:29">
@@ -24090,6 +24135,15 @@
       <c r="G266" t="s">
         <v>33</v>
       </c>
+      <c r="H266">
+        <v>2</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266" t="s">
+        <v>49</v>
+      </c>
       <c r="K266">
         <v>1.833</v>
       </c>
@@ -24100,46 +24154,52 @@
         <v>4.2</v>
       </c>
       <c r="N266">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O266">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P266">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q266">
         <v>-0.75</v>
       </c>
       <c r="R266">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S266">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T266">
         <v>2.5</v>
       </c>
       <c r="U266">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V266">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W266">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y266">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z266">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA266">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB266">
+        <v>-1</v>
+      </c>
+      <c r="AC266">
+        <v>0.825</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24164,6 +24224,15 @@
       <c r="G267" t="s">
         <v>31</v>
       </c>
+      <c r="H267">
+        <v>3</v>
+      </c>
+      <c r="I267">
+        <v>3</v>
+      </c>
+      <c r="J267" t="s">
+        <v>47</v>
+      </c>
       <c r="K267">
         <v>1.75</v>
       </c>
@@ -24174,46 +24243,52 @@
         <v>4.2</v>
       </c>
       <c r="N267">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O267">
         <v>4</v>
       </c>
       <c r="P267">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q267">
         <v>-0.75</v>
       </c>
       <c r="R267">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S267">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T267">
         <v>2.75</v>
       </c>
       <c r="U267">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V267">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X267">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB267">
+        <v>0.925</v>
+      </c>
+      <c r="AC267">
+        <v>-1</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -24238,6 +24313,15 @@
       <c r="G268" t="s">
         <v>29</v>
       </c>
+      <c r="H268">
+        <v>2</v>
+      </c>
+      <c r="I268">
+        <v>1</v>
+      </c>
+      <c r="J268" t="s">
+        <v>49</v>
+      </c>
       <c r="K268">
         <v>1.45</v>
       </c>
@@ -24248,10 +24332,10 @@
         <v>7.5</v>
       </c>
       <c r="N268">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="O268">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P268">
         <v>8</v>
@@ -24260,33 +24344,705 @@
         <v>-1.25</v>
       </c>
       <c r="R268">
+        <v>1.9</v>
+      </c>
+      <c r="S268">
+        <v>1.95</v>
+      </c>
+      <c r="T268">
+        <v>3</v>
+      </c>
+      <c r="U268">
+        <v>2.025</v>
+      </c>
+      <c r="V268">
+        <v>1.825</v>
+      </c>
+      <c r="W268">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X268">
+        <v>-1</v>
+      </c>
+      <c r="Y268">
+        <v>-1</v>
+      </c>
+      <c r="Z268">
+        <v>-0.5</v>
+      </c>
+      <c r="AA268">
+        <v>0.475</v>
+      </c>
+      <c r="AB268">
+        <v>0</v>
+      </c>
+      <c r="AC268">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:29">
+      <c r="A269" s="1">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>7612889</v>
+      </c>
+      <c r="C269" t="s">
+        <v>28</v>
+      </c>
+      <c r="D269" t="s">
+        <v>28</v>
+      </c>
+      <c r="E269" s="2">
+        <v>45366.91666666666</v>
+      </c>
+      <c r="F269" t="s">
+        <v>46</v>
+      </c>
+      <c r="G269" t="s">
+        <v>42</v>
+      </c>
+      <c r="K269">
+        <v>2</v>
+      </c>
+      <c r="L269">
+        <v>3.4</v>
+      </c>
+      <c r="M269">
+        <v>3.3</v>
+      </c>
+      <c r="N269">
+        <v>2.05</v>
+      </c>
+      <c r="O269">
+        <v>3.4</v>
+      </c>
+      <c r="P269">
+        <v>3</v>
+      </c>
+      <c r="Q269">
+        <v>-0.25</v>
+      </c>
+      <c r="R269">
+        <v>1.875</v>
+      </c>
+      <c r="S269">
+        <v>1.975</v>
+      </c>
+      <c r="T269">
+        <v>2.5</v>
+      </c>
+      <c r="U269">
+        <v>2.05</v>
+      </c>
+      <c r="V269">
+        <v>1.8</v>
+      </c>
+      <c r="W269">
+        <v>0</v>
+      </c>
+      <c r="X269">
+        <v>0</v>
+      </c>
+      <c r="Y269">
+        <v>0</v>
+      </c>
+      <c r="Z269">
+        <v>0</v>
+      </c>
+      <c r="AA269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:29">
+      <c r="A270" s="1">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>7612890</v>
+      </c>
+      <c r="C270" t="s">
+        <v>28</v>
+      </c>
+      <c r="D270" t="s">
+        <v>28</v>
+      </c>
+      <c r="E270" s="2">
+        <v>45367</v>
+      </c>
+      <c r="F270" t="s">
+        <v>31</v>
+      </c>
+      <c r="G270" t="s">
+        <v>36</v>
+      </c>
+      <c r="K270">
+        <v>2.375</v>
+      </c>
+      <c r="L270">
+        <v>3.4</v>
+      </c>
+      <c r="M270">
+        <v>2.625</v>
+      </c>
+      <c r="N270">
+        <v>2</v>
+      </c>
+      <c r="O270">
+        <v>3.5</v>
+      </c>
+      <c r="P270">
+        <v>3.25</v>
+      </c>
+      <c r="Q270">
+        <v>-0.5</v>
+      </c>
+      <c r="R270">
+        <v>2.05</v>
+      </c>
+      <c r="S270">
+        <v>1.8</v>
+      </c>
+      <c r="T270">
+        <v>2.75</v>
+      </c>
+      <c r="U270">
         <v>1.925</v>
       </c>
-      <c r="S268">
+      <c r="V270">
         <v>1.925</v>
       </c>
-      <c r="T268">
+      <c r="W270">
+        <v>0</v>
+      </c>
+      <c r="X270">
+        <v>0</v>
+      </c>
+      <c r="Y270">
+        <v>0</v>
+      </c>
+      <c r="Z270">
+        <v>0</v>
+      </c>
+      <c r="AA270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:29">
+      <c r="A271" s="1">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>7612891</v>
+      </c>
+      <c r="C271" t="s">
+        <v>28</v>
+      </c>
+      <c r="D271" t="s">
+        <v>28</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45367.83333333334</v>
+      </c>
+      <c r="F271" t="s">
+        <v>40</v>
+      </c>
+      <c r="G271" t="s">
+        <v>39</v>
+      </c>
+      <c r="K271">
+        <v>1.533</v>
+      </c>
+      <c r="L271">
+        <v>3.75</v>
+      </c>
+      <c r="M271">
+        <v>6</v>
+      </c>
+      <c r="N271">
+        <v>1.5</v>
+      </c>
+      <c r="O271">
+        <v>3.8</v>
+      </c>
+      <c r="P271">
+        <v>7</v>
+      </c>
+      <c r="Q271">
+        <v>-1.25</v>
+      </c>
+      <c r="R271">
+        <v>2.05</v>
+      </c>
+      <c r="S271">
+        <v>1.8</v>
+      </c>
+      <c r="T271">
         <v>2.75</v>
       </c>
-      <c r="U268">
-        <v>1.825</v>
-      </c>
-      <c r="V268">
-        <v>2.025</v>
-      </c>
-      <c r="W268">
+      <c r="U271">
+        <v>1.95</v>
+      </c>
+      <c r="V271">
+        <v>1.9</v>
+      </c>
+      <c r="W271">
         <v>0</v>
       </c>
-      <c r="X268">
+      <c r="X271">
         <v>0</v>
       </c>
-      <c r="Y268">
+      <c r="Y271">
         <v>0</v>
       </c>
-      <c r="Z268">
+      <c r="Z271">
         <v>0</v>
       </c>
-      <c r="AA268">
+      <c r="AA271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:29">
+      <c r="A272" s="1">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>7612892</v>
+      </c>
+      <c r="C272" t="s">
+        <v>28</v>
+      </c>
+      <c r="D272" t="s">
+        <v>28</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45367.91666666666</v>
+      </c>
+      <c r="F272" t="s">
+        <v>37</v>
+      </c>
+      <c r="G272" t="s">
+        <v>38</v>
+      </c>
+      <c r="K272">
+        <v>1.571</v>
+      </c>
+      <c r="L272">
+        <v>4</v>
+      </c>
+      <c r="M272">
+        <v>4.75</v>
+      </c>
+      <c r="N272">
+        <v>1.533</v>
+      </c>
+      <c r="O272">
+        <v>4</v>
+      </c>
+      <c r="P272">
+        <v>5</v>
+      </c>
+      <c r="Q272">
+        <v>-1</v>
+      </c>
+      <c r="R272">
+        <v>1.925</v>
+      </c>
+      <c r="S272">
+        <v>1.925</v>
+      </c>
+      <c r="T272">
+        <v>3</v>
+      </c>
+      <c r="U272">
+        <v>1.8</v>
+      </c>
+      <c r="V272">
+        <v>2.05</v>
+      </c>
+      <c r="W272">
+        <v>0</v>
+      </c>
+      <c r="X272">
+        <v>0</v>
+      </c>
+      <c r="Y272">
+        <v>0</v>
+      </c>
+      <c r="Z272">
+        <v>0</v>
+      </c>
+      <c r="AA272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
+      <c r="A273" s="1">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>7612894</v>
+      </c>
+      <c r="C273" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" t="s">
+        <v>28</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F273" t="s">
+        <v>33</v>
+      </c>
+      <c r="G273" t="s">
+        <v>29</v>
+      </c>
+      <c r="K273">
+        <v>1.4</v>
+      </c>
+      <c r="L273">
+        <v>4.5</v>
+      </c>
+      <c r="M273">
+        <v>6.5</v>
+      </c>
+      <c r="N273">
+        <v>1.4</v>
+      </c>
+      <c r="O273">
+        <v>4.5</v>
+      </c>
+      <c r="P273">
+        <v>6.5</v>
+      </c>
+      <c r="Q273">
+        <v>-1.25</v>
+      </c>
+      <c r="R273">
+        <v>1.95</v>
+      </c>
+      <c r="S273">
+        <v>1.9</v>
+      </c>
+      <c r="T273">
+        <v>2.75</v>
+      </c>
+      <c r="U273">
+        <v>1.85</v>
+      </c>
+      <c r="V273">
+        <v>2</v>
+      </c>
+      <c r="W273">
+        <v>0</v>
+      </c>
+      <c r="X273">
+        <v>0</v>
+      </c>
+      <c r="Y273">
+        <v>0</v>
+      </c>
+      <c r="Z273">
+        <v>0</v>
+      </c>
+      <c r="AA273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
+      <c r="A274" s="1">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>7612895</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45368</v>
+      </c>
+      <c r="F274" t="s">
+        <v>41</v>
+      </c>
+      <c r="G274" t="s">
+        <v>30</v>
+      </c>
+      <c r="K274">
+        <v>3.2</v>
+      </c>
+      <c r="L274">
+        <v>3.3</v>
+      </c>
+      <c r="M274">
+        <v>2.1</v>
+      </c>
+      <c r="N274">
+        <v>3.5</v>
+      </c>
+      <c r="O274">
+        <v>3.4</v>
+      </c>
+      <c r="P274">
+        <v>1.95</v>
+      </c>
+      <c r="Q274">
+        <v>0.5</v>
+      </c>
+      <c r="R274">
+        <v>1.8</v>
+      </c>
+      <c r="S274">
+        <v>2.05</v>
+      </c>
+      <c r="T274">
+        <v>2.5</v>
+      </c>
+      <c r="U274">
+        <v>1.925</v>
+      </c>
+      <c r="V274">
+        <v>1.925</v>
+      </c>
+      <c r="W274">
+        <v>0</v>
+      </c>
+      <c r="X274">
+        <v>0</v>
+      </c>
+      <c r="Y274">
+        <v>0</v>
+      </c>
+      <c r="Z274">
+        <v>0</v>
+      </c>
+      <c r="AA274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>7612896</v>
+      </c>
+      <c r="C275" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45368.83333333334</v>
+      </c>
+      <c r="F275" t="s">
+        <v>34</v>
+      </c>
+      <c r="G275" t="s">
+        <v>44</v>
+      </c>
+      <c r="K275">
+        <v>3.2</v>
+      </c>
+      <c r="L275">
+        <v>3.3</v>
+      </c>
+      <c r="M275">
+        <v>2.1</v>
+      </c>
+      <c r="N275">
+        <v>3.5</v>
+      </c>
+      <c r="O275">
+        <v>3.3</v>
+      </c>
+      <c r="P275">
+        <v>2</v>
+      </c>
+      <c r="Q275">
+        <v>0.5</v>
+      </c>
+      <c r="R275">
+        <v>1.8</v>
+      </c>
+      <c r="S275">
+        <v>2.05</v>
+      </c>
+      <c r="T275">
+        <v>2.25</v>
+      </c>
+      <c r="U275">
+        <v>1.8</v>
+      </c>
+      <c r="V275">
+        <v>2.05</v>
+      </c>
+      <c r="W275">
+        <v>0</v>
+      </c>
+      <c r="X275">
+        <v>0</v>
+      </c>
+      <c r="Y275">
+        <v>0</v>
+      </c>
+      <c r="Z275">
+        <v>0</v>
+      </c>
+      <c r="AA275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>7612893</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45368.91666666666</v>
+      </c>
+      <c r="F276" t="s">
+        <v>35</v>
+      </c>
+      <c r="G276" t="s">
+        <v>43</v>
+      </c>
+      <c r="K276">
+        <v>1.8</v>
+      </c>
+      <c r="L276">
+        <v>3.6</v>
+      </c>
+      <c r="M276">
+        <v>4</v>
+      </c>
+      <c r="N276">
+        <v>1.85</v>
+      </c>
+      <c r="O276">
+        <v>3.6</v>
+      </c>
+      <c r="P276">
+        <v>3.8</v>
+      </c>
+      <c r="Q276">
+        <v>-0.5</v>
+      </c>
+      <c r="R276">
+        <v>1.9</v>
+      </c>
+      <c r="S276">
+        <v>1.95</v>
+      </c>
+      <c r="T276">
+        <v>2.75</v>
+      </c>
+      <c r="U276">
+        <v>1.925</v>
+      </c>
+      <c r="V276">
+        <v>1.925</v>
+      </c>
+      <c r="W276">
+        <v>0</v>
+      </c>
+      <c r="X276">
+        <v>0</v>
+      </c>
+      <c r="Y276">
+        <v>0</v>
+      </c>
+      <c r="Z276">
+        <v>0</v>
+      </c>
+      <c r="AA276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>7612897</v>
+      </c>
+      <c r="C277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="2">
+        <v>45368.91666666666</v>
+      </c>
+      <c r="F277" t="s">
+        <v>32</v>
+      </c>
+      <c r="G277" t="s">
+        <v>45</v>
+      </c>
+      <c r="K277">
+        <v>2.55</v>
+      </c>
+      <c r="L277">
+        <v>3.75</v>
+      </c>
+      <c r="M277">
+        <v>2.3</v>
+      </c>
+      <c r="N277">
+        <v>2.375</v>
+      </c>
+      <c r="O277">
+        <v>3.75</v>
+      </c>
+      <c r="P277">
+        <v>2.45</v>
+      </c>
+      <c r="Q277">
+        <v>0</v>
+      </c>
+      <c r="R277">
+        <v>1.85</v>
+      </c>
+      <c r="S277">
+        <v>2</v>
+      </c>
+      <c r="T277">
+        <v>3</v>
+      </c>
+      <c r="U277">
+        <v>1.875</v>
+      </c>
+      <c r="V277">
+        <v>1.975</v>
+      </c>
+      <c r="W277">
+        <v>0</v>
+      </c>
+      <c r="X277">
+        <v>0</v>
+      </c>
+      <c r="Y277">
+        <v>0</v>
+      </c>
+      <c r="Z277">
+        <v>0</v>
+      </c>
+      <c r="AA277">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC277"/>
+  <dimension ref="A1:AC274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,43 +3675,43 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>2.9</v>
+      </c>
+      <c r="N36">
+        <v>1.85</v>
+      </c>
+      <c r="O36">
+        <v>3.75</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.875</v>
+      </c>
+      <c r="S36">
+        <v>1.975</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="M36">
-        <v>1.5</v>
-      </c>
-      <c r="N36">
-        <v>1.615</v>
-      </c>
-      <c r="O36">
-        <v>4.2</v>
-      </c>
-      <c r="P36">
-        <v>5</v>
-      </c>
-      <c r="Q36">
-        <v>-0.75</v>
-      </c>
-      <c r="R36">
-        <v>1.8</v>
-      </c>
-      <c r="S36">
-        <v>2.05</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,61 +3764,61 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N37">
+        <v>1.615</v>
+      </c>
+      <c r="O37">
+        <v>4.2</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <v>-0.75</v>
+      </c>
+      <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>2.05</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="O37">
-        <v>3.75</v>
-      </c>
-      <c r="P37">
-        <v>4</v>
-      </c>
-      <c r="Q37">
+      <c r="W37">
+        <v>0.615</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>0.4</v>
+      </c>
+      <c r="AA37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.975</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.825</v>
-      </c>
-      <c r="V37">
-        <v>2.025</v>
-      </c>
-      <c r="W37">
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
+        <v>3.3</v>
+      </c>
+      <c r="M93">
+        <v>2.8</v>
+      </c>
+      <c r="N93">
         <v>3.5</v>
-      </c>
-      <c r="M93">
-        <v>4.5</v>
-      </c>
-      <c r="N93">
-        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45204</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
+        <v>1.75</v>
+      </c>
+      <c r="L94">
+        <v>3.6</v>
+      </c>
+      <c r="M94">
+        <v>4.2</v>
+      </c>
+      <c r="N94">
+        <v>1.65</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>4.75</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
         <v>1.8</v>
       </c>
-      <c r="L94">
-        <v>3.3</v>
-      </c>
-      <c r="M94">
-        <v>4.333</v>
-      </c>
-      <c r="N94">
-        <v>1.533</v>
-      </c>
-      <c r="O94">
-        <v>4.2</v>
-      </c>
-      <c r="P94">
-        <v>6</v>
-      </c>
-      <c r="Q94">
-        <v>-1</v>
-      </c>
-      <c r="R94">
-        <v>1.925</v>
-      </c>
       <c r="S94">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X94">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA94">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45204</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
+        <v>4.333</v>
+      </c>
+      <c r="N95">
+        <v>1.533</v>
+      </c>
+      <c r="O95">
         <v>4.2</v>
       </c>
-      <c r="N95">
-        <v>1.65</v>
-      </c>
-      <c r="O95">
-        <v>4</v>
-      </c>
       <c r="P95">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.85</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6754096</v>
+        <v>6754097</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,40 +11670,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
         <v>1</v>
-      </c>
-      <c r="I126">
-        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>48</v>
       </c>
       <c r="K126">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P126">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -11712,13 +11712,13 @@
         <v>1.85</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11727,7 +11727,7 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Z126">
         <v>-1</v>
@@ -11736,10 +11736,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6754097</v>
+        <v>6754096</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,40 +11759,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>48</v>
       </c>
       <c r="K127">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N127">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O127">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P127">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q127">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R127">
         <v>2</v>
@@ -11801,13 +11801,13 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11816,7 +11816,7 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11825,10 +11825,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
         <v>0</v>
       </c>
-      <c r="I130">
-        <v>2</v>
-      </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L130">
         <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N130">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
+        <v>1.8</v>
+      </c>
+      <c r="S130">
         <v>2.05</v>
       </c>
-      <c r="S130">
-        <v>1.8</v>
-      </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L131">
         <v>3.3</v>
       </c>
       <c r="M131">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O131">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
+        <v>2.05</v>
+      </c>
+      <c r="S131">
         <v>1.8</v>
       </c>
-      <c r="S131">
-        <v>2.05</v>
-      </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
         <v>0.8</v>
       </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45305</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K175">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N175">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q175">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W175">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45305</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
         <v>0</v>
       </c>
-      <c r="I176">
-        <v>2</v>
-      </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N176">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P176">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R176">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L200">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M200">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N200">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O200">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q200">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W200">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K201">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L201">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
+        <v>4.5</v>
+      </c>
+      <c r="N201">
+        <v>1.533</v>
+      </c>
+      <c r="O201">
+        <v>4.2</v>
+      </c>
+      <c r="P201">
+        <v>6</v>
+      </c>
+      <c r="Q201">
+        <v>-1</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.9</v>
+      </c>
+      <c r="T201">
         <v>2.75</v>
       </c>
-      <c r="N201">
-        <v>3.3</v>
-      </c>
-      <c r="O201">
-        <v>3.6</v>
-      </c>
-      <c r="P201">
-        <v>2.15</v>
-      </c>
-      <c r="Q201">
-        <v>0.25</v>
-      </c>
-      <c r="R201">
-        <v>1.925</v>
-      </c>
-      <c r="S201">
-        <v>1.925</v>
-      </c>
-      <c r="T201">
-        <v>2.5</v>
-      </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X201">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,73 +20214,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M222">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N222">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA222">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,73 +20303,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
         <v>3</v>
       </c>
-      <c r="I223">
-        <v>2</v>
-      </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L223">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N223">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O223">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
+        <v>2.05</v>
+      </c>
+      <c r="S223">
+        <v>1.8</v>
+      </c>
+      <c r="T223">
+        <v>2.5</v>
+      </c>
+      <c r="U223">
+        <v>1.9</v>
+      </c>
+      <c r="V223">
         <v>1.95</v>
       </c>
-      <c r="S223">
-        <v>1.9</v>
-      </c>
-      <c r="T223">
-        <v>2.75</v>
-      </c>
-      <c r="U223">
-        <v>1.825</v>
-      </c>
-      <c r="V223">
-        <v>2.025</v>
-      </c>
       <c r="W223">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z223">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB223">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7612866</v>
+        <v>7612867</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,73 +21549,73 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M237">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N237">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P237">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R237">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y237">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB237">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7612867</v>
+        <v>7612866</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,73 +21638,73 @@
         <v>45344</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K238">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L238">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N238">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="O238">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q238">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T238">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB238">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612872</v>
+        <v>7612871</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,76 +22795,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G251" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K251">
+        <v>2.375</v>
+      </c>
+      <c r="L251">
+        <v>3.25</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>2.4</v>
+      </c>
+      <c r="O251">
+        <v>3.25</v>
+      </c>
+      <c r="P251">
+        <v>3.1</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
         <v>2.05</v>
       </c>
-      <c r="L251">
-        <v>3.4</v>
-      </c>
-      <c r="M251">
-        <v>3.5</v>
-      </c>
-      <c r="N251">
+      <c r="S251">
         <v>1.8</v>
       </c>
-      <c r="O251">
-        <v>3.8</v>
-      </c>
-      <c r="P251">
-        <v>4</v>
-      </c>
-      <c r="Q251">
-        <v>-0.75</v>
-      </c>
-      <c r="R251">
-        <v>2</v>
-      </c>
-      <c r="S251">
-        <v>1.85</v>
-      </c>
       <c r="T251">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V251">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>2.1</v>
+      </c>
+      <c r="Z251">
+        <v>-1</v>
+      </c>
+      <c r="AA251">
         <v>0.8</v>
       </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>-1</v>
-      </c>
-      <c r="Z251">
-        <v>1</v>
-      </c>
-      <c r="AA251">
-        <v>-1</v>
-      </c>
       <c r="AB251">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612871</v>
+        <v>7612872</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H252">
+        <v>4</v>
+      </c>
+      <c r="I252">
         <v>0</v>
       </c>
-      <c r="I252">
+      <c r="J252" t="s">
+        <v>49</v>
+      </c>
+      <c r="K252">
+        <v>2.05</v>
+      </c>
+      <c r="L252">
+        <v>3.4</v>
+      </c>
+      <c r="M252">
+        <v>3.5</v>
+      </c>
+      <c r="N252">
+        <v>1.8</v>
+      </c>
+      <c r="O252">
+        <v>3.8</v>
+      </c>
+      <c r="P252">
+        <v>4</v>
+      </c>
+      <c r="Q252">
+        <v>-0.75</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>1.85</v>
+      </c>
+      <c r="T252">
+        <v>2.75</v>
+      </c>
+      <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
+        <v>2.025</v>
+      </c>
+      <c r="W252">
+        <v>0.8</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>-1</v>
+      </c>
+      <c r="Z252">
         <v>1</v>
       </c>
-      <c r="J252" t="s">
-        <v>48</v>
-      </c>
-      <c r="K252">
-        <v>2.375</v>
-      </c>
-      <c r="L252">
-        <v>3.25</v>
-      </c>
-      <c r="M252">
-        <v>3</v>
-      </c>
-      <c r="N252">
-        <v>2.4</v>
-      </c>
-      <c r="O252">
-        <v>3.25</v>
-      </c>
-      <c r="P252">
-        <v>3.1</v>
-      </c>
-      <c r="Q252">
-        <v>-0.25</v>
-      </c>
-      <c r="R252">
-        <v>2.05</v>
-      </c>
-      <c r="S252">
-        <v>1.8</v>
-      </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
-      <c r="U252">
-        <v>1.925</v>
-      </c>
-      <c r="V252">
-        <v>1.925</v>
-      </c>
-      <c r="W252">
-        <v>-1</v>
-      </c>
-      <c r="X252">
-        <v>-1</v>
-      </c>
-      <c r="Y252">
-        <v>2.1</v>
-      </c>
-      <c r="Z252">
-        <v>-1</v>
-      </c>
       <c r="AA252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC252">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7612884</v>
+        <v>7612885</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,73 +23952,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K264">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="L264">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N264">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="O264">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P264">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q264">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R264">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S264">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T264">
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V264">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA264">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AC264">
         <v>-0.5</v>
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7612885</v>
+        <v>7612884</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,73 +24041,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K265">
+        <v>1.6</v>
+      </c>
+      <c r="L265">
+        <v>4.2</v>
+      </c>
+      <c r="M265">
+        <v>5</v>
+      </c>
+      <c r="N265">
+        <v>2.05</v>
+      </c>
+      <c r="O265">
+        <v>3.8</v>
+      </c>
+      <c r="P265">
         <v>3.3</v>
       </c>
-      <c r="L265">
-        <v>3.6</v>
-      </c>
-      <c r="M265">
+      <c r="Q265">
+        <v>-0.5</v>
+      </c>
+      <c r="R265">
         <v>2.05</v>
       </c>
-      <c r="N265">
-        <v>4.5</v>
-      </c>
-      <c r="O265">
-        <v>4</v>
-      </c>
-      <c r="P265">
-        <v>1.727</v>
-      </c>
-      <c r="Q265">
-        <v>0.75</v>
-      </c>
-      <c r="R265">
-        <v>1.875</v>
-      </c>
       <c r="S265">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T265">
         <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V265">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB265">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC265">
         <v>-0.5</v>
@@ -24402,6 +24402,15 @@
       <c r="G269" t="s">
         <v>42</v>
       </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269" t="s">
+        <v>49</v>
+      </c>
       <c r="K269">
         <v>2</v>
       </c>
@@ -24412,22 +24421,22 @@
         <v>3.3</v>
       </c>
       <c r="N269">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O269">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P269">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q269">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R269">
+        <v>1.975</v>
+      </c>
+      <c r="S269">
         <v>1.875</v>
-      </c>
-      <c r="S269">
-        <v>1.975</v>
       </c>
       <c r="T269">
         <v>2.5</v>
@@ -24439,19 +24448,25 @@
         <v>1.8</v>
       </c>
       <c r="W269">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA269">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB269">
+        <v>-1</v>
+      </c>
+      <c r="AC269">
+        <v>0.8</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24476,6 +24491,15 @@
       <c r="G270" t="s">
         <v>36</v>
       </c>
+      <c r="H270">
+        <v>2</v>
+      </c>
+      <c r="I270">
+        <v>2</v>
+      </c>
+      <c r="J270" t="s">
+        <v>47</v>
+      </c>
       <c r="K270">
         <v>2.375</v>
       </c>
@@ -24486,16 +24510,16 @@
         <v>2.625</v>
       </c>
       <c r="N270">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="O270">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P270">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q270">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R270">
         <v>2.05</v>
@@ -24504,28 +24528,34 @@
         <v>1.8</v>
       </c>
       <c r="T270">
+        <v>2.5</v>
+      </c>
+      <c r="U270">
+        <v>1.875</v>
+      </c>
+      <c r="V270">
+        <v>1.975</v>
+      </c>
+      <c r="W270">
+        <v>-1</v>
+      </c>
+      <c r="X270">
         <v>2.75</v>
       </c>
-      <c r="U270">
-        <v>1.925</v>
-      </c>
-      <c r="V270">
-        <v>1.925</v>
-      </c>
-      <c r="W270">
-        <v>0</v>
-      </c>
-      <c r="X270">
-        <v>0</v>
-      </c>
       <c r="Y270">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB270">
+        <v>0.875</v>
+      </c>
+      <c r="AC270">
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24550,6 +24580,15 @@
       <c r="G271" t="s">
         <v>39</v>
       </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>2</v>
+      </c>
+      <c r="J271" t="s">
+        <v>48</v>
+      </c>
       <c r="K271">
         <v>1.533</v>
       </c>
@@ -24560,46 +24599,52 @@
         <v>6</v>
       </c>
       <c r="N271">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="O271">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P271">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q271">
         <v>-1.25</v>
       </c>
       <c r="R271">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S271">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T271">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U271">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V271">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W271">
+        <v>-1</v>
+      </c>
+      <c r="X271">
+        <v>-1</v>
+      </c>
+      <c r="Y271">
+        <v>7</v>
+      </c>
+      <c r="Z271">
+        <v>-1</v>
+      </c>
+      <c r="AA271">
+        <v>1</v>
+      </c>
+      <c r="AB271">
         <v>0</v>
       </c>
-      <c r="X271">
-        <v>0</v>
-      </c>
-      <c r="Y271">
-        <v>0</v>
-      </c>
-      <c r="Z271">
-        <v>0</v>
-      </c>
-      <c r="AA271">
-        <v>0</v>
+      <c r="AC271">
+        <v>-0</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -24607,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7612892</v>
+        <v>7612896</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24616,49 +24661,49 @@
         <v>28</v>
       </c>
       <c r="E272" s="2">
-        <v>45367.91666666666</v>
+        <v>45368.83333333334</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G272" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="K272">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M272">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="N272">
-        <v>1.533</v>
+        <v>3.5</v>
       </c>
       <c r="O272">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P272">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q272">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R272">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S272">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T272">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U272">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V272">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W272">
         <v>0</v>
@@ -24681,7 +24726,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7612894</v>
+        <v>7612897</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24690,40 +24735,40 @@
         <v>28</v>
       </c>
       <c r="E273" s="2">
-        <v>45368</v>
+        <v>45368.91666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G273" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="K273">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="L273">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M273">
-        <v>6.5</v>
+        <v>2.3</v>
       </c>
       <c r="N273">
-        <v>1.4</v>
+        <v>2.875</v>
       </c>
       <c r="O273">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P273">
-        <v>6.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q273">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R273">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S273">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T273">
         <v>2.75</v>
@@ -24755,7 +24800,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>7612895</v>
+        <v>7612893</v>
       </c>
       <c r="C274" t="s">
         <v>28</v>
@@ -24764,49 +24809,49 @@
         <v>28</v>
       </c>
       <c r="E274" s="2">
-        <v>45368</v>
+        <v>45368.91666666666</v>
       </c>
       <c r="F274" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G274" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K274">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="L274">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M274">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N274">
-        <v>3.5</v>
+        <v>1.833</v>
       </c>
       <c r="O274">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P274">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q274">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R274">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S274">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T274">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U274">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V274">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W274">
         <v>0</v>
@@ -24821,228 +24866,6 @@
         <v>0</v>
       </c>
       <c r="AA274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:27">
-      <c r="A275" s="1">
-        <v>273</v>
-      </c>
-      <c r="B275">
-        <v>7612896</v>
-      </c>
-      <c r="C275" t="s">
-        <v>28</v>
-      </c>
-      <c r="D275" t="s">
-        <v>28</v>
-      </c>
-      <c r="E275" s="2">
-        <v>45368.83333333334</v>
-      </c>
-      <c r="F275" t="s">
-        <v>34</v>
-      </c>
-      <c r="G275" t="s">
-        <v>44</v>
-      </c>
-      <c r="K275">
-        <v>3.2</v>
-      </c>
-      <c r="L275">
-        <v>3.3</v>
-      </c>
-      <c r="M275">
-        <v>2.1</v>
-      </c>
-      <c r="N275">
-        <v>3.5</v>
-      </c>
-      <c r="O275">
-        <v>3.3</v>
-      </c>
-      <c r="P275">
-        <v>2</v>
-      </c>
-      <c r="Q275">
-        <v>0.5</v>
-      </c>
-      <c r="R275">
-        <v>1.8</v>
-      </c>
-      <c r="S275">
-        <v>2.05</v>
-      </c>
-      <c r="T275">
-        <v>2.25</v>
-      </c>
-      <c r="U275">
-        <v>1.8</v>
-      </c>
-      <c r="V275">
-        <v>2.05</v>
-      </c>
-      <c r="W275">
-        <v>0</v>
-      </c>
-      <c r="X275">
-        <v>0</v>
-      </c>
-      <c r="Y275">
-        <v>0</v>
-      </c>
-      <c r="Z275">
-        <v>0</v>
-      </c>
-      <c r="AA275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:27">
-      <c r="A276" s="1">
-        <v>274</v>
-      </c>
-      <c r="B276">
-        <v>7612893</v>
-      </c>
-      <c r="C276" t="s">
-        <v>28</v>
-      </c>
-      <c r="D276" t="s">
-        <v>28</v>
-      </c>
-      <c r="E276" s="2">
-        <v>45368.91666666666</v>
-      </c>
-      <c r="F276" t="s">
-        <v>35</v>
-      </c>
-      <c r="G276" t="s">
-        <v>43</v>
-      </c>
-      <c r="K276">
-        <v>1.8</v>
-      </c>
-      <c r="L276">
-        <v>3.6</v>
-      </c>
-      <c r="M276">
-        <v>4</v>
-      </c>
-      <c r="N276">
-        <v>1.85</v>
-      </c>
-      <c r="O276">
-        <v>3.6</v>
-      </c>
-      <c r="P276">
-        <v>3.8</v>
-      </c>
-      <c r="Q276">
-        <v>-0.5</v>
-      </c>
-      <c r="R276">
-        <v>1.9</v>
-      </c>
-      <c r="S276">
-        <v>1.95</v>
-      </c>
-      <c r="T276">
-        <v>2.75</v>
-      </c>
-      <c r="U276">
-        <v>1.925</v>
-      </c>
-      <c r="V276">
-        <v>1.925</v>
-      </c>
-      <c r="W276">
-        <v>0</v>
-      </c>
-      <c r="X276">
-        <v>0</v>
-      </c>
-      <c r="Y276">
-        <v>0</v>
-      </c>
-      <c r="Z276">
-        <v>0</v>
-      </c>
-      <c r="AA276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:27">
-      <c r="A277" s="1">
-        <v>275</v>
-      </c>
-      <c r="B277">
-        <v>7612897</v>
-      </c>
-      <c r="C277" t="s">
-        <v>28</v>
-      </c>
-      <c r="D277" t="s">
-        <v>28</v>
-      </c>
-      <c r="E277" s="2">
-        <v>45368.91666666666</v>
-      </c>
-      <c r="F277" t="s">
-        <v>32</v>
-      </c>
-      <c r="G277" t="s">
-        <v>45</v>
-      </c>
-      <c r="K277">
-        <v>2.55</v>
-      </c>
-      <c r="L277">
-        <v>3.75</v>
-      </c>
-      <c r="M277">
-        <v>2.3</v>
-      </c>
-      <c r="N277">
-        <v>2.375</v>
-      </c>
-      <c r="O277">
-        <v>3.75</v>
-      </c>
-      <c r="P277">
-        <v>2.45</v>
-      </c>
-      <c r="Q277">
-        <v>0</v>
-      </c>
-      <c r="R277">
-        <v>1.85</v>
-      </c>
-      <c r="S277">
-        <v>2</v>
-      </c>
-      <c r="T277">
-        <v>3</v>
-      </c>
-      <c r="U277">
-        <v>1.875</v>
-      </c>
-      <c r="V277">
-        <v>1.975</v>
-      </c>
-      <c r="W277">
-        <v>0</v>
-      </c>
-      <c r="X277">
-        <v>0</v>
-      </c>
-      <c r="Y277">
-        <v>0</v>
-      </c>
-      <c r="Z277">
-        <v>0</v>
-      </c>
-      <c r="AA277">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
-    <t>Mazatlan FC</t>
+    <t>Club America</t>
   </si>
   <si>
-    <t>Club America</t>
+    <t>Mazatlan FC</t>
   </si>
   <si>
     <t>Tijuana</t>
@@ -157,10 +157,10 @@
     <t>Queretaro</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC274"/>
+  <dimension ref="A1:AC287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M2">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N2">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>-1.25</v>
+      </c>
+      <c r="R2">
+        <v>1.975</v>
+      </c>
+      <c r="S2">
+        <v>1.875</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
         <v>2.05</v>
       </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.825</v>
-      </c>
-      <c r="S2">
-        <v>2.025</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>3.5</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>2.55</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>2.45</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>45121.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>45122.91666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>1.75</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>1.9</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>2.8</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>2.7</v>
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>2.05</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7053868</v>
+        <v>7094230</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,49 +3482,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
       </c>
       <c r="K34">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L34">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N34">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P34">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S34">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
         <v>2</v>
@@ -3536,22 +3536,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y34">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7094230</v>
+        <v>7053868</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,49 +3571,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="K35">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N35">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
         <v>2</v>
@@ -3625,22 +3625,22 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,61 +3675,61 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N36">
+        <v>1.615</v>
+      </c>
+      <c r="O36">
+        <v>4.2</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>-0.75</v>
+      </c>
+      <c r="R36">
+        <v>1.8</v>
+      </c>
+      <c r="S36">
+        <v>2.05</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="O36">
-        <v>3.75</v>
-      </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
+      <c r="W36">
+        <v>0.615</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>0.4</v>
+      </c>
+      <c r="AA36">
         <v>-0.5</v>
       </c>
-      <c r="R36">
-        <v>1.875</v>
-      </c>
-      <c r="S36">
-        <v>1.975</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.825</v>
-      </c>
-      <c r="V36">
-        <v>2.025</v>
-      </c>
-      <c r="W36">
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0.875</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
-      <c r="AC36">
-        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,43 +3764,43 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L37">
+        <v>3.3</v>
+      </c>
+      <c r="M37">
+        <v>2.9</v>
+      </c>
+      <c r="N37">
+        <v>1.85</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.975</v>
+      </c>
+      <c r="T37">
         <v>3</v>
       </c>
-      <c r="M37">
-        <v>1.5</v>
-      </c>
-      <c r="N37">
-        <v>1.615</v>
-      </c>
-      <c r="O37">
-        <v>4.2</v>
-      </c>
-      <c r="P37">
-        <v>5</v>
-      </c>
-      <c r="Q37">
-        <v>-0.75</v>
-      </c>
-      <c r="R37">
-        <v>1.8</v>
-      </c>
-      <c r="S37">
-        <v>2.05</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3809,16 +3809,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4286,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>1.55</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4461,7 +4461,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>1.7</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.6</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>1.727</v>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>1.363</v>
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5974,7 +5974,7 @@
         <v>45184.90972222222</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5986,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6330,7 +6330,7 @@
         <v>45186.00694444445</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>3.2</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,73 +6864,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N72">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O72">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q73">
+        <v>-1</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>1.9</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
+        <v>1.925</v>
+      </c>
+      <c r="W73">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>2.1</v>
-      </c>
-      <c r="V73">
-        <v>1.775</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>1.8</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7499,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7668,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>1.444</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>2.1</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>2.6</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>45199.90277777778</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8288,7 +8288,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8300,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>3.25</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>2.25</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45203</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8745,7 +8745,7 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>2.375</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45204</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
+        <v>4.333</v>
+      </c>
+      <c r="N94">
+        <v>1.533</v>
+      </c>
+      <c r="O94">
         <v>4.2</v>
       </c>
-      <c r="N94">
-        <v>1.65</v>
-      </c>
-      <c r="O94">
-        <v>4</v>
-      </c>
       <c r="P94">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
         <v>1.85</v>
       </c>
-      <c r="V94">
-        <v>2</v>
-      </c>
       <c r="W94">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45204</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K95">
+        <v>1.75</v>
+      </c>
+      <c r="L95">
+        <v>3.6</v>
+      </c>
+      <c r="M95">
+        <v>4.2</v>
+      </c>
+      <c r="N95">
+        <v>1.65</v>
+      </c>
+      <c r="O95">
+        <v>4</v>
+      </c>
+      <c r="P95">
+        <v>4.75</v>
+      </c>
+      <c r="Q95">
+        <v>-0.75</v>
+      </c>
+      <c r="R95">
         <v>1.8</v>
       </c>
-      <c r="L95">
-        <v>3.3</v>
-      </c>
-      <c r="M95">
-        <v>4.333</v>
-      </c>
-      <c r="N95">
-        <v>1.533</v>
-      </c>
-      <c r="O95">
-        <v>4.2</v>
-      </c>
-      <c r="P95">
-        <v>6</v>
-      </c>
-      <c r="Q95">
-        <v>-1</v>
-      </c>
-      <c r="R95">
-        <v>1.925</v>
-      </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X95">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA95">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9000,10 +9000,10 @@
         <v>45206</v>
       </c>
       <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
         <v>29</v>
-      </c>
-      <c r="G96" t="s">
-        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>3.75</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>2.875</v>
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>2.2</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2.2</v>
@@ -9804,7 +9804,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>2.5</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10157,7 +10157,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45227</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11237,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.5</v>
@@ -11317,7 +11317,7 @@
         <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>3.2</v>
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6754097</v>
+        <v>6754096</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,40 +11670,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>47</v>
+      </c>
+      <c r="K126">
+        <v>3.25</v>
+      </c>
+      <c r="L126">
+        <v>3.3</v>
+      </c>
+      <c r="M126">
+        <v>2.2</v>
+      </c>
+      <c r="N126">
+        <v>2.8</v>
+      </c>
+      <c r="O126">
+        <v>3.1</v>
+      </c>
+      <c r="P126">
+        <v>2.7</v>
+      </c>
+      <c r="Q126">
         <v>0</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="J126" t="s">
-        <v>48</v>
-      </c>
-      <c r="K126">
-        <v>1.5</v>
-      </c>
-      <c r="L126">
-        <v>4</v>
-      </c>
-      <c r="M126">
-        <v>7</v>
-      </c>
-      <c r="N126">
-        <v>1.45</v>
-      </c>
-      <c r="O126">
-        <v>4.5</v>
-      </c>
-      <c r="P126">
-        <v>7</v>
-      </c>
-      <c r="Q126">
-        <v>-1.25</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -11712,13 +11712,13 @@
         <v>1.85</v>
       </c>
       <c r="T126">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11727,7 +11727,7 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Z126">
         <v>-1</v>
@@ -11736,10 +11736,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6754096</v>
+        <v>6754097</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,40 +11759,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>1</v>
       </c>
-      <c r="I127">
-        <v>2</v>
-      </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L127">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O127">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P127">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
         <v>2</v>
@@ -11801,13 +11801,13 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11816,7 +11816,7 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11825,10 +11825,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11949,7 +11949,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K129">
         <v>2.1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L130">
         <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
         <v>1.8</v>
       </c>
-      <c r="S130">
-        <v>2.05</v>
-      </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
         <v>0.8</v>
       </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
         <v>0</v>
       </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
         <v>3.3</v>
       </c>
       <c r="M131">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N131">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
         <v>2.05</v>
       </c>
-      <c r="S131">
-        <v>1.8</v>
-      </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6754129</v>
+        <v>6754103</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45232</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L132">
         <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N132">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O132">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q132">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T132">
         <v>3</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA132">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6754103</v>
+        <v>6754129</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45232</v>
       </c>
       <c r="F133" t="s">
+        <v>32</v>
+      </c>
+      <c r="G133" t="s">
         <v>29</v>
       </c>
-      <c r="G133" t="s">
-        <v>36</v>
-      </c>
       <c r="H133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N133">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P133">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>3</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z133">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB133">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
         <v>1.666</v>
@@ -12649,7 +12649,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>31</v>
@@ -12839,7 +12839,7 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
         <v>2.7</v>
@@ -13008,7 +13008,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>1.909</v>
@@ -13450,7 +13450,7 @@
         <v>45240.92013888889</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>2.35</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6754114</v>
+        <v>6754113</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>47</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L148">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N148">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6754113</v>
+        <v>6754114</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>48</v>
       </c>
       <c r="K149">
+        <v>4</v>
+      </c>
+      <c r="L149">
+        <v>3.7</v>
+      </c>
+      <c r="M149">
+        <v>1.75</v>
+      </c>
+      <c r="N149">
+        <v>2.7</v>
+      </c>
+      <c r="O149">
+        <v>3.5</v>
+      </c>
+      <c r="P149">
+        <v>2.45</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
         <v>1.95</v>
       </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>3.4</v>
-      </c>
-      <c r="N149">
-        <v>2.375</v>
-      </c>
-      <c r="O149">
-        <v>3.6</v>
-      </c>
-      <c r="P149">
-        <v>2.875</v>
-      </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.975</v>
-      </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y149">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13898,7 +13898,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14254,7 +14254,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K157">
         <v>2.7</v>
@@ -14619,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>3.5</v>
@@ -14785,7 +14785,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>1.533</v>
@@ -15144,7 +15144,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>5</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>3.4</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15319,7 +15319,7 @@
         <v>45269.95833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15331,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K167">
         <v>1.3</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>1.5</v>
@@ -15500,7 +15500,7 @@
         <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>2.6</v>
@@ -15586,7 +15586,7 @@
         <v>45277.9375</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>2.8</v>
@@ -15764,7 +15764,7 @@
         <v>45304</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45305</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
         <v>0</v>
       </c>
-      <c r="I175">
-        <v>2</v>
-      </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L175">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N175">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P175">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R175">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA175">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45305</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N176">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O176">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W176">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z176">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K179">
         <v>2.8</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -16746,7 +16746,7 @@
         <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16832,7 +16832,7 @@
         <v>45311.92013888889</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K185">
         <v>2.3</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>47</v>
       </c>
       <c r="K188">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188">
+        <v>3.3</v>
+      </c>
+      <c r="P188">
+        <v>2.4</v>
+      </c>
+      <c r="Q188">
+        <v>0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.775</v>
+      </c>
+      <c r="S188">
+        <v>2.1</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
+        <v>2.05</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1.4</v>
       </c>
-      <c r="O188">
-        <v>4.333</v>
-      </c>
-      <c r="P188">
-        <v>8.5</v>
-      </c>
-      <c r="Q188">
-        <v>-1.25</v>
-      </c>
-      <c r="R188">
-        <v>1.925</v>
-      </c>
-      <c r="S188">
-        <v>1.925</v>
-      </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>2.025</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>3.333</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M189">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P189">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y189">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K190">
         <v>4.333</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>3</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17636,7 +17636,7 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>4.2</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -18256,7 +18256,7 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
         <v>37</v>
@@ -18268,7 +18268,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K200">
         <v>2.5</v>
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K206">
         <v>3.25</v>
@@ -18882,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19069,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K209">
         <v>2.4</v>
@@ -19158,7 +19158,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K210">
         <v>1.666</v>
@@ -19324,7 +19324,7 @@
         <v>45326.00694444445</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
         <v>44</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>1.75</v>
@@ -19514,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>2.6</v>
@@ -19680,7 +19680,7 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K217">
         <v>1.95</v>
@@ -19870,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K218">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>3.25</v>
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,73 +20214,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
         <v>3</v>
       </c>
-      <c r="I222">
-        <v>2</v>
-      </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L222">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N222">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
+        <v>2.05</v>
+      </c>
+      <c r="S222">
+        <v>1.8</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.9</v>
+      </c>
+      <c r="V222">
         <v>1.95</v>
       </c>
-      <c r="S222">
-        <v>1.9</v>
-      </c>
-      <c r="T222">
-        <v>2.75</v>
-      </c>
-      <c r="U222">
-        <v>1.825</v>
-      </c>
-      <c r="V222">
-        <v>2.025</v>
-      </c>
       <c r="W222">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z222">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB222">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,73 +20303,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G223" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M223">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P223">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S223">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA223">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB223">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K225">
         <v>2.4</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>45339</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20760,7 +20760,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K228">
         <v>1.95</v>
@@ -20840,7 +20840,7 @@
         <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
         <v>2.375</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K233">
         <v>1.666</v>
@@ -21294,7 +21294,7 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K234">
         <v>3.1</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7612867</v>
+        <v>7612866</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,73 +21549,73 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G237" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
         <v>47</v>
       </c>
       <c r="K237">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L237">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N237">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="O237">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q237">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T237">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB237">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7612866</v>
+        <v>7612867</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,73 +21638,73 @@
         <v>45344</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>48</v>
       </c>
       <c r="K238">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M238">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N238">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P238">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R238">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y238">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB238">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K239">
         <v>2.1</v>
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K240">
         <v>2.75</v>
@@ -21917,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K241">
         <v>5</v>
@@ -22095,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K243">
         <v>1.444</v>
@@ -22261,7 +22261,7 @@
         <v>45347.00694444445</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G245" t="s">
         <v>40</v>
@@ -22442,7 +22442,7 @@
         <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22718,7 +22718,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K250">
         <v>3.75</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612871</v>
+        <v>7612872</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,76 +22795,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H251">
+        <v>4</v>
+      </c>
+      <c r="I251">
         <v>0</v>
       </c>
-      <c r="I251">
+      <c r="J251" t="s">
+        <v>49</v>
+      </c>
+      <c r="K251">
+        <v>2.05</v>
+      </c>
+      <c r="L251">
+        <v>3.4</v>
+      </c>
+      <c r="M251">
+        <v>3.5</v>
+      </c>
+      <c r="N251">
+        <v>1.8</v>
+      </c>
+      <c r="O251">
+        <v>3.8</v>
+      </c>
+      <c r="P251">
+        <v>4</v>
+      </c>
+      <c r="Q251">
+        <v>-0.75</v>
+      </c>
+      <c r="R251">
+        <v>2</v>
+      </c>
+      <c r="S251">
+        <v>1.85</v>
+      </c>
+      <c r="T251">
+        <v>2.75</v>
+      </c>
+      <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
+        <v>2.025</v>
+      </c>
+      <c r="W251">
+        <v>0.8</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>-1</v>
+      </c>
+      <c r="Z251">
         <v>1</v>
       </c>
-      <c r="J251" t="s">
-        <v>48</v>
-      </c>
-      <c r="K251">
-        <v>2.375</v>
-      </c>
-      <c r="L251">
-        <v>3.25</v>
-      </c>
-      <c r="M251">
-        <v>3</v>
-      </c>
-      <c r="N251">
-        <v>2.4</v>
-      </c>
-      <c r="O251">
-        <v>3.25</v>
-      </c>
-      <c r="P251">
-        <v>3.1</v>
-      </c>
-      <c r="Q251">
-        <v>-0.25</v>
-      </c>
-      <c r="R251">
-        <v>2.05</v>
-      </c>
-      <c r="S251">
-        <v>1.8</v>
-      </c>
-      <c r="T251">
-        <v>2.25</v>
-      </c>
-      <c r="U251">
-        <v>1.925</v>
-      </c>
-      <c r="V251">
-        <v>1.925</v>
-      </c>
-      <c r="W251">
-        <v>-1</v>
-      </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>2.1</v>
-      </c>
-      <c r="Z251">
-        <v>-1</v>
-      </c>
       <c r="AA251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC251">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612872</v>
+        <v>7612871</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K252">
+        <v>2.375</v>
+      </c>
+      <c r="L252">
+        <v>3.25</v>
+      </c>
+      <c r="M252">
+        <v>3</v>
+      </c>
+      <c r="N252">
+        <v>2.4</v>
+      </c>
+      <c r="O252">
+        <v>3.25</v>
+      </c>
+      <c r="P252">
+        <v>3.1</v>
+      </c>
+      <c r="Q252">
+        <v>-0.25</v>
+      </c>
+      <c r="R252">
         <v>2.05</v>
       </c>
-      <c r="L252">
-        <v>3.4</v>
-      </c>
-      <c r="M252">
-        <v>3.5</v>
-      </c>
-      <c r="N252">
+      <c r="S252">
         <v>1.8</v>
       </c>
-      <c r="O252">
-        <v>3.8</v>
-      </c>
-      <c r="P252">
-        <v>4</v>
-      </c>
-      <c r="Q252">
-        <v>-0.75</v>
-      </c>
-      <c r="R252">
-        <v>2</v>
-      </c>
-      <c r="S252">
-        <v>1.85</v>
-      </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V252">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W252">
+        <v>-1</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>2.1</v>
+      </c>
+      <c r="Z252">
+        <v>-1</v>
+      </c>
+      <c r="AA252">
         <v>0.8</v>
       </c>
-      <c r="X252">
-        <v>-1</v>
-      </c>
-      <c r="Y252">
-        <v>-1</v>
-      </c>
-      <c r="Z252">
-        <v>1</v>
-      </c>
-      <c r="AA252">
-        <v>-1</v>
-      </c>
       <c r="AB252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>45353.00694444445</v>
       </c>
       <c r="F253" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G253" t="s">
         <v>39</v>
@@ -23332,7 +23332,7 @@
         <v>34</v>
       </c>
       <c r="G257" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23341,7 +23341,7 @@
         <v>5</v>
       </c>
       <c r="J257" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K257">
         <v>3.5</v>
@@ -23519,7 +23519,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K259">
         <v>2.8</v>
@@ -23608,7 +23608,7 @@
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K260">
         <v>2.6</v>
@@ -23786,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K262">
         <v>3.75</v>
@@ -23875,7 +23875,7 @@
         <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K263">
         <v>1.85</v>
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7612885</v>
+        <v>7612884</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,73 +23952,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K264">
+        <v>1.6</v>
+      </c>
+      <c r="L264">
+        <v>4.2</v>
+      </c>
+      <c r="M264">
+        <v>5</v>
+      </c>
+      <c r="N264">
+        <v>2.05</v>
+      </c>
+      <c r="O264">
+        <v>3.8</v>
+      </c>
+      <c r="P264">
         <v>3.3</v>
       </c>
-      <c r="L264">
-        <v>3.6</v>
-      </c>
-      <c r="M264">
+      <c r="Q264">
+        <v>-0.5</v>
+      </c>
+      <c r="R264">
         <v>2.05</v>
       </c>
-      <c r="N264">
-        <v>4.5</v>
-      </c>
-      <c r="O264">
-        <v>4</v>
-      </c>
-      <c r="P264">
-        <v>1.727</v>
-      </c>
-      <c r="Q264">
-        <v>0.75</v>
-      </c>
-      <c r="R264">
-        <v>1.875</v>
-      </c>
       <c r="S264">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T264">
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W264">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z264">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB264">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC264">
         <v>-0.5</v>
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7612884</v>
+        <v>7612885</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,73 +24041,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G265" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K265">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="L265">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M265">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N265">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="O265">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P265">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q265">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R265">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S265">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T265">
         <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA265">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AC265">
         <v>-0.5</v>
@@ -24130,7 +24130,7 @@
         <v>45361</v>
       </c>
       <c r="F266" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G266" t="s">
         <v>33</v>
@@ -24231,7 +24231,7 @@
         <v>3</v>
       </c>
       <c r="J267" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K267">
         <v>1.75</v>
@@ -24311,7 +24311,7 @@
         <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24498,7 +24498,7 @@
         <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K270">
         <v>2.375</v>
@@ -24587,7 +24587,7 @@
         <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K271">
         <v>1.533</v>
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7612896</v>
+        <v>7612892</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24661,72 +24661,87 @@
         <v>28</v>
       </c>
       <c r="E272" s="2">
-        <v>45368.83333333334</v>
+        <v>45367.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G272" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="H272">
+        <v>2</v>
+      </c>
+      <c r="I272">
+        <v>1</v>
+      </c>
+      <c r="J272" t="s">
+        <v>49</v>
       </c>
       <c r="K272">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="L272">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M272">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="N272">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="O272">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P272">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q272">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R272">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S272">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T272">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U272">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V272">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W272">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X272">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y272">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z272">
         <v>0</v>
       </c>
       <c r="AA272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:27">
+        <v>-0</v>
+      </c>
+      <c r="AB272">
+        <v>-0.5</v>
+      </c>
+      <c r="AC272">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:29">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7612897</v>
+        <v>7612894</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24735,137 +24750,1189 @@
         <v>28</v>
       </c>
       <c r="E273" s="2">
-        <v>45368.91666666666</v>
+        <v>45367.91666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G273" t="s">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="H273">
+        <v>5</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273" t="s">
+        <v>49</v>
       </c>
       <c r="K273">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="L273">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M273">
-        <v>2.3</v>
+        <v>6.5</v>
       </c>
       <c r="N273">
-        <v>2.875</v>
+        <v>1.615</v>
       </c>
       <c r="O273">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P273">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="Q273">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R273">
+        <v>2.05</v>
+      </c>
+      <c r="S273">
         <v>1.8</v>
-      </c>
-      <c r="S273">
-        <v>2.05</v>
       </c>
       <c r="T273">
         <v>2.75</v>
       </c>
       <c r="U273">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V273">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W273">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="X273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y273">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z273">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB273">
+        <v>0.925</v>
+      </c>
+      <c r="AC273">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:29">
       <c r="A274" s="1">
         <v>272</v>
       </c>
       <c r="B274">
+        <v>7612895</v>
+      </c>
+      <c r="C274" t="s">
+        <v>28</v>
+      </c>
+      <c r="D274" t="s">
+        <v>28</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45368.00347222222</v>
+      </c>
+      <c r="F274" t="s">
+        <v>41</v>
+      </c>
+      <c r="G274" t="s">
+        <v>29</v>
+      </c>
+      <c r="H274">
+        <v>0</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274" t="s">
+        <v>48</v>
+      </c>
+      <c r="K274">
+        <v>3.2</v>
+      </c>
+      <c r="L274">
+        <v>3.3</v>
+      </c>
+      <c r="M274">
+        <v>2.1</v>
+      </c>
+      <c r="N274">
+        <v>3.8</v>
+      </c>
+      <c r="O274">
+        <v>3.6</v>
+      </c>
+      <c r="P274">
+        <v>1.95</v>
+      </c>
+      <c r="Q274">
+        <v>0.5</v>
+      </c>
+      <c r="R274">
+        <v>1.85</v>
+      </c>
+      <c r="S274">
+        <v>2</v>
+      </c>
+      <c r="T274">
+        <v>2.5</v>
+      </c>
+      <c r="U274">
+        <v>1.9</v>
+      </c>
+      <c r="V274">
+        <v>1.95</v>
+      </c>
+      <c r="W274">
+        <v>-1</v>
+      </c>
+      <c r="X274">
+        <v>2.6</v>
+      </c>
+      <c r="Y274">
+        <v>-1</v>
+      </c>
+      <c r="Z274">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA274">
+        <v>-1</v>
+      </c>
+      <c r="AB274">
+        <v>-1</v>
+      </c>
+      <c r="AC274">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="275" spans="1:29">
+      <c r="A275" s="1">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>7612896</v>
+      </c>
+      <c r="C275" t="s">
+        <v>28</v>
+      </c>
+      <c r="D275" t="s">
+        <v>28</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45368.83333333334</v>
+      </c>
+      <c r="F275" t="s">
+        <v>34</v>
+      </c>
+      <c r="G275" t="s">
+        <v>44</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>2</v>
+      </c>
+      <c r="J275" t="s">
+        <v>47</v>
+      </c>
+      <c r="K275">
+        <v>3.2</v>
+      </c>
+      <c r="L275">
+        <v>3.3</v>
+      </c>
+      <c r="M275">
+        <v>2.1</v>
+      </c>
+      <c r="N275">
+        <v>3.6</v>
+      </c>
+      <c r="O275">
+        <v>3.4</v>
+      </c>
+      <c r="P275">
+        <v>2.1</v>
+      </c>
+      <c r="Q275">
+        <v>0.25</v>
+      </c>
+      <c r="R275">
+        <v>2.05</v>
+      </c>
+      <c r="S275">
+        <v>1.8</v>
+      </c>
+      <c r="T275">
+        <v>2.5</v>
+      </c>
+      <c r="U275">
+        <v>2.05</v>
+      </c>
+      <c r="V275">
+        <v>1.8</v>
+      </c>
+      <c r="W275">
+        <v>-1</v>
+      </c>
+      <c r="X275">
+        <v>-1</v>
+      </c>
+      <c r="Y275">
+        <v>1.1</v>
+      </c>
+      <c r="Z275">
+        <v>-1</v>
+      </c>
+      <c r="AA275">
+        <v>0.8</v>
+      </c>
+      <c r="AB275">
+        <v>1.05</v>
+      </c>
+      <c r="AC275">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:29">
+      <c r="A276" s="1">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>7612897</v>
+      </c>
+      <c r="C276" t="s">
+        <v>28</v>
+      </c>
+      <c r="D276" t="s">
+        <v>28</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45368.91666666666</v>
+      </c>
+      <c r="F276" t="s">
+        <v>32</v>
+      </c>
+      <c r="G276" t="s">
+        <v>45</v>
+      </c>
+      <c r="H276">
+        <v>2</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276" t="s">
+        <v>49</v>
+      </c>
+      <c r="K276">
+        <v>2.55</v>
+      </c>
+      <c r="L276">
+        <v>3.75</v>
+      </c>
+      <c r="M276">
+        <v>2.3</v>
+      </c>
+      <c r="N276">
+        <v>3.5</v>
+      </c>
+      <c r="O276">
+        <v>3.6</v>
+      </c>
+      <c r="P276">
+        <v>2</v>
+      </c>
+      <c r="Q276">
+        <v>0.5</v>
+      </c>
+      <c r="R276">
+        <v>1.825</v>
+      </c>
+      <c r="S276">
+        <v>2.025</v>
+      </c>
+      <c r="T276">
+        <v>2.75</v>
+      </c>
+      <c r="U276">
+        <v>1.8</v>
+      </c>
+      <c r="V276">
+        <v>2.05</v>
+      </c>
+      <c r="W276">
+        <v>2.5</v>
+      </c>
+      <c r="X276">
+        <v>-1</v>
+      </c>
+      <c r="Y276">
+        <v>-1</v>
+      </c>
+      <c r="Z276">
+        <v>0.825</v>
+      </c>
+      <c r="AA276">
+        <v>-1</v>
+      </c>
+      <c r="AB276">
+        <v>0.4</v>
+      </c>
+      <c r="AC276">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:29">
+      <c r="A277" s="1">
+        <v>275</v>
+      </c>
+      <c r="B277">
         <v>7612893</v>
       </c>
-      <c r="C274" t="s">
-        <v>28</v>
-      </c>
-      <c r="D274" t="s">
-        <v>28</v>
-      </c>
-      <c r="E274" s="2">
+      <c r="C277" t="s">
+        <v>28</v>
+      </c>
+      <c r="D277" t="s">
+        <v>28</v>
+      </c>
+      <c r="E277" s="2">
         <v>45368.91666666666</v>
       </c>
-      <c r="F274" t="s">
+      <c r="F277" t="s">
         <v>35</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G277" t="s">
         <v>43</v>
       </c>
-      <c r="K274">
+      <c r="H277">
+        <v>3</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277" t="s">
+        <v>49</v>
+      </c>
+      <c r="K277">
         <v>1.8</v>
       </c>
-      <c r="L274">
+      <c r="L277">
         <v>3.6</v>
       </c>
-      <c r="M274">
+      <c r="M277">
         <v>4</v>
       </c>
-      <c r="N274">
-        <v>1.833</v>
-      </c>
-      <c r="O274">
+      <c r="N277">
+        <v>1.75</v>
+      </c>
+      <c r="O277">
+        <v>3.8</v>
+      </c>
+      <c r="P277">
+        <v>4.5</v>
+      </c>
+      <c r="Q277">
+        <v>-0.75</v>
+      </c>
+      <c r="R277">
+        <v>2</v>
+      </c>
+      <c r="S277">
+        <v>1.85</v>
+      </c>
+      <c r="T277">
+        <v>2.75</v>
+      </c>
+      <c r="U277">
+        <v>1.8</v>
+      </c>
+      <c r="V277">
+        <v>2.05</v>
+      </c>
+      <c r="W277">
+        <v>0.75</v>
+      </c>
+      <c r="X277">
+        <v>-1</v>
+      </c>
+      <c r="Y277">
+        <v>-1</v>
+      </c>
+      <c r="Z277">
+        <v>1</v>
+      </c>
+      <c r="AA277">
+        <v>-1</v>
+      </c>
+      <c r="AB277">
+        <v>0.4</v>
+      </c>
+      <c r="AC277">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:29">
+      <c r="A278" s="1">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>7953222</v>
+      </c>
+      <c r="C278" t="s">
+        <v>28</v>
+      </c>
+      <c r="D278" t="s">
+        <v>28</v>
+      </c>
+      <c r="E278" s="2">
+        <v>45374.91666666666</v>
+      </c>
+      <c r="F278" t="s">
+        <v>42</v>
+      </c>
+      <c r="G278" t="s">
+        <v>38</v>
+      </c>
+      <c r="H278">
+        <v>4</v>
+      </c>
+      <c r="I278">
+        <v>3</v>
+      </c>
+      <c r="J278" t="s">
+        <v>49</v>
+      </c>
+      <c r="K278">
+        <v>1.95</v>
+      </c>
+      <c r="L278">
+        <v>3.6</v>
+      </c>
+      <c r="M278">
+        <v>3.4</v>
+      </c>
+      <c r="N278">
+        <v>1.95</v>
+      </c>
+      <c r="O278">
         <v>3.75</v>
       </c>
-      <c r="P274">
-        <v>4.2</v>
-      </c>
-      <c r="Q274">
+      <c r="P278">
+        <v>3.6</v>
+      </c>
+      <c r="Q278">
         <v>-0.5</v>
       </c>
-      <c r="R274">
+      <c r="R278">
+        <v>1.975</v>
+      </c>
+      <c r="S278">
+        <v>1.875</v>
+      </c>
+      <c r="T278">
+        <v>2.75</v>
+      </c>
+      <c r="U278">
         <v>1.825</v>
       </c>
-      <c r="S274">
+      <c r="V278">
         <v>2.025</v>
       </c>
-      <c r="T274">
+      <c r="W278">
+        <v>0.95</v>
+      </c>
+      <c r="X278">
+        <v>-1</v>
+      </c>
+      <c r="Y278">
+        <v>-1</v>
+      </c>
+      <c r="Z278">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA278">
+        <v>-1</v>
+      </c>
+      <c r="AB278">
+        <v>0.825</v>
+      </c>
+      <c r="AC278">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:29">
+      <c r="A279" s="1">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>7612898</v>
+      </c>
+      <c r="C279" t="s">
+        <v>28</v>
+      </c>
+      <c r="D279" t="s">
+        <v>28</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45380.91666666666</v>
+      </c>
+      <c r="F279" t="s">
+        <v>38</v>
+      </c>
+      <c r="G279" t="s">
+        <v>33</v>
+      </c>
+      <c r="K279">
+        <v>4.333</v>
+      </c>
+      <c r="L279">
+        <v>4</v>
+      </c>
+      <c r="M279">
+        <v>1.666</v>
+      </c>
+      <c r="N279">
+        <v>3.8</v>
+      </c>
+      <c r="O279">
+        <v>3.8</v>
+      </c>
+      <c r="P279">
+        <v>1.75</v>
+      </c>
+      <c r="Q279">
+        <v>0.5</v>
+      </c>
+      <c r="R279">
+        <v>2.05</v>
+      </c>
+      <c r="S279">
+        <v>1.8</v>
+      </c>
+      <c r="T279">
         <v>2.75</v>
       </c>
-      <c r="U274">
+      <c r="U279">
+        <v>2</v>
+      </c>
+      <c r="V279">
         <v>1.85</v>
       </c>
-      <c r="V274">
-        <v>2</v>
-      </c>
-      <c r="W274">
+      <c r="W279">
         <v>0</v>
       </c>
-      <c r="X274">
+      <c r="X279">
         <v>0</v>
       </c>
-      <c r="Y274">
+      <c r="Y279">
         <v>0</v>
       </c>
-      <c r="Z274">
+      <c r="Z279">
         <v>0</v>
       </c>
-      <c r="AA274">
+      <c r="AA279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:29">
+      <c r="A280" s="1">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>7612900</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>28</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45380.95833333334</v>
+      </c>
+      <c r="F280" t="s">
+        <v>29</v>
+      </c>
+      <c r="G280" t="s">
+        <v>32</v>
+      </c>
+      <c r="K280">
+        <v>1.363</v>
+      </c>
+      <c r="L280">
+        <v>4.8</v>
+      </c>
+      <c r="M280">
+        <v>7</v>
+      </c>
+      <c r="N280">
+        <v>1.4</v>
+      </c>
+      <c r="O280">
+        <v>5</v>
+      </c>
+      <c r="P280">
+        <v>7</v>
+      </c>
+      <c r="Q280">
+        <v>-1.25</v>
+      </c>
+      <c r="R280">
+        <v>1.825</v>
+      </c>
+      <c r="S280">
+        <v>2.025</v>
+      </c>
+      <c r="T280">
+        <v>3</v>
+      </c>
+      <c r="U280">
+        <v>1.925</v>
+      </c>
+      <c r="V280">
+        <v>1.925</v>
+      </c>
+      <c r="W280">
+        <v>0</v>
+      </c>
+      <c r="X280">
+        <v>0</v>
+      </c>
+      <c r="Y280">
+        <v>0</v>
+      </c>
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:29">
+      <c r="A281" s="1">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>7612899</v>
+      </c>
+      <c r="C281" t="s">
+        <v>28</v>
+      </c>
+      <c r="D281" t="s">
+        <v>28</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45381</v>
+      </c>
+      <c r="F281" t="s">
+        <v>30</v>
+      </c>
+      <c r="G281" t="s">
+        <v>31</v>
+      </c>
+      <c r="K281">
+        <v>2.15</v>
+      </c>
+      <c r="L281">
+        <v>3.5</v>
+      </c>
+      <c r="M281">
+        <v>3</v>
+      </c>
+      <c r="N281">
+        <v>2.15</v>
+      </c>
+      <c r="O281">
+        <v>3.6</v>
+      </c>
+      <c r="P281">
+        <v>3.1</v>
+      </c>
+      <c r="Q281">
+        <v>-0.25</v>
+      </c>
+      <c r="R281">
+        <v>1.975</v>
+      </c>
+      <c r="S281">
+        <v>1.875</v>
+      </c>
+      <c r="T281">
+        <v>2.75</v>
+      </c>
+      <c r="U281">
+        <v>1.9</v>
+      </c>
+      <c r="V281">
+        <v>1.95</v>
+      </c>
+      <c r="W281">
+        <v>0</v>
+      </c>
+      <c r="X281">
+        <v>0</v>
+      </c>
+      <c r="Y281">
+        <v>0</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:29">
+      <c r="A282" s="1">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>7612901</v>
+      </c>
+      <c r="C282" t="s">
+        <v>28</v>
+      </c>
+      <c r="D282" t="s">
+        <v>28</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45381.91666666666</v>
+      </c>
+      <c r="F282" t="s">
+        <v>45</v>
+      </c>
+      <c r="G282" t="s">
+        <v>35</v>
+      </c>
+      <c r="K282">
+        <v>2.05</v>
+      </c>
+      <c r="L282">
+        <v>3.6</v>
+      </c>
+      <c r="M282">
+        <v>3.1</v>
+      </c>
+      <c r="N282">
+        <v>2.3</v>
+      </c>
+      <c r="O282">
+        <v>3.75</v>
+      </c>
+      <c r="P282">
+        <v>2.75</v>
+      </c>
+      <c r="Q282">
+        <v>-0.25</v>
+      </c>
+      <c r="R282">
+        <v>2.025</v>
+      </c>
+      <c r="S282">
+        <v>1.825</v>
+      </c>
+      <c r="T282">
+        <v>3</v>
+      </c>
+      <c r="U282">
+        <v>1.9</v>
+      </c>
+      <c r="V282">
+        <v>1.95</v>
+      </c>
+      <c r="W282">
+        <v>0</v>
+      </c>
+      <c r="X282">
+        <v>0</v>
+      </c>
+      <c r="Y282">
+        <v>0</v>
+      </c>
+      <c r="Z282">
+        <v>0</v>
+      </c>
+      <c r="AA282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:29">
+      <c r="A283" s="1">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>7612902</v>
+      </c>
+      <c r="C283" t="s">
+        <v>28</v>
+      </c>
+      <c r="D283" t="s">
+        <v>28</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45381.91666666666</v>
+      </c>
+      <c r="F283" t="s">
+        <v>44</v>
+      </c>
+      <c r="G283" t="s">
+        <v>41</v>
+      </c>
+      <c r="K283">
+        <v>1.615</v>
+      </c>
+      <c r="L283">
+        <v>3.75</v>
+      </c>
+      <c r="M283">
+        <v>5</v>
+      </c>
+      <c r="N283">
+        <v>1.666</v>
+      </c>
+      <c r="O283">
+        <v>3.75</v>
+      </c>
+      <c r="P283">
+        <v>5</v>
+      </c>
+      <c r="Q283">
+        <v>-0.75</v>
+      </c>
+      <c r="R283">
+        <v>1.85</v>
+      </c>
+      <c r="S283">
+        <v>2</v>
+      </c>
+      <c r="T283">
+        <v>2.5</v>
+      </c>
+      <c r="U283">
+        <v>1.875</v>
+      </c>
+      <c r="V283">
+        <v>1.975</v>
+      </c>
+      <c r="W283">
+        <v>0</v>
+      </c>
+      <c r="X283">
+        <v>0</v>
+      </c>
+      <c r="Y283">
+        <v>0</v>
+      </c>
+      <c r="Z283">
+        <v>0</v>
+      </c>
+      <c r="AA283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:29">
+      <c r="A284" s="1">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>7612903</v>
+      </c>
+      <c r="C284" t="s">
+        <v>28</v>
+      </c>
+      <c r="D284" t="s">
+        <v>28</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45382</v>
+      </c>
+      <c r="F284" t="s">
+        <v>43</v>
+      </c>
+      <c r="G284" t="s">
+        <v>40</v>
+      </c>
+      <c r="K284">
+        <v>2</v>
+      </c>
+      <c r="L284">
+        <v>3.5</v>
+      </c>
+      <c r="M284">
+        <v>3.3</v>
+      </c>
+      <c r="N284">
+        <v>2.4</v>
+      </c>
+      <c r="O284">
+        <v>3.6</v>
+      </c>
+      <c r="P284">
+        <v>2.625</v>
+      </c>
+      <c r="Q284">
+        <v>0</v>
+      </c>
+      <c r="R284">
+        <v>1.825</v>
+      </c>
+      <c r="S284">
+        <v>2.025</v>
+      </c>
+      <c r="T284">
+        <v>2.5</v>
+      </c>
+      <c r="U284">
+        <v>1.825</v>
+      </c>
+      <c r="V284">
+        <v>2.025</v>
+      </c>
+      <c r="W284">
+        <v>0</v>
+      </c>
+      <c r="X284">
+        <v>0</v>
+      </c>
+      <c r="Y284">
+        <v>0</v>
+      </c>
+      <c r="Z284">
+        <v>0</v>
+      </c>
+      <c r="AA284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>7612904</v>
+      </c>
+      <c r="C285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45382.83333333334</v>
+      </c>
+      <c r="F285" t="s">
+        <v>34</v>
+      </c>
+      <c r="G285" t="s">
+        <v>46</v>
+      </c>
+      <c r="K285">
+        <v>2.05</v>
+      </c>
+      <c r="L285">
+        <v>3.4</v>
+      </c>
+      <c r="M285">
+        <v>3.3</v>
+      </c>
+      <c r="N285">
+        <v>1.85</v>
+      </c>
+      <c r="O285">
+        <v>3.6</v>
+      </c>
+      <c r="P285">
+        <v>3.8</v>
+      </c>
+      <c r="Q285">
+        <v>-0.5</v>
+      </c>
+      <c r="R285">
+        <v>1.825</v>
+      </c>
+      <c r="S285">
+        <v>2.025</v>
+      </c>
+      <c r="T285">
+        <v>2.25</v>
+      </c>
+      <c r="U285">
+        <v>1.825</v>
+      </c>
+      <c r="V285">
+        <v>2.025</v>
+      </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>0</v>
+      </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
+      <c r="AA285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>7612905</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45382.91666666666</v>
+      </c>
+      <c r="F286" t="s">
+        <v>39</v>
+      </c>
+      <c r="G286" t="s">
+        <v>37</v>
+      </c>
+      <c r="K286">
+        <v>2.7</v>
+      </c>
+      <c r="L286">
+        <v>3.5</v>
+      </c>
+      <c r="M286">
+        <v>2.35</v>
+      </c>
+      <c r="N286">
+        <v>2.7</v>
+      </c>
+      <c r="O286">
+        <v>3.5</v>
+      </c>
+      <c r="P286">
+        <v>2.45</v>
+      </c>
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>2.025</v>
+      </c>
+      <c r="S286">
+        <v>1.825</v>
+      </c>
+      <c r="T286">
+        <v>2.75</v>
+      </c>
+      <c r="U286">
+        <v>2.025</v>
+      </c>
+      <c r="V286">
+        <v>1.825</v>
+      </c>
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>0</v>
+      </c>
+      <c r="Z286">
+        <v>0</v>
+      </c>
+      <c r="AA286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>7612906</v>
+      </c>
+      <c r="C287" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45383.00694444445</v>
+      </c>
+      <c r="F287" t="s">
+        <v>42</v>
+      </c>
+      <c r="G287" t="s">
+        <v>36</v>
+      </c>
+      <c r="K287">
+        <v>2.625</v>
+      </c>
+      <c r="L287">
+        <v>3.5</v>
+      </c>
+      <c r="M287">
+        <v>2.4</v>
+      </c>
+      <c r="N287">
+        <v>2.45</v>
+      </c>
+      <c r="O287">
+        <v>3.5</v>
+      </c>
+      <c r="P287">
+        <v>2.5</v>
+      </c>
+      <c r="Q287">
+        <v>0</v>
+      </c>
+      <c r="R287">
+        <v>1.85</v>
+      </c>
+      <c r="S287">
+        <v>2</v>
+      </c>
+      <c r="T287">
+        <v>2.75</v>
+      </c>
+      <c r="U287">
+        <v>2</v>
+      </c>
+      <c r="V287">
+        <v>1.85</v>
+      </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <v>0</v>
+      </c>
+      <c r="Z287">
+        <v>0</v>
+      </c>
+      <c r="AA287">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -103,10 +103,10 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
-    <t>Club America</t>
+    <t>Mazatlan FC</t>
   </si>
   <si>
-    <t>Mazatlan FC</t>
+    <t>Club America</t>
   </si>
   <si>
     <t>Tijuana</t>
@@ -157,10 +157,10 @@
     <t>Queretaro</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y2">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>-1.25</v>
+      </c>
+      <c r="R3">
+        <v>1.975</v>
+      </c>
+      <c r="S3">
+        <v>1.875</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>2.05</v>
       </c>
-      <c r="Q3">
-        <v>0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
-      <c r="S3">
-        <v>2.025</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>3.5</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2.55</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2.45</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>45121.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>45122.91666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>1.75</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>1.9</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>2.8</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2.7</v>
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>2.05</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>2.3</v>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>3.75</v>
@@ -3749,7 +3749,7 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4286,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>1.55</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4461,7 +4461,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>1.7</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>1.6</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>1.727</v>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>1.363</v>
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5974,7 +5974,7 @@
         <v>45184.90972222222</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5986,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6330,7 +6330,7 @@
         <v>45186.00694444445</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>3.2</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,73 +6864,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P72">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q72">
+        <v>-1</v>
+      </c>
+      <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
+        <v>1.9</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>1.925</v>
+      </c>
+      <c r="V72">
+        <v>1.925</v>
+      </c>
+      <c r="W72">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>0</v>
       </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>2.25</v>
-      </c>
-      <c r="U72">
-        <v>2.1</v>
-      </c>
-      <c r="V72">
-        <v>1.775</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>1.8</v>
-      </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N73">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,61 +7131,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X75">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7194,13 +7194,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,61 +7220,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N76">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7283,13 +7283,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7499,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7668,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>1.444</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>2.1</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>2.6</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>45199.90277777778</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8288,7 +8288,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8300,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>3.25</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.25</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45203</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
+        <v>3.3</v>
+      </c>
+      <c r="M92">
+        <v>2.8</v>
+      </c>
+      <c r="N92">
         <v>3.5</v>
-      </c>
-      <c r="M92">
-        <v>4.5</v>
-      </c>
-      <c r="N92">
-        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8834,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K94">
         <v>1.8</v>
@@ -9000,10 +9000,10 @@
         <v>45206</v>
       </c>
       <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" t="s">
         <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>3.75</v>
@@ -9190,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K98">
         <v>2.875</v>
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>2.2</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>2.2</v>
@@ -9804,7 +9804,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K106">
         <v>2.5</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10157,7 +10157,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45227</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11237,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>2.5</v>
@@ -11317,7 +11317,7 @@
         <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>3.2</v>
@@ -11682,7 +11682,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
         <v>3.25</v>
@@ -11771,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>1.5</v>
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6754099</v>
+        <v>6754098</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K128">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L128">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M128">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N128">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O128">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q128">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
+        <v>1.975</v>
+      </c>
+      <c r="S128">
+        <v>1.875</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
         <v>1.825</v>
       </c>
-      <c r="S128">
+      <c r="V128">
         <v>2.025</v>
       </c>
-      <c r="T128">
-        <v>3</v>
-      </c>
-      <c r="U128">
-        <v>1.875</v>
-      </c>
-      <c r="V128">
-        <v>1.975</v>
-      </c>
       <c r="W128">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC128">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6754098</v>
+        <v>6754099</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M129">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N129">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O129">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P129">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
+        <v>2.025</v>
+      </c>
+      <c r="T129">
+        <v>3</v>
+      </c>
+      <c r="U129">
+        <v>1.875</v>
+      </c>
+      <c r="V129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.875</v>
-      </c>
-      <c r="T129">
-        <v>2.75</v>
-      </c>
-      <c r="U129">
-        <v>1.825</v>
-      </c>
-      <c r="V129">
-        <v>2.025</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X129">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12038,7 +12038,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K130">
         <v>2.1</v>
@@ -12204,7 +12204,7 @@
         <v>45232</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
         <v>36</v>
@@ -12296,7 +12296,7 @@
         <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K133">
         <v>3.75</v>
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>1.666</v>
@@ -12649,7 +12649,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>31</v>
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6754105</v>
+        <v>6754643</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,76 +12738,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138" t="s">
+        <v>48</v>
+      </c>
+      <c r="K138">
+        <v>2.7</v>
+      </c>
+      <c r="L138">
+        <v>3.4</v>
+      </c>
+      <c r="M138">
+        <v>2.5</v>
+      </c>
+      <c r="N138">
+        <v>2.7</v>
+      </c>
+      <c r="O138">
+        <v>3.5</v>
+      </c>
+      <c r="P138">
+        <v>2.55</v>
+      </c>
+      <c r="Q138">
         <v>0</v>
       </c>
-      <c r="J138" t="s">
-        <v>49</v>
-      </c>
-      <c r="K138">
-        <v>1.8</v>
-      </c>
-      <c r="L138">
-        <v>3.75</v>
-      </c>
-      <c r="M138">
-        <v>4.2</v>
-      </c>
-      <c r="N138">
-        <v>2.45</v>
-      </c>
-      <c r="O138">
-        <v>3.25</v>
-      </c>
-      <c r="P138">
-        <v>3</v>
-      </c>
-      <c r="Q138">
-        <v>-0.25</v>
-      </c>
       <c r="R138">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z138">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6754643</v>
+        <v>6754105</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F139" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
         <v>0</v>
       </c>
-      <c r="I139">
-        <v>2</v>
-      </c>
       <c r="J139" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K139">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L139">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M139">
+        <v>4.2</v>
+      </c>
+      <c r="N139">
+        <v>2.45</v>
+      </c>
+      <c r="O139">
+        <v>3.25</v>
+      </c>
+      <c r="P139">
+        <v>3</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>2.05</v>
+      </c>
+      <c r="S139">
+        <v>1.75</v>
+      </c>
+      <c r="T139">
         <v>2.5</v>
       </c>
-      <c r="N139">
-        <v>2.7</v>
-      </c>
-      <c r="O139">
-        <v>3.5</v>
-      </c>
-      <c r="P139">
-        <v>2.55</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
+      <c r="U139">
         <v>1.975</v>
       </c>
-      <c r="S139">
+      <c r="V139">
         <v>1.875</v>
       </c>
-      <c r="T139">
-        <v>2.75</v>
-      </c>
-      <c r="U139">
-        <v>2.025</v>
-      </c>
-      <c r="V139">
-        <v>1.825</v>
-      </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA139">
+        <v>-1</v>
+      </c>
+      <c r="AB139">
+        <v>-1</v>
+      </c>
+      <c r="AC139">
         <v>0.875</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
-      <c r="AC139">
-        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13008,7 +13008,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
         <v>1.909</v>
@@ -13450,7 +13450,7 @@
         <v>45240.92013888889</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
         <v>2.35</v>
@@ -13640,7 +13640,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K148">
         <v>1.95</v>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K149">
         <v>4</v>
@@ -13898,7 +13898,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14254,7 +14254,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K157">
         <v>2.7</v>
@@ -14619,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>3.5</v>
@@ -14785,7 +14785,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K162">
         <v>1.533</v>
@@ -15144,7 +15144,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>5</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>3.4</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15319,7 +15319,7 @@
         <v>45269.95833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15331,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>1.3</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K168">
         <v>1.5</v>
@@ -15500,7 +15500,7 @@
         <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K169">
         <v>2.6</v>
@@ -15586,7 +15586,7 @@
         <v>45277.9375</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>2.8</v>
@@ -15764,7 +15764,7 @@
         <v>45304</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45305</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K175">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N175">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q175">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W175">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45305</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
         <v>0</v>
       </c>
-      <c r="I176">
-        <v>2</v>
-      </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N176">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P176">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R176">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>2.8</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -16746,7 +16746,7 @@
         <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16832,7 +16832,7 @@
         <v>45311.92013888889</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185">
         <v>2.3</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>47</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M188">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y188">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189">
+        <v>3.3</v>
+      </c>
+      <c r="P189">
+        <v>2.4</v>
+      </c>
+      <c r="Q189">
+        <v>0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.775</v>
+      </c>
+      <c r="S189">
+        <v>2.1</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2.05</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.4</v>
       </c>
-      <c r="O189">
-        <v>4.333</v>
-      </c>
-      <c r="P189">
-        <v>8.5</v>
-      </c>
-      <c r="Q189">
-        <v>-1.25</v>
-      </c>
-      <c r="R189">
-        <v>1.925</v>
-      </c>
-      <c r="S189">
-        <v>1.925</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>3.333</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>4.333</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K191">
         <v>3</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17636,7 +17636,7 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K196">
         <v>4.2</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -18256,7 +18256,7 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G200" t="s">
         <v>37</v>
@@ -18268,7 +18268,7 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K200">
         <v>2.5</v>
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K206">
         <v>3.25</v>
@@ -18882,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19069,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K209">
         <v>2.4</v>
@@ -19158,7 +19158,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K210">
         <v>1.666</v>
@@ -19324,7 +19324,7 @@
         <v>45326.00694444445</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
         <v>44</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K212">
         <v>1.75</v>
@@ -19514,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
         <v>2.6</v>
@@ -19680,7 +19680,7 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K217">
         <v>1.95</v>
@@ -19870,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K218">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K220">
         <v>3.25</v>
@@ -20226,7 +20226,7 @@
         <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K222">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K225">
         <v>2.4</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>45339</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20760,7 +20760,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K228">
         <v>1.95</v>
@@ -20840,7 +20840,7 @@
         <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
         <v>2.375</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K233">
         <v>1.666</v>
@@ -21294,7 +21294,7 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K234">
         <v>3.1</v>
@@ -21561,7 +21561,7 @@
         <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K237">
         <v>2.5</v>
@@ -21638,11 +21638,11 @@
         <v>45344</v>
       </c>
       <c r="F238" t="s">
+        <v>30</v>
+      </c>
+      <c r="G238" t="s">
         <v>29</v>
       </c>
-      <c r="G238" t="s">
-        <v>30</v>
-      </c>
       <c r="H238">
         <v>2</v>
       </c>
@@ -21650,7 +21650,7 @@
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K238">
         <v>1.363</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K239">
         <v>2.1</v>
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K240">
         <v>2.75</v>
@@ -21917,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K241">
         <v>5</v>
@@ -22095,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K243">
         <v>1.444</v>
@@ -22261,7 +22261,7 @@
         <v>45347.00694444445</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G245" t="s">
         <v>40</v>
@@ -22442,7 +22442,7 @@
         <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22718,7 +22718,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K250">
         <v>3.75</v>
@@ -22896,7 +22896,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K252">
         <v>2.375</v>
@@ -22973,7 +22973,7 @@
         <v>45353.00694444445</v>
       </c>
       <c r="F253" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G253" t="s">
         <v>39</v>
@@ -23332,7 +23332,7 @@
         <v>34</v>
       </c>
       <c r="G257" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23341,7 +23341,7 @@
         <v>5</v>
       </c>
       <c r="J257" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K257">
         <v>3.5</v>
@@ -23519,7 +23519,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K259">
         <v>2.8</v>
@@ -23608,7 +23608,7 @@
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K260">
         <v>2.6</v>
@@ -23786,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K262">
         <v>3.75</v>
@@ -23875,7 +23875,7 @@
         <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K263">
         <v>1.85</v>
@@ -23964,7 +23964,7 @@
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K264">
         <v>1.6</v>
@@ -24130,7 +24130,7 @@
         <v>45361</v>
       </c>
       <c r="F266" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G266" t="s">
         <v>33</v>
@@ -24231,7 +24231,7 @@
         <v>3</v>
       </c>
       <c r="J267" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K267">
         <v>1.75</v>
@@ -24311,7 +24311,7 @@
         <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24498,7 +24498,7 @@
         <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K270">
         <v>2.375</v>
@@ -24587,7 +24587,7 @@
         <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K271">
         <v>1.533</v>
@@ -24756,7 +24756,7 @@
         <v>33</v>
       </c>
       <c r="G273" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H273">
         <v>5</v>
@@ -24845,7 +24845,7 @@
         <v>41</v>
       </c>
       <c r="G274" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K274">
         <v>3.2</v>
@@ -24943,7 +24943,7 @@
         <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K275">
         <v>3.2</v>
@@ -25008,7 +25008,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7612897</v>
+        <v>7612893</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25020,46 +25020,46 @@
         <v>45368.91666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G276" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
         <v>49</v>
       </c>
       <c r="K276">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L276">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M276">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N276">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O276">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P276">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="Q276">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R276">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S276">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T276">
         <v>2.75</v>
@@ -25071,7 +25071,7 @@
         <v>2.05</v>
       </c>
       <c r="W276">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25080,7 +25080,7 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA276">
         <v>-1</v>
@@ -25097,7 +25097,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7612893</v>
+        <v>7612897</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25109,46 +25109,46 @@
         <v>45368.91666666666</v>
       </c>
       <c r="F277" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G277" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
         <v>49</v>
       </c>
       <c r="K277">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L277">
+        <v>3.75</v>
+      </c>
+      <c r="M277">
+        <v>2.3</v>
+      </c>
+      <c r="N277">
+        <v>3.5</v>
+      </c>
+      <c r="O277">
         <v>3.6</v>
       </c>
-      <c r="M277">
-        <v>4</v>
-      </c>
-      <c r="N277">
-        <v>1.75</v>
-      </c>
-      <c r="O277">
-        <v>3.8</v>
-      </c>
       <c r="P277">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Q277">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R277">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S277">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T277">
         <v>2.75</v>
@@ -25160,7 +25160,7 @@
         <v>2.05</v>
       </c>
       <c r="W277">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25169,7 +25169,7 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA277">
         <v>-1</v>
@@ -25302,22 +25302,22 @@
         <v>1.666</v>
       </c>
       <c r="N279">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O279">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P279">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="Q279">
         <v>0.5</v>
       </c>
       <c r="R279">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S279">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T279">
         <v>2.75</v>
@@ -25361,7 +25361,7 @@
         <v>45380.95833333334</v>
       </c>
       <c r="F280" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G280" t="s">
         <v>32</v>
@@ -25376,31 +25376,31 @@
         <v>7</v>
       </c>
       <c r="N280">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="O280">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P280">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q280">
         <v>-1.25</v>
       </c>
       <c r="R280">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S280">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T280">
         <v>3</v>
       </c>
       <c r="U280">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V280">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W280">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>45381</v>
       </c>
       <c r="F281" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G281" t="s">
         <v>31</v>
@@ -25450,10 +25450,10 @@
         <v>3</v>
       </c>
       <c r="N281">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O281">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P281">
         <v>3.1</v>
@@ -25462,10 +25462,10 @@
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S281">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T281">
         <v>2.75</v>
@@ -25527,19 +25527,19 @@
         <v>2.3</v>
       </c>
       <c r="O282">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P282">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q282">
         <v>-0.25</v>
       </c>
       <c r="R282">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S282">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T282">
         <v>3</v>
@@ -25598,22 +25598,22 @@
         <v>5</v>
       </c>
       <c r="N283">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="O283">
         <v>3.75</v>
       </c>
       <c r="P283">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q283">
         <v>-0.75</v>
       </c>
       <c r="R283">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S283">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T283">
         <v>2.5</v>
@@ -25672,22 +25672,22 @@
         <v>3.3</v>
       </c>
       <c r="N284">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="O284">
         <v>3.6</v>
       </c>
       <c r="P284">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="Q284">
         <v>0</v>
       </c>
       <c r="R284">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S284">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T284">
         <v>2.5</v>
@@ -25758,10 +25758,10 @@
         <v>-0.5</v>
       </c>
       <c r="R285">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S285">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T285">
         <v>2.25</v>
@@ -25876,7 +25876,7 @@
         <v>28</v>
       </c>
       <c r="E287" s="2">
-        <v>45383.00694444445</v>
+        <v>45382.9375</v>
       </c>
       <c r="F287" t="s">
         <v>42</v>
@@ -25894,22 +25894,22 @@
         <v>2.4</v>
       </c>
       <c r="N287">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O287">
         <v>3.5</v>
       </c>
       <c r="P287">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q287">
         <v>0</v>
       </c>
       <c r="R287">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S287">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T287">
         <v>2.75</v>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -103,10 +103,10 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
-    <t>Mazatlan FC</t>
+    <t>Club America</t>
   </si>
   <si>
-    <t>Club America</t>
+    <t>Mazatlan FC</t>
   </si>
   <si>
     <t>Tijuana</t>
@@ -157,10 +157,10 @@
     <t>Queretaro</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M2">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N2">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>-1.25</v>
+      </c>
+      <c r="R2">
+        <v>1.975</v>
+      </c>
+      <c r="S2">
+        <v>1.875</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
         <v>2.05</v>
       </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.825</v>
-      </c>
-      <c r="S2">
-        <v>2.025</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>3.5</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>2.55</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>2.45</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>45121.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>45122.91666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>1.75</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>1.9</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>2.8</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>2.7</v>
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>2.05</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3482,7 +3482,7 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>2.3</v>
@@ -3583,7 +3583,7 @@
         <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>3.75</v>
@@ -3749,7 +3749,7 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4286,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>1.55</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4461,7 +4461,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>1.7</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.6</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>1.727</v>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>1.363</v>
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5974,7 +5974,7 @@
         <v>45184.90972222222</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5986,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6330,7 +6330,7 @@
         <v>45186.00694444445</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>3.2</v>
@@ -6867,7 +6867,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6965,7 +6965,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>2.75</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7499,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7668,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>1.444</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>2.1</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>2.6</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>45199.90277777778</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8288,7 +8288,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8300,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>3.25</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>2.25</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45203</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
+        <v>3.3</v>
+      </c>
+      <c r="M93">
+        <v>2.8</v>
+      </c>
+      <c r="N93">
         <v>3.5</v>
-      </c>
-      <c r="M93">
-        <v>4.5</v>
-      </c>
-      <c r="N93">
-        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8834,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K94">
         <v>1.8</v>
@@ -9000,10 +9000,10 @@
         <v>45206</v>
       </c>
       <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
         <v>29</v>
-      </c>
-      <c r="G96" t="s">
-        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>3.75</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N98">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S98">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N99">
+        <v>2.9</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
         <v>2.4</v>
       </c>
-      <c r="O99">
-        <v>3.2</v>
-      </c>
-      <c r="P99">
-        <v>3.1</v>
-      </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>2.2</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2.2</v>
@@ -9804,7 +9804,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>2.5</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10157,7 +10157,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45227</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11237,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.5</v>
@@ -11317,7 +11317,7 @@
         <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>3.2</v>
@@ -11682,7 +11682,7 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K126">
         <v>3.25</v>
@@ -11771,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>1.5</v>
@@ -11860,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>2.1</v>
@@ -12038,7 +12038,7 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>2.1</v>
@@ -12204,7 +12204,7 @@
         <v>45232</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
         <v>36</v>
@@ -12296,7 +12296,7 @@
         <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K133">
         <v>3.75</v>
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
         <v>1.666</v>
@@ -12649,7 +12649,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>31</v>
@@ -12750,7 +12750,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K138">
         <v>2.7</v>
@@ -13008,7 +13008,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>1.909</v>
@@ -13450,7 +13450,7 @@
         <v>45240.92013888889</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>2.35</v>
@@ -13640,7 +13640,7 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K148">
         <v>1.95</v>
@@ -13729,7 +13729,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K149">
         <v>4</v>
@@ -13898,7 +13898,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14254,7 +14254,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K157">
         <v>2.7</v>
@@ -14619,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>3.5</v>
@@ -14785,7 +14785,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>1.533</v>
@@ -15144,7 +15144,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>5</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>3.4</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15319,7 +15319,7 @@
         <v>45269.95833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15331,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K167">
         <v>1.3</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>1.5</v>
@@ -15500,7 +15500,7 @@
         <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>2.6</v>
@@ -15586,7 +15586,7 @@
         <v>45277.9375</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>2.8</v>
@@ -15764,7 +15764,7 @@
         <v>45304</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16034,7 +16034,7 @@
         <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16043,7 +16043,7 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K175">
         <v>4.5</v>
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K179">
         <v>2.8</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -16746,7 +16746,7 @@
         <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16832,7 +16832,7 @@
         <v>45311.92013888889</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K185">
         <v>2.3</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>47</v>
       </c>
       <c r="K188">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188">
+        <v>3.3</v>
+      </c>
+      <c r="P188">
+        <v>2.4</v>
+      </c>
+      <c r="Q188">
+        <v>0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.775</v>
+      </c>
+      <c r="S188">
+        <v>2.1</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
+        <v>2.05</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1.4</v>
       </c>
-      <c r="O188">
-        <v>4.333</v>
-      </c>
-      <c r="P188">
-        <v>8.5</v>
-      </c>
-      <c r="Q188">
-        <v>-1.25</v>
-      </c>
-      <c r="R188">
-        <v>1.925</v>
-      </c>
-      <c r="S188">
-        <v>1.925</v>
-      </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>2.025</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>3.333</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>48</v>
       </c>
       <c r="K189">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M189">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P189">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y189">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K190">
         <v>4.333</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>3</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17636,7 +17636,7 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>4.2</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K200">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L200">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M200">
+        <v>4.5</v>
+      </c>
+      <c r="N200">
+        <v>1.533</v>
+      </c>
+      <c r="O200">
+        <v>4.2</v>
+      </c>
+      <c r="P200">
+        <v>6</v>
+      </c>
+      <c r="Q200">
+        <v>-1</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>1.9</v>
+      </c>
+      <c r="T200">
         <v>2.75</v>
       </c>
-      <c r="N200">
-        <v>3.3</v>
-      </c>
-      <c r="O200">
-        <v>3.6</v>
-      </c>
-      <c r="P200">
-        <v>2.15</v>
-      </c>
-      <c r="Q200">
-        <v>0.25</v>
-      </c>
-      <c r="R200">
-        <v>1.925</v>
-      </c>
-      <c r="S200">
-        <v>1.925</v>
-      </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
       <c r="U200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X200">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L201">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M201">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N201">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K206">
         <v>3.25</v>
@@ -18882,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19069,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K209">
         <v>2.4</v>
@@ -19158,7 +19158,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K210">
         <v>1.666</v>
@@ -19324,7 +19324,7 @@
         <v>45326.00694444445</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
         <v>44</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>1.75</v>
@@ -19514,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>2.6</v>
@@ -19680,7 +19680,7 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K217">
         <v>1.95</v>
@@ -19870,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K218">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>3.25</v>
@@ -20226,7 +20226,7 @@
         <v>3</v>
       </c>
       <c r="J222" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K222">
         <v>3</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K225">
         <v>2.4</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>45339</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20760,7 +20760,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K228">
         <v>1.95</v>
@@ -20840,7 +20840,7 @@
         <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
         <v>2.375</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K233">
         <v>1.666</v>
@@ -21294,7 +21294,7 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K234">
         <v>3.1</v>
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7612866</v>
+        <v>7612867</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,73 +21549,73 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>48</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M237">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N237">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P237">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R237">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y237">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB237">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7612867</v>
+        <v>7612866</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,73 +21638,73 @@
         <v>45344</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J238" t="s">
         <v>47</v>
       </c>
       <c r="K238">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L238">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N238">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="O238">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q238">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T238">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB238">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K239">
         <v>2.1</v>
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K240">
         <v>2.75</v>
@@ -21917,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K241">
         <v>5</v>
@@ -22095,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K243">
         <v>1.444</v>
@@ -22261,7 +22261,7 @@
         <v>45347.00694444445</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G245" t="s">
         <v>40</v>
@@ -22442,7 +22442,7 @@
         <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22718,7 +22718,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K250">
         <v>3.75</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612872</v>
+        <v>7612871</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,76 +22795,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G251" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K251">
+        <v>2.375</v>
+      </c>
+      <c r="L251">
+        <v>3.25</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>2.4</v>
+      </c>
+      <c r="O251">
+        <v>3.25</v>
+      </c>
+      <c r="P251">
+        <v>3.1</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
         <v>2.05</v>
       </c>
-      <c r="L251">
-        <v>3.4</v>
-      </c>
-      <c r="M251">
-        <v>3.5</v>
-      </c>
-      <c r="N251">
+      <c r="S251">
         <v>1.8</v>
       </c>
-      <c r="O251">
-        <v>3.8</v>
-      </c>
-      <c r="P251">
-        <v>4</v>
-      </c>
-      <c r="Q251">
-        <v>-0.75</v>
-      </c>
-      <c r="R251">
-        <v>2</v>
-      </c>
-      <c r="S251">
-        <v>1.85</v>
-      </c>
       <c r="T251">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V251">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>2.1</v>
+      </c>
+      <c r="Z251">
+        <v>-1</v>
+      </c>
+      <c r="AA251">
         <v>0.8</v>
       </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>-1</v>
-      </c>
-      <c r="Z251">
-        <v>1</v>
-      </c>
-      <c r="AA251">
-        <v>-1</v>
-      </c>
       <c r="AB251">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612871</v>
+        <v>7612872</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H252">
+        <v>4</v>
+      </c>
+      <c r="I252">
         <v>0</v>
       </c>
-      <c r="I252">
+      <c r="J252" t="s">
+        <v>49</v>
+      </c>
+      <c r="K252">
+        <v>2.05</v>
+      </c>
+      <c r="L252">
+        <v>3.4</v>
+      </c>
+      <c r="M252">
+        <v>3.5</v>
+      </c>
+      <c r="N252">
+        <v>1.8</v>
+      </c>
+      <c r="O252">
+        <v>3.8</v>
+      </c>
+      <c r="P252">
+        <v>4</v>
+      </c>
+      <c r="Q252">
+        <v>-0.75</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>1.85</v>
+      </c>
+      <c r="T252">
+        <v>2.75</v>
+      </c>
+      <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
+        <v>2.025</v>
+      </c>
+      <c r="W252">
+        <v>0.8</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>-1</v>
+      </c>
+      <c r="Z252">
         <v>1</v>
       </c>
-      <c r="J252" t="s">
-        <v>48</v>
-      </c>
-      <c r="K252">
-        <v>2.375</v>
-      </c>
-      <c r="L252">
-        <v>3.25</v>
-      </c>
-      <c r="M252">
-        <v>3</v>
-      </c>
-      <c r="N252">
-        <v>2.4</v>
-      </c>
-      <c r="O252">
-        <v>3.25</v>
-      </c>
-      <c r="P252">
-        <v>3.1</v>
-      </c>
-      <c r="Q252">
-        <v>-0.25</v>
-      </c>
-      <c r="R252">
-        <v>2.05</v>
-      </c>
-      <c r="S252">
-        <v>1.8</v>
-      </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
-      <c r="U252">
-        <v>1.925</v>
-      </c>
-      <c r="V252">
-        <v>1.925</v>
-      </c>
-      <c r="W252">
-        <v>-1</v>
-      </c>
-      <c r="X252">
-        <v>-1</v>
-      </c>
-      <c r="Y252">
-        <v>2.1</v>
-      </c>
-      <c r="Z252">
-        <v>-1</v>
-      </c>
       <c r="AA252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC252">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>45353.00694444445</v>
       </c>
       <c r="F253" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G253" t="s">
         <v>39</v>
@@ -23332,7 +23332,7 @@
         <v>34</v>
       </c>
       <c r="G257" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23341,7 +23341,7 @@
         <v>5</v>
       </c>
       <c r="J257" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K257">
         <v>3.5</v>
@@ -23519,7 +23519,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K259">
         <v>2.8</v>
@@ -23608,7 +23608,7 @@
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K260">
         <v>2.6</v>
@@ -23786,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K262">
         <v>3.75</v>
@@ -23875,7 +23875,7 @@
         <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K263">
         <v>1.85</v>
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7612884</v>
+        <v>7612885</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,73 +23952,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K264">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="L264">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N264">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="O264">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P264">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q264">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R264">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S264">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T264">
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V264">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA264">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AC264">
         <v>-0.5</v>
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7612885</v>
+        <v>7612884</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,73 +24041,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K265">
+        <v>1.6</v>
+      </c>
+      <c r="L265">
+        <v>4.2</v>
+      </c>
+      <c r="M265">
+        <v>5</v>
+      </c>
+      <c r="N265">
+        <v>2.05</v>
+      </c>
+      <c r="O265">
+        <v>3.8</v>
+      </c>
+      <c r="P265">
         <v>3.3</v>
       </c>
-      <c r="L265">
-        <v>3.6</v>
-      </c>
-      <c r="M265">
+      <c r="Q265">
+        <v>-0.5</v>
+      </c>
+      <c r="R265">
         <v>2.05</v>
       </c>
-      <c r="N265">
-        <v>4.5</v>
-      </c>
-      <c r="O265">
-        <v>4</v>
-      </c>
-      <c r="P265">
-        <v>1.727</v>
-      </c>
-      <c r="Q265">
-        <v>0.75</v>
-      </c>
-      <c r="R265">
-        <v>1.875</v>
-      </c>
       <c r="S265">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T265">
         <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V265">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB265">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC265">
         <v>-0.5</v>
@@ -24130,7 +24130,7 @@
         <v>45361</v>
       </c>
       <c r="F266" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G266" t="s">
         <v>33</v>
@@ -24231,7 +24231,7 @@
         <v>3</v>
       </c>
       <c r="J267" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K267">
         <v>1.75</v>
@@ -24311,7 +24311,7 @@
         <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24498,7 +24498,7 @@
         <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K270">
         <v>2.375</v>
@@ -24587,7 +24587,7 @@
         <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K271">
         <v>1.533</v>
@@ -24756,7 +24756,7 @@
         <v>33</v>
       </c>
       <c r="G273" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H273">
         <v>5</v>
@@ -24845,7 +24845,7 @@
         <v>41</v>
       </c>
       <c r="G274" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K274">
         <v>3.2</v>
@@ -24943,7 +24943,7 @@
         <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K275">
         <v>3.2</v>
@@ -25323,10 +25323,10 @@
         <v>2.75</v>
       </c>
       <c r="U279">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V279">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W279">
         <v>0</v>
@@ -25361,7 +25361,7 @@
         <v>45380.95833333334</v>
       </c>
       <c r="F280" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G280" t="s">
         <v>32</v>
@@ -25376,31 +25376,31 @@
         <v>7</v>
       </c>
       <c r="N280">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O280">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="P280">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q280">
         <v>-1.25</v>
       </c>
       <c r="R280">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S280">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T280">
         <v>3</v>
       </c>
       <c r="U280">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V280">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W280">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>45381</v>
       </c>
       <c r="F281" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G281" t="s">
         <v>31</v>
@@ -25462,19 +25462,19 @@
         <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S281">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T281">
         <v>2.75</v>
       </c>
       <c r="U281">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V281">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W281">
         <v>0</v>
@@ -25610,19 +25610,19 @@
         <v>-0.75</v>
       </c>
       <c r="R283">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S283">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T283">
         <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V283">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W283">
         <v>0</v>
@@ -25841,10 +25841,10 @@
         <v>2.75</v>
       </c>
       <c r="U286">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V286">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W286">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>2.75</v>
       </c>
       <c r="U287">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V287">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W287">
         <v>0</v>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC287"/>
+  <dimension ref="A1:AC284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,43 +3675,43 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>2.9</v>
+      </c>
+      <c r="N36">
+        <v>1.85</v>
+      </c>
+      <c r="O36">
+        <v>3.75</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.875</v>
+      </c>
+      <c r="S36">
+        <v>1.975</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="M36">
-        <v>1.5</v>
-      </c>
-      <c r="N36">
-        <v>1.615</v>
-      </c>
-      <c r="O36">
-        <v>4.2</v>
-      </c>
-      <c r="P36">
-        <v>5</v>
-      </c>
-      <c r="Q36">
-        <v>-0.75</v>
-      </c>
-      <c r="R36">
-        <v>1.8</v>
-      </c>
-      <c r="S36">
-        <v>2.05</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,61 +3764,61 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N37">
+        <v>1.615</v>
+      </c>
+      <c r="O37">
+        <v>4.2</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <v>-0.75</v>
+      </c>
+      <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>2.05</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="O37">
-        <v>3.75</v>
-      </c>
-      <c r="P37">
-        <v>4</v>
-      </c>
-      <c r="Q37">
+      <c r="W37">
+        <v>0.615</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>0.4</v>
+      </c>
+      <c r="AA37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.975</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.825</v>
-      </c>
-      <c r="V37">
-        <v>2.025</v>
-      </c>
-      <c r="W37">
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,61 +7131,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7194,13 +7194,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,61 +7220,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X76">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7283,13 +7283,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
+        <v>3.3</v>
+      </c>
+      <c r="M92">
+        <v>2.8</v>
+      </c>
+      <c r="N92">
         <v>3.5</v>
-      </c>
-      <c r="M92">
-        <v>4.5</v>
-      </c>
-      <c r="N92">
-        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N98">
+        <v>2.9</v>
+      </c>
+      <c r="O98">
+        <v>3.5</v>
+      </c>
+      <c r="P98">
         <v>2.4</v>
       </c>
-      <c r="O98">
-        <v>3.2</v>
-      </c>
-      <c r="P98">
-        <v>3.1</v>
-      </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S99">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X99">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45305</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
         <v>0</v>
       </c>
-      <c r="I175">
-        <v>2</v>
-      </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K175">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L175">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M175">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N175">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O175">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P175">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R175">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S175">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V175">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA175">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45305</v>
       </c>
       <c r="F176" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K176">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M176">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N176">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O176">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T176">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W176">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z176">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M188">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y188">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189">
+        <v>3.3</v>
+      </c>
+      <c r="P189">
+        <v>2.4</v>
+      </c>
+      <c r="Q189">
+        <v>0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.775</v>
+      </c>
+      <c r="S189">
+        <v>2.1</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2.05</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.4</v>
       </c>
-      <c r="O189">
-        <v>4.333</v>
-      </c>
-      <c r="P189">
-        <v>8.5</v>
-      </c>
-      <c r="Q189">
-        <v>-1.25</v>
-      </c>
-      <c r="R189">
-        <v>1.925</v>
-      </c>
-      <c r="S189">
-        <v>1.925</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>3.333</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L200">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M200">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N200">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O200">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q200">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W200">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K201">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L201">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
+        <v>4.5</v>
+      </c>
+      <c r="N201">
+        <v>1.533</v>
+      </c>
+      <c r="O201">
+        <v>4.2</v>
+      </c>
+      <c r="P201">
+        <v>6</v>
+      </c>
+      <c r="Q201">
+        <v>-1</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.9</v>
+      </c>
+      <c r="T201">
         <v>2.75</v>
       </c>
-      <c r="N201">
-        <v>3.3</v>
-      </c>
-      <c r="O201">
-        <v>3.6</v>
-      </c>
-      <c r="P201">
-        <v>2.15</v>
-      </c>
-      <c r="Q201">
-        <v>0.25</v>
-      </c>
-      <c r="R201">
-        <v>1.925</v>
-      </c>
-      <c r="S201">
-        <v>1.925</v>
-      </c>
-      <c r="T201">
-        <v>2.5</v>
-      </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X201">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -25275,7 +25275,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7612898</v>
+        <v>7612901</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25284,49 +25284,49 @@
         <v>28</v>
       </c>
       <c r="E279" s="2">
-        <v>45380.91666666666</v>
+        <v>45381.91666666666</v>
       </c>
       <c r="F279" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G279" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K279">
-        <v>4.333</v>
+        <v>2.05</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M279">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="N279">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="O279">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P279">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="Q279">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R279">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S279">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T279">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U279">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V279">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W279">
         <v>0</v>
@@ -25349,7 +25349,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7612900</v>
+        <v>7612902</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25358,49 +25358,49 @@
         <v>28</v>
       </c>
       <c r="E280" s="2">
-        <v>45380.95833333334</v>
+        <v>45381.91666666666</v>
       </c>
       <c r="F280" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G280" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="K280">
-        <v>1.363</v>
+        <v>1.615</v>
       </c>
       <c r="L280">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="M280">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N280">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="O280">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P280">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q280">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R280">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S280">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T280">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U280">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V280">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W280">
         <v>0</v>
@@ -25423,7 +25423,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7612899</v>
+        <v>7612903</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25432,49 +25432,49 @@
         <v>28</v>
       </c>
       <c r="E281" s="2">
-        <v>45381</v>
+        <v>45382</v>
       </c>
       <c r="F281" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G281" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K281">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="L281">
         <v>3.5</v>
       </c>
       <c r="M281">
+        <v>3.3</v>
+      </c>
+      <c r="N281">
         <v>3</v>
       </c>
-      <c r="N281">
-        <v>2.2</v>
-      </c>
       <c r="O281">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P281">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q281">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R281">
+        <v>1.875</v>
+      </c>
+      <c r="S281">
         <v>1.975</v>
       </c>
-      <c r="S281">
-        <v>1.875</v>
-      </c>
       <c r="T281">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U281">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V281">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W281">
         <v>0</v>
@@ -25497,7 +25497,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7612901</v>
+        <v>7612904</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25506,49 +25506,49 @@
         <v>28</v>
       </c>
       <c r="E282" s="2">
-        <v>45381.91666666666</v>
+        <v>45382.83333333334</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="G282" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="K282">
         <v>2.05</v>
       </c>
       <c r="L282">
+        <v>3.4</v>
+      </c>
+      <c r="M282">
+        <v>3.3</v>
+      </c>
+      <c r="N282">
+        <v>1.8</v>
+      </c>
+      <c r="O282">
         <v>3.6</v>
       </c>
-      <c r="M282">
-        <v>3.1</v>
-      </c>
-      <c r="N282">
-        <v>2.3</v>
-      </c>
-      <c r="O282">
-        <v>3.8</v>
-      </c>
       <c r="P282">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R282">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S282">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T282">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V282">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W282">
         <v>0</v>
@@ -25571,7 +25571,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7612902</v>
+        <v>7612905</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25580,49 +25580,49 @@
         <v>28</v>
       </c>
       <c r="E283" s="2">
-        <v>45381.91666666666</v>
+        <v>45382.91666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G283" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K283">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="L283">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M283">
-        <v>5</v>
+        <v>2.35</v>
       </c>
       <c r="N283">
-        <v>1.727</v>
+        <v>2.75</v>
       </c>
       <c r="O283">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P283">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q283">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R283">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S283">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T283">
         <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V283">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W283">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7612903</v>
+        <v>7612906</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25654,49 +25654,49 @@
         <v>28</v>
       </c>
       <c r="E284" s="2">
-        <v>45382</v>
+        <v>45382.94166666667</v>
       </c>
       <c r="F284" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G284" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K284">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="L284">
         <v>3.5</v>
       </c>
       <c r="M284">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="N284">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="O284">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P284">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q284">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R284">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S284">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T284">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U284">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V284">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W284">
         <v>0</v>
@@ -25711,228 +25711,6 @@
         <v>0</v>
       </c>
       <c r="AA284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:29">
-      <c r="A285" s="1">
-        <v>283</v>
-      </c>
-      <c r="B285">
-        <v>7612904</v>
-      </c>
-      <c r="C285" t="s">
-        <v>28</v>
-      </c>
-      <c r="D285" t="s">
-        <v>28</v>
-      </c>
-      <c r="E285" s="2">
-        <v>45382.83333333334</v>
-      </c>
-      <c r="F285" t="s">
-        <v>34</v>
-      </c>
-      <c r="G285" t="s">
-        <v>46</v>
-      </c>
-      <c r="K285">
-        <v>2.05</v>
-      </c>
-      <c r="L285">
-        <v>3.4</v>
-      </c>
-      <c r="M285">
-        <v>3.3</v>
-      </c>
-      <c r="N285">
-        <v>1.85</v>
-      </c>
-      <c r="O285">
-        <v>3.6</v>
-      </c>
-      <c r="P285">
-        <v>3.8</v>
-      </c>
-      <c r="Q285">
-        <v>-0.5</v>
-      </c>
-      <c r="R285">
-        <v>1.85</v>
-      </c>
-      <c r="S285">
-        <v>2</v>
-      </c>
-      <c r="T285">
-        <v>2.25</v>
-      </c>
-      <c r="U285">
-        <v>1.825</v>
-      </c>
-      <c r="V285">
-        <v>2.025</v>
-      </c>
-      <c r="W285">
-        <v>0</v>
-      </c>
-      <c r="X285">
-        <v>0</v>
-      </c>
-      <c r="Y285">
-        <v>0</v>
-      </c>
-      <c r="Z285">
-        <v>0</v>
-      </c>
-      <c r="AA285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:29">
-      <c r="A286" s="1">
-        <v>284</v>
-      </c>
-      <c r="B286">
-        <v>7612905</v>
-      </c>
-      <c r="C286" t="s">
-        <v>28</v>
-      </c>
-      <c r="D286" t="s">
-        <v>28</v>
-      </c>
-      <c r="E286" s="2">
-        <v>45382.91666666666</v>
-      </c>
-      <c r="F286" t="s">
-        <v>39</v>
-      </c>
-      <c r="G286" t="s">
-        <v>37</v>
-      </c>
-      <c r="K286">
-        <v>2.7</v>
-      </c>
-      <c r="L286">
-        <v>3.5</v>
-      </c>
-      <c r="M286">
-        <v>2.35</v>
-      </c>
-      <c r="N286">
-        <v>2.7</v>
-      </c>
-      <c r="O286">
-        <v>3.5</v>
-      </c>
-      <c r="P286">
-        <v>2.45</v>
-      </c>
-      <c r="Q286">
-        <v>0</v>
-      </c>
-      <c r="R286">
-        <v>2.025</v>
-      </c>
-      <c r="S286">
-        <v>1.825</v>
-      </c>
-      <c r="T286">
-        <v>2.75</v>
-      </c>
-      <c r="U286">
-        <v>2.05</v>
-      </c>
-      <c r="V286">
-        <v>1.8</v>
-      </c>
-      <c r="W286">
-        <v>0</v>
-      </c>
-      <c r="X286">
-        <v>0</v>
-      </c>
-      <c r="Y286">
-        <v>0</v>
-      </c>
-      <c r="Z286">
-        <v>0</v>
-      </c>
-      <c r="AA286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:29">
-      <c r="A287" s="1">
-        <v>285</v>
-      </c>
-      <c r="B287">
-        <v>7612906</v>
-      </c>
-      <c r="C287" t="s">
-        <v>28</v>
-      </c>
-      <c r="D287" t="s">
-        <v>28</v>
-      </c>
-      <c r="E287" s="2">
-        <v>45382.9375</v>
-      </c>
-      <c r="F287" t="s">
-        <v>42</v>
-      </c>
-      <c r="G287" t="s">
-        <v>36</v>
-      </c>
-      <c r="K287">
-        <v>2.625</v>
-      </c>
-      <c r="L287">
-        <v>3.5</v>
-      </c>
-      <c r="M287">
-        <v>2.4</v>
-      </c>
-      <c r="N287">
-        <v>2.375</v>
-      </c>
-      <c r="O287">
-        <v>3.5</v>
-      </c>
-      <c r="P287">
-        <v>2.6</v>
-      </c>
-      <c r="Q287">
-        <v>0</v>
-      </c>
-      <c r="R287">
-        <v>1.8</v>
-      </c>
-      <c r="S287">
-        <v>2.05</v>
-      </c>
-      <c r="T287">
-        <v>2.75</v>
-      </c>
-      <c r="U287">
-        <v>2.025</v>
-      </c>
-      <c r="V287">
-        <v>1.825</v>
-      </c>
-      <c r="W287">
-        <v>0</v>
-      </c>
-      <c r="X287">
-        <v>0</v>
-      </c>
-      <c r="Y287">
-        <v>0</v>
-      </c>
-      <c r="Z287">
-        <v>0</v>
-      </c>
-      <c r="AA287">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
-    <t>Club America</t>
+    <t>Mazatlan FC</t>
   </si>
   <si>
-    <t>Mazatlan FC</t>
+    <t>Club America</t>
   </si>
   <si>
     <t>Tijuana</t>
@@ -157,10 +157,10 @@
     <t>Queretaro</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC284"/>
+  <dimension ref="A1:AC287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q2">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y2">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M3">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
+        <v>7</v>
+      </c>
+      <c r="Q3">
+        <v>-1.25</v>
+      </c>
+      <c r="R3">
+        <v>1.975</v>
+      </c>
+      <c r="S3">
+        <v>1.875</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
         <v>2.05</v>
       </c>
-      <c r="Q3">
-        <v>0.5</v>
-      </c>
-      <c r="R3">
-        <v>1.825</v>
-      </c>
-      <c r="S3">
-        <v>2.025</v>
-      </c>
-      <c r="T3">
-        <v>2.75</v>
-      </c>
-      <c r="U3">
-        <v>1.9</v>
-      </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z3">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>3.5</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
         <v>2.55</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2.45</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>45121.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>45122.91666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K26">
         <v>1.75</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27">
         <v>1.9</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29">
         <v>2.8</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>2.7</v>
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
         <v>2.05</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3470,7 +3470,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>7094230</v>
+        <v>7053868</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,49 +3482,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
       </c>
       <c r="K34">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="L34">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M34">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="O34">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P34">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="Q34">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R34">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
         <v>2</v>
@@ -3536,22 +3536,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>7053868</v>
+        <v>7094230</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,49 +3571,49 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>47</v>
       </c>
       <c r="K35">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="L35">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S35">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
         <v>2</v>
@@ -3625,22 +3625,22 @@
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y35">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.825</v>
+        <v>0.5</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G36" t="s">
         <v>38</v>
@@ -3927,7 +3927,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4286,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>1.55</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4461,7 +4461,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>1.7</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K49">
         <v>1.6</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K50">
         <v>1.727</v>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>1.363</v>
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5974,7 +5974,7 @@
         <v>45184.90972222222</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5986,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6330,7 +6330,7 @@
         <v>45186.00694444445</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
         <v>3.2</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,73 +6864,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K72">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N72">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O72">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q73">
+        <v>-1</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>1.9</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
+        <v>1.925</v>
+      </c>
+      <c r="W73">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>2.1</v>
-      </c>
-      <c r="V73">
-        <v>1.775</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>1.8</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,61 +7131,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X75">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7194,13 +7194,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,61 +7220,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K76">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N76">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7283,13 +7283,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7499,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7668,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>1.444</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>2.1</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>2.6</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>45199.90277777778</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8288,7 +8288,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8300,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K88">
         <v>3.25</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>2.25</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45203</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L93">
+        <v>3.3</v>
+      </c>
+      <c r="M93">
+        <v>2.8</v>
+      </c>
+      <c r="N93">
         <v>3.5</v>
-      </c>
-      <c r="M93">
-        <v>4.5</v>
-      </c>
-      <c r="N93">
-        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R93">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6754067</v>
+        <v>7260442</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45204</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>2</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
+        <v>1.75</v>
+      </c>
+      <c r="L94">
+        <v>3.6</v>
+      </c>
+      <c r="M94">
+        <v>4.2</v>
+      </c>
+      <c r="N94">
+        <v>1.65</v>
+      </c>
+      <c r="O94">
+        <v>4</v>
+      </c>
+      <c r="P94">
+        <v>4.75</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
         <v>1.8</v>
       </c>
-      <c r="L94">
-        <v>3.3</v>
-      </c>
-      <c r="M94">
-        <v>4.333</v>
-      </c>
-      <c r="N94">
-        <v>1.533</v>
-      </c>
-      <c r="O94">
-        <v>4.2</v>
-      </c>
-      <c r="P94">
-        <v>6</v>
-      </c>
-      <c r="Q94">
-        <v>-1</v>
-      </c>
-      <c r="R94">
-        <v>1.925</v>
-      </c>
       <c r="S94">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T94">
         <v>3</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X94">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA94">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7260442</v>
+        <v>6754067</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45204</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
+        <v>4.333</v>
+      </c>
+      <c r="N95">
+        <v>1.533</v>
+      </c>
+      <c r="O95">
         <v>4.2</v>
       </c>
-      <c r="N95">
-        <v>1.65</v>
-      </c>
-      <c r="O95">
-        <v>4</v>
-      </c>
       <c r="P95">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>3</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.85</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC95">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9000,10 +9000,10 @@
         <v>45206</v>
       </c>
       <c r="F96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" t="s">
         <v>30</v>
-      </c>
-      <c r="G96" t="s">
-        <v>29</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>3.75</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N98">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S98">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N99">
+        <v>2.9</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
         <v>2.4</v>
       </c>
-      <c r="O99">
-        <v>3.2</v>
-      </c>
-      <c r="P99">
-        <v>3.1</v>
-      </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>2.2</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
         <v>2.2</v>
@@ -9804,7 +9804,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K106">
         <v>2.5</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10157,7 +10157,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45227</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11237,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>2.5</v>
@@ -11317,7 +11317,7 @@
         <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K122">
         <v>3.2</v>
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6754096</v>
+        <v>6754097</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,40 +11670,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
         <v>1</v>
       </c>
-      <c r="I126">
-        <v>2</v>
-      </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P126">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -11712,13 +11712,13 @@
         <v>1.85</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11727,7 +11727,7 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Z126">
         <v>-1</v>
@@ -11736,10 +11736,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6754097</v>
+        <v>6754096</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,40 +11759,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127" t="s">
+        <v>48</v>
+      </c>
+      <c r="K127">
+        <v>3.25</v>
+      </c>
+      <c r="L127">
+        <v>3.3</v>
+      </c>
+      <c r="M127">
+        <v>2.2</v>
+      </c>
+      <c r="N127">
+        <v>2.8</v>
+      </c>
+      <c r="O127">
+        <v>3.1</v>
+      </c>
+      <c r="P127">
+        <v>2.7</v>
+      </c>
+      <c r="Q127">
         <v>0</v>
-      </c>
-      <c r="I127">
-        <v>1</v>
-      </c>
-      <c r="J127" t="s">
-        <v>47</v>
-      </c>
-      <c r="K127">
-        <v>1.5</v>
-      </c>
-      <c r="L127">
-        <v>4</v>
-      </c>
-      <c r="M127">
-        <v>7</v>
-      </c>
-      <c r="N127">
-        <v>1.45</v>
-      </c>
-      <c r="O127">
-        <v>4.5</v>
-      </c>
-      <c r="P127">
-        <v>7</v>
-      </c>
-      <c r="Q127">
-        <v>-1.25</v>
       </c>
       <c r="R127">
         <v>2</v>
@@ -11801,13 +11801,13 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11816,7 +11816,7 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11825,10 +11825,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11860,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K128">
         <v>2.1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H130">
+        <v>2</v>
+      </c>
+      <c r="I130">
         <v>0</v>
       </c>
-      <c r="I130">
-        <v>2</v>
-      </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L130">
         <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N130">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O130">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P130">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
+        <v>1.8</v>
+      </c>
+      <c r="S130">
         <v>2.05</v>
       </c>
-      <c r="S130">
-        <v>1.8</v>
-      </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L131">
         <v>3.3</v>
       </c>
       <c r="M131">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N131">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O131">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
+        <v>2.05</v>
+      </c>
+      <c r="S131">
         <v>1.8</v>
       </c>
-      <c r="S131">
-        <v>2.05</v>
-      </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z131">
+        <v>-1</v>
+      </c>
+      <c r="AA131">
         <v>0.8</v>
       </c>
-      <c r="AA131">
-        <v>-1</v>
-      </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6754103</v>
+        <v>6754129</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45232</v>
       </c>
       <c r="F132" t="s">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s">
         <v>30</v>
       </c>
-      <c r="G132" t="s">
-        <v>36</v>
-      </c>
       <c r="H132">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L132">
         <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P132">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>3</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="Z132">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6754129</v>
+        <v>6754103</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45232</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L133">
         <v>3.3</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N133">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="O133">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T133">
         <v>3</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA133">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC133">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
         <v>1.666</v>
@@ -12649,7 +12649,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G137" t="s">
         <v>31</v>
@@ -12750,7 +12750,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K138">
         <v>2.7</v>
@@ -13008,7 +13008,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K145">
         <v>1.909</v>
@@ -13450,7 +13450,7 @@
         <v>45240.92013888889</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K147">
         <v>2.35</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6754113</v>
+        <v>6754114</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
         <v>47</v>
       </c>
       <c r="K148">
+        <v>4</v>
+      </c>
+      <c r="L148">
+        <v>3.7</v>
+      </c>
+      <c r="M148">
+        <v>1.75</v>
+      </c>
+      <c r="N148">
+        <v>2.7</v>
+      </c>
+      <c r="O148">
+        <v>3.5</v>
+      </c>
+      <c r="P148">
+        <v>2.45</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
         <v>1.95</v>
       </c>
-      <c r="L148">
-        <v>3.5</v>
-      </c>
-      <c r="M148">
-        <v>3.4</v>
-      </c>
-      <c r="N148">
-        <v>2.375</v>
-      </c>
-      <c r="O148">
-        <v>3.6</v>
-      </c>
-      <c r="P148">
-        <v>2.875</v>
-      </c>
-      <c r="Q148">
-        <v>-0.25</v>
-      </c>
-      <c r="R148">
-        <v>1.975</v>
-      </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V148">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y148">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA148">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6754114</v>
+        <v>6754113</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>48</v>
       </c>
       <c r="K149">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L149">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M149">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N149">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P149">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q149">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R149">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T149">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z149">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13898,7 +13898,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14254,7 +14254,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K157">
         <v>2.7</v>
@@ -14619,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>3.5</v>
@@ -14785,7 +14785,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K162">
         <v>1.533</v>
@@ -15144,7 +15144,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>5</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
         <v>3.4</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15319,7 +15319,7 @@
         <v>45269.95833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15331,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K167">
         <v>1.3</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K168">
         <v>1.5</v>
@@ -15500,7 +15500,7 @@
         <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K169">
         <v>2.6</v>
@@ -15586,7 +15586,7 @@
         <v>45277.9375</v>
       </c>
       <c r="F170" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>2.8</v>
@@ -15764,7 +15764,7 @@
         <v>45304</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16123,7 +16123,7 @@
         <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16132,7 +16132,7 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K176">
         <v>4.5</v>
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K179">
         <v>2.8</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -16746,7 +16746,7 @@
         <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16832,7 +16832,7 @@
         <v>45311.92013888889</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185">
         <v>2.3</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K188">
         <v>1.444</v>
@@ -17289,7 +17289,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K189">
         <v>3.4</v>
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K190">
         <v>4.333</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K191">
         <v>3</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17636,7 +17636,7 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K196">
         <v>4.2</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K200">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L200">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M200">
+        <v>4.5</v>
+      </c>
+      <c r="N200">
+        <v>1.533</v>
+      </c>
+      <c r="O200">
+        <v>4.2</v>
+      </c>
+      <c r="P200">
+        <v>6</v>
+      </c>
+      <c r="Q200">
+        <v>-1</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>1.9</v>
+      </c>
+      <c r="T200">
         <v>2.75</v>
       </c>
-      <c r="N200">
-        <v>3.3</v>
-      </c>
-      <c r="O200">
-        <v>3.6</v>
-      </c>
-      <c r="P200">
-        <v>2.15</v>
-      </c>
-      <c r="Q200">
-        <v>0.25</v>
-      </c>
-      <c r="R200">
-        <v>1.925</v>
-      </c>
-      <c r="S200">
-        <v>1.925</v>
-      </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
       <c r="U200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X200">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L201">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M201">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N201">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K206">
         <v>3.25</v>
@@ -18882,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19069,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K209">
         <v>2.4</v>
@@ -19158,7 +19158,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K210">
         <v>1.666</v>
@@ -19324,7 +19324,7 @@
         <v>45326.00694444445</v>
       </c>
       <c r="F212" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G212" t="s">
         <v>44</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K212">
         <v>1.75</v>
@@ -19514,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K214">
         <v>2.6</v>
@@ -19680,7 +19680,7 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K217">
         <v>1.95</v>
@@ -19870,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K218">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K220">
         <v>3.25</v>
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,73 +20214,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F222" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G222" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K222">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L222">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M222">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N222">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O222">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P222">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q222">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T222">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA222">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB222">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,73 +20303,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F223" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
         <v>3</v>
       </c>
-      <c r="I223">
-        <v>2</v>
-      </c>
       <c r="J223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K223">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L223">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M223">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N223">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O223">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P223">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
+        <v>2.05</v>
+      </c>
+      <c r="S223">
+        <v>1.8</v>
+      </c>
+      <c r="T223">
+        <v>2.5</v>
+      </c>
+      <c r="U223">
+        <v>1.9</v>
+      </c>
+      <c r="V223">
         <v>1.95</v>
       </c>
-      <c r="S223">
-        <v>1.9</v>
-      </c>
-      <c r="T223">
-        <v>2.75</v>
-      </c>
-      <c r="U223">
-        <v>1.825</v>
-      </c>
-      <c r="V223">
-        <v>2.025</v>
-      </c>
       <c r="W223">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z223">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB223">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K225">
         <v>2.4</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>45339</v>
       </c>
       <c r="F227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20760,7 +20760,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K228">
         <v>1.95</v>
@@ -20840,7 +20840,7 @@
         <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K231">
         <v>2.375</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K233">
         <v>1.666</v>
@@ -21294,7 +21294,7 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K234">
         <v>3.1</v>
@@ -21549,11 +21549,11 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
+        <v>30</v>
+      </c>
+      <c r="G237" t="s">
         <v>29</v>
       </c>
-      <c r="G237" t="s">
-        <v>30</v>
-      </c>
       <c r="H237">
         <v>2</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K237">
         <v>1.363</v>
@@ -21650,7 +21650,7 @@
         <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K238">
         <v>2.5</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K239">
         <v>2.1</v>
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K240">
         <v>2.75</v>
@@ -21917,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K241">
         <v>5</v>
@@ -22095,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K243">
         <v>1.444</v>
@@ -22261,7 +22261,7 @@
         <v>45347.00694444445</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G245" t="s">
         <v>40</v>
@@ -22442,7 +22442,7 @@
         <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22718,7 +22718,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K250">
         <v>3.75</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612871</v>
+        <v>7612872</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,76 +22795,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H251">
+        <v>4</v>
+      </c>
+      <c r="I251">
         <v>0</v>
       </c>
-      <c r="I251">
+      <c r="J251" t="s">
+        <v>49</v>
+      </c>
+      <c r="K251">
+        <v>2.05</v>
+      </c>
+      <c r="L251">
+        <v>3.4</v>
+      </c>
+      <c r="M251">
+        <v>3.5</v>
+      </c>
+      <c r="N251">
+        <v>1.8</v>
+      </c>
+      <c r="O251">
+        <v>3.8</v>
+      </c>
+      <c r="P251">
+        <v>4</v>
+      </c>
+      <c r="Q251">
+        <v>-0.75</v>
+      </c>
+      <c r="R251">
+        <v>2</v>
+      </c>
+      <c r="S251">
+        <v>1.85</v>
+      </c>
+      <c r="T251">
+        <v>2.75</v>
+      </c>
+      <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
+        <v>2.025</v>
+      </c>
+      <c r="W251">
+        <v>0.8</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>-1</v>
+      </c>
+      <c r="Z251">
         <v>1</v>
       </c>
-      <c r="J251" t="s">
-        <v>47</v>
-      </c>
-      <c r="K251">
-        <v>2.375</v>
-      </c>
-      <c r="L251">
-        <v>3.25</v>
-      </c>
-      <c r="M251">
-        <v>3</v>
-      </c>
-      <c r="N251">
-        <v>2.4</v>
-      </c>
-      <c r="O251">
-        <v>3.25</v>
-      </c>
-      <c r="P251">
-        <v>3.1</v>
-      </c>
-      <c r="Q251">
-        <v>-0.25</v>
-      </c>
-      <c r="R251">
-        <v>2.05</v>
-      </c>
-      <c r="S251">
-        <v>1.8</v>
-      </c>
-      <c r="T251">
-        <v>2.25</v>
-      </c>
-      <c r="U251">
-        <v>1.925</v>
-      </c>
-      <c r="V251">
-        <v>1.925</v>
-      </c>
-      <c r="W251">
-        <v>-1</v>
-      </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>2.1</v>
-      </c>
-      <c r="Z251">
-        <v>-1</v>
-      </c>
       <c r="AA251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC251">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612872</v>
+        <v>7612871</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K252">
+        <v>2.375</v>
+      </c>
+      <c r="L252">
+        <v>3.25</v>
+      </c>
+      <c r="M252">
+        <v>3</v>
+      </c>
+      <c r="N252">
+        <v>2.4</v>
+      </c>
+      <c r="O252">
+        <v>3.25</v>
+      </c>
+      <c r="P252">
+        <v>3.1</v>
+      </c>
+      <c r="Q252">
+        <v>-0.25</v>
+      </c>
+      <c r="R252">
         <v>2.05</v>
       </c>
-      <c r="L252">
-        <v>3.4</v>
-      </c>
-      <c r="M252">
-        <v>3.5</v>
-      </c>
-      <c r="N252">
+      <c r="S252">
         <v>1.8</v>
       </c>
-      <c r="O252">
-        <v>3.8</v>
-      </c>
-      <c r="P252">
-        <v>4</v>
-      </c>
-      <c r="Q252">
-        <v>-0.75</v>
-      </c>
-      <c r="R252">
-        <v>2</v>
-      </c>
-      <c r="S252">
-        <v>1.85</v>
-      </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V252">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W252">
+        <v>-1</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>2.1</v>
+      </c>
+      <c r="Z252">
+        <v>-1</v>
+      </c>
+      <c r="AA252">
         <v>0.8</v>
       </c>
-      <c r="X252">
-        <v>-1</v>
-      </c>
-      <c r="Y252">
-        <v>-1</v>
-      </c>
-      <c r="Z252">
-        <v>1</v>
-      </c>
-      <c r="AA252">
-        <v>-1</v>
-      </c>
       <c r="AB252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22973,7 +22973,7 @@
         <v>45353.00694444445</v>
       </c>
       <c r="F253" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G253" t="s">
         <v>39</v>
@@ -23332,7 +23332,7 @@
         <v>34</v>
       </c>
       <c r="G257" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23341,7 +23341,7 @@
         <v>5</v>
       </c>
       <c r="J257" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K257">
         <v>3.5</v>
@@ -23519,7 +23519,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K259">
         <v>2.8</v>
@@ -23608,7 +23608,7 @@
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K260">
         <v>2.6</v>
@@ -23786,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K262">
         <v>3.75</v>
@@ -23875,7 +23875,7 @@
         <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K263">
         <v>1.85</v>
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7612885</v>
+        <v>7612884</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,73 +23952,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K264">
+        <v>1.6</v>
+      </c>
+      <c r="L264">
+        <v>4.2</v>
+      </c>
+      <c r="M264">
+        <v>5</v>
+      </c>
+      <c r="N264">
+        <v>2.05</v>
+      </c>
+      <c r="O264">
+        <v>3.8</v>
+      </c>
+      <c r="P264">
         <v>3.3</v>
       </c>
-      <c r="L264">
-        <v>3.6</v>
-      </c>
-      <c r="M264">
+      <c r="Q264">
+        <v>-0.5</v>
+      </c>
+      <c r="R264">
         <v>2.05</v>
       </c>
-      <c r="N264">
-        <v>4.5</v>
-      </c>
-      <c r="O264">
-        <v>4</v>
-      </c>
-      <c r="P264">
-        <v>1.727</v>
-      </c>
-      <c r="Q264">
-        <v>0.75</v>
-      </c>
-      <c r="R264">
-        <v>1.875</v>
-      </c>
       <c r="S264">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T264">
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W264">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z264">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB264">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC264">
         <v>-0.5</v>
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7612884</v>
+        <v>7612885</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,73 +24041,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G265" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K265">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="L265">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M265">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N265">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="O265">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P265">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q265">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R265">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S265">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T265">
         <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA265">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AC265">
         <v>-0.5</v>
@@ -24130,7 +24130,7 @@
         <v>45361</v>
       </c>
       <c r="F266" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G266" t="s">
         <v>33</v>
@@ -24231,7 +24231,7 @@
         <v>3</v>
       </c>
       <c r="J267" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K267">
         <v>1.75</v>
@@ -24311,7 +24311,7 @@
         <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24498,7 +24498,7 @@
         <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K270">
         <v>2.375</v>
@@ -24587,7 +24587,7 @@
         <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K271">
         <v>1.533</v>
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7612892</v>
+        <v>7612894</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,13 +24664,13 @@
         <v>45367.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G272" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -24679,19 +24679,19 @@
         <v>49</v>
       </c>
       <c r="K272">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L272">
+        <v>4.5</v>
+      </c>
+      <c r="M272">
+        <v>6.5</v>
+      </c>
+      <c r="N272">
+        <v>1.615</v>
+      </c>
+      <c r="O272">
         <v>4</v>
-      </c>
-      <c r="M272">
-        <v>4.75</v>
-      </c>
-      <c r="N272">
-        <v>1.5</v>
-      </c>
-      <c r="O272">
-        <v>4.75</v>
       </c>
       <c r="P272">
         <v>5.5</v>
@@ -24700,22 +24700,22 @@
         <v>-1</v>
       </c>
       <c r="R272">
+        <v>2.05</v>
+      </c>
+      <c r="S272">
         <v>1.8</v>
       </c>
-      <c r="S272">
-        <v>2.05</v>
-      </c>
       <c r="T272">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U272">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V272">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W272">
-        <v>0.5</v>
+        <v>0.615</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24724,16 +24724,16 @@
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA272">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC272">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24741,7 +24741,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7612894</v>
+        <v>7612892</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24753,13 +24753,13 @@
         <v>45367.91666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G273" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H273">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I273">
         <v>1</v>
@@ -24768,19 +24768,19 @@
         <v>49</v>
       </c>
       <c r="K273">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L273">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M273">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N273">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O273">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P273">
         <v>5.5</v>
@@ -24789,22 +24789,22 @@
         <v>-1</v>
       </c>
       <c r="R273">
+        <v>1.8</v>
+      </c>
+      <c r="S273">
         <v>2.05</v>
       </c>
-      <c r="S273">
+      <c r="T273">
+        <v>3.25</v>
+      </c>
+      <c r="U273">
+        <v>2.05</v>
+      </c>
+      <c r="V273">
         <v>1.8</v>
       </c>
-      <c r="T273">
-        <v>2.75</v>
-      </c>
-      <c r="U273">
-        <v>1.925</v>
-      </c>
-      <c r="V273">
-        <v>1.925</v>
-      </c>
       <c r="W273">
-        <v>0.615</v>
+        <v>0.5</v>
       </c>
       <c r="X273">
         <v>-1</v>
@@ -24813,16 +24813,16 @@
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB273">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24845,7 +24845,7 @@
         <v>41</v>
       </c>
       <c r="G274" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K274">
         <v>3.2</v>
@@ -24943,7 +24943,7 @@
         <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K275">
         <v>3.2</v>
@@ -25008,7 +25008,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7612893</v>
+        <v>7612897</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25020,46 +25020,46 @@
         <v>45368.91666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G276" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I276">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J276" t="s">
         <v>49</v>
       </c>
       <c r="K276">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L276">
+        <v>3.75</v>
+      </c>
+      <c r="M276">
+        <v>2.3</v>
+      </c>
+      <c r="N276">
+        <v>3.5</v>
+      </c>
+      <c r="O276">
         <v>3.6</v>
       </c>
-      <c r="M276">
-        <v>4</v>
-      </c>
-      <c r="N276">
-        <v>1.75</v>
-      </c>
-      <c r="O276">
-        <v>3.8</v>
-      </c>
       <c r="P276">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Q276">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R276">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S276">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T276">
         <v>2.75</v>
@@ -25071,7 +25071,7 @@
         <v>2.05</v>
       </c>
       <c r="W276">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25080,7 +25080,7 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA276">
         <v>-1</v>
@@ -25097,7 +25097,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7612897</v>
+        <v>7612893</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25109,46 +25109,46 @@
         <v>45368.91666666666</v>
       </c>
       <c r="F277" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G277" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I277">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J277" t="s">
         <v>49</v>
       </c>
       <c r="K277">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L277">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M277">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N277">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O277">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P277">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="Q277">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R277">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S277">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T277">
         <v>2.75</v>
@@ -25160,7 +25160,7 @@
         <v>2.05</v>
       </c>
       <c r="W277">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25169,7 +25169,7 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA277">
         <v>-1</v>
@@ -25275,7 +25275,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>7612901</v>
+        <v>7612898</v>
       </c>
       <c r="C279" t="s">
         <v>28</v>
@@ -25284,64 +25284,79 @@
         <v>28</v>
       </c>
       <c r="E279" s="2">
-        <v>45381.91666666666</v>
+        <v>45380.91666666666</v>
       </c>
       <c r="F279" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G279" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="H279">
+        <v>2</v>
+      </c>
+      <c r="I279">
+        <v>3</v>
+      </c>
+      <c r="J279" t="s">
+        <v>48</v>
       </c>
       <c r="K279">
-        <v>2.05</v>
+        <v>4.333</v>
       </c>
       <c r="L279">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M279">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="N279">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="O279">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P279">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q279">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R279">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S279">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T279">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U279">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V279">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X279">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y279">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Z279">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA279">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+      <c r="AB279">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC279">
+        <v>-1</v>
       </c>
     </row>
     <row r="280" spans="1:29">
@@ -25349,7 +25364,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>7612902</v>
+        <v>7612900</v>
       </c>
       <c r="C280" t="s">
         <v>28</v>
@@ -25358,64 +25373,79 @@
         <v>28</v>
       </c>
       <c r="E280" s="2">
-        <v>45381.91666666666</v>
+        <v>45380.95833333334</v>
       </c>
       <c r="F280" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G280" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="H280">
+        <v>2</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280" t="s">
+        <v>49</v>
       </c>
       <c r="K280">
-        <v>1.615</v>
+        <v>1.363</v>
       </c>
       <c r="L280">
-        <v>3.75</v>
+        <v>4.8</v>
       </c>
       <c r="M280">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N280">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="O280">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P280">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q280">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R280">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S280">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T280">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U280">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V280">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W280">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="X280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y280">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z280">
         <v>0</v>
       </c>
       <c r="AA280">
+        <v>-0</v>
+      </c>
+      <c r="AB280">
         <v>0</v>
+      </c>
+      <c r="AC280">
+        <v>-0</v>
       </c>
     </row>
     <row r="281" spans="1:29">
@@ -25423,7 +25453,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>7612903</v>
+        <v>7612899</v>
       </c>
       <c r="C281" t="s">
         <v>28</v>
@@ -25432,64 +25462,79 @@
         <v>28</v>
       </c>
       <c r="E281" s="2">
-        <v>45382</v>
+        <v>45381</v>
       </c>
       <c r="F281" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G281" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="H281">
+        <v>2</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281" t="s">
+        <v>49</v>
       </c>
       <c r="K281">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L281">
         <v>3.5</v>
       </c>
       <c r="M281">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N281">
+        <v>2.25</v>
+      </c>
+      <c r="O281">
+        <v>3.8</v>
+      </c>
+      <c r="P281">
         <v>3</v>
       </c>
-      <c r="O281">
-        <v>3.6</v>
-      </c>
-      <c r="P281">
-        <v>2.25</v>
-      </c>
       <c r="Q281">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R281">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S281">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T281">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U281">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V281">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W281">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X281">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y281">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z281">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA281">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB281">
+        <v>-1</v>
+      </c>
+      <c r="AC281">
+        <v>1.05</v>
       </c>
     </row>
     <row r="282" spans="1:29">
@@ -25497,7 +25542,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7612904</v>
+        <v>7612905</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25506,49 +25551,49 @@
         <v>28</v>
       </c>
       <c r="E282" s="2">
-        <v>45382.83333333334</v>
+        <v>45382.91666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G282" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K282">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L282">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M282">
-        <v>3.3</v>
+        <v>2.35</v>
       </c>
       <c r="N282">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="O282">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P282">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q282">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R282">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S282">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T282">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U282">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V282">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W282">
         <v>0</v>
@@ -25571,7 +25616,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7612905</v>
+        <v>7612906</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25580,49 +25625,49 @@
         <v>28</v>
       </c>
       <c r="E283" s="2">
-        <v>45382.91666666666</v>
+        <v>45382.9375</v>
       </c>
       <c r="F283" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G283" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K283">
-        <v>2.7</v>
+        <v>2.625</v>
       </c>
       <c r="L283">
         <v>3.5</v>
       </c>
       <c r="M283">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N283">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O283">
         <v>3.5</v>
       </c>
       <c r="P283">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q283">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S283">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T283">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U283">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V283">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W283">
         <v>0</v>
@@ -25645,7 +25690,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7612906</v>
+        <v>7612907</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25654,34 +25699,34 @@
         <v>28</v>
       </c>
       <c r="E284" s="2">
-        <v>45382.94166666667</v>
+        <v>45387.91666666666</v>
       </c>
       <c r="F284" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G284" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K284">
-        <v>2.625</v>
+        <v>2.4</v>
       </c>
       <c r="L284">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M284">
+        <v>2.75</v>
+      </c>
+      <c r="N284">
+        <v>2.75</v>
+      </c>
+      <c r="O284">
+        <v>3.4</v>
+      </c>
+      <c r="P284">
         <v>2.4</v>
       </c>
-      <c r="N284">
-        <v>2.375</v>
-      </c>
-      <c r="O284">
-        <v>3.5</v>
-      </c>
-      <c r="P284">
-        <v>2.9</v>
-      </c>
       <c r="Q284">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R284">
         <v>2.05</v>
@@ -25693,10 +25738,10 @@
         <v>2.75</v>
       </c>
       <c r="U284">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V284">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W284">
         <v>0</v>
@@ -25711,6 +25756,228 @@
         <v>0</v>
       </c>
       <c r="AA284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:29">
+      <c r="A285" s="1">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>7612911</v>
+      </c>
+      <c r="C285" t="s">
+        <v>28</v>
+      </c>
+      <c r="D285" t="s">
+        <v>28</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45388.91666666666</v>
+      </c>
+      <c r="F285" t="s">
+        <v>33</v>
+      </c>
+      <c r="G285" t="s">
+        <v>45</v>
+      </c>
+      <c r="K285">
+        <v>1.909</v>
+      </c>
+      <c r="L285">
+        <v>3.5</v>
+      </c>
+      <c r="M285">
+        <v>3.75</v>
+      </c>
+      <c r="N285">
+        <v>1.85</v>
+      </c>
+      <c r="O285">
+        <v>3.5</v>
+      </c>
+      <c r="P285">
+        <v>4</v>
+      </c>
+      <c r="Q285">
+        <v>-0.5</v>
+      </c>
+      <c r="R285">
+        <v>1.875</v>
+      </c>
+      <c r="S285">
+        <v>1.975</v>
+      </c>
+      <c r="T285">
+        <v>2.75</v>
+      </c>
+      <c r="U285">
+        <v>1.925</v>
+      </c>
+      <c r="V285">
+        <v>1.925</v>
+      </c>
+      <c r="W285">
+        <v>0</v>
+      </c>
+      <c r="X285">
+        <v>0</v>
+      </c>
+      <c r="Y285">
+        <v>0</v>
+      </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
+      <c r="AA285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:29">
+      <c r="A286" s="1">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>7612910</v>
+      </c>
+      <c r="C286" t="s">
+        <v>28</v>
+      </c>
+      <c r="D286" t="s">
+        <v>28</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45388.92013888889</v>
+      </c>
+      <c r="F286" t="s">
+        <v>41</v>
+      </c>
+      <c r="G286" t="s">
+        <v>38</v>
+      </c>
+      <c r="K286">
+        <v>1.5</v>
+      </c>
+      <c r="L286">
+        <v>4.2</v>
+      </c>
+      <c r="M286">
+        <v>6</v>
+      </c>
+      <c r="N286">
+        <v>1.533</v>
+      </c>
+      <c r="O286">
+        <v>4.2</v>
+      </c>
+      <c r="P286">
+        <v>5.75</v>
+      </c>
+      <c r="Q286">
+        <v>-1</v>
+      </c>
+      <c r="R286">
+        <v>1.875</v>
+      </c>
+      <c r="S286">
+        <v>1.975</v>
+      </c>
+      <c r="T286">
+        <v>3</v>
+      </c>
+      <c r="U286">
+        <v>1.95</v>
+      </c>
+      <c r="V286">
+        <v>1.9</v>
+      </c>
+      <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
+        <v>0</v>
+      </c>
+      <c r="Y286">
+        <v>0</v>
+      </c>
+      <c r="Z286">
+        <v>0</v>
+      </c>
+      <c r="AA286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:29">
+      <c r="A287" s="1">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>7612912</v>
+      </c>
+      <c r="C287" t="s">
+        <v>28</v>
+      </c>
+      <c r="D287" t="s">
+        <v>28</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45389</v>
+      </c>
+      <c r="F287" t="s">
+        <v>40</v>
+      </c>
+      <c r="G287" t="s">
+        <v>44</v>
+      </c>
+      <c r="K287">
+        <v>2.4</v>
+      </c>
+      <c r="L287">
+        <v>3.2</v>
+      </c>
+      <c r="M287">
+        <v>2.875</v>
+      </c>
+      <c r="N287">
+        <v>2.2</v>
+      </c>
+      <c r="O287">
+        <v>3.2</v>
+      </c>
+      <c r="P287">
+        <v>3.25</v>
+      </c>
+      <c r="Q287">
+        <v>-0.25</v>
+      </c>
+      <c r="R287">
+        <v>1.925</v>
+      </c>
+      <c r="S287">
+        <v>1.925</v>
+      </c>
+      <c r="T287">
+        <v>2.5</v>
+      </c>
+      <c r="U287">
+        <v>1.9</v>
+      </c>
+      <c r="V287">
+        <v>1.95</v>
+      </c>
+      <c r="W287">
+        <v>0</v>
+      </c>
+      <c r="X287">
+        <v>0</v>
+      </c>
+      <c r="Y287">
+        <v>0</v>
+      </c>
+      <c r="Z287">
+        <v>0</v>
+      </c>
+      <c r="AA287">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Mexico Liga MX</t>
   </si>
   <si>
-    <t>Mazatlan FC</t>
+    <t>Club America</t>
   </si>
   <si>
-    <t>Club America</t>
+    <t>Mazatlan FC</t>
   </si>
   <si>
     <t>Tijuana</t>
@@ -157,10 +157,10 @@
     <t>Queretaro</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC287"/>
+  <dimension ref="A1:AC296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6753988</v>
+        <v>6753986</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -637,73 +637,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>4.75</v>
+        <v>1.333</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M2">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N2">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>-1.25</v>
+      </c>
+      <c r="R2">
+        <v>1.975</v>
+      </c>
+      <c r="S2">
+        <v>1.875</v>
+      </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
         <v>2.05</v>
       </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>1.825</v>
-      </c>
-      <c r="S2">
-        <v>2.025</v>
-      </c>
-      <c r="T2">
-        <v>2.75</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z2">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6753986</v>
+        <v>6753988</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>48</v>
       </c>
       <c r="K3">
-        <v>1.333</v>
+        <v>4.75</v>
       </c>
       <c r="L3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S3">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA3">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>2.1</v>
@@ -913,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>3.5</v>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1.363</v>
@@ -1269,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1.666</v>
@@ -1358,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>2.55</v>
@@ -1536,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1625,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
         <v>2.45</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1883,7 +1883,7 @@
         <v>43</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>1.7</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K19">
         <v>2.4</v>
@@ -2325,7 +2325,7 @@
         <v>45121.91666666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
         <v>44</v>
@@ -2337,7 +2337,7 @@
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K21">
         <v>5</v>
@@ -2592,7 +2592,7 @@
         <v>45122.91666666666</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2782,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26">
         <v>1.75</v>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
         <v>1.9</v>
@@ -2951,7 +2951,7 @@
         <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
         <v>2.8</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
         <v>2.7</v>
@@ -3316,7 +3316,7 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
         <v>2.05</v>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3494,7 +3494,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>3.75</v>
@@ -3571,7 +3571,7 @@
         <v>45159.00694444445</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3583,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
         <v>2.3</v>
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,61 +3675,61 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L36">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N36">
+        <v>1.615</v>
+      </c>
+      <c r="O36">
+        <v>4.2</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <v>-0.75</v>
+      </c>
+      <c r="R36">
+        <v>1.8</v>
+      </c>
+      <c r="S36">
+        <v>2.05</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
+        <v>2</v>
+      </c>
+      <c r="V36">
         <v>1.85</v>
       </c>
-      <c r="O36">
-        <v>3.75</v>
-      </c>
-      <c r="P36">
-        <v>4</v>
-      </c>
-      <c r="Q36">
+      <c r="W36">
+        <v>0.615</v>
+      </c>
+      <c r="X36">
+        <v>-1</v>
+      </c>
+      <c r="Y36">
+        <v>-1</v>
+      </c>
+      <c r="Z36">
+        <v>0.4</v>
+      </c>
+      <c r="AA36">
         <v>-0.5</v>
       </c>
-      <c r="R36">
-        <v>1.875</v>
-      </c>
-      <c r="S36">
-        <v>1.975</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.825</v>
-      </c>
-      <c r="V36">
-        <v>2.025</v>
-      </c>
-      <c r="W36">
+      <c r="AB36">
+        <v>-1</v>
+      </c>
+      <c r="AC36">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X36">
-        <v>-1</v>
-      </c>
-      <c r="Y36">
-        <v>-1</v>
-      </c>
-      <c r="Z36">
-        <v>0.875</v>
-      </c>
-      <c r="AA36">
-        <v>-1</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
-      <c r="AC36">
-        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,43 +3764,43 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L37">
+        <v>3.3</v>
+      </c>
+      <c r="M37">
+        <v>2.9</v>
+      </c>
+      <c r="N37">
+        <v>1.85</v>
+      </c>
+      <c r="O37">
+        <v>3.75</v>
+      </c>
+      <c r="P37">
+        <v>4</v>
+      </c>
+      <c r="Q37">
+        <v>-0.5</v>
+      </c>
+      <c r="R37">
+        <v>1.875</v>
+      </c>
+      <c r="S37">
+        <v>1.975</v>
+      </c>
+      <c r="T37">
         <v>3</v>
       </c>
-      <c r="M37">
-        <v>1.5</v>
-      </c>
-      <c r="N37">
-        <v>1.615</v>
-      </c>
-      <c r="O37">
-        <v>4.2</v>
-      </c>
-      <c r="P37">
-        <v>5</v>
-      </c>
-      <c r="Q37">
-        <v>-0.75</v>
-      </c>
-      <c r="R37">
-        <v>1.8</v>
-      </c>
-      <c r="S37">
-        <v>2.05</v>
-      </c>
-      <c r="T37">
-        <v>2.75</v>
-      </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3809,16 +3809,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
         <v>-1</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3927,7 +3927,7 @@
         <v>45161.91666666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
         <v>39</v>
@@ -4286,7 +4286,7 @@
         <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K43">
         <v>1.55</v>
@@ -4384,7 +4384,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K44">
         <v>2.3</v>
@@ -4461,7 +4461,7 @@
         <v>45164.91666666666</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
         <v>37</v>
@@ -4473,7 +4473,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K45">
         <v>1.7</v>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>2.375</v>
@@ -4829,7 +4829,7 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.6</v>
@@ -4918,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>1.727</v>
@@ -5096,7 +5096,7 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K52">
         <v>3</v>
@@ -5265,7 +5265,7 @@
         <v>42</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5363,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>1.363</v>
@@ -5621,7 +5621,7 @@
         <v>40</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5630,7 +5630,7 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>3.2</v>
@@ -5808,7 +5808,7 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5974,7 +5974,7 @@
         <v>45184.90972222222</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>40</v>
@@ -5986,7 +5986,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2.625</v>
@@ -6164,7 +6164,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K64">
         <v>2.5</v>
@@ -6330,7 +6330,7 @@
         <v>45186.00694444445</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
         <v>41</v>
@@ -6520,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -6778,7 +6778,7 @@
         <v>46</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>3.2</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,73 +6864,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L72">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M72">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N72">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P72">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q72">
+        <v>-1</v>
+      </c>
+      <c r="R72">
+        <v>1.95</v>
+      </c>
+      <c r="S72">
+        <v>1.9</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>1.925</v>
+      </c>
+      <c r="V72">
+        <v>1.925</v>
+      </c>
+      <c r="W72">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>0</v>
       </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>2.25</v>
-      </c>
-      <c r="U72">
-        <v>2.1</v>
-      </c>
-      <c r="V72">
-        <v>1.775</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>1.8</v>
-      </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
       <c r="AA72">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M73">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N73">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O73">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V73">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>2.2</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,61 +7131,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M75">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q75">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7194,13 +7194,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,61 +7220,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L76">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M76">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R76">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X76">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7283,13 +7283,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7401,7 +7401,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7410,7 +7410,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>2.875</v>
@@ -7499,7 +7499,7 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7588,7 +7588,7 @@
         <v>5</v>
       </c>
       <c r="J80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>1.8</v>
@@ -7668,7 +7668,7 @@
         <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>1.444</v>
@@ -7766,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>2.1</v>
@@ -7855,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
         <v>2.6</v>
@@ -7944,7 +7944,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>1.909</v>
@@ -8122,7 +8122,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>1.8</v>
@@ -8199,7 +8199,7 @@
         <v>45199.90277777778</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
         <v>43</v>
@@ -8288,7 +8288,7 @@
         <v>45199.91666666666</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>33</v>
@@ -8300,7 +8300,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>3.25</v>
@@ -8389,7 +8389,7 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
         <v>2.25</v>
@@ -8478,7 +8478,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
         <v>5</v>
@@ -8555,7 +8555,7 @@
         <v>45203</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6754066</v>
+        <v>6754065</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,73 +8644,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
+        <v>3.3</v>
+      </c>
+      <c r="M92">
+        <v>2.8</v>
+      </c>
+      <c r="N92">
         <v>3.5</v>
-      </c>
-      <c r="M92">
-        <v>4.5</v>
-      </c>
-      <c r="N92">
-        <v>1.8</v>
       </c>
       <c r="O92">
         <v>3.6</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T92">
         <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6754065</v>
+        <v>6754066</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45203.91666666666</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N93">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.6</v>
       </c>
       <c r="P93">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T93">
         <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8923,7 +8923,7 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K95">
         <v>1.8</v>
@@ -9000,10 +9000,10 @@
         <v>45206</v>
       </c>
       <c r="F96" t="s">
+        <v>30</v>
+      </c>
+      <c r="G96" t="s">
         <v>29</v>
-      </c>
-      <c r="G96" t="s">
-        <v>30</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9012,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>3.75</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N98">
+        <v>2.9</v>
+      </c>
+      <c r="O98">
+        <v>3.5</v>
+      </c>
+      <c r="P98">
         <v>2.4</v>
       </c>
-      <c r="O98">
-        <v>3.2</v>
-      </c>
-      <c r="P98">
-        <v>3.1</v>
-      </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W98">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P99">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S99">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X99">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9368,7 +9368,7 @@
         <v>4</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>2.2</v>
@@ -9546,7 +9546,7 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>2.2</v>
@@ -9635,7 +9635,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>2.2</v>
@@ -9804,7 +9804,7 @@
         <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K106">
         <v>2.5</v>
@@ -9991,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>3.75</v>
@@ -10157,7 +10157,7 @@
         <v>45220.91666666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10436,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10614,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10958,7 +10958,7 @@
         <v>45227</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11237,7 +11237,7 @@
         <v>4</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.5</v>
@@ -11317,7 +11317,7 @@
         <v>44</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11326,7 +11326,7 @@
         <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>3.2</v>
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6754097</v>
+        <v>6754096</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,40 +11670,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>47</v>
+      </c>
+      <c r="K126">
+        <v>3.25</v>
+      </c>
+      <c r="L126">
+        <v>3.3</v>
+      </c>
+      <c r="M126">
+        <v>2.2</v>
+      </c>
+      <c r="N126">
+        <v>2.8</v>
+      </c>
+      <c r="O126">
+        <v>3.1</v>
+      </c>
+      <c r="P126">
+        <v>2.7</v>
+      </c>
+      <c r="Q126">
         <v>0</v>
-      </c>
-      <c r="I126">
-        <v>1</v>
-      </c>
-      <c r="J126" t="s">
-        <v>48</v>
-      </c>
-      <c r="K126">
-        <v>1.5</v>
-      </c>
-      <c r="L126">
-        <v>4</v>
-      </c>
-      <c r="M126">
-        <v>7</v>
-      </c>
-      <c r="N126">
-        <v>1.45</v>
-      </c>
-      <c r="O126">
-        <v>4.5</v>
-      </c>
-      <c r="P126">
-        <v>7</v>
-      </c>
-      <c r="Q126">
-        <v>-1.25</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -11712,13 +11712,13 @@
         <v>1.85</v>
       </c>
       <c r="T126">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11727,7 +11727,7 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Z126">
         <v>-1</v>
@@ -11736,10 +11736,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6754096</v>
+        <v>6754097</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,40 +11759,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>1</v>
       </c>
-      <c r="I127">
-        <v>2</v>
-      </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L127">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M127">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O127">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P127">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
         <v>2</v>
@@ -11801,13 +11801,13 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U127">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V127">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11816,7 +11816,7 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11825,10 +11825,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11860,7 +11860,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>2.1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6754101</v>
+        <v>6754100</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K130">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L130">
         <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="N130">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="O130">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
+        <v>2.05</v>
+      </c>
+      <c r="S130">
         <v>1.8</v>
       </c>
-      <c r="S130">
-        <v>2.05</v>
-      </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W130">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
         <v>0.8</v>
       </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6754100</v>
+        <v>6754101</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45231.91666666666</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
         <v>0</v>
       </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
         <v>3.3</v>
       </c>
       <c r="M131">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N131">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="O131">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P131">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
         <v>2.05</v>
       </c>
-      <c r="S131">
-        <v>1.8</v>
-      </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12207,7 +12207,7 @@
         <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12216,7 +12216,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K132">
         <v>3.75</v>
@@ -12293,7 +12293,7 @@
         <v>45232</v>
       </c>
       <c r="F133" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
         <v>36</v>
@@ -12572,7 +12572,7 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K136">
         <v>1.666</v>
@@ -12649,7 +12649,7 @@
         <v>45234.91666666666</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
         <v>31</v>
@@ -12750,7 +12750,7 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K138">
         <v>2.7</v>
@@ -13008,7 +13008,7 @@
         <v>39</v>
       </c>
       <c r="G141" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -13195,7 +13195,7 @@
         <v>3</v>
       </c>
       <c r="J143" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K143">
         <v>1.833</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K145">
         <v>1.909</v>
@@ -13450,7 +13450,7 @@
         <v>45240.92013888889</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
         <v>35</v>
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="J147" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K147">
         <v>2.35</v>
@@ -13616,7 +13616,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6754114</v>
+        <v>6754113</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13628,76 +13628,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F148" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>47</v>
       </c>
       <c r="K148">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="L148">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="N148">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R148">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z148">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13705,7 +13705,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6754113</v>
+        <v>6754114</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13717,76 +13717,76 @@
         <v>45241.83333333334</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
         <v>48</v>
       </c>
       <c r="K149">
+        <v>4</v>
+      </c>
+      <c r="L149">
+        <v>3.7</v>
+      </c>
+      <c r="M149">
+        <v>1.75</v>
+      </c>
+      <c r="N149">
+        <v>2.7</v>
+      </c>
+      <c r="O149">
+        <v>3.5</v>
+      </c>
+      <c r="P149">
+        <v>2.45</v>
+      </c>
+      <c r="Q149">
+        <v>0</v>
+      </c>
+      <c r="R149">
         <v>1.95</v>
       </c>
-      <c r="L149">
-        <v>3.5</v>
-      </c>
-      <c r="M149">
-        <v>3.4</v>
-      </c>
-      <c r="N149">
-        <v>2.375</v>
-      </c>
-      <c r="O149">
-        <v>3.6</v>
-      </c>
-      <c r="P149">
-        <v>2.875</v>
-      </c>
-      <c r="Q149">
-        <v>-0.25</v>
-      </c>
-      <c r="R149">
-        <v>1.975</v>
-      </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W149">
         <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y149">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA149">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13898,7 +13898,7 @@
         <v>33</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -13907,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K151">
         <v>2.25</v>
@@ -13996,7 +13996,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K152">
         <v>2.2</v>
@@ -14254,7 +14254,7 @@
         <v>36</v>
       </c>
       <c r="G155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -14432,7 +14432,7 @@
         <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14441,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K157">
         <v>2.7</v>
@@ -14619,7 +14619,7 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K159">
         <v>3.5</v>
@@ -14785,7 +14785,7 @@
         <v>45262.91666666666</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14886,7 +14886,7 @@
         <v>1</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K162">
         <v>1.533</v>
@@ -15144,7 +15144,7 @@
         <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>5</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>3.4</v>
@@ -15242,7 +15242,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15319,7 +15319,7 @@
         <v>45269.95833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
         <v>32</v>
@@ -15331,7 +15331,7 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K167">
         <v>1.3</v>
@@ -15420,7 +15420,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K168">
         <v>1.5</v>
@@ -15500,7 +15500,7 @@
         <v>33</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H169">
         <v>1</v>
@@ -15509,7 +15509,7 @@
         <v>1</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K169">
         <v>2.6</v>
@@ -15586,7 +15586,7 @@
         <v>45277.9375</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -15687,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K171">
         <v>2.8</v>
@@ -15764,7 +15764,7 @@
         <v>45304</v>
       </c>
       <c r="F172" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
         <v>32</v>
@@ -15776,7 +15776,7 @@
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K172">
         <v>2.625</v>
@@ -15865,7 +15865,7 @@
         <v>1</v>
       </c>
       <c r="J173" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K173">
         <v>2.5</v>
@@ -15954,7 +15954,7 @@
         <v>1</v>
       </c>
       <c r="J174" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K174">
         <v>2</v>
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7612675</v>
+        <v>7612685</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,76 +16031,76 @@
         <v>45305</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K175">
-        <v>1.571</v>
+        <v>4.5</v>
       </c>
       <c r="L175">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="N175">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O175">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P175">
-        <v>7.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q175">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S175">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T175">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W175">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z175">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.8500000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7612685</v>
+        <v>7612675</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16120,76 +16120,76 @@
         <v>45305</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
         <v>0</v>
       </c>
-      <c r="I176">
-        <v>2</v>
-      </c>
       <c r="J176" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K176">
-        <v>4.5</v>
+        <v>1.571</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="N176">
-        <v>2.45</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P176">
-        <v>2.875</v>
+        <v>7.5</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R176">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="S176">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA176">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC176">
-        <v>0.5249999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16399,7 +16399,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K179">
         <v>2.8</v>
@@ -16488,7 +16488,7 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K180">
         <v>1.8</v>
@@ -16666,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K182">
         <v>2</v>
@@ -16746,7 +16746,7 @@
         <v>35</v>
       </c>
       <c r="G183" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -16832,7 +16832,7 @@
         <v>45311.92013888889</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G184" t="s">
         <v>46</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K185">
         <v>2.3</v>
@@ -17111,7 +17111,7 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K187">
         <v>3.5</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K188">
         <v>1.444</v>
@@ -17289,7 +17289,7 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K189">
         <v>3.4</v>
@@ -17369,7 +17369,7 @@
         <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -17378,7 +17378,7 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K190">
         <v>4.333</v>
@@ -17467,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K191">
         <v>3</v>
@@ -17556,7 +17556,7 @@
         <v>1</v>
       </c>
       <c r="J192" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K192">
         <v>2.8</v>
@@ -17636,7 +17636,7 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H193">
         <v>2</v>
@@ -17903,7 +17903,7 @@
         <v>39</v>
       </c>
       <c r="G196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K196">
         <v>4.2</v>
@@ -18179,7 +18179,7 @@
         <v>1</v>
       </c>
       <c r="J199" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K199">
         <v>4</v>
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K200">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L200">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M200">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N200">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O200">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P200">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q200">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W200">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K201">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L201">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M201">
+        <v>4.5</v>
+      </c>
+      <c r="N201">
+        <v>1.533</v>
+      </c>
+      <c r="O201">
+        <v>4.2</v>
+      </c>
+      <c r="P201">
+        <v>6</v>
+      </c>
+      <c r="Q201">
+        <v>-1</v>
+      </c>
+      <c r="R201">
+        <v>1.95</v>
+      </c>
+      <c r="S201">
+        <v>1.9</v>
+      </c>
+      <c r="T201">
         <v>2.75</v>
       </c>
-      <c r="N201">
-        <v>3.3</v>
-      </c>
-      <c r="O201">
-        <v>3.6</v>
-      </c>
-      <c r="P201">
-        <v>2.15</v>
-      </c>
-      <c r="Q201">
-        <v>0.25</v>
-      </c>
-      <c r="R201">
-        <v>1.925</v>
-      </c>
-      <c r="S201">
-        <v>1.925</v>
-      </c>
-      <c r="T201">
-        <v>2.5</v>
-      </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X201">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18713,7 +18713,7 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K205">
         <v>2</v>
@@ -18802,7 +18802,7 @@
         <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K206">
         <v>3.25</v>
@@ -18882,7 +18882,7 @@
         <v>38</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H207">
         <v>3</v>
@@ -19069,7 +19069,7 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K209">
         <v>2.4</v>
@@ -19158,7 +19158,7 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K210">
         <v>1.666</v>
@@ -19324,7 +19324,7 @@
         <v>45326.00694444445</v>
       </c>
       <c r="F212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G212" t="s">
         <v>44</v>
@@ -19336,7 +19336,7 @@
         <v>1</v>
       </c>
       <c r="J212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K212">
         <v>1.75</v>
@@ -19514,7 +19514,7 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K214">
         <v>2.6</v>
@@ -19680,7 +19680,7 @@
         <v>45331.91666666666</v>
       </c>
       <c r="F216" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G216" t="s">
         <v>34</v>
@@ -19781,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="J217" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K217">
         <v>1.95</v>
@@ -19870,7 +19870,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K218">
         <v>3</v>
@@ -20039,7 +20039,7 @@
         <v>37</v>
       </c>
       <c r="G220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -20048,7 +20048,7 @@
         <v>1</v>
       </c>
       <c r="J220" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K220">
         <v>3.25</v>
@@ -20202,7 +20202,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7612841</v>
+        <v>7612842</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20214,73 +20214,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F222" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G222" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
         <v>3</v>
       </c>
-      <c r="I222">
-        <v>2</v>
-      </c>
       <c r="J222" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K222">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L222">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M222">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="N222">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="O222">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P222">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R222">
+        <v>2.05</v>
+      </c>
+      <c r="S222">
+        <v>1.8</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.9</v>
+      </c>
+      <c r="V222">
         <v>1.95</v>
       </c>
-      <c r="S222">
-        <v>1.9</v>
-      </c>
-      <c r="T222">
-        <v>2.75</v>
-      </c>
-      <c r="U222">
-        <v>1.825</v>
-      </c>
-      <c r="V222">
-        <v>2.025</v>
-      </c>
       <c r="W222">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z222">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB222">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC222">
         <v>-1</v>
@@ -20291,7 +20291,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7612842</v>
+        <v>7612841</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20303,73 +20303,73 @@
         <v>45333.00694444445</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G223" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K223">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="L223">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M223">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="N223">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O223">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P223">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="Q223">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R223">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S223">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T223">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA223">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB223">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC223">
         <v>-1</v>
@@ -20493,7 +20493,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K225">
         <v>2.4</v>
@@ -20582,7 +20582,7 @@
         <v>1</v>
       </c>
       <c r="J226" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K226">
         <v>2.3</v>
@@ -20659,7 +20659,7 @@
         <v>45339</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G227" t="s">
         <v>41</v>
@@ -20671,7 +20671,7 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K227">
         <v>3.75</v>
@@ -20760,7 +20760,7 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K228">
         <v>1.95</v>
@@ -20840,7 +20840,7 @@
         <v>45</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -21027,7 +21027,7 @@
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K231">
         <v>2.375</v>
@@ -21205,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K233">
         <v>1.666</v>
@@ -21294,7 +21294,7 @@
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K234">
         <v>3.1</v>
@@ -21549,11 +21549,11 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
+        <v>29</v>
+      </c>
+      <c r="G237" t="s">
         <v>30</v>
       </c>
-      <c r="G237" t="s">
-        <v>29</v>
-      </c>
       <c r="H237">
         <v>2</v>
       </c>
@@ -21561,7 +21561,7 @@
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K237">
         <v>1.363</v>
@@ -21650,7 +21650,7 @@
         <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K238">
         <v>2.5</v>
@@ -21739,7 +21739,7 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K239">
         <v>2.1</v>
@@ -21828,7 +21828,7 @@
         <v>1</v>
       </c>
       <c r="J240" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K240">
         <v>2.75</v>
@@ -21917,7 +21917,7 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K241">
         <v>5</v>
@@ -22095,7 +22095,7 @@
         <v>1</v>
       </c>
       <c r="J243" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K243">
         <v>1.444</v>
@@ -22261,7 +22261,7 @@
         <v>45347.00694444445</v>
       </c>
       <c r="F245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G245" t="s">
         <v>40</v>
@@ -22442,7 +22442,7 @@
         <v>36</v>
       </c>
       <c r="G247" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H247">
         <v>1</v>
@@ -22718,7 +22718,7 @@
         <v>1</v>
       </c>
       <c r="J250" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K250">
         <v>3.75</v>
@@ -22896,7 +22896,7 @@
         <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K252">
         <v>2.375</v>
@@ -22973,7 +22973,7 @@
         <v>45353.00694444445</v>
       </c>
       <c r="F253" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G253" t="s">
         <v>39</v>
@@ -23332,7 +23332,7 @@
         <v>34</v>
       </c>
       <c r="G257" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H257">
         <v>1</v>
@@ -23341,7 +23341,7 @@
         <v>5</v>
       </c>
       <c r="J257" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K257">
         <v>3.5</v>
@@ -23519,7 +23519,7 @@
         <v>1</v>
       </c>
       <c r="J259" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K259">
         <v>2.8</v>
@@ -23608,7 +23608,7 @@
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K260">
         <v>2.6</v>
@@ -23786,7 +23786,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K262">
         <v>3.75</v>
@@ -23875,7 +23875,7 @@
         <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K263">
         <v>1.85</v>
@@ -23964,7 +23964,7 @@
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K264">
         <v>1.6</v>
@@ -24130,7 +24130,7 @@
         <v>45361</v>
       </c>
       <c r="F266" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G266" t="s">
         <v>33</v>
@@ -24231,7 +24231,7 @@
         <v>3</v>
       </c>
       <c r="J267" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K267">
         <v>1.75</v>
@@ -24311,7 +24311,7 @@
         <v>44</v>
       </c>
       <c r="G268" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H268">
         <v>2</v>
@@ -24498,7 +24498,7 @@
         <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K270">
         <v>2.375</v>
@@ -24587,7 +24587,7 @@
         <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K271">
         <v>1.533</v>
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7612894</v>
+        <v>7612892</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,13 +24664,13 @@
         <v>45367.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G272" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H272">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -24679,19 +24679,19 @@
         <v>49</v>
       </c>
       <c r="K272">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L272">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M272">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N272">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O272">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P272">
         <v>5.5</v>
@@ -24700,22 +24700,22 @@
         <v>-1</v>
       </c>
       <c r="R272">
+        <v>1.8</v>
+      </c>
+      <c r="S272">
         <v>2.05</v>
       </c>
-      <c r="S272">
+      <c r="T272">
+        <v>3.25</v>
+      </c>
+      <c r="U272">
+        <v>2.05</v>
+      </c>
+      <c r="V272">
         <v>1.8</v>
       </c>
-      <c r="T272">
-        <v>2.75</v>
-      </c>
-      <c r="U272">
-        <v>1.925</v>
-      </c>
-      <c r="V272">
-        <v>1.925</v>
-      </c>
       <c r="W272">
-        <v>0.615</v>
+        <v>0.5</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24724,16 +24724,16 @@
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA272">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB272">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC272">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24741,7 +24741,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7612892</v>
+        <v>7612894</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24753,13 +24753,13 @@
         <v>45367.91666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G273" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I273">
         <v>1</v>
@@ -24768,19 +24768,19 @@
         <v>49</v>
       </c>
       <c r="K273">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L273">
+        <v>4.5</v>
+      </c>
+      <c r="M273">
+        <v>6.5</v>
+      </c>
+      <c r="N273">
+        <v>1.615</v>
+      </c>
+      <c r="O273">
         <v>4</v>
-      </c>
-      <c r="M273">
-        <v>4.75</v>
-      </c>
-      <c r="N273">
-        <v>1.5</v>
-      </c>
-      <c r="O273">
-        <v>4.75</v>
       </c>
       <c r="P273">
         <v>5.5</v>
@@ -24789,22 +24789,22 @@
         <v>-1</v>
       </c>
       <c r="R273">
+        <v>2.05</v>
+      </c>
+      <c r="S273">
         <v>1.8</v>
       </c>
-      <c r="S273">
-        <v>2.05</v>
-      </c>
       <c r="T273">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U273">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V273">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W273">
-        <v>0.5</v>
+        <v>0.615</v>
       </c>
       <c r="X273">
         <v>-1</v>
@@ -24813,16 +24813,16 @@
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA273">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB273">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC273">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -24845,7 +24845,7 @@
         <v>41</v>
       </c>
       <c r="G274" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H274">
         <v>0</v>
@@ -24854,7 +24854,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K274">
         <v>3.2</v>
@@ -24943,7 +24943,7 @@
         <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K275">
         <v>3.2</v>
@@ -25008,7 +25008,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>7612897</v>
+        <v>7612893</v>
       </c>
       <c r="C276" t="s">
         <v>28</v>
@@ -25020,46 +25020,46 @@
         <v>45368.91666666666</v>
       </c>
       <c r="F276" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G276" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I276">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J276" t="s">
         <v>49</v>
       </c>
       <c r="K276">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L276">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M276">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N276">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O276">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P276">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="Q276">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R276">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S276">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T276">
         <v>2.75</v>
@@ -25071,7 +25071,7 @@
         <v>2.05</v>
       </c>
       <c r="W276">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="X276">
         <v>-1</v>
@@ -25080,7 +25080,7 @@
         <v>-1</v>
       </c>
       <c r="Z276">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA276">
         <v>-1</v>
@@ -25097,7 +25097,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>7612893</v>
+        <v>7612897</v>
       </c>
       <c r="C277" t="s">
         <v>28</v>
@@ -25109,46 +25109,46 @@
         <v>45368.91666666666</v>
       </c>
       <c r="F277" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G277" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J277" t="s">
         <v>49</v>
       </c>
       <c r="K277">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L277">
+        <v>3.75</v>
+      </c>
+      <c r="M277">
+        <v>2.3</v>
+      </c>
+      <c r="N277">
+        <v>3.5</v>
+      </c>
+      <c r="O277">
         <v>3.6</v>
       </c>
-      <c r="M277">
-        <v>4</v>
-      </c>
-      <c r="N277">
-        <v>1.75</v>
-      </c>
-      <c r="O277">
-        <v>3.8</v>
-      </c>
       <c r="P277">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Q277">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R277">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S277">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T277">
         <v>2.75</v>
@@ -25160,7 +25160,7 @@
         <v>2.05</v>
       </c>
       <c r="W277">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="X277">
         <v>-1</v>
@@ -25169,7 +25169,7 @@
         <v>-1</v>
       </c>
       <c r="Z277">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA277">
         <v>-1</v>
@@ -25299,7 +25299,7 @@
         <v>3</v>
       </c>
       <c r="J279" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K279">
         <v>4.333</v>
@@ -25376,7 +25376,7 @@
         <v>45380.95833333334</v>
       </c>
       <c r="F280" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G280" t="s">
         <v>32</v>
@@ -25465,7 +25465,7 @@
         <v>45381</v>
       </c>
       <c r="F281" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G281" t="s">
         <v>31</v>
@@ -25542,7 +25542,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7612905</v>
+        <v>7612901</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25551,34 +25551,43 @@
         <v>28</v>
       </c>
       <c r="E282" s="2">
-        <v>45382.91666666666</v>
+        <v>45381.91666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G282" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="H282">
+        <v>2</v>
+      </c>
+      <c r="I282">
+        <v>3</v>
+      </c>
+      <c r="J282" t="s">
+        <v>47</v>
       </c>
       <c r="K282">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L282">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M282">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="N282">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O282">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P282">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q282">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
         <v>1.975</v>
@@ -25587,28 +25596,34 @@
         <v>1.875</v>
       </c>
       <c r="T282">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U282">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V282">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z282">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA282">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB282">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC282">
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25616,7 +25631,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7612906</v>
+        <v>7612902</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25625,64 +25640,79 @@
         <v>28</v>
       </c>
       <c r="E283" s="2">
-        <v>45382.9375</v>
+        <v>45381.91666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G283" t="s">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="H283">
+        <v>0</v>
+      </c>
+      <c r="I283">
+        <v>2</v>
+      </c>
+      <c r="J283" t="s">
+        <v>47</v>
       </c>
       <c r="K283">
-        <v>2.625</v>
+        <v>1.615</v>
       </c>
       <c r="L283">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M283">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="N283">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="O283">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P283">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R283">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S283">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T283">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U283">
+        <v>1.875</v>
+      </c>
+      <c r="V283">
         <v>1.975</v>
       </c>
-      <c r="V283">
-        <v>1.875</v>
-      </c>
       <c r="W283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y283">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Z283">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA283">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB283">
+        <v>-1</v>
+      </c>
+      <c r="AC283">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -25690,7 +25720,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>7612907</v>
+        <v>7612903</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25699,64 +25729,79 @@
         <v>28</v>
       </c>
       <c r="E284" s="2">
-        <v>45387.91666666666</v>
+        <v>45382.00347222222</v>
       </c>
       <c r="F284" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G284" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="H284">
+        <v>0</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284" t="s">
+        <v>48</v>
       </c>
       <c r="K284">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L284">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M284">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="N284">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O284">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P284">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="Q284">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R284">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S284">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T284">
         <v>2.75</v>
       </c>
       <c r="U284">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V284">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X284">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y284">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA284">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB284">
+        <v>-1</v>
+      </c>
+      <c r="AC284">
+        <v>0.875</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25764,7 +25809,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>7612911</v>
+        <v>7612904</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25773,64 +25818,79 @@
         <v>28</v>
       </c>
       <c r="E285" s="2">
-        <v>45388.91666666666</v>
+        <v>45382.83333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G285" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="H285">
+        <v>2</v>
+      </c>
+      <c r="I285">
+        <v>3</v>
+      </c>
+      <c r="J285" t="s">
+        <v>47</v>
       </c>
       <c r="K285">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="L285">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M285">
+        <v>3.3</v>
+      </c>
+      <c r="N285">
+        <v>2.05</v>
+      </c>
+      <c r="O285">
+        <v>3.4</v>
+      </c>
+      <c r="P285">
         <v>3.75</v>
-      </c>
-      <c r="N285">
-        <v>1.85</v>
-      </c>
-      <c r="O285">
-        <v>3.5</v>
-      </c>
-      <c r="P285">
-        <v>4</v>
       </c>
       <c r="Q285">
         <v>-0.5</v>
       </c>
       <c r="R285">
+        <v>2.05</v>
+      </c>
+      <c r="S285">
+        <v>1.8</v>
+      </c>
+      <c r="T285">
+        <v>2.25</v>
+      </c>
+      <c r="U285">
+        <v>1.975</v>
+      </c>
+      <c r="V285">
         <v>1.875</v>
       </c>
-      <c r="S285">
-        <v>1.975</v>
-      </c>
-      <c r="T285">
+      <c r="W285">
+        <v>-1</v>
+      </c>
+      <c r="X285">
+        <v>-1</v>
+      </c>
+      <c r="Y285">
         <v>2.75</v>
       </c>
-      <c r="U285">
-        <v>1.925</v>
-      </c>
-      <c r="V285">
-        <v>1.925</v>
-      </c>
-      <c r="W285">
-        <v>0</v>
-      </c>
-      <c r="X285">
-        <v>0</v>
-      </c>
-      <c r="Y285">
-        <v>0</v>
-      </c>
       <c r="Z285">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB285">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC285">
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -25838,7 +25898,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>7612910</v>
+        <v>7612905</v>
       </c>
       <c r="C286" t="s">
         <v>28</v>
@@ -25847,64 +25907,79 @@
         <v>28</v>
       </c>
       <c r="E286" s="2">
-        <v>45388.92013888889</v>
+        <v>45382.91666666666</v>
       </c>
       <c r="F286" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G286" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>2</v>
+      </c>
+      <c r="J286" t="s">
+        <v>47</v>
       </c>
       <c r="K286">
+        <v>2.7</v>
+      </c>
+      <c r="L286">
+        <v>3.5</v>
+      </c>
+      <c r="M286">
+        <v>2.35</v>
+      </c>
+      <c r="N286">
+        <v>2.75</v>
+      </c>
+      <c r="O286">
+        <v>3.5</v>
+      </c>
+      <c r="P286">
+        <v>2.5</v>
+      </c>
+      <c r="Q286">
+        <v>0</v>
+      </c>
+      <c r="R286">
+        <v>2.025</v>
+      </c>
+      <c r="S286">
+        <v>1.825</v>
+      </c>
+      <c r="T286">
+        <v>2.75</v>
+      </c>
+      <c r="U286">
+        <v>1.975</v>
+      </c>
+      <c r="V286">
+        <v>1.875</v>
+      </c>
+      <c r="W286">
+        <v>-1</v>
+      </c>
+      <c r="X286">
+        <v>-1</v>
+      </c>
+      <c r="Y286">
         <v>1.5</v>
       </c>
-      <c r="L286">
-        <v>4.2</v>
-      </c>
-      <c r="M286">
-        <v>6</v>
-      </c>
-      <c r="N286">
-        <v>1.533</v>
-      </c>
-      <c r="O286">
-        <v>4.2</v>
-      </c>
-      <c r="P286">
-        <v>5.75</v>
-      </c>
-      <c r="Q286">
-        <v>-1</v>
-      </c>
-      <c r="R286">
-        <v>1.875</v>
-      </c>
-      <c r="S286">
-        <v>1.975</v>
-      </c>
-      <c r="T286">
-        <v>3</v>
-      </c>
-      <c r="U286">
-        <v>1.95</v>
-      </c>
-      <c r="V286">
-        <v>1.9</v>
-      </c>
-      <c r="W286">
-        <v>0</v>
-      </c>
-      <c r="X286">
-        <v>0</v>
-      </c>
-      <c r="Y286">
-        <v>0</v>
-      </c>
       <c r="Z286">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA286">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB286">
+        <v>0.4875</v>
+      </c>
+      <c r="AC286">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="287" spans="1:29">
@@ -25912,7 +25987,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>7612912</v>
+        <v>7612906</v>
       </c>
       <c r="C287" t="s">
         <v>28</v>
@@ -25921,63 +25996,744 @@
         <v>28</v>
       </c>
       <c r="E287" s="2">
-        <v>45389</v>
+        <v>45382.94166666667</v>
       </c>
       <c r="F287" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G287" t="s">
-        <v>44</v>
+        <v>36</v>
+      </c>
+      <c r="H287">
+        <v>2</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287" t="s">
+        <v>49</v>
       </c>
       <c r="K287">
+        <v>2.625</v>
+      </c>
+      <c r="L287">
+        <v>3.5</v>
+      </c>
+      <c r="M287">
         <v>2.4</v>
       </c>
-      <c r="L287">
-        <v>3.2</v>
-      </c>
-      <c r="M287">
-        <v>2.875</v>
-      </c>
       <c r="N287">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O287">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P287">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="Q287">
         <v>-0.25</v>
       </c>
       <c r="R287">
+        <v>1.95</v>
+      </c>
+      <c r="S287">
+        <v>1.9</v>
+      </c>
+      <c r="T287">
+        <v>2.75</v>
+      </c>
+      <c r="U287">
+        <v>2</v>
+      </c>
+      <c r="V287">
+        <v>1.85</v>
+      </c>
+      <c r="W287">
+        <v>1.25</v>
+      </c>
+      <c r="X287">
+        <v>-1</v>
+      </c>
+      <c r="Y287">
+        <v>-1</v>
+      </c>
+      <c r="Z287">
+        <v>0.95</v>
+      </c>
+      <c r="AA287">
+        <v>-1</v>
+      </c>
+      <c r="AB287">
+        <v>0.5</v>
+      </c>
+      <c r="AC287">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:29">
+      <c r="A288" s="1">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>7612907</v>
+      </c>
+      <c r="C288" t="s">
+        <v>28</v>
+      </c>
+      <c r="D288" t="s">
+        <v>28</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45387.91666666666</v>
+      </c>
+      <c r="F288" t="s">
+        <v>30</v>
+      </c>
+      <c r="G288" t="s">
+        <v>43</v>
+      </c>
+      <c r="K288">
+        <v>2.4</v>
+      </c>
+      <c r="L288">
+        <v>3.4</v>
+      </c>
+      <c r="M288">
+        <v>2.75</v>
+      </c>
+      <c r="N288">
+        <v>2.55</v>
+      </c>
+      <c r="O288">
+        <v>3.4</v>
+      </c>
+      <c r="P288">
+        <v>2.6</v>
+      </c>
+      <c r="Q288">
+        <v>0</v>
+      </c>
+      <c r="R288">
+        <v>1.9</v>
+      </c>
+      <c r="S288">
+        <v>1.95</v>
+      </c>
+      <c r="T288">
+        <v>2.75</v>
+      </c>
+      <c r="U288">
+        <v>1.825</v>
+      </c>
+      <c r="V288">
+        <v>2.025</v>
+      </c>
+      <c r="W288">
+        <v>0</v>
+      </c>
+      <c r="X288">
+        <v>0</v>
+      </c>
+      <c r="Y288">
+        <v>0</v>
+      </c>
+      <c r="Z288">
+        <v>0</v>
+      </c>
+      <c r="AA288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
+      <c r="A289" s="1">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>7612908</v>
+      </c>
+      <c r="C289" t="s">
+        <v>28</v>
+      </c>
+      <c r="D289" t="s">
+        <v>28</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45388</v>
+      </c>
+      <c r="F289" t="s">
+        <v>31</v>
+      </c>
+      <c r="G289" t="s">
+        <v>39</v>
+      </c>
+      <c r="K289">
+        <v>2.1</v>
+      </c>
+      <c r="L289">
+        <v>3.25</v>
+      </c>
+      <c r="M289">
+        <v>3.6</v>
+      </c>
+      <c r="N289">
+        <v>1.909</v>
+      </c>
+      <c r="O289">
+        <v>3.3</v>
+      </c>
+      <c r="P289">
+        <v>4.333</v>
+      </c>
+      <c r="Q289">
+        <v>-0.5</v>
+      </c>
+      <c r="R289">
         <v>1.925</v>
       </c>
-      <c r="S287">
+      <c r="S289">
         <v>1.925</v>
       </c>
-      <c r="T287">
+      <c r="T289">
+        <v>2.75</v>
+      </c>
+      <c r="U289">
+        <v>1.95</v>
+      </c>
+      <c r="V289">
+        <v>1.9</v>
+      </c>
+      <c r="W289">
+        <v>0</v>
+      </c>
+      <c r="X289">
+        <v>0</v>
+      </c>
+      <c r="Y289">
+        <v>0</v>
+      </c>
+      <c r="Z289">
+        <v>0</v>
+      </c>
+      <c r="AA289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
+      <c r="A290" s="1">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>7612909</v>
+      </c>
+      <c r="C290" t="s">
+        <v>28</v>
+      </c>
+      <c r="D290" t="s">
+        <v>28</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45388.83333333334</v>
+      </c>
+      <c r="F290" t="s">
+        <v>37</v>
+      </c>
+      <c r="G290" t="s">
+        <v>46</v>
+      </c>
+      <c r="K290">
+        <v>1.75</v>
+      </c>
+      <c r="L290">
+        <v>3.75</v>
+      </c>
+      <c r="M290">
+        <v>4.2</v>
+      </c>
+      <c r="N290">
+        <v>1.727</v>
+      </c>
+      <c r="O290">
+        <v>3.75</v>
+      </c>
+      <c r="P290">
+        <v>4.333</v>
+      </c>
+      <c r="Q290">
+        <v>-0.75</v>
+      </c>
+      <c r="R290">
+        <v>1.975</v>
+      </c>
+      <c r="S290">
+        <v>1.875</v>
+      </c>
+      <c r="T290">
+        <v>2.75</v>
+      </c>
+      <c r="U290">
+        <v>1.85</v>
+      </c>
+      <c r="V290">
+        <v>2</v>
+      </c>
+      <c r="W290">
+        <v>0</v>
+      </c>
+      <c r="X290">
+        <v>0</v>
+      </c>
+      <c r="Y290">
+        <v>0</v>
+      </c>
+      <c r="Z290">
+        <v>0</v>
+      </c>
+      <c r="AA290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27">
+      <c r="A291" s="1">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>7612911</v>
+      </c>
+      <c r="C291" t="s">
+        <v>28</v>
+      </c>
+      <c r="D291" t="s">
+        <v>28</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45388.91666666666</v>
+      </c>
+      <c r="F291" t="s">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>45</v>
+      </c>
+      <c r="K291">
+        <v>1.909</v>
+      </c>
+      <c r="L291">
+        <v>3.5</v>
+      </c>
+      <c r="M291">
+        <v>3.75</v>
+      </c>
+      <c r="N291">
+        <v>1.85</v>
+      </c>
+      <c r="O291">
+        <v>3.5</v>
+      </c>
+      <c r="P291">
+        <v>4</v>
+      </c>
+      <c r="Q291">
+        <v>-0.5</v>
+      </c>
+      <c r="R291">
+        <v>1.875</v>
+      </c>
+      <c r="S291">
+        <v>1.975</v>
+      </c>
+      <c r="T291">
+        <v>2.75</v>
+      </c>
+      <c r="U291">
+        <v>1.925</v>
+      </c>
+      <c r="V291">
+        <v>1.925</v>
+      </c>
+      <c r="W291">
+        <v>0</v>
+      </c>
+      <c r="X291">
+        <v>0</v>
+      </c>
+      <c r="Y291">
+        <v>0</v>
+      </c>
+      <c r="Z291">
+        <v>0</v>
+      </c>
+      <c r="AA291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27">
+      <c r="A292" s="1">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>7612910</v>
+      </c>
+      <c r="C292" t="s">
+        <v>28</v>
+      </c>
+      <c r="D292" t="s">
+        <v>28</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45388.92013888889</v>
+      </c>
+      <c r="F292" t="s">
+        <v>41</v>
+      </c>
+      <c r="G292" t="s">
+        <v>38</v>
+      </c>
+      <c r="K292">
+        <v>1.5</v>
+      </c>
+      <c r="L292">
+        <v>4.2</v>
+      </c>
+      <c r="M292">
+        <v>6</v>
+      </c>
+      <c r="N292">
+        <v>1.533</v>
+      </c>
+      <c r="O292">
+        <v>4.2</v>
+      </c>
+      <c r="P292">
+        <v>5.75</v>
+      </c>
+      <c r="Q292">
+        <v>-1</v>
+      </c>
+      <c r="R292">
+        <v>1.875</v>
+      </c>
+      <c r="S292">
+        <v>1.975</v>
+      </c>
+      <c r="T292">
+        <v>3</v>
+      </c>
+      <c r="U292">
+        <v>1.95</v>
+      </c>
+      <c r="V292">
+        <v>1.9</v>
+      </c>
+      <c r="W292">
+        <v>0</v>
+      </c>
+      <c r="X292">
+        <v>0</v>
+      </c>
+      <c r="Y292">
+        <v>0</v>
+      </c>
+      <c r="Z292">
+        <v>0</v>
+      </c>
+      <c r="AA292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27">
+      <c r="A293" s="1">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>7612912</v>
+      </c>
+      <c r="C293" t="s">
+        <v>28</v>
+      </c>
+      <c r="D293" t="s">
+        <v>28</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45389</v>
+      </c>
+      <c r="F293" t="s">
+        <v>40</v>
+      </c>
+      <c r="G293" t="s">
+        <v>44</v>
+      </c>
+      <c r="K293">
+        <v>2.4</v>
+      </c>
+      <c r="L293">
+        <v>3.2</v>
+      </c>
+      <c r="M293">
+        <v>2.875</v>
+      </c>
+      <c r="N293">
+        <v>2.2</v>
+      </c>
+      <c r="O293">
+        <v>3.2</v>
+      </c>
+      <c r="P293">
+        <v>3.25</v>
+      </c>
+      <c r="Q293">
+        <v>-0.25</v>
+      </c>
+      <c r="R293">
+        <v>1.925</v>
+      </c>
+      <c r="S293">
+        <v>1.925</v>
+      </c>
+      <c r="T293">
         <v>2.5</v>
       </c>
-      <c r="U287">
+      <c r="U293">
         <v>1.9</v>
       </c>
-      <c r="V287">
+      <c r="V293">
         <v>1.95</v>
       </c>
-      <c r="W287">
+      <c r="W293">
         <v>0</v>
       </c>
-      <c r="X287">
+      <c r="X293">
         <v>0</v>
       </c>
-      <c r="Y287">
+      <c r="Y293">
         <v>0</v>
       </c>
-      <c r="Z287">
+      <c r="Z293">
         <v>0</v>
       </c>
-      <c r="AA287">
+      <c r="AA293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27">
+      <c r="A294" s="1">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>7612913</v>
+      </c>
+      <c r="C294" t="s">
+        <v>28</v>
+      </c>
+      <c r="D294" t="s">
+        <v>28</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45389</v>
+      </c>
+      <c r="F294" t="s">
+        <v>36</v>
+      </c>
+      <c r="G294" t="s">
+        <v>29</v>
+      </c>
+      <c r="K294">
+        <v>4.333</v>
+      </c>
+      <c r="L294">
+        <v>3.75</v>
+      </c>
+      <c r="M294">
+        <v>1.727</v>
+      </c>
+      <c r="N294">
+        <v>4</v>
+      </c>
+      <c r="O294">
+        <v>3.6</v>
+      </c>
+      <c r="P294">
+        <v>1.833</v>
+      </c>
+      <c r="Q294">
+        <v>0.5</v>
+      </c>
+      <c r="R294">
+        <v>2</v>
+      </c>
+      <c r="S294">
+        <v>1.85</v>
+      </c>
+      <c r="T294">
+        <v>2.5</v>
+      </c>
+      <c r="U294">
+        <v>1.825</v>
+      </c>
+      <c r="V294">
+        <v>2.025</v>
+      </c>
+      <c r="W294">
+        <v>0</v>
+      </c>
+      <c r="X294">
+        <v>0</v>
+      </c>
+      <c r="Y294">
+        <v>0</v>
+      </c>
+      <c r="Z294">
+        <v>0</v>
+      </c>
+      <c r="AA294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27">
+      <c r="A295" s="1">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>7612914</v>
+      </c>
+      <c r="C295" t="s">
+        <v>28</v>
+      </c>
+      <c r="D295" t="s">
+        <v>28</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45389.625</v>
+      </c>
+      <c r="F295" t="s">
+        <v>35</v>
+      </c>
+      <c r="G295" t="s">
+        <v>34</v>
+      </c>
+      <c r="K295">
+        <v>1.5</v>
+      </c>
+      <c r="L295">
+        <v>4</v>
+      </c>
+      <c r="M295">
+        <v>6.5</v>
+      </c>
+      <c r="N295">
+        <v>1.5</v>
+      </c>
+      <c r="O295">
+        <v>4</v>
+      </c>
+      <c r="P295">
+        <v>6.5</v>
+      </c>
+      <c r="Q295">
+        <v>-1</v>
+      </c>
+      <c r="R295">
+        <v>1.8</v>
+      </c>
+      <c r="S295">
+        <v>2.05</v>
+      </c>
+      <c r="T295">
+        <v>3</v>
+      </c>
+      <c r="U295">
+        <v>2</v>
+      </c>
+      <c r="V295">
+        <v>1.85</v>
+      </c>
+      <c r="W295">
+        <v>0</v>
+      </c>
+      <c r="X295">
+        <v>0</v>
+      </c>
+      <c r="Y295">
+        <v>0</v>
+      </c>
+      <c r="Z295">
+        <v>0</v>
+      </c>
+      <c r="AA295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:27">
+      <c r="A296" s="1">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>8007374</v>
+      </c>
+      <c r="C296" t="s">
+        <v>28</v>
+      </c>
+      <c r="D296" t="s">
+        <v>28</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45389.875</v>
+      </c>
+      <c r="F296" t="s">
+        <v>32</v>
+      </c>
+      <c r="G296" t="s">
+        <v>42</v>
+      </c>
+      <c r="K296">
+        <v>1.833</v>
+      </c>
+      <c r="L296">
+        <v>3.6</v>
+      </c>
+      <c r="M296">
+        <v>4</v>
+      </c>
+      <c r="N296">
+        <v>1.8</v>
+      </c>
+      <c r="O296">
+        <v>3.6</v>
+      </c>
+      <c r="P296">
+        <v>4.2</v>
+      </c>
+      <c r="Q296">
+        <v>-0.5</v>
+      </c>
+      <c r="R296">
+        <v>1.825</v>
+      </c>
+      <c r="S296">
+        <v>2.025</v>
+      </c>
+      <c r="T296">
+        <v>2.75</v>
+      </c>
+      <c r="U296">
+        <v>1.85</v>
+      </c>
+      <c r="V296">
+        <v>2</v>
+      </c>
+      <c r="W296">
+        <v>0</v>
+      </c>
+      <c r="X296">
+        <v>0</v>
+      </c>
+      <c r="Y296">
+        <v>0</v>
+      </c>
+      <c r="Z296">
+        <v>0</v>
+      </c>
+      <c r="AA296">
         <v>0</v>
       </c>
     </row>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6754017</v>
+        <v>6754019</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,10 +3660,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3675,43 +3675,43 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
+        <v>3.3</v>
+      </c>
+      <c r="M36">
+        <v>2.9</v>
+      </c>
+      <c r="N36">
+        <v>1.85</v>
+      </c>
+      <c r="O36">
+        <v>3.75</v>
+      </c>
+      <c r="P36">
+        <v>4</v>
+      </c>
+      <c r="Q36">
+        <v>-0.5</v>
+      </c>
+      <c r="R36">
+        <v>1.875</v>
+      </c>
+      <c r="S36">
+        <v>1.975</v>
+      </c>
+      <c r="T36">
         <v>3</v>
       </c>
-      <c r="M36">
-        <v>1.5</v>
-      </c>
-      <c r="N36">
-        <v>1.615</v>
-      </c>
-      <c r="O36">
-        <v>4.2</v>
-      </c>
-      <c r="P36">
-        <v>5</v>
-      </c>
-      <c r="Q36">
-        <v>-0.75</v>
-      </c>
-      <c r="R36">
-        <v>1.8</v>
-      </c>
-      <c r="S36">
-        <v>2.05</v>
-      </c>
-      <c r="T36">
-        <v>2.75</v>
-      </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.615</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.4</v>
+        <v>0.875</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
         <v>-1</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6754019</v>
+        <v>6754017</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,10 +3749,10 @@
         <v>45160.91666666666</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -3764,61 +3764,61 @@
         <v>49</v>
       </c>
       <c r="K37">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="L37">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="N37">
+        <v>1.615</v>
+      </c>
+      <c r="O37">
+        <v>4.2</v>
+      </c>
+      <c r="P37">
+        <v>5</v>
+      </c>
+      <c r="Q37">
+        <v>-0.75</v>
+      </c>
+      <c r="R37">
+        <v>1.8</v>
+      </c>
+      <c r="S37">
+        <v>2.05</v>
+      </c>
+      <c r="T37">
+        <v>2.75</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
         <v>1.85</v>
       </c>
-      <c r="O37">
-        <v>3.75</v>
-      </c>
-      <c r="P37">
-        <v>4</v>
-      </c>
-      <c r="Q37">
+      <c r="W37">
+        <v>0.615</v>
+      </c>
+      <c r="X37">
+        <v>-1</v>
+      </c>
+      <c r="Y37">
+        <v>-1</v>
+      </c>
+      <c r="Z37">
+        <v>0.4</v>
+      </c>
+      <c r="AA37">
         <v>-0.5</v>
       </c>
-      <c r="R37">
-        <v>1.875</v>
-      </c>
-      <c r="S37">
-        <v>1.975</v>
-      </c>
-      <c r="T37">
-        <v>3</v>
-      </c>
-      <c r="U37">
-        <v>1.825</v>
-      </c>
-      <c r="V37">
-        <v>2.025</v>
-      </c>
-      <c r="W37">
+      <c r="AB37">
+        <v>-1</v>
+      </c>
+      <c r="AC37">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X37">
-        <v>-1</v>
-      </c>
-      <c r="Y37">
-        <v>-1</v>
-      </c>
-      <c r="Z37">
-        <v>0.875</v>
-      </c>
-      <c r="AA37">
-        <v>-1</v>
-      </c>
-      <c r="AB37">
-        <v>-1</v>
-      </c>
-      <c r="AC37">
-        <v>1.025</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6754048</v>
+        <v>6754049</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,73 +6864,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M72">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="N72">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O72">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6754049</v>
+        <v>6754048</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,73 +6953,73 @@
         <v>45191.91666666666</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L73">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M73">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q73">
+        <v>-1</v>
+      </c>
+      <c r="R73">
+        <v>1.95</v>
+      </c>
+      <c r="S73">
+        <v>1.9</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>1.925</v>
+      </c>
+      <c r="V73">
+        <v>1.925</v>
+      </c>
+      <c r="W73">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>2.1</v>
-      </c>
-      <c r="V73">
-        <v>1.775</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>1.8</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
       <c r="AA73">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB73">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6754052</v>
+        <v>6754051</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,61 +7131,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L75">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M75">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R75">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X75">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
@@ -7194,13 +7194,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA75">
-        <v>0.4875</v>
+        <v>0.425</v>
       </c>
       <c r="AB75">
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7208,7 +7208,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6754051</v>
+        <v>6754052</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7220,61 +7220,61 @@
         <v>45192.91666666666</v>
       </c>
       <c r="F76" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K76">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M76">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="N76">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q76">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T76">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y76">
         <v>-1</v>
@@ -7283,13 +7283,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA76">
-        <v>0.425</v>
+        <v>0.4875</v>
       </c>
       <c r="AB76">
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6754641</v>
+        <v>6754074</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F98" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N98">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P98">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.775</v>
+        <v>2.15</v>
       </c>
       <c r="S98">
-        <v>2.1</v>
+        <v>1.725</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X98">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.3875</v>
+        <v>1.15</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6754074</v>
+        <v>6754641</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45206.91666666666</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K99">
-        <v>2.3</v>
+        <v>2.875</v>
       </c>
       <c r="L99">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N99">
+        <v>2.9</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
         <v>2.4</v>
       </c>
-      <c r="O99">
-        <v>3.2</v>
-      </c>
-      <c r="P99">
-        <v>3.1</v>
-      </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>2.15</v>
+        <v>1.775</v>
       </c>
       <c r="S99">
-        <v>1.725</v>
+        <v>2.1</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W99">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>1.15</v>
+        <v>0.3875</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6754096</v>
+        <v>6754097</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,40 +11670,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F126" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
         <v>1</v>
-      </c>
-      <c r="I126">
-        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>47</v>
       </c>
       <c r="K126">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="L126">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M126">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="N126">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="P126">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -11712,13 +11712,13 @@
         <v>1.85</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>-1</v>
@@ -11727,7 +11727,7 @@
         <v>-1</v>
       </c>
       <c r="Y126">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="Z126">
         <v>-1</v>
@@ -11736,10 +11736,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6754097</v>
+        <v>6754096</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,40 +11759,40 @@
         <v>45230.91666666666</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="N127">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="O127">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="P127">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="Q127">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R127">
         <v>2</v>
@@ -11801,13 +11801,13 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W127">
         <v>-1</v>
@@ -11816,7 +11816,7 @@
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="Z127">
         <v>-1</v>
@@ -11825,10 +11825,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6754098</v>
+        <v>6754099</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,76 +11848,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K128">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L128">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="N128">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P128">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
+        <v>1.825</v>
+      </c>
+      <c r="S128">
+        <v>2.025</v>
+      </c>
+      <c r="T128">
+        <v>3</v>
+      </c>
+      <c r="U128">
+        <v>1.875</v>
+      </c>
+      <c r="V128">
         <v>1.975</v>
       </c>
-      <c r="S128">
-        <v>1.875</v>
-      </c>
-      <c r="T128">
-        <v>2.75</v>
-      </c>
-      <c r="U128">
-        <v>1.825</v>
-      </c>
-      <c r="V128">
-        <v>2.025</v>
-      </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X128">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC128">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6754099</v>
+        <v>6754098</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,76 +11937,76 @@
         <v>45231.00694444445</v>
       </c>
       <c r="F129" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="N129">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O129">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P129">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="Q129">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
+        <v>1.875</v>
+      </c>
+      <c r="T129">
+        <v>2.75</v>
+      </c>
+      <c r="U129">
         <v>1.825</v>
       </c>
-      <c r="S129">
+      <c r="V129">
         <v>2.025</v>
       </c>
-      <c r="T129">
-        <v>3</v>
-      </c>
-      <c r="U129">
-        <v>1.875</v>
-      </c>
-      <c r="V129">
-        <v>1.975</v>
-      </c>
       <c r="W129">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6754643</v>
+        <v>6754105</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,76 +12738,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F138" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
         <v>0</v>
       </c>
-      <c r="I138">
-        <v>2</v>
-      </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="L138">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
+        <v>4.2</v>
+      </c>
+      <c r="N138">
+        <v>2.45</v>
+      </c>
+      <c r="O138">
+        <v>3.25</v>
+      </c>
+      <c r="P138">
+        <v>3</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>2.05</v>
+      </c>
+      <c r="S138">
+        <v>1.75</v>
+      </c>
+      <c r="T138">
         <v>2.5</v>
       </c>
-      <c r="N138">
-        <v>2.7</v>
-      </c>
-      <c r="O138">
-        <v>3.5</v>
-      </c>
-      <c r="P138">
-        <v>2.55</v>
-      </c>
-      <c r="Q138">
-        <v>0</v>
-      </c>
-      <c r="R138">
+      <c r="U138">
         <v>1.975</v>
       </c>
-      <c r="S138">
+      <c r="V138">
         <v>1.875</v>
       </c>
-      <c r="T138">
-        <v>2.75</v>
-      </c>
-      <c r="U138">
-        <v>2.025</v>
-      </c>
-      <c r="V138">
-        <v>1.825</v>
-      </c>
       <c r="W138">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA138">
+        <v>-1</v>
+      </c>
+      <c r="AB138">
+        <v>-1</v>
+      </c>
+      <c r="AC138">
         <v>0.875</v>
-      </c>
-      <c r="AB138">
-        <v>-1</v>
-      </c>
-      <c r="AC138">
-        <v>0.825</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6754105</v>
+        <v>6754643</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45235.00347222222</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>47</v>
+      </c>
+      <c r="K139">
+        <v>2.7</v>
+      </c>
+      <c r="L139">
+        <v>3.4</v>
+      </c>
+      <c r="M139">
+        <v>2.5</v>
+      </c>
+      <c r="N139">
+        <v>2.7</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>2.55</v>
+      </c>
+      <c r="Q139">
         <v>0</v>
       </c>
-      <c r="J139" t="s">
-        <v>49</v>
-      </c>
-      <c r="K139">
-        <v>1.8</v>
-      </c>
-      <c r="L139">
-        <v>3.75</v>
-      </c>
-      <c r="M139">
-        <v>4.2</v>
-      </c>
-      <c r="N139">
-        <v>2.45</v>
-      </c>
-      <c r="O139">
-        <v>3.25</v>
-      </c>
-      <c r="P139">
-        <v>3</v>
-      </c>
-      <c r="Q139">
-        <v>-0.25</v>
-      </c>
       <c r="R139">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S139">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z139">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB139">
         <v>-1</v>
       </c>
       <c r="AC139">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7612821</v>
+        <v>7713694</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18256,76 +18256,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K200">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L200">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M200">
+        <v>4.5</v>
+      </c>
+      <c r="N200">
+        <v>1.533</v>
+      </c>
+      <c r="O200">
+        <v>4.2</v>
+      </c>
+      <c r="P200">
+        <v>6</v>
+      </c>
+      <c r="Q200">
+        <v>-1</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>1.9</v>
+      </c>
+      <c r="T200">
         <v>2.75</v>
       </c>
-      <c r="N200">
-        <v>3.3</v>
-      </c>
-      <c r="O200">
-        <v>3.6</v>
-      </c>
-      <c r="P200">
-        <v>2.15</v>
-      </c>
-      <c r="Q200">
-        <v>0.25</v>
-      </c>
-      <c r="R200">
-        <v>1.925</v>
-      </c>
-      <c r="S200">
-        <v>1.925</v>
-      </c>
-      <c r="T200">
-        <v>2.5</v>
-      </c>
       <c r="U200">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X200">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
         <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0.4625</v>
+        <v>0</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB200">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7713694</v>
+        <v>7612821</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18345,76 +18345,76 @@
         <v>45321.91666666666</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K201">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L201">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M201">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="N201">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="O201">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q201">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W201">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y201">
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612872</v>
+        <v>7612871</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,76 +22795,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G251" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K251">
+        <v>2.375</v>
+      </c>
+      <c r="L251">
+        <v>3.25</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>2.4</v>
+      </c>
+      <c r="O251">
+        <v>3.25</v>
+      </c>
+      <c r="P251">
+        <v>3.1</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
         <v>2.05</v>
       </c>
-      <c r="L251">
-        <v>3.4</v>
-      </c>
-      <c r="M251">
-        <v>3.5</v>
-      </c>
-      <c r="N251">
+      <c r="S251">
         <v>1.8</v>
       </c>
-      <c r="O251">
-        <v>3.8</v>
-      </c>
-      <c r="P251">
-        <v>4</v>
-      </c>
-      <c r="Q251">
-        <v>-0.75</v>
-      </c>
-      <c r="R251">
-        <v>2</v>
-      </c>
-      <c r="S251">
-        <v>1.85</v>
-      </c>
       <c r="T251">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V251">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>2.1</v>
+      </c>
+      <c r="Z251">
+        <v>-1</v>
+      </c>
+      <c r="AA251">
         <v>0.8</v>
       </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>-1</v>
-      </c>
-      <c r="Z251">
-        <v>1</v>
-      </c>
-      <c r="AA251">
-        <v>-1</v>
-      </c>
       <c r="AB251">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612871</v>
+        <v>7612872</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H252">
+        <v>4</v>
+      </c>
+      <c r="I252">
         <v>0</v>
       </c>
-      <c r="I252">
+      <c r="J252" t="s">
+        <v>49</v>
+      </c>
+      <c r="K252">
+        <v>2.05</v>
+      </c>
+      <c r="L252">
+        <v>3.4</v>
+      </c>
+      <c r="M252">
+        <v>3.5</v>
+      </c>
+      <c r="N252">
+        <v>1.8</v>
+      </c>
+      <c r="O252">
+        <v>3.8</v>
+      </c>
+      <c r="P252">
+        <v>4</v>
+      </c>
+      <c r="Q252">
+        <v>-0.75</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>1.85</v>
+      </c>
+      <c r="T252">
+        <v>2.75</v>
+      </c>
+      <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
+        <v>2.025</v>
+      </c>
+      <c r="W252">
+        <v>0.8</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>-1</v>
+      </c>
+      <c r="Z252">
         <v>1</v>
       </c>
-      <c r="J252" t="s">
-        <v>47</v>
-      </c>
-      <c r="K252">
-        <v>2.375</v>
-      </c>
-      <c r="L252">
-        <v>3.25</v>
-      </c>
-      <c r="M252">
-        <v>3</v>
-      </c>
-      <c r="N252">
-        <v>2.4</v>
-      </c>
-      <c r="O252">
-        <v>3.25</v>
-      </c>
-      <c r="P252">
-        <v>3.1</v>
-      </c>
-      <c r="Q252">
-        <v>-0.25</v>
-      </c>
-      <c r="R252">
-        <v>2.05</v>
-      </c>
-      <c r="S252">
-        <v>1.8</v>
-      </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
-      <c r="U252">
-        <v>1.925</v>
-      </c>
-      <c r="V252">
-        <v>1.925</v>
-      </c>
-      <c r="W252">
-        <v>-1</v>
-      </c>
-      <c r="X252">
-        <v>-1</v>
-      </c>
-      <c r="Y252">
-        <v>2.1</v>
-      </c>
-      <c r="Z252">
-        <v>-1</v>
-      </c>
       <c r="AA252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC252">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -24652,7 +24652,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>7612892</v>
+        <v>7612894</v>
       </c>
       <c r="C272" t="s">
         <v>28</v>
@@ -24664,13 +24664,13 @@
         <v>45367.91666666666</v>
       </c>
       <c r="F272" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G272" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I272">
         <v>1</v>
@@ -24679,19 +24679,19 @@
         <v>49</v>
       </c>
       <c r="K272">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="L272">
+        <v>4.5</v>
+      </c>
+      <c r="M272">
+        <v>6.5</v>
+      </c>
+      <c r="N272">
+        <v>1.615</v>
+      </c>
+      <c r="O272">
         <v>4</v>
-      </c>
-      <c r="M272">
-        <v>4.75</v>
-      </c>
-      <c r="N272">
-        <v>1.5</v>
-      </c>
-      <c r="O272">
-        <v>4.75</v>
       </c>
       <c r="P272">
         <v>5.5</v>
@@ -24700,22 +24700,22 @@
         <v>-1</v>
       </c>
       <c r="R272">
+        <v>2.05</v>
+      </c>
+      <c r="S272">
         <v>1.8</v>
       </c>
-      <c r="S272">
-        <v>2.05</v>
-      </c>
       <c r="T272">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U272">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V272">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W272">
-        <v>0.5</v>
+        <v>0.615</v>
       </c>
       <c r="X272">
         <v>-1</v>
@@ -24724,16 +24724,16 @@
         <v>-1</v>
       </c>
       <c r="Z272">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AA272">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB272">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC272">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="273" spans="1:29">
@@ -24741,7 +24741,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>7612894</v>
+        <v>7612892</v>
       </c>
       <c r="C273" t="s">
         <v>28</v>
@@ -24753,13 +24753,13 @@
         <v>45367.91666666666</v>
       </c>
       <c r="F273" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G273" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H273">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I273">
         <v>1</v>
@@ -24768,19 +24768,19 @@
         <v>49</v>
       </c>
       <c r="K273">
-        <v>1.4</v>
+        <v>1.571</v>
       </c>
       <c r="L273">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M273">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="N273">
-        <v>1.615</v>
+        <v>1.5</v>
       </c>
       <c r="O273">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P273">
         <v>5.5</v>
@@ -24789,22 +24789,22 @@
         <v>-1</v>
       </c>
       <c r="R273">
+        <v>1.8</v>
+      </c>
+      <c r="S273">
         <v>2.05</v>
       </c>
-      <c r="S273">
+      <c r="T273">
+        <v>3.25</v>
+      </c>
+      <c r="U273">
+        <v>2.05</v>
+      </c>
+      <c r="V273">
         <v>1.8</v>
       </c>
-      <c r="T273">
-        <v>2.75</v>
-      </c>
-      <c r="U273">
-        <v>1.925</v>
-      </c>
-      <c r="V273">
-        <v>1.925</v>
-      </c>
       <c r="W273">
-        <v>0.615</v>
+        <v>0.5</v>
       </c>
       <c r="X273">
         <v>-1</v>
@@ -24813,16 +24813,16 @@
         <v>-1</v>
       </c>
       <c r="Z273">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AA273">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB273">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC273">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="274" spans="1:29">
@@ -25542,7 +25542,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7612901</v>
+        <v>7612902</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25554,40 +25554,40 @@
         <v>45381.91666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
         <v>47</v>
       </c>
       <c r="K282">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="L282">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M282">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N282">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O282">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P282">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R282">
         <v>1.975</v>
@@ -25596,13 +25596,13 @@
         <v>1.875</v>
       </c>
       <c r="T282">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V282">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W282">
         <v>-1</v>
@@ -25611,7 +25611,7 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Z282">
         <v>-1</v>
@@ -25620,10 +25620,10 @@
         <v>0.875</v>
       </c>
       <c r="AB282">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC282">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25631,7 +25631,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7612902</v>
+        <v>7612901</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25643,40 +25643,40 @@
         <v>45381.91666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G283" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J283" t="s">
         <v>47</v>
       </c>
       <c r="K283">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L283">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M283">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N283">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O283">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P283">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q283">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R283">
         <v>1.975</v>
@@ -25685,13 +25685,13 @@
         <v>1.875</v>
       </c>
       <c r="T283">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U283">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V283">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W283">
         <v>-1</v>
@@ -25700,7 +25700,7 @@
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Z283">
         <v>-1</v>
@@ -25709,10 +25709,10 @@
         <v>0.875</v>
       </c>
       <c r="AB283">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC283">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26124,10 +26124,10 @@
         <v>2.75</v>
       </c>
       <c r="U288">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V288">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W288">
         <v>0</v>
@@ -26189,10 +26189,10 @@
         <v>-0.5</v>
       </c>
       <c r="R289">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S289">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T289">
         <v>2.75</v>
@@ -26402,7 +26402,7 @@
         <v>1.533</v>
       </c>
       <c r="O292">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P292">
         <v>5.75</v>
@@ -26420,10 +26420,10 @@
         <v>3</v>
       </c>
       <c r="U292">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V292">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W292">
         <v>0</v>
@@ -26446,7 +26446,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>7612912</v>
+        <v>7612913</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26458,46 +26458,46 @@
         <v>45389</v>
       </c>
       <c r="F293" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G293" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K293">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="L293">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M293">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="N293">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="O293">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P293">
-        <v>3.25</v>
+        <v>1.85</v>
       </c>
       <c r="Q293">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R293">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S293">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T293">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U293">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V293">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W293">
         <v>0</v>
@@ -26520,7 +26520,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>7612913</v>
+        <v>7612912</v>
       </c>
       <c r="C294" t="s">
         <v>28</v>
@@ -26532,46 +26532,46 @@
         <v>45389</v>
       </c>
       <c r="F294" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G294" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K294">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="L294">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M294">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="N294">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="O294">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P294">
-        <v>1.833</v>
+        <v>3.25</v>
       </c>
       <c r="Q294">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R294">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S294">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T294">
         <v>2.5</v>
       </c>
       <c r="U294">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V294">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W294">
         <v>0</v>
@@ -26630,22 +26630,22 @@
         <v>6.5</v>
       </c>
       <c r="Q295">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R295">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S295">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T295">
         <v>3</v>
       </c>
       <c r="U295">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V295">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W295">
         <v>0</v>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G188" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K188">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N188">
+        <v>3</v>
+      </c>
+      <c r="O188">
+        <v>3.3</v>
+      </c>
+      <c r="P188">
+        <v>2.4</v>
+      </c>
+      <c r="Q188">
+        <v>0.25</v>
+      </c>
+      <c r="R188">
+        <v>1.775</v>
+      </c>
+      <c r="S188">
+        <v>2.1</v>
+      </c>
+      <c r="T188">
+        <v>2.25</v>
+      </c>
+      <c r="U188">
+        <v>1.8</v>
+      </c>
+      <c r="V188">
+        <v>2.05</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
+        <v>-1</v>
+      </c>
+      <c r="Y188">
         <v>1.4</v>
       </c>
-      <c r="O188">
-        <v>4.333</v>
-      </c>
-      <c r="P188">
-        <v>8.5</v>
-      </c>
-      <c r="Q188">
-        <v>-1.25</v>
-      </c>
-      <c r="R188">
-        <v>1.925</v>
-      </c>
-      <c r="S188">
-        <v>1.925</v>
-      </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>2.025</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>3.333</v>
-      </c>
-      <c r="Y188">
-        <v>-1</v>
-      </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K189">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L189">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M189">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N189">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O189">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P189">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q189">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R189">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S189">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T189">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U189">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y189">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7612867</v>
+        <v>7612866</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,73 +21549,73 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K237">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L237">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M237">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N237">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="O237">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q237">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S237">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T237">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V237">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB237">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7612866</v>
+        <v>7612867</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,73 +21638,73 @@
         <v>45344</v>
       </c>
       <c r="F238" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G238" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K238">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L238">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M238">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N238">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P238">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R238">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T238">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U238">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y238">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB238">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612871</v>
+        <v>7612872</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,76 +22795,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G251" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H251">
+        <v>4</v>
+      </c>
+      <c r="I251">
         <v>0</v>
       </c>
-      <c r="I251">
+      <c r="J251" t="s">
+        <v>49</v>
+      </c>
+      <c r="K251">
+        <v>2.05</v>
+      </c>
+      <c r="L251">
+        <v>3.4</v>
+      </c>
+      <c r="M251">
+        <v>3.5</v>
+      </c>
+      <c r="N251">
+        <v>1.8</v>
+      </c>
+      <c r="O251">
+        <v>3.8</v>
+      </c>
+      <c r="P251">
+        <v>4</v>
+      </c>
+      <c r="Q251">
+        <v>-0.75</v>
+      </c>
+      <c r="R251">
+        <v>2</v>
+      </c>
+      <c r="S251">
+        <v>1.85</v>
+      </c>
+      <c r="T251">
+        <v>2.75</v>
+      </c>
+      <c r="U251">
+        <v>1.825</v>
+      </c>
+      <c r="V251">
+        <v>2.025</v>
+      </c>
+      <c r="W251">
+        <v>0.8</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>-1</v>
+      </c>
+      <c r="Z251">
         <v>1</v>
       </c>
-      <c r="J251" t="s">
-        <v>47</v>
-      </c>
-      <c r="K251">
-        <v>2.375</v>
-      </c>
-      <c r="L251">
-        <v>3.25</v>
-      </c>
-      <c r="M251">
-        <v>3</v>
-      </c>
-      <c r="N251">
-        <v>2.4</v>
-      </c>
-      <c r="O251">
-        <v>3.25</v>
-      </c>
-      <c r="P251">
-        <v>3.1</v>
-      </c>
-      <c r="Q251">
-        <v>-0.25</v>
-      </c>
-      <c r="R251">
-        <v>2.05</v>
-      </c>
-      <c r="S251">
-        <v>1.8</v>
-      </c>
-      <c r="T251">
-        <v>2.25</v>
-      </c>
-      <c r="U251">
-        <v>1.925</v>
-      </c>
-      <c r="V251">
-        <v>1.925</v>
-      </c>
-      <c r="W251">
-        <v>-1</v>
-      </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>2.1</v>
-      </c>
-      <c r="Z251">
-        <v>-1</v>
-      </c>
       <c r="AA251">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB251">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC251">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612872</v>
+        <v>7612871</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G252" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H252">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J252" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K252">
+        <v>2.375</v>
+      </c>
+      <c r="L252">
+        <v>3.25</v>
+      </c>
+      <c r="M252">
+        <v>3</v>
+      </c>
+      <c r="N252">
+        <v>2.4</v>
+      </c>
+      <c r="O252">
+        <v>3.25</v>
+      </c>
+      <c r="P252">
+        <v>3.1</v>
+      </c>
+      <c r="Q252">
+        <v>-0.25</v>
+      </c>
+      <c r="R252">
         <v>2.05</v>
       </c>
-      <c r="L252">
-        <v>3.4</v>
-      </c>
-      <c r="M252">
-        <v>3.5</v>
-      </c>
-      <c r="N252">
+      <c r="S252">
         <v>1.8</v>
       </c>
-      <c r="O252">
-        <v>3.8</v>
-      </c>
-      <c r="P252">
-        <v>4</v>
-      </c>
-      <c r="Q252">
-        <v>-0.75</v>
-      </c>
-      <c r="R252">
-        <v>2</v>
-      </c>
-      <c r="S252">
-        <v>1.85</v>
-      </c>
       <c r="T252">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U252">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V252">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W252">
+        <v>-1</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>2.1</v>
+      </c>
+      <c r="Z252">
+        <v>-1</v>
+      </c>
+      <c r="AA252">
         <v>0.8</v>
       </c>
-      <c r="X252">
-        <v>-1</v>
-      </c>
-      <c r="Y252">
-        <v>-1</v>
-      </c>
-      <c r="Z252">
-        <v>1</v>
-      </c>
-      <c r="AA252">
-        <v>-1</v>
-      </c>
       <c r="AB252">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC252">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7612884</v>
+        <v>7612885</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,73 +23952,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G264" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I264">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J264" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K264">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="L264">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M264">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N264">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="O264">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P264">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q264">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R264">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S264">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T264">
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V264">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W264">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z264">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA264">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB264">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AC264">
         <v>-0.5</v>
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7612885</v>
+        <v>7612884</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,73 +24041,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G265" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H265">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I265">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K265">
+        <v>1.6</v>
+      </c>
+      <c r="L265">
+        <v>4.2</v>
+      </c>
+      <c r="M265">
+        <v>5</v>
+      </c>
+      <c r="N265">
+        <v>2.05</v>
+      </c>
+      <c r="O265">
+        <v>3.8</v>
+      </c>
+      <c r="P265">
         <v>3.3</v>
       </c>
-      <c r="L265">
-        <v>3.6</v>
-      </c>
-      <c r="M265">
+      <c r="Q265">
+        <v>-0.5</v>
+      </c>
+      <c r="R265">
         <v>2.05</v>
       </c>
-      <c r="N265">
-        <v>4.5</v>
-      </c>
-      <c r="O265">
-        <v>4</v>
-      </c>
-      <c r="P265">
-        <v>1.727</v>
-      </c>
-      <c r="Q265">
-        <v>0.75</v>
-      </c>
-      <c r="R265">
-        <v>1.875</v>
-      </c>
       <c r="S265">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T265">
         <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V265">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W265">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z265">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA265">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB265">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC265">
         <v>-0.5</v>
@@ -25542,7 +25542,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7612902</v>
+        <v>7612901</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25554,40 +25554,40 @@
         <v>45381.91666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G282" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J282" t="s">
         <v>47</v>
       </c>
       <c r="K282">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L282">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M282">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="N282">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="O282">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P282">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="Q282">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R282">
         <v>1.975</v>
@@ -25596,13 +25596,13 @@
         <v>1.875</v>
       </c>
       <c r="T282">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U282">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V282">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W282">
         <v>-1</v>
@@ -25611,7 +25611,7 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="Z282">
         <v>-1</v>
@@ -25620,10 +25620,10 @@
         <v>0.875</v>
       </c>
       <c r="AB282">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC282">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="283" spans="1:29">
@@ -25631,7 +25631,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>7612901</v>
+        <v>7612902</v>
       </c>
       <c r="C283" t="s">
         <v>28</v>
@@ -25643,40 +25643,40 @@
         <v>45381.91666666666</v>
       </c>
       <c r="F283" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G283" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
         <v>47</v>
       </c>
       <c r="K283">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="L283">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M283">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N283">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O283">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P283">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q283">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R283">
         <v>1.975</v>
@@ -25685,13 +25685,13 @@
         <v>1.875</v>
       </c>
       <c r="T283">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U283">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V283">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W283">
         <v>-1</v>
@@ -25700,7 +25700,7 @@
         <v>-1</v>
       </c>
       <c r="Y283">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Z283">
         <v>-1</v>
@@ -25709,10 +25709,10 @@
         <v>0.875</v>
       </c>
       <c r="AB283">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC283">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="284" spans="1:29">
@@ -26189,19 +26189,19 @@
         <v>-0.5</v>
       </c>
       <c r="R289">
+        <v>1.95</v>
+      </c>
+      <c r="S289">
         <v>1.9</v>
-      </c>
-      <c r="S289">
-        <v>1.95</v>
       </c>
       <c r="T289">
         <v>2.75</v>
       </c>
       <c r="U289">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V289">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W289">
         <v>0</v>
@@ -26411,19 +26411,19 @@
         <v>-1</v>
       </c>
       <c r="R292">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S292">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T292">
         <v>3</v>
       </c>
       <c r="U292">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V292">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W292">
         <v>0</v>
@@ -26633,19 +26633,19 @@
         <v>-1.25</v>
       </c>
       <c r="R295">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S295">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T295">
         <v>3</v>
       </c>
       <c r="U295">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V295">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W295">
         <v>0</v>

--- a/Mexico Liga MX/Mexico Liga MX.xlsx
+++ b/Mexico Liga MX/Mexico Liga MX.xlsx
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7612817</v>
+        <v>7612818</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F188" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G188" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H188">
         <v>1</v>
       </c>
       <c r="I188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="L188">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M188">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="N188">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="O188">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="T188">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y188">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z188">
         <v>-1</v>
       </c>
       <c r="AA188">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7612818</v>
+        <v>7612817</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45315.91666666666</v>
       </c>
       <c r="F189" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H189">
         <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="N189">
+        <v>3</v>
+      </c>
+      <c r="O189">
+        <v>3.3</v>
+      </c>
+      <c r="P189">
+        <v>2.4</v>
+      </c>
+      <c r="Q189">
+        <v>0.25</v>
+      </c>
+      <c r="R189">
+        <v>1.775</v>
+      </c>
+      <c r="S189">
+        <v>2.1</v>
+      </c>
+      <c r="T189">
+        <v>2.25</v>
+      </c>
+      <c r="U189">
+        <v>1.8</v>
+      </c>
+      <c r="V189">
+        <v>2.05</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
+        <v>-1</v>
+      </c>
+      <c r="Y189">
         <v>1.4</v>
       </c>
-      <c r="O189">
-        <v>4.333</v>
-      </c>
-      <c r="P189">
-        <v>8.5</v>
-      </c>
-      <c r="Q189">
-        <v>-1.25</v>
-      </c>
-      <c r="R189">
-        <v>1.925</v>
-      </c>
-      <c r="S189">
-        <v>1.925</v>
-      </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>3.333</v>
-      </c>
-      <c r="Y189">
-        <v>-1</v>
-      </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -21537,7 +21537,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>7612866</v>
+        <v>7612867</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21549,73 +21549,73 @@
         <v>45344</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H237">
         <v>2</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K237">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="L237">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M237">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="N237">
-        <v>2.8</v>
+        <v>1.222</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P237">
-        <v>2.375</v>
+        <v>12</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R237">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T237">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U237">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y237">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="AB237">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC237">
         <v>-1</v>
@@ -21626,7 +21626,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>7612867</v>
+        <v>7612866</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21638,73 +21638,73 @@
         <v>45344</v>
       </c>
       <c r="F238" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H238">
         <v>2</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K238">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="L238">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M238">
-        <v>7.5</v>
+        <v>2.7</v>
       </c>
       <c r="N238">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="O238">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="Q238">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S238">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T238">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V238">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
       <c r="AB238">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC238">
         <v>-1</v>
@@ -22783,7 +22783,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>7612872</v>
+        <v>7612871</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22795,76 +22795,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F251" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G251" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H251">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J251" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K251">
+        <v>2.375</v>
+      </c>
+      <c r="L251">
+        <v>3.25</v>
+      </c>
+      <c r="M251">
+        <v>3</v>
+      </c>
+      <c r="N251">
+        <v>2.4</v>
+      </c>
+      <c r="O251">
+        <v>3.25</v>
+      </c>
+      <c r="P251">
+        <v>3.1</v>
+      </c>
+      <c r="Q251">
+        <v>-0.25</v>
+      </c>
+      <c r="R251">
         <v>2.05</v>
       </c>
-      <c r="L251">
-        <v>3.4</v>
-      </c>
-      <c r="M251">
-        <v>3.5</v>
-      </c>
-      <c r="N251">
+      <c r="S251">
         <v>1.8</v>
       </c>
-      <c r="O251">
-        <v>3.8</v>
-      </c>
-      <c r="P251">
-        <v>4</v>
-      </c>
-      <c r="Q251">
-        <v>-0.75</v>
-      </c>
-      <c r="R251">
-        <v>2</v>
-      </c>
-      <c r="S251">
-        <v>1.85</v>
-      </c>
       <c r="T251">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U251">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V251">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
+        <v>2.1</v>
+      </c>
+      <c r="Z251">
+        <v>-1</v>
+      </c>
+      <c r="AA251">
         <v>0.8</v>
       </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>-1</v>
-      </c>
-      <c r="Z251">
-        <v>1</v>
-      </c>
-      <c r="AA251">
-        <v>-1</v>
-      </c>
       <c r="AB251">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC251">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22872,7 +22872,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>7612871</v>
+        <v>7612872</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22884,76 +22884,76 @@
         <v>45352.91666666666</v>
       </c>
       <c r="F252" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H252">
+        <v>4</v>
+      </c>
+      <c r="I252">
         <v>0</v>
       </c>
-      <c r="I252">
+      <c r="J252" t="s">
+        <v>49</v>
+      </c>
+      <c r="K252">
+        <v>2.05</v>
+      </c>
+      <c r="L252">
+        <v>3.4</v>
+      </c>
+      <c r="M252">
+        <v>3.5</v>
+      </c>
+      <c r="N252">
+        <v>1.8</v>
+      </c>
+      <c r="O252">
+        <v>3.8</v>
+      </c>
+      <c r="P252">
+        <v>4</v>
+      </c>
+      <c r="Q252">
+        <v>-0.75</v>
+      </c>
+      <c r="R252">
+        <v>2</v>
+      </c>
+      <c r="S252">
+        <v>1.85</v>
+      </c>
+      <c r="T252">
+        <v>2.75</v>
+      </c>
+      <c r="U252">
+        <v>1.825</v>
+      </c>
+      <c r="V252">
+        <v>2.025</v>
+      </c>
+      <c r="W252">
+        <v>0.8</v>
+      </c>
+      <c r="X252">
+        <v>-1</v>
+      </c>
+      <c r="Y252">
+        <v>-1</v>
+      </c>
+      <c r="Z252">
         <v>1</v>
       </c>
-      <c r="J252" t="s">
-        <v>47</v>
-      </c>
-      <c r="K252">
-        <v>2.375</v>
-      </c>
-      <c r="L252">
-        <v>3.25</v>
-      </c>
-      <c r="M252">
-        <v>3</v>
-      </c>
-      <c r="N252">
-        <v>2.4</v>
-      </c>
-      <c r="O252">
-        <v>3.25</v>
-      </c>
-      <c r="P252">
-        <v>3.1</v>
-      </c>
-      <c r="Q252">
-        <v>-0.25</v>
-      </c>
-      <c r="R252">
-        <v>2.05</v>
-      </c>
-      <c r="S252">
-        <v>1.8</v>
-      </c>
-      <c r="T252">
-        <v>2.25</v>
-      </c>
-      <c r="U252">
-        <v>1.925</v>
-      </c>
-      <c r="V252">
-        <v>1.925</v>
-      </c>
-      <c r="W252">
-        <v>-1</v>
-      </c>
-      <c r="X252">
-        <v>-1</v>
-      </c>
-      <c r="Y252">
-        <v>2.1</v>
-      </c>
-      <c r="Z252">
-        <v>-1</v>
-      </c>
       <c r="AA252">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB252">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC252">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -23940,7 +23940,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>7612885</v>
+        <v>7612884</v>
       </c>
       <c r="C264" t="s">
         <v>28</v>
@@ -23952,73 +23952,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G264" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I264">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K264">
+        <v>1.6</v>
+      </c>
+      <c r="L264">
+        <v>4.2</v>
+      </c>
+      <c r="M264">
+        <v>5</v>
+      </c>
+      <c r="N264">
+        <v>2.05</v>
+      </c>
+      <c r="O264">
+        <v>3.8</v>
+      </c>
+      <c r="P264">
         <v>3.3</v>
       </c>
-      <c r="L264">
-        <v>3.6</v>
-      </c>
-      <c r="M264">
+      <c r="Q264">
+        <v>-0.5</v>
+      </c>
+      <c r="R264">
         <v>2.05</v>
       </c>
-      <c r="N264">
-        <v>4.5</v>
-      </c>
-      <c r="O264">
-        <v>4</v>
-      </c>
-      <c r="P264">
-        <v>1.727</v>
-      </c>
-      <c r="Q264">
-        <v>0.75</v>
-      </c>
-      <c r="R264">
-        <v>1.875</v>
-      </c>
       <c r="S264">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T264">
         <v>2.75</v>
       </c>
       <c r="U264">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V264">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W264">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X264">
         <v>-1</v>
       </c>
       <c r="Y264">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z264">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA264">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB264">
-        <v>0.4875</v>
+        <v>0.4625</v>
       </c>
       <c r="AC264">
         <v>-0.5</v>
@@ -24029,7 +24029,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>7612884</v>
+        <v>7612885</v>
       </c>
       <c r="C265" t="s">
         <v>28</v>
@@ -24041,73 +24041,73 @@
         <v>45360.91666666666</v>
       </c>
       <c r="F265" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G265" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I265">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J265" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K265">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="L265">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M265">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N265">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="O265">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P265">
-        <v>3.3</v>
+        <v>1.727</v>
       </c>
       <c r="Q265">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R265">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S265">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T265">
         <v>2.75</v>
       </c>
       <c r="U265">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V265">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W265">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X265">
         <v>-1</v>
       </c>
       <c r="Y265">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z265">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA265">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB265">
-        <v>0.4625</v>
+        <v>0.4875</v>
       </c>
       <c r="AC265">
         <v>-0.5</v>
@@ -25542,7 +25542,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>7612901</v>
+        <v>7612902</v>
       </c>
       <c r="C282" t="s">
         <v>28</v>
@@ -25554,40 +25554,40 @@
         <v>45381.91666666666</v>
       </c>
       <c r="F282" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G282" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
         <v>47</v>
       </c>
       <c r="K282">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="L282">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M282">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="N282">
-        <v>2.25</v>
+        <v>1.727</v>
       </c>
       <c r="O282">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P282">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="Q282">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R282">
         <v>1.975</v>
@@ -25596,13 +25596,13 @@
         <v>1.875</v>
       </c>
       <c r="T282">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U282">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V282">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W282">
         <v>-1</v>
@@ -25611,7 +25611,7 @@
         <v>-1</v>
       </c>
       <c r="Y282">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="Z282">
         <v>-1</v>
@@